--- a/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138852BC-E613-48E5-8C92-BA51942B3E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159E66E-226B-4436-9F8E-57A21A9DF4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" r:id="rId1"/>
@@ -3523,7 +3523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3901,25 +3901,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3929,19 +3910,13 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,10 +3925,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3962,436 +3937,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="363">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -10126,6 +9671,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -10208,6 +9849,340 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -10222,278 +10197,278 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1A4430D1-9A34-4F1B-8500-8A5F3C95C616}" name="Tabela22526" displayName="Tabela22526" ref="B2:G15" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1A4430D1-9A34-4F1B-8500-8A5F3C95C616}" name="Tabela22526" displayName="Tabela22526" ref="B2:G15" totalsRowShown="0" headerRowDxfId="362" headerRowBorderDxfId="361" tableBorderDxfId="360">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E10CEB3-06AD-40E9-B1D5-D15032B7CB81}" name="Horário Início" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{567E5AB8-A366-4DE2-8FC6-EDBF244F5952}" name="SEG" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CCBE96E2-40E3-49E7-9C5E-FAF61306DCF8}" name="TER" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8AE129B6-D6F5-476A-ADA3-C163D0794EAE}" name="QUA" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4260F21D-E93B-4841-A0F0-EFFD3CA7FCAC}" name="QUI" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{07C110F5-C88D-4F84-B169-1066197181CE}" name="SEX" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3E10CEB3-06AD-40E9-B1D5-D15032B7CB81}" name="Horário Início" dataDxfId="359"/>
+    <tableColumn id="3" xr3:uid="{567E5AB8-A366-4DE2-8FC6-EDBF244F5952}" name="SEG" dataDxfId="358"/>
+    <tableColumn id="4" xr3:uid="{CCBE96E2-40E3-49E7-9C5E-FAF61306DCF8}" name="TER" dataDxfId="357"/>
+    <tableColumn id="5" xr3:uid="{8AE129B6-D6F5-476A-ADA3-C163D0794EAE}" name="QUA" dataDxfId="356"/>
+    <tableColumn id="6" xr3:uid="{4260F21D-E93B-4841-A0F0-EFFD3CA7FCAC}" name="QUI" dataDxfId="355"/>
+    <tableColumn id="7" xr3:uid="{07C110F5-C88D-4F84-B169-1066197181CE}" name="SEX" dataDxfId="354"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}" name="Tabela9" displayName="Tabela9" ref="A1:P29" totalsRowShown="0" headerRowDxfId="237" dataDxfId="236" tableBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}" name="Tabela9" displayName="Tabela9" ref="A1:P29" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214" tableBorderDxfId="213">
   <autoFilter ref="A1:P29" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{6DC4BFBC-3F11-4D4D-904A-7A300F57497D}" name="#" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{B2759923-7561-4900-9BAD-8BDB42D2A798}" name="Código" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{F5B166A1-849F-4F80-918F-A98F9BECE4D0}" name="Disciplina" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{92274C18-F003-4E68-8869-BD1429077472}" name="CH" dataDxfId="231"/>
-    <tableColumn id="5" xr3:uid="{B81996C0-E6C6-4995-B588-2D4BB4498EEB}" name="CR" dataDxfId="230"/>
-    <tableColumn id="6" xr3:uid="{7F5B0734-BD1F-435B-9DEF-087D337A3966}" name="Turma" dataDxfId="229"/>
-    <tableColumn id="7" xr3:uid="{3EFDDB5A-98C4-49D6-B547-11F096748141}" name="Docente" dataDxfId="228"/>
-    <tableColumn id="8" xr3:uid="{0D09F161-9965-4C80-8F40-07EB95742F03}" name="Composição turma/Alunos a serem atendidos" dataDxfId="227"/>
-    <tableColumn id="9" xr3:uid="{3E771464-0D5C-434B-8450-FC9B604094A3}" name="Horário" dataDxfId="226"/>
-    <tableColumn id="10" xr3:uid="{4AF5F3C0-B769-4DBE-B56F-437466D61E26}" name="Programa" dataDxfId="225"/>
-    <tableColumn id="11" xr3:uid="{351B37A4-9B50-484E-A30D-F7F384D10EE7}" name="Sala" dataDxfId="224"/>
-    <tableColumn id="12" xr3:uid="{0A0417ED-736A-4818-BC7D-8D872BC28DE3}" name="Início das aulas" dataDxfId="223"/>
-    <tableColumn id="13" xr3:uid="{A3530FF3-52EA-4DC9-9030-8F587019A376}" name="Isolada" dataDxfId="222"/>
-    <tableColumn id="14" xr3:uid="{68DF47F3-FEBA-47B0-BE87-5FD531D07F5D}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="221"/>
-    <tableColumn id="15" xr3:uid="{4F41BEEE-2A8D-4417-B64F-DA43ED8FBC22}" name="Plano de ensino" dataDxfId="220"/>
-    <tableColumn id="16" xr3:uid="{AB396228-C68E-42FC-B8EB-3A39F1264537}" name="Idioma" dataDxfId="219"/>
+    <tableColumn id="1" xr3:uid="{6DC4BFBC-3F11-4D4D-904A-7A300F57497D}" name="#" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{B2759923-7561-4900-9BAD-8BDB42D2A798}" name="Código" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{F5B166A1-849F-4F80-918F-A98F9BECE4D0}" name="Disciplina" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{92274C18-F003-4E68-8869-BD1429077472}" name="CH" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{B81996C0-E6C6-4995-B588-2D4BB4498EEB}" name="CR" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{7F5B0734-BD1F-435B-9DEF-087D337A3966}" name="Turma" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{3EFDDB5A-98C4-49D6-B547-11F096748141}" name="Docente" dataDxfId="206"/>
+    <tableColumn id="8" xr3:uid="{0D09F161-9965-4C80-8F40-07EB95742F03}" name="Composição turma/Alunos a serem atendidos" dataDxfId="205"/>
+    <tableColumn id="9" xr3:uid="{3E771464-0D5C-434B-8450-FC9B604094A3}" name="Horário" dataDxfId="204"/>
+    <tableColumn id="10" xr3:uid="{4AF5F3C0-B769-4DBE-B56F-437466D61E26}" name="Programa" dataDxfId="203"/>
+    <tableColumn id="11" xr3:uid="{351B37A4-9B50-484E-A30D-F7F384D10EE7}" name="Sala" dataDxfId="202"/>
+    <tableColumn id="12" xr3:uid="{0A0417ED-736A-4818-BC7D-8D872BC28DE3}" name="Início das aulas" dataDxfId="201"/>
+    <tableColumn id="13" xr3:uid="{A3530FF3-52EA-4DC9-9030-8F587019A376}" name="Isolada" dataDxfId="200"/>
+    <tableColumn id="14" xr3:uid="{68DF47F3-FEBA-47B0-BE87-5FD531D07F5D}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="199"/>
+    <tableColumn id="15" xr3:uid="{4F41BEEE-2A8D-4417-B64F-DA43ED8FBC22}" name="Plano de ensino" dataDxfId="198"/>
+    <tableColumn id="16" xr3:uid="{AB396228-C68E-42FC-B8EB-3A39F1264537}" name="Idioma" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}" name="Tabela13" displayName="Tabela13" ref="A1:P28" totalsRowShown="0" headerRowDxfId="218" dataDxfId="216" headerRowBorderDxfId="217" tableBorderDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}" name="Tabela13" displayName="Tabela13" ref="A1:P28" totalsRowShown="0" headerRowDxfId="196" dataDxfId="194" headerRowBorderDxfId="195" tableBorderDxfId="193">
   <autoFilter ref="A1:P28" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{FF9A95BC-72F3-44EB-9075-94A2A5764C60}" name="#" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{FB573A85-371C-4685-9DCC-E268AB4C11D0}" name="Código" dataDxfId="213"/>
-    <tableColumn id="3" xr3:uid="{76F91086-1C1A-4201-B4AF-32F27D02C574}" name="Disciplina" dataDxfId="212"/>
-    <tableColumn id="4" xr3:uid="{ACC35C00-44FD-41FD-A89A-BEFEC542CF80}" name="CH" dataDxfId="211"/>
-    <tableColumn id="5" xr3:uid="{3938167A-8B9E-4718-813E-C06EB457EEC1}" name="CR" dataDxfId="210"/>
-    <tableColumn id="6" xr3:uid="{DD5C65DA-AD61-4EA0-959B-2A8C538E419E}" name="Turma" dataDxfId="209"/>
-    <tableColumn id="7" xr3:uid="{E3ADB51F-9B6B-4439-9ED0-C9A3E5D198F6}" name="Docente" dataDxfId="208"/>
-    <tableColumn id="8" xr3:uid="{3B752700-B834-4249-BF4E-1B8C55DE34C1}" name="Composição turma/Alunos a serem atendidos" dataDxfId="207"/>
-    <tableColumn id="9" xr3:uid="{A09026EE-AD2D-4E36-846E-B072F2E43547}" name="Horário" dataDxfId="206"/>
-    <tableColumn id="10" xr3:uid="{3F985AD0-3D99-4703-8CAB-88580ACB0CE1}" name="Programa" dataDxfId="205"/>
-    <tableColumn id="11" xr3:uid="{D5AD7972-10EA-4710-A392-8F3ABF3C5F54}" name="Sala" dataDxfId="204"/>
-    <tableColumn id="12" xr3:uid="{3FEAABF1-8A1D-4FBE-813D-C57658C09B52}" name="Início das aulas" dataDxfId="203"/>
-    <tableColumn id="13" xr3:uid="{A9AEFE98-51E8-4905-8AD6-861EC424E010}" name="Isolada" dataDxfId="202"/>
-    <tableColumn id="14" xr3:uid="{2143138C-00C7-4C20-B431-B8983CA553F4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{A009B311-32DF-41D2-84B3-11BAB492F79A}" name="Plano de ensino" dataDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{E63FFF6D-6709-403E-87F4-A90644D3256D}" name="Idioma" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{FF9A95BC-72F3-44EB-9075-94A2A5764C60}" name="#" dataDxfId="192"/>
+    <tableColumn id="2" xr3:uid="{FB573A85-371C-4685-9DCC-E268AB4C11D0}" name="Código" dataDxfId="191"/>
+    <tableColumn id="3" xr3:uid="{76F91086-1C1A-4201-B4AF-32F27D02C574}" name="Disciplina" dataDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{ACC35C00-44FD-41FD-A89A-BEFEC542CF80}" name="CH" dataDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{3938167A-8B9E-4718-813E-C06EB457EEC1}" name="CR" dataDxfId="188"/>
+    <tableColumn id="6" xr3:uid="{DD5C65DA-AD61-4EA0-959B-2A8C538E419E}" name="Turma" dataDxfId="187"/>
+    <tableColumn id="7" xr3:uid="{E3ADB51F-9B6B-4439-9ED0-C9A3E5D198F6}" name="Docente" dataDxfId="186"/>
+    <tableColumn id="8" xr3:uid="{3B752700-B834-4249-BF4E-1B8C55DE34C1}" name="Composição turma/Alunos a serem atendidos" dataDxfId="185"/>
+    <tableColumn id="9" xr3:uid="{A09026EE-AD2D-4E36-846E-B072F2E43547}" name="Horário" dataDxfId="184"/>
+    <tableColumn id="10" xr3:uid="{3F985AD0-3D99-4703-8CAB-88580ACB0CE1}" name="Programa" dataDxfId="183"/>
+    <tableColumn id="11" xr3:uid="{D5AD7972-10EA-4710-A392-8F3ABF3C5F54}" name="Sala" dataDxfId="182"/>
+    <tableColumn id="12" xr3:uid="{3FEAABF1-8A1D-4FBE-813D-C57658C09B52}" name="Início das aulas" dataDxfId="181"/>
+    <tableColumn id="13" xr3:uid="{A9AEFE98-51E8-4905-8AD6-861EC424E010}" name="Isolada" dataDxfId="180"/>
+    <tableColumn id="14" xr3:uid="{2143138C-00C7-4C20-B431-B8983CA553F4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="179"/>
+    <tableColumn id="15" xr3:uid="{A009B311-32DF-41D2-84B3-11BAB492F79A}" name="Plano de ensino" dataDxfId="178"/>
+    <tableColumn id="16" xr3:uid="{E63FFF6D-6709-403E-87F4-A90644D3256D}" name="Idioma" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}" name="Tabela14" displayName="Tabela14" ref="A1:P28" totalsRowShown="0" headerRowDxfId="198" dataDxfId="196" headerRowBorderDxfId="197" tableBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}" name="Tabela14" displayName="Tabela14" ref="A1:P28" totalsRowShown="0" headerRowDxfId="176" dataDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="173">
   <autoFilter ref="A1:P28" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2AB6DFE3-B375-4165-A213-A29CA28A00BB}" name="#" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{F8C09489-5500-4305-B52E-53CECB1F7EB4}" name="Código" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{4A88644F-4BAF-4AAC-93D6-FF09EDA7AD63}" name="Disciplina" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{CA706991-3CE7-48F4-861C-9884521E2869}" name="CH" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{A4ECA890-2128-482F-8BD8-F280E04D7CC9}" name="CR" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{EDB33D85-C4A1-4DC8-872E-09FC18882413}" name="Turma" dataDxfId="189"/>
-    <tableColumn id="7" xr3:uid="{ABBFB838-B6D2-4600-A38B-EAEDC39E962E}" name="Docente" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{EABC514F-2202-4703-9680-DCA673E53EEB}" name="Composição turma/Alunos a serem atendidos" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{C9DA34B8-4794-46B0-BD3F-9A64F76C23A0}" name="Horário" dataDxfId="186"/>
-    <tableColumn id="10" xr3:uid="{CB223F6F-AE5E-402B-A37E-7783D7FA18D4}" name="Programa" dataDxfId="185"/>
-    <tableColumn id="11" xr3:uid="{8485507B-F0CE-4545-8056-97C1F034A9E2}" name="Sala" dataDxfId="184"/>
-    <tableColumn id="12" xr3:uid="{603BE3A4-2517-4DFD-A197-40DDEDA4D8F6}" name="Início das aulas" dataDxfId="183"/>
-    <tableColumn id="13" xr3:uid="{3D0332BD-210A-469F-968B-C4AD67E53E46}" name="Isolada" dataDxfId="182"/>
-    <tableColumn id="14" xr3:uid="{178E3F11-DE21-47A8-9653-ACAE94902886}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="181"/>
-    <tableColumn id="15" xr3:uid="{E100C4F9-9B7A-4DBE-AEB3-F37A9E70A909}" name="Plano de ensino" dataDxfId="180"/>
-    <tableColumn id="16" xr3:uid="{3B36DCA2-39B2-4A01-8BA3-55F6012CABA6}" name="Idioma" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{2AB6DFE3-B375-4165-A213-A29CA28A00BB}" name="#" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{F8C09489-5500-4305-B52E-53CECB1F7EB4}" name="Código" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{4A88644F-4BAF-4AAC-93D6-FF09EDA7AD63}" name="Disciplina" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{CA706991-3CE7-48F4-861C-9884521E2869}" name="CH" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{A4ECA890-2128-482F-8BD8-F280E04D7CC9}" name="CR" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{EDB33D85-C4A1-4DC8-872E-09FC18882413}" name="Turma" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{ABBFB838-B6D2-4600-A38B-EAEDC39E962E}" name="Docente" dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{EABC514F-2202-4703-9680-DCA673E53EEB}" name="Composição turma/Alunos a serem atendidos" dataDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{C9DA34B8-4794-46B0-BD3F-9A64F76C23A0}" name="Horário" dataDxfId="164"/>
+    <tableColumn id="10" xr3:uid="{CB223F6F-AE5E-402B-A37E-7783D7FA18D4}" name="Programa" dataDxfId="163"/>
+    <tableColumn id="11" xr3:uid="{8485507B-F0CE-4545-8056-97C1F034A9E2}" name="Sala" dataDxfId="162"/>
+    <tableColumn id="12" xr3:uid="{603BE3A4-2517-4DFD-A197-40DDEDA4D8F6}" name="Início das aulas" dataDxfId="161"/>
+    <tableColumn id="13" xr3:uid="{3D0332BD-210A-469F-968B-C4AD67E53E46}" name="Isolada" dataDxfId="160"/>
+    <tableColumn id="14" xr3:uid="{178E3F11-DE21-47A8-9653-ACAE94902886}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="159"/>
+    <tableColumn id="15" xr3:uid="{E100C4F9-9B7A-4DBE-AEB3-F37A9E70A909}" name="Plano de ensino" dataDxfId="158"/>
+    <tableColumn id="16" xr3:uid="{3B36DCA2-39B2-4A01-8BA3-55F6012CABA6}" name="Idioma" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}" name="Tabela15" displayName="Tabela15" ref="A1:P35" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}" name="Tabela15" displayName="Tabela15" ref="A1:P35" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A1:P35" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{DF163A98-EADA-4718-9D44-24C3F6A59073}" name="#" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{69BED93F-6B7A-4DF4-A3A0-10425FE74500}" name="Código" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{0987EF64-01CB-47FF-96E3-F7B4B99ECF4B}" name="Disciplina" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{9E2E4550-34DD-4AAE-921B-66714D3DB1D9}" name="CH" dataDxfId="173"/>
-    <tableColumn id="5" xr3:uid="{605268C8-6D76-495A-B7B2-1B7FFFA3993F}" name="CR" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{91C2FE73-1BD2-43BC-B96D-B539C15D7C00}" name="Turma" dataDxfId="171"/>
-    <tableColumn id="7" xr3:uid="{D09BD2EF-C520-450A-BED1-0F582544DBA9}" name="Docente" dataDxfId="170"/>
-    <tableColumn id="8" xr3:uid="{683818FA-F2AF-4481-8193-F7EDC84AF449}" name="Composição turma/Alunos a serem atendidos" dataDxfId="169"/>
-    <tableColumn id="9" xr3:uid="{0024C9DE-7CF2-472F-9086-9DBA4FEF5A67}" name="Horário" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{33454875-F963-46A1-93DB-2EBD75DBF53F}" name="Programa" dataDxfId="167"/>
-    <tableColumn id="11" xr3:uid="{F6E1869E-A951-43DB-8B33-EB1A72891E7A}" name="Sala" dataDxfId="166"/>
-    <tableColumn id="12" xr3:uid="{BE2FEE78-3977-454D-9416-546C1CCEBCE2}" name="Início das aulas" dataDxfId="165"/>
-    <tableColumn id="13" xr3:uid="{22DDA251-DD2E-4E83-BFA6-60FAE7564DAB}" name="Isolada" dataDxfId="164"/>
-    <tableColumn id="14" xr3:uid="{9484E63F-9726-40CF-B1D0-955DEEBB6579}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="163"/>
-    <tableColumn id="15" xr3:uid="{1949F7BC-4800-45E4-9C55-736992C0325D}" name="Plano de ensino" dataDxfId="162" dataCellStyle="Hiperlink"/>
-    <tableColumn id="16" xr3:uid="{C382CA55-4D45-475B-A278-7E6F5923D726}" name="Idioma" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{DF163A98-EADA-4718-9D44-24C3F6A59073}" name="#" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{69BED93F-6B7A-4DF4-A3A0-10425FE74500}" name="Código" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{0987EF64-01CB-47FF-96E3-F7B4B99ECF4B}" name="Disciplina" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{9E2E4550-34DD-4AAE-921B-66714D3DB1D9}" name="CH" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{605268C8-6D76-495A-B7B2-1B7FFFA3993F}" name="CR" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{91C2FE73-1BD2-43BC-B96D-B539C15D7C00}" name="Turma" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{D09BD2EF-C520-450A-BED1-0F582544DBA9}" name="Docente" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{683818FA-F2AF-4481-8193-F7EDC84AF449}" name="Composição turma/Alunos a serem atendidos" dataDxfId="147"/>
+    <tableColumn id="9" xr3:uid="{0024C9DE-7CF2-472F-9086-9DBA4FEF5A67}" name="Horário" dataDxfId="146"/>
+    <tableColumn id="10" xr3:uid="{33454875-F963-46A1-93DB-2EBD75DBF53F}" name="Programa" dataDxfId="145"/>
+    <tableColumn id="11" xr3:uid="{F6E1869E-A951-43DB-8B33-EB1A72891E7A}" name="Sala" dataDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{BE2FEE78-3977-454D-9416-546C1CCEBCE2}" name="Início das aulas" dataDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{22DDA251-DD2E-4E83-BFA6-60FAE7564DAB}" name="Isolada" dataDxfId="142"/>
+    <tableColumn id="14" xr3:uid="{9484E63F-9726-40CF-B1D0-955DEEBB6579}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="141"/>
+    <tableColumn id="15" xr3:uid="{1949F7BC-4800-45E4-9C55-736992C0325D}" name="Plano de ensino" dataDxfId="140" dataCellStyle="Hiperlink"/>
+    <tableColumn id="16" xr3:uid="{C382CA55-4D45-475B-A278-7E6F5923D726}" name="Idioma" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}" name="Tabela16" displayName="Tabela16" ref="A1:P23" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}" name="Tabela16" displayName="Tabela16" ref="A1:P23" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135">
   <autoFilter ref="A1:P23" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EDC3E353-9A92-43EF-AAD1-205961946D74}" name="#" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{38DF3B45-88BF-4205-9575-4268351834ED}" name="Código" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{77116404-C6DA-462C-9E74-63E924774138}" name="Disciplina" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{88FF952E-44B5-446A-B18F-F15A30434820}" name="CH" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{7D5BD1F3-7E3F-4046-8C38-F0D65B3CCFE2}" name="CR" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{716F8D95-1EC2-4909-B58A-300C37D45F76}" name="Turma" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{22E60654-FDD4-4902-A125-3A4F9458D3F7}" name="Docente" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{4E31A3BE-6222-4798-9F30-E34D567540FD}" name="Composição turma/Alunos a serem atendidos" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{611EE652-9AEE-49AF-B868-0BDF35C0828B}" name="Horário" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{FB4E43A4-247F-494A-A333-A8648ACC8DA8}" name="Programa" dataDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{4E434464-7EDE-4BC6-AA8A-F657ABBBCD27}" name="Sala" dataDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{95822CC3-0A49-4E10-BAF0-F076F6719DE3}" name="Início das aulas" dataDxfId="145"/>
-    <tableColumn id="13" xr3:uid="{ED6663D9-D0D3-4701-A851-8A59FC5E00F1}" name="Isolada" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{1CE441DC-3C74-4E4F-8248-851CDB3AEC1A}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="143"/>
-    <tableColumn id="15" xr3:uid="{A3CF2F10-A040-47E7-99CF-30A6EFB8CFA0}" name="Plano de ensino" dataDxfId="142" dataCellStyle="Hiperlink"/>
-    <tableColumn id="16" xr3:uid="{55C55959-FA1C-4C02-9034-C868FD2210E1}" name="Idioma" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{EDC3E353-9A92-43EF-AAD1-205961946D74}" name="#" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{38DF3B45-88BF-4205-9575-4268351834ED}" name="Código" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{77116404-C6DA-462C-9E74-63E924774138}" name="Disciplina" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{88FF952E-44B5-446A-B18F-F15A30434820}" name="CH" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{7D5BD1F3-7E3F-4046-8C38-F0D65B3CCFE2}" name="CR" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{716F8D95-1EC2-4909-B58A-300C37D45F76}" name="Turma" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{22E60654-FDD4-4902-A125-3A4F9458D3F7}" name="Docente" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{4E31A3BE-6222-4798-9F30-E34D567540FD}" name="Composição turma/Alunos a serem atendidos" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{611EE652-9AEE-49AF-B868-0BDF35C0828B}" name="Horário" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{FB4E43A4-247F-494A-A333-A8648ACC8DA8}" name="Programa" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{4E434464-7EDE-4BC6-AA8A-F657ABBBCD27}" name="Sala" dataDxfId="124"/>
+    <tableColumn id="12" xr3:uid="{95822CC3-0A49-4E10-BAF0-F076F6719DE3}" name="Início das aulas" dataDxfId="123"/>
+    <tableColumn id="13" xr3:uid="{ED6663D9-D0D3-4701-A851-8A59FC5E00F1}" name="Isolada" dataDxfId="122"/>
+    <tableColumn id="14" xr3:uid="{1CE441DC-3C74-4E4F-8248-851CDB3AEC1A}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="121"/>
+    <tableColumn id="15" xr3:uid="{A3CF2F10-A040-47E7-99CF-30A6EFB8CFA0}" name="Plano de ensino" dataDxfId="120" dataCellStyle="Hiperlink"/>
+    <tableColumn id="16" xr3:uid="{55C55959-FA1C-4C02-9034-C868FD2210E1}" name="Idioma" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}" name="Tabela17" displayName="Tabela17" ref="A1:P31" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}" name="Tabela17" displayName="Tabela17" ref="A1:P31" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="A1:P31" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{412D77B0-6CDA-4B0B-8B23-B4272DA6990C}" name="#" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{1C0FAB1D-6A0F-4002-9484-7399358DD7BE}" name="Código" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{5A18AF48-0CD5-4A6D-B519-820931941712}" name="Disciplina" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{26BAC9A0-A652-456E-BA5D-4C0C0B07E2F4}" name="CH" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{1275E1BD-0A50-4C6A-BF61-0842951D60ED}" name="CR" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{1680B66A-B480-428F-88C0-D7512000E3C1}" name="Turma" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{AD70874B-3D28-4C12-B0E1-EC0FE72E6D24}" name="Docente" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{7A29FA9B-1FAE-4A1D-A20B-25885C6B6FA0}" name="Composição turma/Alunos a serem atendidos" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{F4F39986-B0E8-4216-BCAF-3E86D26FA635}" name="Horário" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{6F677AD3-9C76-46F0-8979-031A2638FBB1}" name="Programa" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{BE478CF2-3A05-4C10-B0E0-AD793D29FCC6}" name="Sala" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{9593906E-E40A-4D27-80D6-33D0FF863476}" name="Início das aulas" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{A757CA90-9599-4E56-9175-30BB4E7EB61A}" name="Isolada" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{25480BCA-07A3-4BCE-934B-BA2EC60D4BC2}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{41CF4F59-3DCB-49A4-818E-80D550364508}" name="Plano de ensino" dataDxfId="124"/>
-    <tableColumn id="16" xr3:uid="{E6533941-7B3B-4959-8B3A-284FB450A417}" name="Idioma" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{412D77B0-6CDA-4B0B-8B23-B4272DA6990C}" name="#" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{1C0FAB1D-6A0F-4002-9484-7399358DD7BE}" name="Código" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{5A18AF48-0CD5-4A6D-B519-820931941712}" name="Disciplina" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{26BAC9A0-A652-456E-BA5D-4C0C0B07E2F4}" name="CH" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{1275E1BD-0A50-4C6A-BF61-0842951D60ED}" name="CR" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{1680B66A-B480-428F-88C0-D7512000E3C1}" name="Turma" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{AD70874B-3D28-4C12-B0E1-EC0FE72E6D24}" name="Docente" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{7A29FA9B-1FAE-4A1D-A20B-25885C6B6FA0}" name="Composição turma/Alunos a serem atendidos" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{F4F39986-B0E8-4216-BCAF-3E86D26FA635}" name="Horário" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{6F677AD3-9C76-46F0-8979-031A2638FBB1}" name="Programa" dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{BE478CF2-3A05-4C10-B0E0-AD793D29FCC6}" name="Sala" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{9593906E-E40A-4D27-80D6-33D0FF863476}" name="Início das aulas" dataDxfId="105"/>
+    <tableColumn id="13" xr3:uid="{A757CA90-9599-4E56-9175-30BB4E7EB61A}" name="Isolada" dataDxfId="104"/>
+    <tableColumn id="14" xr3:uid="{25480BCA-07A3-4BCE-934B-BA2EC60D4BC2}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{41CF4F59-3DCB-49A4-818E-80D550364508}" name="Plano de ensino" dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{E6533941-7B3B-4959-8B3A-284FB450A417}" name="Idioma" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}" name="Tabela18" displayName="Tabela18" ref="A1:P22" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}" name="Tabela18" displayName="Tabela18" ref="A1:P22" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="A1:P22" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{543341E7-47C5-4B6A-88BA-7F16DBAB332F}" name="#" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{527A25C5-CF0B-4A1F-BF47-6C79667B3C9E}" name="Código" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{A0376CE2-42D7-4EC3-9FEE-CC3598E1624B}" name="Disciplina" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{E462903D-FB48-4516-8480-EE2818C0EE73}" name="CH" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{4C13E548-FB2F-448F-ACC1-E05934A7C23F}" name="CR" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{84041365-9253-4427-B65B-94E0523AE132}" name="Turma" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{ED65DBA1-E6A1-4FB3-90B2-F0DBFC5AB686}" name="Docente" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{0521E293-3BF7-4A83-ACCA-EB6E2DD4CA32}" name="Composição turma/Alunos a serem atendidos" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{C768A1A4-2A59-47B0-92C8-13FE7CBCD460}" name="Horário" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{CAEAF04F-8D1F-4F15-A1EB-8BF0E911D219}" name="Programa" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{50ACA847-FF56-459F-B2DE-0FD5FC6B51F7}" name="Sala" dataDxfId="110"/>
-    <tableColumn id="12" xr3:uid="{F5AE64C5-2BCD-4808-9A5D-944FAE57CF16}" name="Início das aulas" dataDxfId="109"/>
-    <tableColumn id="13" xr3:uid="{DEE8DF79-1832-48C1-A469-8475E8F99F6A}" name="Isolada" dataDxfId="108"/>
-    <tableColumn id="14" xr3:uid="{551DE7EE-8BCA-490B-AB26-E28F23C5D235}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="107"/>
-    <tableColumn id="15" xr3:uid="{B3534C88-2DBB-44C0-84EB-93BFA6FDC4F7}" name="Plano de ensino" dataDxfId="106"/>
-    <tableColumn id="16" xr3:uid="{470A99C2-AC06-434F-84A6-22E84F02622B}" name="Idioma" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{543341E7-47C5-4B6A-88BA-7F16DBAB332F}" name="#" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{527A25C5-CF0B-4A1F-BF47-6C79667B3C9E}" name="Código" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{A0376CE2-42D7-4EC3-9FEE-CC3598E1624B}" name="Disciplina" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{E462903D-FB48-4516-8480-EE2818C0EE73}" name="CH" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{4C13E548-FB2F-448F-ACC1-E05934A7C23F}" name="CR" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{84041365-9253-4427-B65B-94E0523AE132}" name="Turma" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{ED65DBA1-E6A1-4FB3-90B2-F0DBFC5AB686}" name="Docente" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{0521E293-3BF7-4A83-ACCA-EB6E2DD4CA32}" name="Composição turma/Alunos a serem atendidos" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{C768A1A4-2A59-47B0-92C8-13FE7CBCD460}" name="Horário" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{CAEAF04F-8D1F-4F15-A1EB-8BF0E911D219}" name="Programa" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{50ACA847-FF56-459F-B2DE-0FD5FC6B51F7}" name="Sala" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{F5AE64C5-2BCD-4808-9A5D-944FAE57CF16}" name="Início das aulas" dataDxfId="87"/>
+    <tableColumn id="13" xr3:uid="{DEE8DF79-1832-48C1-A469-8475E8F99F6A}" name="Isolada" dataDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{551DE7EE-8BCA-490B-AB26-E28F23C5D235}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="85"/>
+    <tableColumn id="15" xr3:uid="{B3534C88-2DBB-44C0-84EB-93BFA6FDC4F7}" name="Plano de ensino" dataDxfId="84"/>
+    <tableColumn id="16" xr3:uid="{470A99C2-AC06-434F-84A6-22E84F02622B}" name="Idioma" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}" name="Tabela19" displayName="Tabela19" ref="A1:P25" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}" name="Tabela19" displayName="Tabela19" ref="A1:P25" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:P25" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D2D283CA-21E1-4952-9164-8A7C6AD01F4C}" name="#" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{DEC2724E-E0F6-4255-A4F9-A8B63B847BF0}" name="Código" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{13842A33-E27C-4569-8E44-A06267E9435C}" name="Disciplina" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{136DA879-F709-48AE-AF34-A79D0DBEB7D3}" name="CH" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{65BFC544-3242-4530-9CB6-CAB4598E599F}" name="CR" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{15A4009D-5A3E-4A8C-ADE3-414E8FB8FC81}" name="Turma" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{14E92BFB-AF33-448D-8CB0-711EEA258D03}" name="Docente" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{1CAA9A67-1D78-47C4-8BD2-1CF66F941762}" name="Composição turma/Alunos a serem atendidos" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{8D06A60F-F21B-4763-B3B6-7BC88029FFC1}" name="Horário" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{DE3F1798-F495-4305-8FB3-C8AD753CFC67}" name="Programa" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{A5CDAE4E-3967-405E-8542-DCEB69EDC37D}" name="Sala" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{8CA8F683-FC3B-4274-8EC7-EAF3D9FF5D42}" name="Início das aulas" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{00BF9373-FCAD-4467-8079-518D8E2D0431}" name="Isolada" dataDxfId="90"/>
-    <tableColumn id="14" xr3:uid="{04DC54BC-52BB-48FD-BEA8-F18A1D0011BB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{A1A88B81-2C88-468F-B9ED-AE5815030382}" name="Plano de ensino" dataDxfId="88"/>
-    <tableColumn id="16" xr3:uid="{5FA3ED57-0680-4584-B920-B3D678BC81DD}" name="Idioma" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{D2D283CA-21E1-4952-9164-8A7C6AD01F4C}" name="#" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{DEC2724E-E0F6-4255-A4F9-A8B63B847BF0}" name="Código" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{13842A33-E27C-4569-8E44-A06267E9435C}" name="Disciplina" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{136DA879-F709-48AE-AF34-A79D0DBEB7D3}" name="CH" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{65BFC544-3242-4530-9CB6-CAB4598E599F}" name="CR" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{15A4009D-5A3E-4A8C-ADE3-414E8FB8FC81}" name="Turma" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{14E92BFB-AF33-448D-8CB0-711EEA258D03}" name="Docente" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{1CAA9A67-1D78-47C4-8BD2-1CF66F941762}" name="Composição turma/Alunos a serem atendidos" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{8D06A60F-F21B-4763-B3B6-7BC88029FFC1}" name="Horário" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{DE3F1798-F495-4305-8FB3-C8AD753CFC67}" name="Programa" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{A5CDAE4E-3967-405E-8542-DCEB69EDC37D}" name="Sala" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{8CA8F683-FC3B-4274-8EC7-EAF3D9FF5D42}" name="Início das aulas" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{00BF9373-FCAD-4467-8079-518D8E2D0431}" name="Isolada" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{04DC54BC-52BB-48FD-BEA8-F18A1D0011BB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{A1A88B81-2C88-468F-B9ED-AE5815030382}" name="Plano de ensino" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{5FA3ED57-0680-4584-B920-B3D678BC81DD}" name="Idioma" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}" name="Tabela20" displayName="Tabela20" ref="A1:P24" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}" name="Tabela20" displayName="Tabela20" ref="A1:P24" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:P24" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{DBDC420D-A4AD-4294-BA0A-23F164F5D5AB}" name="#" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{30B85364-9998-4901-A5E8-D52DAECDBEDC}" name="Código" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{B634A9D7-1968-416D-A582-D51B590A553E}" name="Disciplina" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{3DB0ADD8-3DB3-4B24-BE94-A366047CDE9C}" name="CH" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{3069CCC5-513F-4EA3-9FB6-95648CE78632}" name="CR" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{F72BB1F7-D439-4DC8-B0D8-E559BF5B9007}" name="Turma" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{FD841673-A2AF-4BD7-B89D-4E6F8F639C02}" name="Docente" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{B5CFD90C-A7E3-4D3A-96A1-C8F77AE7C4EA}" name="Composição turma/Alunos a serem atendidos" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{534CF171-D58B-4E37-9475-884AD1DE6AB5}" name="Horário" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{46DFE3C6-1B31-4D81-807F-788862D6AA19}" name="Programa" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{A20C1C92-ADFB-454C-B0FC-38D4D6D3B1C7}" name="Sala" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{43B8D6C3-53A6-4ADD-9971-B68F2C23D0B7}" name="Início das aulas" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{AF41AC28-B0B9-4B75-BA6C-7B104577BB8C}" name="Isolada" dataDxfId="72"/>
-    <tableColumn id="14" xr3:uid="{F6F2C649-B8BF-412D-852C-A12FB5F3D532}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="71"/>
-    <tableColumn id="15" xr3:uid="{D93088A1-498A-4FBE-BB53-83C9E3CF66DA}" name="Plano de ensino" dataDxfId="70"/>
-    <tableColumn id="16" xr3:uid="{ED025FD2-6C4C-4F9E-9C9E-460E17A4919F}" name="Idioma" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{DBDC420D-A4AD-4294-BA0A-23F164F5D5AB}" name="#" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{30B85364-9998-4901-A5E8-D52DAECDBEDC}" name="Código" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{B634A9D7-1968-416D-A582-D51B590A553E}" name="Disciplina" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{3DB0ADD8-3DB3-4B24-BE94-A366047CDE9C}" name="CH" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{3069CCC5-513F-4EA3-9FB6-95648CE78632}" name="CR" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{F72BB1F7-D439-4DC8-B0D8-E559BF5B9007}" name="Turma" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{FD841673-A2AF-4BD7-B89D-4E6F8F639C02}" name="Docente" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{B5CFD90C-A7E3-4D3A-96A1-C8F77AE7C4EA}" name="Composição turma/Alunos a serem atendidos" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{534CF171-D58B-4E37-9475-884AD1DE6AB5}" name="Horário" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{46DFE3C6-1B31-4D81-807F-788862D6AA19}" name="Programa" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{A20C1C92-ADFB-454C-B0FC-38D4D6D3B1C7}" name="Sala" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{43B8D6C3-53A6-4ADD-9971-B68F2C23D0B7}" name="Início das aulas" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{AF41AC28-B0B9-4B75-BA6C-7B104577BB8C}" name="Isolada" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{F6F2C649-B8BF-412D-852C-A12FB5F3D532}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{D93088A1-498A-4FBE-BB53-83C9E3CF66DA}" name="Plano de ensino" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{ED025FD2-6C4C-4F9E-9C9E-460E17A4919F}" name="Idioma" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}" name="Tabela22" displayName="Tabela22" ref="A1:P31" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}" name="Tabela22" displayName="Tabela22" ref="A1:P31" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:P31" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EAC6431D-37B4-4852-9B7B-47C2F4E935FB}" name="#" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{05A27E3D-46D9-4A59-8002-61C0E9A01DB6}" name="Código" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{25703B8C-DC32-4111-A653-66AB4B3A0F52}" name="Disciplina" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{7F719D78-2F05-4A5C-B671-E4BB78715F5A}" name="CH" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{86D97934-68F9-4758-AB89-0B334EEBBF21}" name="CR" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{C9A4184C-E785-49DC-9EE0-D617E11BE6FB}" name="Turma" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{EE71C630-BA10-47B5-B965-1FCAE0A9C126}" name="Docente" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{BB3881E0-ED74-42D2-A11A-90510909D5C6}" name="Composição turma/Alunos a serem atendidos" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{BB04E2CC-308B-417A-98A2-A382C11E7913}" name="Horário" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{24C445AD-6BA8-497C-B477-610607A0D274}" name="Programa" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{BD1C7E23-9057-42C7-912C-FF8FA7430252}" name="Sala" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{0CB421B0-315A-4AF6-9742-7FFA3C5CCED4}" name="Início das aulas" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{9B1ECCA9-8271-4717-A517-1B1400DF8404}" name="Isolada" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{5156DB5C-9D69-4D52-8B89-1850234C6112}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{1ACD7B80-A123-45E3-BBAA-0A0DDCBA10A5}" name="Plano de ensino" dataDxfId="52"/>
-    <tableColumn id="16" xr3:uid="{6AFCC327-1C22-4CDA-ABC9-D3F8DBE8C934}" name="Idioma" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{EAC6431D-37B4-4852-9B7B-47C2F4E935FB}" name="#" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{05A27E3D-46D9-4A59-8002-61C0E9A01DB6}" name="Código" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{25703B8C-DC32-4111-A653-66AB4B3A0F52}" name="Disciplina" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{7F719D78-2F05-4A5C-B671-E4BB78715F5A}" name="CH" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{86D97934-68F9-4758-AB89-0B334EEBBF21}" name="CR" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{C9A4184C-E785-49DC-9EE0-D617E11BE6FB}" name="Turma" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{EE71C630-BA10-47B5-B965-1FCAE0A9C126}" name="Docente" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{BB3881E0-ED74-42D2-A11A-90510909D5C6}" name="Composição turma/Alunos a serem atendidos" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{BB04E2CC-308B-417A-98A2-A382C11E7913}" name="Horário" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{24C445AD-6BA8-497C-B477-610607A0D274}" name="Programa" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{BD1C7E23-9057-42C7-912C-FF8FA7430252}" name="Sala" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{0CB421B0-315A-4AF6-9742-7FFA3C5CCED4}" name="Início das aulas" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{9B1ECCA9-8271-4717-A517-1B1400DF8404}" name="Isolada" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{5156DB5C-9D69-4D52-8B89-1850234C6112}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{1ACD7B80-A123-45E3-BBAA-0A0DDCBA10A5}" name="Plano de ensino" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{6AFCC327-1C22-4CDA-ABC9-D3F8DBE8C934}" name="Idioma" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6B101FD2-4DA7-4384-8003-797DD4F552CF}" name="Tabela225" displayName="Tabela225" ref="B2:G15" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6B101FD2-4DA7-4384-8003-797DD4F552CF}" name="Tabela225" displayName="Tabela225" ref="B2:G15" totalsRowShown="0" headerRowDxfId="353" headerRowBorderDxfId="352" tableBorderDxfId="351">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB0250D4-45CA-46E9-AFFB-0FA993DF538D}" name="Horário Início" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{38F44960-6EFD-47C3-911E-36D3F351D6A6}" name="SEG" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{95B23A64-0A47-4EFC-825C-90C99F42D1C0}" name="TER" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{F51164DC-F5DB-4D80-93E8-749048F53B40}" name="QUA" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FE8AB3D2-B239-4E62-BD97-3AAB3B130B32}" name="QUI" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{BA8C5B28-5ABD-4CFC-A259-31B32111B4E4}" name="SEX" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{AB0250D4-45CA-46E9-AFFB-0FA993DF538D}" name="Horário Início" dataDxfId="350"/>
+    <tableColumn id="3" xr3:uid="{38F44960-6EFD-47C3-911E-36D3F351D6A6}" name="SEG" dataDxfId="349"/>
+    <tableColumn id="4" xr3:uid="{95B23A64-0A47-4EFC-825C-90C99F42D1C0}" name="TER" dataDxfId="348"/>
+    <tableColumn id="5" xr3:uid="{F51164DC-F5DB-4D80-93E8-749048F53B40}" name="QUA" dataDxfId="347"/>
+    <tableColumn id="6" xr3:uid="{FE8AB3D2-B239-4E62-BD97-3AAB3B130B32}" name="QUI" dataDxfId="346"/>
+    <tableColumn id="7" xr3:uid="{BA8C5B28-5ABD-4CFC-A259-31B32111B4E4}" name="SEX" dataDxfId="345"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10514,22 +10489,22 @@
     <tableColumn id="5" xr3:uid="{DECDE89D-401C-4E24-B283-2821007F0813}" name="Professor"/>
     <tableColumn id="6" xr3:uid="{CA4C921A-AADB-4F75-A3DF-D64A304FC3A4}" name="Programa"/>
     <tableColumn id="7" xr3:uid="{2C0A65AA-12FB-4536-92F7-3DDF07E95207}" name="Oferta para Disciplina Isolada"/>
-    <tableColumn id="8" xr3:uid="{4D492F9B-1D11-4984-B639-C996EED10E9C}" name="Inicio das aulas" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{4D492F9B-1D11-4984-B639-C996EED10E9C}" name="Inicio das aulas" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82DF69AE-F627-4072-A99A-AC6F89832854}" name="Tabela27" displayName="Tabela27" ref="B2:G18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82DF69AE-F627-4072-A99A-AC6F89832854}" name="Tabela27" displayName="Tabela27" ref="B2:G18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="B2:G18" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5516AF19-2379-45D5-B5BF-06838120993D}" name="Horário Início" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{4C1D48A1-4B8F-499A-9C67-E76ABC4F2D95}" name="SEG" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{640F729D-AA67-4B77-BD5A-1D2EC84E54DA}" name="TER" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{B0A397BE-1DC6-4910-BA40-73DA4FA31D32}" name="QUA" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{A327E522-79DD-40D4-8DDE-53F39F19CFE8}" name="QUI" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{4B00F573-2AE2-4891-AC20-DFA27FBA7C77}" name="SEX" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{5516AF19-2379-45D5-B5BF-06838120993D}" name="Horário Início" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4C1D48A1-4B8F-499A-9C67-E76ABC4F2D95}" name="SEG" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{640F729D-AA67-4B77-BD5A-1D2EC84E54DA}" name="TER" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B0A397BE-1DC6-4910-BA40-73DA4FA31D32}" name="QUA" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A327E522-79DD-40D4-8DDE-53F39F19CFE8}" name="QUI" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{4B00F573-2AE2-4891-AC20-DFA27FBA7C77}" name="SEX" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10563,15 +10538,15 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}" name="Tabela2" displayName="Tabela2" ref="B2:G21" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}" name="Tabela2" displayName="Tabela2" ref="B2:G21" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B2:G21" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{92DC95B0-0A28-4AD3-BF93-F3CCE57C3EF4}" name="Horário Início" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{15759BDD-DAB8-4237-9124-C5E6858A5618}" name="SEG" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{CF0CB78E-29DD-465B-8E2D-F1615F2A958B}" name="TER" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{658414C9-C59C-4870-B126-1445973D2B7C}" name="QUA" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{9FB34E0C-6004-47EA-858B-76728055608A}" name="QUI" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4382311-2972-4950-BB71-D93A24506159}" name="SEX" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{92DC95B0-0A28-4AD3-BF93-F3CCE57C3EF4}" name="Horário Início" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{15759BDD-DAB8-4237-9124-C5E6858A5618}" name="SEG" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{CF0CB78E-29DD-465B-8E2D-F1615F2A958B}" name="TER" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{658414C9-C59C-4870-B126-1445973D2B7C}" name="QUA" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{9FB34E0C-6004-47EA-858B-76728055608A}" name="QUI" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B4382311-2972-4950-BB71-D93A24506159}" name="SEX" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10597,198 +10572,198 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60A4BA04-B751-4372-A0FB-F0B9F6B3D8B2}" name="Tabela24" displayName="Tabela24" ref="B2:G10" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60A4BA04-B751-4372-A0FB-F0B9F6B3D8B2}" name="Tabela24" displayName="Tabela24" ref="B2:G10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B2:G10" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5E53646C-1B31-455B-ADE5-8199B7070414}" name="Horário Início" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{29FBA59F-1F62-43F4-9A5E-A50FCC9007FA}" name="SEG" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{5B567691-4089-44F6-8630-FCE48C000E48}" name="TER" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{E5DB2D0E-4B82-4147-BAD5-B88F1640A422}" name="QUA" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{6BCBCC23-C6E3-4AEC-8B6F-B77ED2DAC389}" name="QUI" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{CA22B810-47B4-4946-8281-B9DFE3DB4395}" name="SEX" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{5E53646C-1B31-455B-ADE5-8199B7070414}" name="Horário Início" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{29FBA59F-1F62-43F4-9A5E-A50FCC9007FA}" name="SEG" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5B567691-4089-44F6-8630-FCE48C000E48}" name="TER" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E5DB2D0E-4B82-4147-BAD5-B88F1640A422}" name="QUA" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6BCBCC23-C6E3-4AEC-8B6F-B77ED2DAC389}" name="QUI" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CA22B810-47B4-4946-8281-B9DFE3DB4395}" name="SEX" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{74970DBB-E181-49B7-AEDF-7D54C1591233}" name="Tabela23" displayName="Tabela23" ref="A1:R507" totalsRowShown="0" headerRowDxfId="362" dataDxfId="361">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{74970DBB-E181-49B7-AEDF-7D54C1591233}" name="Tabela23" displayName="Tabela23" ref="A1:R507" totalsRowShown="0" headerRowDxfId="344" dataDxfId="343">
   <autoFilter ref="A1:R507" xr:uid="{74970DBB-E181-49B7-AEDF-7D54C1591233}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R483">
     <sortCondition ref="A1:A483"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{4D337711-BF95-4AE0-A586-BAF28E2D2E55}" name="Ano" dataDxfId="360"/>
-    <tableColumn id="2" xr3:uid="{AD04AF01-BF4E-435E-BCAA-E2C80279C5A4}" name="Semestre" dataDxfId="359"/>
-    <tableColumn id="14" xr3:uid="{C6E38129-C25D-4229-97CC-D85A4276595E}" name="Início das aulas" dataDxfId="358"/>
-    <tableColumn id="3" xr3:uid="{49386BDB-82E6-4A0E-A77F-D95955703226}" name="#" dataDxfId="357"/>
-    <tableColumn id="4" xr3:uid="{EC7B4FCC-393D-4BF2-8F9B-83C5F8ECA73D}" name="Código" dataDxfId="356"/>
-    <tableColumn id="5" xr3:uid="{04FC2BA1-D6A4-4636-941F-C1323B08122E}" name="Disciplina" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{94A812F4-0A2D-4A99-9C16-A8A24C698FC9}" name="CH" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{90B980B9-7919-47BB-9324-5A90571BA176}" name="CR" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{17680770-D385-449E-B92A-FC24764043AA}" name="Turma" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{4A00AB73-1342-45AD-814C-1385F7F148DD}" name="Docente" dataDxfId="355"/>
-    <tableColumn id="10" xr3:uid="{C6F60886-CA6A-4692-A812-156D16044840}" name="Composição turma/Alunos a serem atendidos" dataDxfId="354"/>
-    <tableColumn id="11" xr3:uid="{BED92714-BFC1-4C9B-9097-A6F5FBB493E7}" name="Horário" dataDxfId="353"/>
-    <tableColumn id="12" xr3:uid="{5CD88C9B-1FF2-4AE9-8F28-4CFAE58693CB}" name="Programa" dataDxfId="352"/>
-    <tableColumn id="13" xr3:uid="{68175FBC-98A5-41BC-93A0-4280C6BA8A5E}" name="Sala" dataDxfId="351"/>
-    <tableColumn id="15" xr3:uid="{D4C6D96D-995C-4E9F-A403-0755DC2292FF}" name="Isolada" dataDxfId="350"/>
-    <tableColumn id="16" xr3:uid="{327EBFDF-00A9-4829-B652-8004FB0DBE2F}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="349"/>
-    <tableColumn id="17" xr3:uid="{C2C973BB-8F1F-4E97-BFF8-DC9A471997C3}" name="Plano de ensino" dataDxfId="348"/>
-    <tableColumn id="18" xr3:uid="{994F679B-E01A-49AA-9A92-D3803A31A1FD}" name="Idioma" dataDxfId="347"/>
+    <tableColumn id="1" xr3:uid="{4D337711-BF95-4AE0-A586-BAF28E2D2E55}" name="Ano" dataDxfId="342"/>
+    <tableColumn id="2" xr3:uid="{AD04AF01-BF4E-435E-BCAA-E2C80279C5A4}" name="Semestre" dataDxfId="341"/>
+    <tableColumn id="14" xr3:uid="{C6E38129-C25D-4229-97CC-D85A4276595E}" name="Início das aulas" dataDxfId="340"/>
+    <tableColumn id="3" xr3:uid="{49386BDB-82E6-4A0E-A77F-D95955703226}" name="#" dataDxfId="339"/>
+    <tableColumn id="4" xr3:uid="{EC7B4FCC-393D-4BF2-8F9B-83C5F8ECA73D}" name="Código" dataDxfId="338"/>
+    <tableColumn id="5" xr3:uid="{04FC2BA1-D6A4-4636-941F-C1323B08122E}" name="Disciplina" dataDxfId="337"/>
+    <tableColumn id="6" xr3:uid="{94A812F4-0A2D-4A99-9C16-A8A24C698FC9}" name="CH" dataDxfId="336"/>
+    <tableColumn id="7" xr3:uid="{90B980B9-7919-47BB-9324-5A90571BA176}" name="CR" dataDxfId="335"/>
+    <tableColumn id="8" xr3:uid="{17680770-D385-449E-B92A-FC24764043AA}" name="Turma" dataDxfId="334"/>
+    <tableColumn id="9" xr3:uid="{4A00AB73-1342-45AD-814C-1385F7F148DD}" name="Docente" dataDxfId="333"/>
+    <tableColumn id="10" xr3:uid="{C6F60886-CA6A-4692-A812-156D16044840}" name="Composição turma/Alunos a serem atendidos" dataDxfId="332"/>
+    <tableColumn id="11" xr3:uid="{BED92714-BFC1-4C9B-9097-A6F5FBB493E7}" name="Horário" dataDxfId="331"/>
+    <tableColumn id="12" xr3:uid="{5CD88C9B-1FF2-4AE9-8F28-4CFAE58693CB}" name="Programa" dataDxfId="330"/>
+    <tableColumn id="13" xr3:uid="{68175FBC-98A5-41BC-93A0-4280C6BA8A5E}" name="Sala" dataDxfId="329"/>
+    <tableColumn id="15" xr3:uid="{D4C6D96D-995C-4E9F-A403-0755DC2292FF}" name="Isolada" dataDxfId="328"/>
+    <tableColumn id="16" xr3:uid="{327EBFDF-00A9-4829-B652-8004FB0DBE2F}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="327"/>
+    <tableColumn id="17" xr3:uid="{C2C973BB-8F1F-4E97-BFF8-DC9A471997C3}" name="Plano de ensino" dataDxfId="326"/>
+    <tableColumn id="18" xr3:uid="{994F679B-E01A-49AA-9A92-D3803A31A1FD}" name="Idioma" dataDxfId="325"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}" name="Tabela8" displayName="Tabela8" ref="A1:P36" totalsRowShown="0" headerRowDxfId="346" dataDxfId="345">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}" name="Tabela8" displayName="Tabela8" ref="A1:P36" totalsRowShown="0" headerRowDxfId="324" dataDxfId="323">
   <autoFilter ref="A1:P36" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{944D5F90-113F-45E6-90D2-D9F26C3D19E8}" name="#" dataDxfId="344"/>
-    <tableColumn id="2" xr3:uid="{03AFB47D-BBE2-4E06-A4EE-233AD91B9B04}" name="Código" dataDxfId="343"/>
-    <tableColumn id="3" xr3:uid="{6203F29D-1C47-4503-B1A7-6F2AEF27285A}" name="Disciplina" dataDxfId="342"/>
-    <tableColumn id="4" xr3:uid="{1BB72C74-647A-4652-B632-486AF4F36CA1}" name="CH" dataDxfId="341"/>
-    <tableColumn id="5" xr3:uid="{E445F3DE-4F0D-4A53-A241-B3D0B3DB6769}" name="CR" dataDxfId="340"/>
-    <tableColumn id="6" xr3:uid="{BF1FA85A-AF8B-481E-A8F6-F21C2F9C1030}" name="Turma" dataDxfId="339"/>
-    <tableColumn id="7" xr3:uid="{4FE21691-E922-4D3C-BFC9-81CA9A5114B8}" name="Docente" dataDxfId="338"/>
-    <tableColumn id="8" xr3:uid="{3D8D99E2-97B2-43BB-AF16-CC3E0CDA183A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="337"/>
-    <tableColumn id="9" xr3:uid="{E81F4E30-A443-4557-9E41-49AD0181637B}" name="Horário" dataDxfId="336"/>
-    <tableColumn id="10" xr3:uid="{86654D09-2791-4994-9482-9B933C35B7DC}" name="Programa" dataDxfId="335"/>
-    <tableColumn id="11" xr3:uid="{2452B032-9299-410D-8FEB-C0EAD4A67350}" name="Sala" dataDxfId="334"/>
-    <tableColumn id="12" xr3:uid="{E093923D-501E-4E7D-814B-83AC953DF83C}" name="Início das aulas" dataDxfId="333"/>
-    <tableColumn id="13" xr3:uid="{83C2175F-ADF3-4098-9C8F-CD783D3E83D5}" name="Isolada" dataDxfId="332"/>
-    <tableColumn id="14" xr3:uid="{A6CBF804-C4C6-4BF8-BBF7-7D19343194CE}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="331"/>
-    <tableColumn id="15" xr3:uid="{66EEE117-9278-4199-94E2-A050B749F07C}" name="Plano de ensino" dataDxfId="330"/>
-    <tableColumn id="16" xr3:uid="{34D10A58-740F-4955-B716-C4CFFA28B434}" name="Idioma" dataDxfId="329"/>
+    <tableColumn id="1" xr3:uid="{944D5F90-113F-45E6-90D2-D9F26C3D19E8}" name="#" dataDxfId="322"/>
+    <tableColumn id="2" xr3:uid="{03AFB47D-BBE2-4E06-A4EE-233AD91B9B04}" name="Código" dataDxfId="321"/>
+    <tableColumn id="3" xr3:uid="{6203F29D-1C47-4503-B1A7-6F2AEF27285A}" name="Disciplina" dataDxfId="320"/>
+    <tableColumn id="4" xr3:uid="{1BB72C74-647A-4652-B632-486AF4F36CA1}" name="CH" dataDxfId="319"/>
+    <tableColumn id="5" xr3:uid="{E445F3DE-4F0D-4A53-A241-B3D0B3DB6769}" name="CR" dataDxfId="318"/>
+    <tableColumn id="6" xr3:uid="{BF1FA85A-AF8B-481E-A8F6-F21C2F9C1030}" name="Turma" dataDxfId="317"/>
+    <tableColumn id="7" xr3:uid="{4FE21691-E922-4D3C-BFC9-81CA9A5114B8}" name="Docente" dataDxfId="316"/>
+    <tableColumn id="8" xr3:uid="{3D8D99E2-97B2-43BB-AF16-CC3E0CDA183A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="315"/>
+    <tableColumn id="9" xr3:uid="{E81F4E30-A443-4557-9E41-49AD0181637B}" name="Horário" dataDxfId="314"/>
+    <tableColumn id="10" xr3:uid="{86654D09-2791-4994-9482-9B933C35B7DC}" name="Programa" dataDxfId="313"/>
+    <tableColumn id="11" xr3:uid="{2452B032-9299-410D-8FEB-C0EAD4A67350}" name="Sala" dataDxfId="312"/>
+    <tableColumn id="12" xr3:uid="{E093923D-501E-4E7D-814B-83AC953DF83C}" name="Início das aulas" dataDxfId="311"/>
+    <tableColumn id="13" xr3:uid="{83C2175F-ADF3-4098-9C8F-CD783D3E83D5}" name="Isolada" dataDxfId="310"/>
+    <tableColumn id="14" xr3:uid="{A6CBF804-C4C6-4BF8-BBF7-7D19343194CE}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="309"/>
+    <tableColumn id="15" xr3:uid="{66EEE117-9278-4199-94E2-A050B749F07C}" name="Plano de ensino" dataDxfId="308"/>
+    <tableColumn id="16" xr3:uid="{34D10A58-740F-4955-B716-C4CFFA28B434}" name="Idioma" dataDxfId="307"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}" name="Tabela21" displayName="Tabela21" ref="A1:P30" totalsRowShown="0" headerRowDxfId="328" dataDxfId="327" tableBorderDxfId="326">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}" name="Tabela21" displayName="Tabela21" ref="A1:P30" totalsRowShown="0" headerRowDxfId="306" dataDxfId="305" tableBorderDxfId="304">
   <autoFilter ref="A1:P30" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2AB86612-CBC2-43FF-95A8-1F3738158353}" name="#" dataDxfId="325"/>
-    <tableColumn id="2" xr3:uid="{900741A6-3AE9-465A-95B8-F7DE5DCBEFF4}" name="Código" dataDxfId="324"/>
-    <tableColumn id="3" xr3:uid="{283BAD85-A22E-4FCE-8303-92839D733CD6}" name="Disciplina" dataDxfId="323"/>
-    <tableColumn id="5" xr3:uid="{FF908DD9-1FEA-491D-AA9D-3D883AE2FB96}" name="CH" dataDxfId="322"/>
-    <tableColumn id="6" xr3:uid="{98ED9C38-0D62-4245-886B-89C9B6381CDC}" name="CR" dataDxfId="321"/>
-    <tableColumn id="7" xr3:uid="{D13C6F1B-5EBF-43E7-8F90-D1FA4D3D155E}" name="Turma" dataDxfId="320"/>
-    <tableColumn id="8" xr3:uid="{2C45FA27-97B7-4585-93AC-84432C833D00}" name="Docente" dataDxfId="319"/>
-    <tableColumn id="9" xr3:uid="{E283D1D5-5BFA-4EA2-B95C-1D66F30132C9}" name="Composição turma/Alunos a serem atendidos" dataDxfId="318"/>
-    <tableColumn id="10" xr3:uid="{8C3269C1-ADF7-4BA2-9313-A1E80104462E}" name="Horário" dataDxfId="317"/>
-    <tableColumn id="4" xr3:uid="{DE9219AF-9618-4538-8D68-82DBBF62F295}" name="Programa" dataDxfId="316"/>
-    <tableColumn id="11" xr3:uid="{45B09979-EB2C-4336-AEF8-DC411910120A}" name="Sala" dataDxfId="315"/>
-    <tableColumn id="12" xr3:uid="{FE29A9FD-E6BE-4B3A-964B-161C8AF3F659}" name="Início das aulas" dataDxfId="314"/>
-    <tableColumn id="13" xr3:uid="{80D04A8C-D821-440B-AFAA-5FC19064E0CC}" name="Isolada" dataDxfId="313"/>
-    <tableColumn id="14" xr3:uid="{AB7C0C69-81A3-48E0-8EB6-4B6CD851DEAB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="312"/>
-    <tableColumn id="16" xr3:uid="{565CA2E2-3622-47D2-9C8E-C3659FEEDAF4}" name="Plano de ensino" dataDxfId="311"/>
-    <tableColumn id="15" xr3:uid="{4793EA35-5505-410F-B614-E3A49726134E}" name="Idioma" dataDxfId="310"/>
+    <tableColumn id="1" xr3:uid="{2AB86612-CBC2-43FF-95A8-1F3738158353}" name="#" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{900741A6-3AE9-465A-95B8-F7DE5DCBEFF4}" name="Código" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{283BAD85-A22E-4FCE-8303-92839D733CD6}" name="Disciplina" dataDxfId="301"/>
+    <tableColumn id="5" xr3:uid="{FF908DD9-1FEA-491D-AA9D-3D883AE2FB96}" name="CH" dataDxfId="300"/>
+    <tableColumn id="6" xr3:uid="{98ED9C38-0D62-4245-886B-89C9B6381CDC}" name="CR" dataDxfId="299"/>
+    <tableColumn id="7" xr3:uid="{D13C6F1B-5EBF-43E7-8F90-D1FA4D3D155E}" name="Turma" dataDxfId="298"/>
+    <tableColumn id="8" xr3:uid="{2C45FA27-97B7-4585-93AC-84432C833D00}" name="Docente" dataDxfId="297"/>
+    <tableColumn id="9" xr3:uid="{E283D1D5-5BFA-4EA2-B95C-1D66F30132C9}" name="Composição turma/Alunos a serem atendidos" dataDxfId="296"/>
+    <tableColumn id="10" xr3:uid="{8C3269C1-ADF7-4BA2-9313-A1E80104462E}" name="Horário" dataDxfId="295"/>
+    <tableColumn id="4" xr3:uid="{DE9219AF-9618-4538-8D68-82DBBF62F295}" name="Programa" dataDxfId="294"/>
+    <tableColumn id="11" xr3:uid="{45B09979-EB2C-4336-AEF8-DC411910120A}" name="Sala" dataDxfId="293"/>
+    <tableColumn id="12" xr3:uid="{FE29A9FD-E6BE-4B3A-964B-161C8AF3F659}" name="Início das aulas" dataDxfId="292"/>
+    <tableColumn id="13" xr3:uid="{80D04A8C-D821-440B-AFAA-5FC19064E0CC}" name="Isolada" dataDxfId="291"/>
+    <tableColumn id="14" xr3:uid="{AB7C0C69-81A3-48E0-8EB6-4B6CD851DEAB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="290"/>
+    <tableColumn id="16" xr3:uid="{565CA2E2-3622-47D2-9C8E-C3659FEEDAF4}" name="Plano de ensino" dataDxfId="289"/>
+    <tableColumn id="15" xr3:uid="{4793EA35-5505-410F-B614-E3A49726134E}" name="Idioma" dataDxfId="288"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}" name="Tabela12" displayName="Tabela12" ref="A1:P30" totalsRowShown="0" headerRowDxfId="309" dataDxfId="308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}" name="Tabela12" displayName="Tabela12" ref="A1:P30" totalsRowShown="0" headerRowDxfId="287" dataDxfId="286">
   <autoFilter ref="A1:P30" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EDA54A2B-74FA-4C7E-8DF5-1E5E01A8AD5E}" name="#" dataDxfId="307"/>
-    <tableColumn id="2" xr3:uid="{291EE8F9-B2F6-4BD7-9E19-A5606243723D}" name="Código" dataDxfId="306"/>
-    <tableColumn id="3" xr3:uid="{395F1383-8800-4C0C-91E3-7576958D3F74}" name="Disciplina" dataDxfId="305"/>
-    <tableColumn id="4" xr3:uid="{C64CAE72-55FF-4176-8A28-45D684789929}" name="CH" dataDxfId="304"/>
-    <tableColumn id="5" xr3:uid="{EC4E7685-5153-4EFE-96DF-DD4CCEFE41E0}" name="CR" dataDxfId="303"/>
-    <tableColumn id="6" xr3:uid="{D408E83B-8F8D-4658-80FA-F575F6E7F2BB}" name="Turma" dataDxfId="302"/>
-    <tableColumn id="7" xr3:uid="{89AE3EDA-D51E-4399-97FD-EBC100128480}" name="Docente" dataDxfId="301"/>
-    <tableColumn id="8" xr3:uid="{970E4A68-EA98-4441-B4A3-09F7F64BB866}" name="Composição turma/Alunos a serem atendidos" dataDxfId="300"/>
-    <tableColumn id="9" xr3:uid="{D2C877A2-4B61-4441-AB0C-0CFB786B9C46}" name="Horário" dataDxfId="299"/>
-    <tableColumn id="14" xr3:uid="{22C3D16C-82E5-48C6-8087-288C2AAF1BFC}" name="Programa" dataDxfId="298"/>
-    <tableColumn id="10" xr3:uid="{E5227582-D61A-4529-899E-31BD890F6313}" name="Sala" dataDxfId="297"/>
-    <tableColumn id="11" xr3:uid="{709B494B-44D6-48DF-B771-3DA003A3158E}" name="Início das aulas" dataDxfId="296"/>
-    <tableColumn id="12" xr3:uid="{DD515F0B-9093-4738-A03E-F0A6AD376847}" name="Isolada" dataDxfId="295"/>
-    <tableColumn id="13" xr3:uid="{8B9AC040-B64E-45B7-AC31-50DB0F8FBF44}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="294"/>
-    <tableColumn id="15" xr3:uid="{B4767A37-6B80-4C7A-9168-FFD31E4F1A0A}" name="Plano de ensino" dataDxfId="293"/>
-    <tableColumn id="16" xr3:uid="{635991E3-6DD0-45B0-A1E6-0DEE8052FBB1}" name="Idioma" dataDxfId="292"/>
+    <tableColumn id="1" xr3:uid="{EDA54A2B-74FA-4C7E-8DF5-1E5E01A8AD5E}" name="#" dataDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{291EE8F9-B2F6-4BD7-9E19-A5606243723D}" name="Código" dataDxfId="284"/>
+    <tableColumn id="3" xr3:uid="{395F1383-8800-4C0C-91E3-7576958D3F74}" name="Disciplina" dataDxfId="283"/>
+    <tableColumn id="4" xr3:uid="{C64CAE72-55FF-4176-8A28-45D684789929}" name="CH" dataDxfId="282"/>
+    <tableColumn id="5" xr3:uid="{EC4E7685-5153-4EFE-96DF-DD4CCEFE41E0}" name="CR" dataDxfId="281"/>
+    <tableColumn id="6" xr3:uid="{D408E83B-8F8D-4658-80FA-F575F6E7F2BB}" name="Turma" dataDxfId="280"/>
+    <tableColumn id="7" xr3:uid="{89AE3EDA-D51E-4399-97FD-EBC100128480}" name="Docente" dataDxfId="279"/>
+    <tableColumn id="8" xr3:uid="{970E4A68-EA98-4441-B4A3-09F7F64BB866}" name="Composição turma/Alunos a serem atendidos" dataDxfId="278"/>
+    <tableColumn id="9" xr3:uid="{D2C877A2-4B61-4441-AB0C-0CFB786B9C46}" name="Horário" dataDxfId="277"/>
+    <tableColumn id="14" xr3:uid="{22C3D16C-82E5-48C6-8087-288C2AAF1BFC}" name="Programa" dataDxfId="276"/>
+    <tableColumn id="10" xr3:uid="{E5227582-D61A-4529-899E-31BD890F6313}" name="Sala" dataDxfId="275"/>
+    <tableColumn id="11" xr3:uid="{709B494B-44D6-48DF-B771-3DA003A3158E}" name="Início das aulas" dataDxfId="274"/>
+    <tableColumn id="12" xr3:uid="{DD515F0B-9093-4738-A03E-F0A6AD376847}" name="Isolada" dataDxfId="273"/>
+    <tableColumn id="13" xr3:uid="{8B9AC040-B64E-45B7-AC31-50DB0F8FBF44}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="272"/>
+    <tableColumn id="15" xr3:uid="{B4767A37-6B80-4C7A-9168-FFD31E4F1A0A}" name="Plano de ensino" dataDxfId="271"/>
+    <tableColumn id="16" xr3:uid="{635991E3-6DD0-45B0-A1E6-0DEE8052FBB1}" name="Idioma" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}" name="Tabela11" displayName="Tabela11" ref="A1:P39" totalsRowShown="0" headerRowDxfId="291" dataDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}" name="Tabela11" displayName="Tabela11" ref="A1:P39" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268">
   <autoFilter ref="A1:P39" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
     <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{9ECD9829-BE16-4218-B3E2-07F5766F1A58}" name="#" dataDxfId="289"/>
-    <tableColumn id="2" xr3:uid="{F7D3F331-D666-41B2-B2D3-590C0402C88D}" name="Código" dataDxfId="288"/>
-    <tableColumn id="3" xr3:uid="{1ECA9DCC-94E6-46E9-8ADA-68419C9240B8}" name="Disciplina" dataDxfId="287"/>
-    <tableColumn id="12" xr3:uid="{8A652D42-34B7-4E2B-924A-073C96CE20C1}" name="CH" dataDxfId="286"/>
-    <tableColumn id="5" xr3:uid="{7DBD3AE8-797F-4835-8C42-CFD1B6FC50C3}" name="CR" dataDxfId="285"/>
-    <tableColumn id="6" xr3:uid="{9939EA87-CCD4-410E-BAEC-4207F80EA25D}" name="Turma" dataDxfId="284"/>
-    <tableColumn id="14" xr3:uid="{CA34C65D-196C-4A59-A88A-9E05BE156597}" name="Docente" dataDxfId="283"/>
-    <tableColumn id="13" xr3:uid="{63B47A39-E210-4CF7-A0E4-EC66D69B4F61}" name="Composição turma/Alunos a serem atendidos" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{5FD3D683-4D4B-4C12-A044-074CD96BCAC0}" name="Horário" dataDxfId="281"/>
-    <tableColumn id="16" xr3:uid="{27F9AB05-0D1F-4132-9799-888C71ECF536}" name="Programa" dataDxfId="280"/>
-    <tableColumn id="10" xr3:uid="{AA87FF47-3CAD-47E4-823A-49C59A352D3F}" name="Sala" dataDxfId="279"/>
-    <tableColumn id="11" xr3:uid="{54E47078-6CC5-4899-B7F3-40CCF11EEDE5}" name="Início das aulas" dataDxfId="278"/>
-    <tableColumn id="9" xr3:uid="{4546EB9A-0A6E-4AFC-A779-9FCED8FE3C0C}" name="Isolada" dataDxfId="277"/>
-    <tableColumn id="15" xr3:uid="{FE9AFD15-7599-4FB3-83B4-F2D0C7B4CD55}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="276"/>
-    <tableColumn id="17" xr3:uid="{38A18CD0-0965-4949-A737-70C84155876E}" name="Plano de ensino" dataDxfId="275"/>
-    <tableColumn id="4" xr3:uid="{A43C2A69-B476-47CE-879C-031D92770073}" name="Idioma" dataDxfId="274"/>
+    <tableColumn id="1" xr3:uid="{9ECD9829-BE16-4218-B3E2-07F5766F1A58}" name="#" dataDxfId="267"/>
+    <tableColumn id="2" xr3:uid="{F7D3F331-D666-41B2-B2D3-590C0402C88D}" name="Código" dataDxfId="266"/>
+    <tableColumn id="3" xr3:uid="{1ECA9DCC-94E6-46E9-8ADA-68419C9240B8}" name="Disciplina" dataDxfId="265"/>
+    <tableColumn id="12" xr3:uid="{8A652D42-34B7-4E2B-924A-073C96CE20C1}" name="CH" dataDxfId="264"/>
+    <tableColumn id="5" xr3:uid="{7DBD3AE8-797F-4835-8C42-CFD1B6FC50C3}" name="CR" dataDxfId="263"/>
+    <tableColumn id="6" xr3:uid="{9939EA87-CCD4-410E-BAEC-4207F80EA25D}" name="Turma" dataDxfId="262"/>
+    <tableColumn id="14" xr3:uid="{CA34C65D-196C-4A59-A88A-9E05BE156597}" name="Docente" dataDxfId="261"/>
+    <tableColumn id="13" xr3:uid="{63B47A39-E210-4CF7-A0E4-EC66D69B4F61}" name="Composição turma/Alunos a serem atendidos" dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{5FD3D683-4D4B-4C12-A044-074CD96BCAC0}" name="Horário" dataDxfId="259"/>
+    <tableColumn id="16" xr3:uid="{27F9AB05-0D1F-4132-9799-888C71ECF536}" name="Programa" dataDxfId="258"/>
+    <tableColumn id="10" xr3:uid="{AA87FF47-3CAD-47E4-823A-49C59A352D3F}" name="Sala" dataDxfId="257"/>
+    <tableColumn id="11" xr3:uid="{54E47078-6CC5-4899-B7F3-40CCF11EEDE5}" name="Início das aulas" dataDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{4546EB9A-0A6E-4AFC-A779-9FCED8FE3C0C}" name="Isolada" dataDxfId="255"/>
+    <tableColumn id="15" xr3:uid="{FE9AFD15-7599-4FB3-83B4-F2D0C7B4CD55}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="254"/>
+    <tableColumn id="17" xr3:uid="{38A18CD0-0965-4949-A737-70C84155876E}" name="Plano de ensino" dataDxfId="253"/>
+    <tableColumn id="4" xr3:uid="{A43C2A69-B476-47CE-879C-031D92770073}" name="Idioma" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}" name="Tabela10" displayName="Tabela10" ref="A1:P30" totalsRowShown="0" headerRowDxfId="273" dataDxfId="272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}" name="Tabela10" displayName="Tabela10" ref="A1:P30" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250">
   <autoFilter ref="A1:P30" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}"/>
   <tableColumns count="16">
-    <tableColumn id="11" xr3:uid="{A1E30FC8-6473-4267-80EC-DC713C24E8C3}" name="#" dataDxfId="271"/>
-    <tableColumn id="1" xr3:uid="{681443BB-5BAF-4490-A8D6-35074C6EBCFC}" name="Código" dataDxfId="270"/>
-    <tableColumn id="12" xr3:uid="{F65252EF-0816-4F3A-B214-3782E89F2A37}" name="Disciplina" dataDxfId="269"/>
-    <tableColumn id="9" xr3:uid="{C09536B4-F83B-40DB-B312-E0C48B49E71C}" name="CH" dataDxfId="268"/>
-    <tableColumn id="2" xr3:uid="{D4A140C3-EED7-47B8-8F1D-D76E43CE3B20}" name="CR" dataDxfId="267"/>
-    <tableColumn id="3" xr3:uid="{E47C8101-2DD5-469C-8795-CCD477065C76}" name="Turma" dataDxfId="266"/>
-    <tableColumn id="4" xr3:uid="{BC6E0979-5DAF-43A6-B0A3-05F05DE51A0A}" name="Docente" dataDxfId="265"/>
-    <tableColumn id="5" xr3:uid="{803FA19A-660D-4BB2-B9B1-057905B45F5A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="264"/>
-    <tableColumn id="6" xr3:uid="{E25DE4BB-9A10-452D-87FC-6CA75E98C3D4}" name="Horário" dataDxfId="263"/>
-    <tableColumn id="14" xr3:uid="{C55F9469-5367-4DC9-91DE-E33CD9056E0C}" name="Programa" dataDxfId="262"/>
-    <tableColumn id="7" xr3:uid="{620C0F25-FDE7-47CE-85EC-24F7FF2EEC22}" name="Sala" dataDxfId="261"/>
-    <tableColumn id="8" xr3:uid="{58954685-218D-4AEC-AF27-15817D49739B}" name="Início das aulas" dataDxfId="260"/>
-    <tableColumn id="10" xr3:uid="{AE6EF7BC-9F3D-4446-968B-80D0EAE47C9F}" name="Isolada" dataDxfId="259"/>
-    <tableColumn id="13" xr3:uid="{E0DAE52A-00CC-4AB2-BFD9-D5A2BF629612}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="258"/>
-    <tableColumn id="15" xr3:uid="{50906FEC-9A8B-44B5-8942-74C150D752C8}" name="Plano de ensino" dataDxfId="257"/>
-    <tableColumn id="16" xr3:uid="{069AB126-8ACB-4C8C-AAC5-9C8E8E4F6853}" name="Idioma" dataDxfId="256"/>
+    <tableColumn id="11" xr3:uid="{A1E30FC8-6473-4267-80EC-DC713C24E8C3}" name="#" dataDxfId="249"/>
+    <tableColumn id="1" xr3:uid="{681443BB-5BAF-4490-A8D6-35074C6EBCFC}" name="Código" dataDxfId="248"/>
+    <tableColumn id="12" xr3:uid="{F65252EF-0816-4F3A-B214-3782E89F2A37}" name="Disciplina" dataDxfId="247"/>
+    <tableColumn id="9" xr3:uid="{C09536B4-F83B-40DB-B312-E0C48B49E71C}" name="CH" dataDxfId="246"/>
+    <tableColumn id="2" xr3:uid="{D4A140C3-EED7-47B8-8F1D-D76E43CE3B20}" name="CR" dataDxfId="245"/>
+    <tableColumn id="3" xr3:uid="{E47C8101-2DD5-469C-8795-CCD477065C76}" name="Turma" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{BC6E0979-5DAF-43A6-B0A3-05F05DE51A0A}" name="Docente" dataDxfId="243"/>
+    <tableColumn id="5" xr3:uid="{803FA19A-660D-4BB2-B9B1-057905B45F5A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{E25DE4BB-9A10-452D-87FC-6CA75E98C3D4}" name="Horário" dataDxfId="241"/>
+    <tableColumn id="14" xr3:uid="{C55F9469-5367-4DC9-91DE-E33CD9056E0C}" name="Programa" dataDxfId="240"/>
+    <tableColumn id="7" xr3:uid="{620C0F25-FDE7-47CE-85EC-24F7FF2EEC22}" name="Sala" dataDxfId="239"/>
+    <tableColumn id="8" xr3:uid="{58954685-218D-4AEC-AF27-15817D49739B}" name="Início das aulas" dataDxfId="238"/>
+    <tableColumn id="10" xr3:uid="{AE6EF7BC-9F3D-4446-968B-80D0EAE47C9F}" name="Isolada" dataDxfId="237"/>
+    <tableColumn id="13" xr3:uid="{E0DAE52A-00CC-4AB2-BFD9-D5A2BF629612}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="236"/>
+    <tableColumn id="15" xr3:uid="{50906FEC-9A8B-44B5-8942-74C150D752C8}" name="Plano de ensino" dataDxfId="235"/>
+    <tableColumn id="16" xr3:uid="{069AB126-8ACB-4C8C-AAC5-9C8E8E4F6853}" name="Idioma" dataDxfId="234"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}" name="Disc2020.2" displayName="Disc2020.2" ref="A1:P28" totalsRowShown="0" headerRowDxfId="255" dataDxfId="254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}" name="Disc2020.2" displayName="Disc2020.2" ref="A1:P28" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232">
   <autoFilter ref="A1:P28" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{C8C59A5D-0770-45FF-A369-DE00C3517AAF}" name="#" dataDxfId="253"/>
-    <tableColumn id="2" xr3:uid="{93C8C3C5-D789-4F66-BE5A-35CAC8866BC5}" name="Código" dataDxfId="252"/>
-    <tableColumn id="3" xr3:uid="{C588CDA3-67A4-49F0-8564-5BC6B8C7A120}" name="Disciplina" dataDxfId="251"/>
-    <tableColumn id="4" xr3:uid="{5C8179D6-05E3-477B-9961-3CD5D5BF0E84}" name="CH" dataDxfId="250"/>
-    <tableColumn id="5" xr3:uid="{9860C469-1CB0-48CD-B930-812B020FB383}" name="CR" dataDxfId="249"/>
-    <tableColumn id="6" xr3:uid="{DF20F790-26FE-44D3-81E7-1AF63030D993}" name="Turma" dataDxfId="248"/>
-    <tableColumn id="7" xr3:uid="{A1A044E7-EE99-43B3-B14A-901F1B844784}" name="Docente" dataDxfId="247"/>
-    <tableColumn id="8" xr3:uid="{5E117F2A-949A-4DF5-A1AD-DA439B8D25A2}" name="Composição turma/Alunos a serem atendidos" dataDxfId="246"/>
-    <tableColumn id="9" xr3:uid="{E3A5998D-6CA5-4B2C-A705-B088BD7CAB4C}" name="Horário" dataDxfId="245"/>
-    <tableColumn id="14" xr3:uid="{0CEEC0C5-6F94-4567-AC8F-EAF360610602}" name="Programa" dataDxfId="244"/>
-    <tableColumn id="10" xr3:uid="{DD47624C-1E13-4C7F-8F4E-D11D35AB9546}" name="Sala" dataDxfId="243"/>
-    <tableColumn id="11" xr3:uid="{AD2B2689-8EDA-463B-AE6E-168A7015B5A2}" name="Início das aulas" dataDxfId="242"/>
-    <tableColumn id="12" xr3:uid="{F82F7935-D1D4-49E6-8F4F-528FC5D13458}" name="Isolada" dataDxfId="241"/>
-    <tableColumn id="13" xr3:uid="{4189E4D3-929B-4DEE-AA06-136202600042}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="240"/>
-    <tableColumn id="15" xr3:uid="{E29C5835-3CC4-4B62-8CEB-3888EC8DEA0F}" name="Plano de ensino" dataDxfId="239"/>
-    <tableColumn id="16" xr3:uid="{5F8861DF-9063-44DD-8B4E-1F15A6D3F870}" name="Idioma" dataDxfId="238"/>
+    <tableColumn id="1" xr3:uid="{C8C59A5D-0770-45FF-A369-DE00C3517AAF}" name="#" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{93C8C3C5-D789-4F66-BE5A-35CAC8866BC5}" name="Código" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{C588CDA3-67A4-49F0-8564-5BC6B8C7A120}" name="Disciplina" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{5C8179D6-05E3-477B-9961-3CD5D5BF0E84}" name="CH" dataDxfId="228"/>
+    <tableColumn id="5" xr3:uid="{9860C469-1CB0-48CD-B930-812B020FB383}" name="CR" dataDxfId="227"/>
+    <tableColumn id="6" xr3:uid="{DF20F790-26FE-44D3-81E7-1AF63030D993}" name="Turma" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{A1A044E7-EE99-43B3-B14A-901F1B844784}" name="Docente" dataDxfId="225"/>
+    <tableColumn id="8" xr3:uid="{5E117F2A-949A-4DF5-A1AD-DA439B8D25A2}" name="Composição turma/Alunos a serem atendidos" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{E3A5998D-6CA5-4B2C-A705-B088BD7CAB4C}" name="Horário" dataDxfId="223"/>
+    <tableColumn id="14" xr3:uid="{0CEEC0C5-6F94-4567-AC8F-EAF360610602}" name="Programa" dataDxfId="222"/>
+    <tableColumn id="10" xr3:uid="{DD47624C-1E13-4C7F-8F4E-D11D35AB9546}" name="Sala" dataDxfId="221"/>
+    <tableColumn id="11" xr3:uid="{AD2B2689-8EDA-463B-AE6E-168A7015B5A2}" name="Início das aulas" dataDxfId="220"/>
+    <tableColumn id="12" xr3:uid="{F82F7935-D1D4-49E6-8F4F-528FC5D13458}" name="Isolada" dataDxfId="219"/>
+    <tableColumn id="13" xr3:uid="{4189E4D3-929B-4DEE-AA06-136202600042}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="218"/>
+    <tableColumn id="15" xr3:uid="{E29C5835-3CC4-4B62-8CEB-3888EC8DEA0F}" name="Plano de ensino" dataDxfId="217"/>
+    <tableColumn id="16" xr3:uid="{5F8861DF-9063-44DD-8B4E-1F15A6D3F870}" name="Idioma" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11066,7 +11041,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="B2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -11127,7 +11102,7 @@
       <c r="F3" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="38" t="s">
         <v>926</v>
       </c>
       <c r="H3" s="1"/>
@@ -11138,14 +11113,14 @@
         <v>108</v>
       </c>
       <c r="C4" s="37"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="145" t="s">
         <v>913</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="145" t="s">
         <v>913</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="145" t="s">
         <v>927</v>
       </c>
       <c r="H4" s="1"/>
@@ -11158,14 +11133,14 @@
       <c r="C5" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>914</v>
+      <c r="D5" s="48" t="s">
+        <v>915</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>914</v>
+      <c r="F5" s="48" t="s">
+        <v>915</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="1"/>
@@ -11176,12 +11151,12 @@
         <v>109</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="48" t="s">
-        <v>915</v>
+      <c r="D6" s="41" t="s">
+        <v>914</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="48" t="s">
-        <v>915</v>
+      <c r="F6" s="41" t="s">
+        <v>914</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="1"/>
@@ -11259,16 +11234,16 @@
       <c r="B11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>908</v>
-      </c>
-      <c r="D11" s="155" t="s">
+      <c r="C11" s="146" t="s">
+        <v>911</v>
+      </c>
+      <c r="D11" s="146" t="s">
         <v>917</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>908</v>
-      </c>
-      <c r="F11" s="155" t="s">
+      <c r="E11" s="146" t="s">
+        <v>911</v>
+      </c>
+      <c r="F11" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G11" s="45"/>
@@ -11315,12 +11290,12 @@
       <c r="B14" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="155" t="s">
-        <v>911</v>
+      <c r="C14" s="45" t="s">
+        <v>908</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="155" t="s">
-        <v>911</v>
+      <c r="E14" s="45" t="s">
+        <v>908</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
@@ -11344,101 +11319,101 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="156" t="s">
+      <c r="B17" s="143"/>
+      <c r="C17" s="147" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="157" t="s">
+      <c r="B18" s="143"/>
+      <c r="C18" s="148" t="s">
         <v>920</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="157" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="148" t="s">
         <v>921</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="157" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="148" t="s">
         <v>922</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="148" t="s">
         <v>657</v>
       </c>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="157" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="148" t="s">
         <v>923</v>
       </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="157" t="s">
+      <c r="B22" s="143"/>
+      <c r="C22" s="148" t="s">
         <v>924</v>
       </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -20055,101 +20030,101 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="156" t="s">
+      <c r="B17" s="143"/>
+      <c r="C17" s="147" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="157" t="s">
+      <c r="B18" s="143"/>
+      <c r="C18" s="148" t="s">
         <v>920</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="157" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="148" t="s">
         <v>921</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="157" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="148" t="s">
         <v>922</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="148" t="s">
         <v>657</v>
       </c>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="157" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="148" t="s">
         <v>923</v>
       </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="157" t="s">
+      <c r="B22" s="143"/>
+      <c r="C22" s="148" t="s">
         <v>924</v>
       </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -26979,10 +26954,10 @@
       <c r="F2" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="147">
-        <v>60</v>
-      </c>
-      <c r="H2" s="147">
+      <c r="G2" s="140">
+        <v>60</v>
+      </c>
+      <c r="H2" s="140">
         <v>4</v>
       </c>
       <c r="I2" t="s">
@@ -27016,10 +26991,10 @@
       <c r="F3" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="147">
-        <v>60</v>
-      </c>
-      <c r="H3" s="147">
+      <c r="G3" s="140">
+        <v>60</v>
+      </c>
+      <c r="H3" s="140">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -27053,10 +27028,10 @@
       <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="147">
-        <v>60</v>
-      </c>
-      <c r="H4" s="147">
+      <c r="G4" s="140">
+        <v>60</v>
+      </c>
+      <c r="H4" s="140">
         <v>4</v>
       </c>
       <c r="I4" t="s">
@@ -27090,10 +27065,10 @@
       <c r="F5" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="147">
-        <v>60</v>
-      </c>
-      <c r="H5" s="147">
+      <c r="G5" s="140">
+        <v>60</v>
+      </c>
+      <c r="H5" s="140">
         <v>4</v>
       </c>
       <c r="I5" t="s">
@@ -27127,10 +27102,10 @@
       <c r="F6" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="147">
-        <v>60</v>
-      </c>
-      <c r="H6" s="147">
+      <c r="G6" s="140">
+        <v>60</v>
+      </c>
+      <c r="H6" s="140">
         <v>4</v>
       </c>
       <c r="I6" t="s">
@@ -27164,10 +27139,10 @@
       <c r="F7" t="s">
         <v>319</v>
       </c>
-      <c r="G7" s="147">
-        <v>60</v>
-      </c>
-      <c r="H7" s="147">
+      <c r="G7" s="140">
+        <v>60</v>
+      </c>
+      <c r="H7" s="140">
         <v>4</v>
       </c>
       <c r="I7" t="s">
@@ -27201,10 +27176,10 @@
       <c r="F8" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="147">
-        <v>60</v>
-      </c>
-      <c r="H8" s="147">
+      <c r="G8" s="140">
+        <v>60</v>
+      </c>
+      <c r="H8" s="140">
         <v>4</v>
       </c>
       <c r="I8" t="s">
@@ -27238,10 +27213,10 @@
       <c r="F9" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="147">
-        <v>60</v>
-      </c>
-      <c r="H9" s="147">
+      <c r="G9" s="140">
+        <v>60</v>
+      </c>
+      <c r="H9" s="140">
         <v>4</v>
       </c>
       <c r="I9" t="s">
@@ -27275,10 +27250,10 @@
       <c r="F10" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="147">
-        <v>60</v>
-      </c>
-      <c r="H10" s="147">
+      <c r="G10" s="140">
+        <v>60</v>
+      </c>
+      <c r="H10" s="140">
         <v>4</v>
       </c>
       <c r="I10" t="s">
@@ -27312,10 +27287,10 @@
       <c r="F11" t="s">
         <v>327</v>
       </c>
-      <c r="G11" s="147">
-        <v>60</v>
-      </c>
-      <c r="H11" s="147">
+      <c r="G11" s="140">
+        <v>60</v>
+      </c>
+      <c r="H11" s="140">
         <v>4</v>
       </c>
       <c r="I11" t="s">
@@ -27349,10 +27324,10 @@
       <c r="F12" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="147">
-        <v>60</v>
-      </c>
-      <c r="H12" s="147">
+      <c r="G12" s="140">
+        <v>60</v>
+      </c>
+      <c r="H12" s="140">
         <v>4</v>
       </c>
       <c r="I12" t="s">
@@ -27386,10 +27361,10 @@
       <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="140">
         <v>30</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="140">
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -27420,10 +27395,10 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="147">
+      <c r="G14" s="140">
         <v>30</v>
       </c>
-      <c r="H14" s="147">
+      <c r="H14" s="140">
         <v>2</v>
       </c>
       <c r="I14" t="s">
@@ -27454,10 +27429,10 @@
       <c r="F15" t="s">
         <v>332</v>
       </c>
-      <c r="G15" s="147">
-        <v>60</v>
-      </c>
-      <c r="H15" s="147">
+      <c r="G15" s="140">
+        <v>60</v>
+      </c>
+      <c r="H15" s="140">
         <v>4</v>
       </c>
       <c r="I15" t="s">
@@ -27491,10 +27466,10 @@
       <c r="F16" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="147">
-        <v>60</v>
-      </c>
-      <c r="H16" s="147">
+      <c r="G16" s="140">
+        <v>60</v>
+      </c>
+      <c r="H16" s="140">
         <v>4</v>
       </c>
       <c r="I16" t="s">
@@ -27528,10 +27503,10 @@
       <c r="F17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="147">
-        <v>60</v>
-      </c>
-      <c r="H17" s="147">
+      <c r="G17" s="140">
+        <v>60</v>
+      </c>
+      <c r="H17" s="140">
         <v>4</v>
       </c>
       <c r="I17" t="s">
@@ -27565,10 +27540,10 @@
       <c r="F18" t="s">
         <v>275</v>
       </c>
-      <c r="G18" s="147">
-        <v>60</v>
-      </c>
-      <c r="H18" s="147">
+      <c r="G18" s="140">
+        <v>60</v>
+      </c>
+      <c r="H18" s="140">
         <v>4</v>
       </c>
       <c r="I18" t="s">
@@ -27602,10 +27577,10 @@
       <c r="F19" t="s">
         <v>336</v>
       </c>
-      <c r="G19" s="147">
-        <v>60</v>
-      </c>
-      <c r="H19" s="147">
+      <c r="G19" s="140">
+        <v>60</v>
+      </c>
+      <c r="H19" s="140">
         <v>4</v>
       </c>
       <c r="I19" t="s">
@@ -27639,10 +27614,10 @@
       <c r="F20" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="147">
-        <v>60</v>
-      </c>
-      <c r="H20" s="147">
+      <c r="G20" s="140">
+        <v>60</v>
+      </c>
+      <c r="H20" s="140">
         <v>4</v>
       </c>
       <c r="I20" t="s">
@@ -27676,10 +27651,10 @@
       <c r="F21" t="s">
         <v>338</v>
       </c>
-      <c r="G21" s="147">
-        <v>60</v>
-      </c>
-      <c r="H21" s="147">
+      <c r="G21" s="140">
+        <v>60</v>
+      </c>
+      <c r="H21" s="140">
         <v>4</v>
       </c>
       <c r="I21" t="s">
@@ -27713,10 +27688,10 @@
       <c r="F22" t="s">
         <v>340</v>
       </c>
-      <c r="G22" s="147">
-        <v>60</v>
-      </c>
-      <c r="H22" s="147">
+      <c r="G22" s="140">
+        <v>60</v>
+      </c>
+      <c r="H22" s="140">
         <v>4</v>
       </c>
       <c r="I22" t="s">
@@ -27750,10 +27725,10 @@
       <c r="F23" t="s">
         <v>341</v>
       </c>
-      <c r="G23" s="147">
-        <v>60</v>
-      </c>
-      <c r="H23" s="147">
+      <c r="G23" s="140">
+        <v>60</v>
+      </c>
+      <c r="H23" s="140">
         <v>4</v>
       </c>
       <c r="I23" t="s">
@@ -27787,10 +27762,10 @@
       <c r="F24" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="147">
-        <v>60</v>
-      </c>
-      <c r="H24" s="147">
+      <c r="G24" s="140">
+        <v>60</v>
+      </c>
+      <c r="H24" s="140">
         <v>4</v>
       </c>
       <c r="I24" t="s">
@@ -27824,10 +27799,10 @@
       <c r="F25" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="147">
-        <v>60</v>
-      </c>
-      <c r="H25" s="147">
+      <c r="G25" s="140">
+        <v>60</v>
+      </c>
+      <c r="H25" s="140">
         <v>4</v>
       </c>
       <c r="I25" t="s">
@@ -27861,10 +27836,10 @@
       <c r="F26" t="s">
         <v>345</v>
       </c>
-      <c r="G26" s="147">
-        <v>60</v>
-      </c>
-      <c r="H26" s="147">
+      <c r="G26" s="140">
+        <v>60</v>
+      </c>
+      <c r="H26" s="140">
         <v>4</v>
       </c>
       <c r="I26" t="s">
@@ -27898,10 +27873,10 @@
       <c r="F27" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="147">
-        <v>60</v>
-      </c>
-      <c r="H27" s="147">
+      <c r="G27" s="140">
+        <v>60</v>
+      </c>
+      <c r="H27" s="140">
         <v>4</v>
       </c>
       <c r="I27" t="s">
@@ -27935,10 +27910,10 @@
       <c r="F28" t="s">
         <v>349</v>
       </c>
-      <c r="G28" s="147">
-        <v>60</v>
-      </c>
-      <c r="H28" s="147">
+      <c r="G28" s="140">
+        <v>60</v>
+      </c>
+      <c r="H28" s="140">
         <v>4</v>
       </c>
       <c r="I28" t="s">
@@ -27972,10 +27947,10 @@
       <c r="F29" t="s">
         <v>350</v>
       </c>
-      <c r="G29" s="147">
-        <v>60</v>
-      </c>
-      <c r="H29" s="147">
+      <c r="G29" s="140">
+        <v>60</v>
+      </c>
+      <c r="H29" s="140">
         <v>4</v>
       </c>
       <c r="I29" t="s">
@@ -28009,10 +27984,10 @@
       <c r="F30" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="147">
-        <v>60</v>
-      </c>
-      <c r="H30" s="147">
+      <c r="G30" s="140">
+        <v>60</v>
+      </c>
+      <c r="H30" s="140">
         <v>4</v>
       </c>
       <c r="I30" t="s">
@@ -28046,10 +28021,10 @@
       <c r="F31" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="147">
-        <v>60</v>
-      </c>
-      <c r="H31" s="147">
+      <c r="G31" s="140">
+        <v>60</v>
+      </c>
+      <c r="H31" s="140">
         <v>4</v>
       </c>
       <c r="I31" t="s">
@@ -28083,10 +28058,10 @@
       <c r="F32" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="147">
-        <v>60</v>
-      </c>
-      <c r="H32" s="147">
+      <c r="G32" s="140">
+        <v>60</v>
+      </c>
+      <c r="H32" s="140">
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -28120,10 +28095,10 @@
       <c r="F33" t="s">
         <v>210</v>
       </c>
-      <c r="G33" s="147">
-        <v>60</v>
-      </c>
-      <c r="H33" s="147">
+      <c r="G33" s="140">
+        <v>60</v>
+      </c>
+      <c r="H33" s="140">
         <v>4</v>
       </c>
       <c r="I33" t="s">
@@ -28157,10 +28132,10 @@
       <c r="F34" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="147">
-        <v>60</v>
-      </c>
-      <c r="H34" s="147">
+      <c r="G34" s="140">
+        <v>60</v>
+      </c>
+      <c r="H34" s="140">
         <v>4</v>
       </c>
       <c r="I34" t="s">
@@ -28194,10 +28169,10 @@
       <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="G35" s="147">
-        <v>60</v>
-      </c>
-      <c r="H35" s="147">
+      <c r="G35" s="140">
+        <v>60</v>
+      </c>
+      <c r="H35" s="140">
         <v>4</v>
       </c>
       <c r="I35" t="s">
@@ -28231,10 +28206,10 @@
       <c r="F36" t="s">
         <v>367</v>
       </c>
-      <c r="G36" s="147">
+      <c r="G36" s="140">
         <v>30</v>
       </c>
-      <c r="H36" s="147">
+      <c r="H36" s="140">
         <v>2</v>
       </c>
       <c r="I36" t="s">
@@ -28270,10 +28245,10 @@
       <c r="F37" t="s">
         <v>305</v>
       </c>
-      <c r="G37" s="147">
-        <v>60</v>
-      </c>
-      <c r="H37" s="147">
+      <c r="G37" s="140">
+        <v>60</v>
+      </c>
+      <c r="H37" s="140">
         <v>4</v>
       </c>
       <c r="I37" t="s">
@@ -28311,10 +28286,10 @@
       <c r="F38" t="s">
         <v>383</v>
       </c>
-      <c r="G38" s="147">
-        <v>60</v>
-      </c>
-      <c r="H38" s="147">
+      <c r="G38" s="140">
+        <v>60</v>
+      </c>
+      <c r="H38" s="140">
         <v>4</v>
       </c>
       <c r="I38" t="s">
@@ -28352,10 +28327,10 @@
       <c r="F39" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="147">
-        <v>60</v>
-      </c>
-      <c r="H39" s="147">
+      <c r="G39" s="140">
+        <v>60</v>
+      </c>
+      <c r="H39" s="140">
         <v>4</v>
       </c>
       <c r="I39" t="s">
@@ -28393,10 +28368,10 @@
       <c r="F40" t="s">
         <v>386</v>
       </c>
-      <c r="G40" s="147">
-        <v>60</v>
-      </c>
-      <c r="H40" s="147">
+      <c r="G40" s="140">
+        <v>60</v>
+      </c>
+      <c r="H40" s="140">
         <v>4</v>
       </c>
       <c r="I40" t="s">
@@ -28434,10 +28409,10 @@
       <c r="F41" t="s">
         <v>388</v>
       </c>
-      <c r="G41" s="147">
-        <v>60</v>
-      </c>
-      <c r="H41" s="147">
+      <c r="G41" s="140">
+        <v>60</v>
+      </c>
+      <c r="H41" s="140">
         <v>4</v>
       </c>
       <c r="I41" t="s">
@@ -28475,10 +28450,10 @@
       <c r="F42" t="s">
         <v>391</v>
       </c>
-      <c r="G42" s="147">
-        <v>60</v>
-      </c>
-      <c r="H42" s="147">
+      <c r="G42" s="140">
+        <v>60</v>
+      </c>
+      <c r="H42" s="140">
         <v>4</v>
       </c>
       <c r="I42" t="s">
@@ -28516,10 +28491,10 @@
       <c r="F43" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="147">
-        <v>60</v>
-      </c>
-      <c r="H43" s="147">
+      <c r="G43" s="140">
+        <v>60</v>
+      </c>
+      <c r="H43" s="140">
         <v>4</v>
       </c>
       <c r="I43" t="s">
@@ -28557,10 +28532,10 @@
       <c r="F44" t="s">
         <v>394</v>
       </c>
-      <c r="G44" s="147">
-        <v>60</v>
-      </c>
-      <c r="H44" s="147">
+      <c r="G44" s="140">
+        <v>60</v>
+      </c>
+      <c r="H44" s="140">
         <v>4</v>
       </c>
       <c r="I44" t="s">
@@ -28598,10 +28573,10 @@
       <c r="F45" t="s">
         <v>288</v>
       </c>
-      <c r="G45" s="147">
-        <v>60</v>
-      </c>
-      <c r="H45" s="147">
+      <c r="G45" s="140">
+        <v>60</v>
+      </c>
+      <c r="H45" s="140">
         <v>4</v>
       </c>
       <c r="I45" t="s">
@@ -28639,10 +28614,10 @@
       <c r="F46" t="s">
         <v>398</v>
       </c>
-      <c r="G46" s="147">
-        <v>60</v>
-      </c>
-      <c r="H46" s="147">
+      <c r="G46" s="140">
+        <v>60</v>
+      </c>
+      <c r="H46" s="140">
         <v>4</v>
       </c>
       <c r="I46" t="s">
@@ -28680,10 +28655,10 @@
       <c r="F47" t="s">
         <v>400</v>
       </c>
-      <c r="G47" s="147">
-        <v>60</v>
-      </c>
-      <c r="H47" s="147">
+      <c r="G47" s="140">
+        <v>60</v>
+      </c>
+      <c r="H47" s="140">
         <v>4</v>
       </c>
       <c r="I47" t="s">
@@ -28721,10 +28696,10 @@
       <c r="F48" t="s">
         <v>402</v>
       </c>
-      <c r="G48" s="147">
-        <v>60</v>
-      </c>
-      <c r="H48" s="147">
+      <c r="G48" s="140">
+        <v>60</v>
+      </c>
+      <c r="H48" s="140">
         <v>4</v>
       </c>
       <c r="I48" t="s">
@@ -28762,10 +28737,10 @@
       <c r="F49" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="147">
-        <v>60</v>
-      </c>
-      <c r="H49" s="147">
+      <c r="G49" s="140">
+        <v>60</v>
+      </c>
+      <c r="H49" s="140">
         <v>4</v>
       </c>
       <c r="I49" t="s">
@@ -28803,10 +28778,10 @@
       <c r="F50" t="s">
         <v>407</v>
       </c>
-      <c r="G50" s="147">
+      <c r="G50" s="140">
         <v>30</v>
       </c>
-      <c r="H50" s="147">
+      <c r="H50" s="140">
         <v>2</v>
       </c>
       <c r="I50" t="s">
@@ -28844,10 +28819,10 @@
       <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="147">
-        <v>60</v>
-      </c>
-      <c r="H51" s="147">
+      <c r="G51" s="140">
+        <v>60</v>
+      </c>
+      <c r="H51" s="140">
         <v>4</v>
       </c>
       <c r="I51" t="s">
@@ -28885,10 +28860,10 @@
       <c r="F52" t="s">
         <v>411</v>
       </c>
-      <c r="G52" s="147">
-        <v>60</v>
-      </c>
-      <c r="H52" s="147">
+      <c r="G52" s="140">
+        <v>60</v>
+      </c>
+      <c r="H52" s="140">
         <v>4</v>
       </c>
       <c r="I52" t="s">
@@ -28926,10 +28901,10 @@
       <c r="F53" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="147">
-        <v>60</v>
-      </c>
-      <c r="H53" s="147">
+      <c r="G53" s="140">
+        <v>60</v>
+      </c>
+      <c r="H53" s="140">
         <v>4</v>
       </c>
       <c r="I53" t="s">
@@ -28967,10 +28942,10 @@
       <c r="F54" t="s">
         <v>414</v>
       </c>
-      <c r="G54" s="147">
-        <v>60</v>
-      </c>
-      <c r="H54" s="147">
+      <c r="G54" s="140">
+        <v>60</v>
+      </c>
+      <c r="H54" s="140">
         <v>4</v>
       </c>
       <c r="I54" t="s">
@@ -29008,10 +28983,10 @@
       <c r="F55" t="s">
         <v>247</v>
       </c>
-      <c r="G55" s="147">
-        <v>60</v>
-      </c>
-      <c r="H55" s="147">
+      <c r="G55" s="140">
+        <v>60</v>
+      </c>
+      <c r="H55" s="140">
         <v>4</v>
       </c>
       <c r="I55" t="s">
@@ -29049,10 +29024,10 @@
       <c r="F56" t="s">
         <v>415</v>
       </c>
-      <c r="G56" s="147">
-        <v>60</v>
-      </c>
-      <c r="H56" s="147">
+      <c r="G56" s="140">
+        <v>60</v>
+      </c>
+      <c r="H56" s="140">
         <v>4</v>
       </c>
       <c r="I56" t="s">
@@ -29090,10 +29065,10 @@
       <c r="F57" t="s">
         <v>416</v>
       </c>
-      <c r="G57" s="147">
-        <v>60</v>
-      </c>
-      <c r="H57" s="147">
+      <c r="G57" s="140">
+        <v>60</v>
+      </c>
+      <c r="H57" s="140">
         <v>4</v>
       </c>
       <c r="I57" t="s">
@@ -29131,10 +29106,10 @@
       <c r="F58" t="s">
         <v>417</v>
       </c>
-      <c r="G58" s="147">
-        <v>60</v>
-      </c>
-      <c r="H58" s="147">
+      <c r="G58" s="140">
+        <v>60</v>
+      </c>
+      <c r="H58" s="140">
         <v>4</v>
       </c>
       <c r="I58" t="s">
@@ -29172,10 +29147,10 @@
       <c r="F59" t="s">
         <v>418</v>
       </c>
-      <c r="G59" s="147">
-        <v>60</v>
-      </c>
-      <c r="H59" s="147">
+      <c r="G59" s="140">
+        <v>60</v>
+      </c>
+      <c r="H59" s="140">
         <v>4</v>
       </c>
       <c r="I59" t="s">
@@ -29211,10 +29186,10 @@
       <c r="F60" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="147">
+      <c r="G60" s="140">
         <v>30</v>
       </c>
-      <c r="H60" s="147">
+      <c r="H60" s="140">
         <v>2</v>
       </c>
       <c r="I60" t="s">
@@ -29245,10 +29220,10 @@
       <c r="F61" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="147">
+      <c r="G61" s="140">
         <v>30</v>
       </c>
-      <c r="H61" s="147">
+      <c r="H61" s="140">
         <v>2</v>
       </c>
       <c r="I61" t="s">
@@ -29281,10 +29256,10 @@
       <c r="F62" t="s">
         <v>422</v>
       </c>
-      <c r="G62" s="147">
-        <v>60</v>
-      </c>
-      <c r="H62" s="147">
+      <c r="G62" s="140">
+        <v>60</v>
+      </c>
+      <c r="H62" s="140">
         <v>4</v>
       </c>
       <c r="I62" t="s">
@@ -29322,10 +29297,10 @@
       <c r="F63" t="s">
         <v>846</v>
       </c>
-      <c r="G63" s="147">
-        <v>60</v>
-      </c>
-      <c r="H63" s="147">
+      <c r="G63" s="140">
+        <v>60</v>
+      </c>
+      <c r="H63" s="140">
         <v>4</v>
       </c>
       <c r="I63" t="s">
@@ -29363,10 +29338,10 @@
       <c r="F64" t="s">
         <v>428</v>
       </c>
-      <c r="G64" s="147">
-        <v>60</v>
-      </c>
-      <c r="H64" s="147">
+      <c r="G64" s="140">
+        <v>60</v>
+      </c>
+      <c r="H64" s="140">
         <v>4</v>
       </c>
       <c r="I64" t="s">
@@ -29404,10 +29379,10 @@
       <c r="F65" t="s">
         <v>429</v>
       </c>
-      <c r="G65" s="147">
+      <c r="G65" s="140">
         <v>30</v>
       </c>
-      <c r="H65" s="147">
+      <c r="H65" s="140">
         <v>2</v>
       </c>
       <c r="I65" t="s">
@@ -29445,10 +29420,10 @@
       <c r="F66" t="s">
         <v>309</v>
       </c>
-      <c r="G66" s="147">
-        <v>60</v>
-      </c>
-      <c r="H66" s="147">
+      <c r="G66" s="140">
+        <v>60</v>
+      </c>
+      <c r="H66" s="140">
         <v>4</v>
       </c>
       <c r="I66" t="s">
@@ -29486,10 +29461,10 @@
       <c r="F67" t="s">
         <v>80</v>
       </c>
-      <c r="G67" s="147">
-        <v>60</v>
-      </c>
-      <c r="H67" s="147">
+      <c r="G67" s="140">
+        <v>60</v>
+      </c>
+      <c r="H67" s="140">
         <v>4</v>
       </c>
       <c r="I67" t="s">
@@ -29527,10 +29502,10 @@
       <c r="F68" t="s">
         <v>462</v>
       </c>
-      <c r="G68" s="147">
-        <v>60</v>
-      </c>
-      <c r="H68" s="147">
+      <c r="G68" s="140">
+        <v>60</v>
+      </c>
+      <c r="H68" s="140">
         <v>4</v>
       </c>
       <c r="I68" t="s">
@@ -29568,10 +29543,10 @@
       <c r="F69" t="s">
         <v>316</v>
       </c>
-      <c r="G69" s="147">
-        <v>60</v>
-      </c>
-      <c r="H69" s="147">
+      <c r="G69" s="140">
+        <v>60</v>
+      </c>
+      <c r="H69" s="140">
         <v>4</v>
       </c>
       <c r="I69" t="s">
@@ -29609,10 +29584,10 @@
       <c r="F70" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="147">
-        <v>60</v>
-      </c>
-      <c r="H70" s="147">
+      <c r="G70" s="140">
+        <v>60</v>
+      </c>
+      <c r="H70" s="140">
         <v>4</v>
       </c>
       <c r="I70" t="s">
@@ -29650,10 +29625,10 @@
       <c r="F71" t="s">
         <v>320</v>
       </c>
-      <c r="G71" s="147">
-        <v>60</v>
-      </c>
-      <c r="H71" s="147">
+      <c r="G71" s="140">
+        <v>60</v>
+      </c>
+      <c r="H71" s="140">
         <v>4</v>
       </c>
       <c r="I71" t="s">
@@ -29691,10 +29666,10 @@
       <c r="F72" t="s">
         <v>436</v>
       </c>
-      <c r="G72" s="147">
-        <v>60</v>
-      </c>
-      <c r="H72" s="147">
+      <c r="G72" s="140">
+        <v>60</v>
+      </c>
+      <c r="H72" s="140">
         <v>4</v>
       </c>
       <c r="I72" t="s">
@@ -29732,10 +29707,10 @@
       <c r="F73" t="s">
         <v>325</v>
       </c>
-      <c r="G73" s="147">
-        <v>60</v>
-      </c>
-      <c r="H73" s="147">
+      <c r="G73" s="140">
+        <v>60</v>
+      </c>
+      <c r="H73" s="140">
         <v>4</v>
       </c>
       <c r="I73" t="s">
@@ -29773,10 +29748,10 @@
       <c r="F74" t="s">
         <v>330</v>
       </c>
-      <c r="G74" s="147">
-        <v>60</v>
-      </c>
-      <c r="H74" s="147">
+      <c r="G74" s="140">
+        <v>60</v>
+      </c>
+      <c r="H74" s="140">
         <v>4</v>
       </c>
       <c r="I74" t="s">
@@ -29812,10 +29787,10 @@
       <c r="F75" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="147">
+      <c r="G75" s="140">
         <v>30</v>
       </c>
-      <c r="H75" s="147">
+      <c r="H75" s="140">
         <v>2</v>
       </c>
       <c r="I75" t="s">
@@ -29846,10 +29821,10 @@
       <c r="F76" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="147">
+      <c r="G76" s="140">
         <v>30</v>
       </c>
-      <c r="H76" s="147">
+      <c r="H76" s="140">
         <v>2</v>
       </c>
       <c r="I76" t="s">
@@ -29882,10 +29857,10 @@
       <c r="F77" t="s">
         <v>335</v>
       </c>
-      <c r="G77" s="147">
-        <v>60</v>
-      </c>
-      <c r="H77" s="147">
+      <c r="G77" s="140">
+        <v>60</v>
+      </c>
+      <c r="H77" s="140">
         <v>4</v>
       </c>
       <c r="I77" t="s">
@@ -29923,10 +29898,10 @@
       <c r="F78" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="147">
-        <v>60</v>
-      </c>
-      <c r="H78" s="147">
+      <c r="G78" s="140">
+        <v>60</v>
+      </c>
+      <c r="H78" s="140">
         <v>4</v>
       </c>
       <c r="I78" t="s">
@@ -29964,10 +29939,10 @@
       <c r="F79" t="s">
         <v>454</v>
       </c>
-      <c r="G79" s="147">
-        <v>60</v>
-      </c>
-      <c r="H79" s="147">
+      <c r="G79" s="140">
+        <v>60</v>
+      </c>
+      <c r="H79" s="140">
         <v>4</v>
       </c>
       <c r="I79" t="s">
@@ -30005,10 +29980,10 @@
       <c r="F80" t="s">
         <v>338</v>
       </c>
-      <c r="G80" s="147">
-        <v>60</v>
-      </c>
-      <c r="H80" s="147">
+      <c r="G80" s="140">
+        <v>60</v>
+      </c>
+      <c r="H80" s="140">
         <v>4</v>
       </c>
       <c r="I80" t="s">
@@ -30046,10 +30021,10 @@
       <c r="F81" t="s">
         <v>455</v>
       </c>
-      <c r="G81" s="147">
-        <v>60</v>
-      </c>
-      <c r="H81" s="147">
+      <c r="G81" s="140">
+        <v>60</v>
+      </c>
+      <c r="H81" s="140">
         <v>4</v>
       </c>
       <c r="I81" t="s">
@@ -30087,10 +30062,10 @@
       <c r="F82" t="s">
         <v>456</v>
       </c>
-      <c r="G82" s="147">
-        <v>60</v>
-      </c>
-      <c r="H82" s="147">
+      <c r="G82" s="140">
+        <v>60</v>
+      </c>
+      <c r="H82" s="140">
         <v>4</v>
       </c>
       <c r="I82" t="s">
@@ -30128,10 +30103,10 @@
       <c r="F83" t="s">
         <v>457</v>
       </c>
-      <c r="G83" s="147">
-        <v>60</v>
-      </c>
-      <c r="H83" s="147">
+      <c r="G83" s="140">
+        <v>60</v>
+      </c>
+      <c r="H83" s="140">
         <v>4</v>
       </c>
       <c r="I83" t="s">
@@ -30169,10 +30144,10 @@
       <c r="F84" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="147">
-        <v>60</v>
-      </c>
-      <c r="H84" s="147">
+      <c r="G84" s="140">
+        <v>60</v>
+      </c>
+      <c r="H84" s="140">
         <v>4</v>
       </c>
       <c r="I84" t="s">
@@ -30210,10 +30185,10 @@
       <c r="F85" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="147">
-        <v>60</v>
-      </c>
-      <c r="H85" s="147">
+      <c r="G85" s="140">
+        <v>60</v>
+      </c>
+      <c r="H85" s="140">
         <v>4</v>
       </c>
       <c r="I85" t="s">
@@ -30251,10 +30226,10 @@
       <c r="F86" t="s">
         <v>357</v>
       </c>
-      <c r="G86" s="147">
-        <v>60</v>
-      </c>
-      <c r="H86" s="147">
+      <c r="G86" s="140">
+        <v>60</v>
+      </c>
+      <c r="H86" s="140">
         <v>4</v>
       </c>
       <c r="I86" t="s">
@@ -30292,10 +30267,10 @@
       <c r="F87" t="s">
         <v>210</v>
       </c>
-      <c r="G87" s="147">
-        <v>60</v>
-      </c>
-      <c r="H87" s="147">
+      <c r="G87" s="140">
+        <v>60</v>
+      </c>
+      <c r="H87" s="140">
         <v>4</v>
       </c>
       <c r="I87" t="s">
@@ -30333,10 +30308,10 @@
       <c r="F88" t="s">
         <v>443</v>
       </c>
-      <c r="G88" s="147">
-        <v>60</v>
-      </c>
-      <c r="H88" s="147">
+      <c r="G88" s="140">
+        <v>60</v>
+      </c>
+      <c r="H88" s="140">
         <v>4</v>
       </c>
       <c r="I88" t="s">
@@ -30374,10 +30349,10 @@
       <c r="F89" t="s">
         <v>459</v>
       </c>
-      <c r="G89" s="147">
-        <v>60</v>
-      </c>
-      <c r="H89" s="147">
+      <c r="G89" s="140">
+        <v>60</v>
+      </c>
+      <c r="H89" s="140">
         <v>4</v>
       </c>
       <c r="I89" t="s">
@@ -30415,10 +30390,10 @@
       <c r="F90" t="s">
         <v>445</v>
       </c>
-      <c r="G90" s="147">
-        <v>60</v>
-      </c>
-      <c r="H90" s="147">
+      <c r="G90" s="140">
+        <v>60</v>
+      </c>
+      <c r="H90" s="140">
         <v>4</v>
       </c>
       <c r="I90" t="s">
@@ -30456,10 +30431,10 @@
       <c r="F91" t="s">
         <v>460</v>
       </c>
-      <c r="G91" s="147">
+      <c r="G91" s="140">
         <v>30</v>
       </c>
-      <c r="H91" s="147">
+      <c r="H91" s="140">
         <v>2</v>
       </c>
       <c r="I91" t="s">
@@ -30497,10 +30472,10 @@
       <c r="F92" t="s">
         <v>461</v>
       </c>
-      <c r="G92" s="147">
+      <c r="G92" s="140">
         <v>30</v>
       </c>
-      <c r="H92" s="147">
+      <c r="H92" s="140">
         <v>2</v>
       </c>
       <c r="I92" t="s">
@@ -30538,10 +30513,10 @@
       <c r="F93" t="s">
         <v>449</v>
       </c>
-      <c r="G93" s="147">
+      <c r="G93" s="140">
         <v>30</v>
       </c>
-      <c r="H93" s="147">
+      <c r="H93" s="140">
         <v>2</v>
       </c>
       <c r="I93" t="s">
@@ -30579,10 +30554,10 @@
       <c r="F94" t="s">
         <v>452</v>
       </c>
-      <c r="G94" s="147">
+      <c r="G94" s="140">
         <v>30</v>
       </c>
-      <c r="H94" s="147">
+      <c r="H94" s="140">
         <v>2</v>
       </c>
       <c r="I94" t="s">
@@ -30620,10 +30595,10 @@
       <c r="F95" t="s">
         <v>305</v>
       </c>
-      <c r="G95" s="147">
-        <v>60</v>
-      </c>
-      <c r="H95" s="147">
+      <c r="G95" s="140">
+        <v>60</v>
+      </c>
+      <c r="H95" s="140">
         <v>4</v>
       </c>
       <c r="I95" t="s">
@@ -30664,10 +30639,10 @@
       <c r="F96" t="s">
         <v>80</v>
       </c>
-      <c r="G96" s="147">
-        <v>60</v>
-      </c>
-      <c r="H96" s="147">
+      <c r="G96" s="140">
+        <v>60</v>
+      </c>
+      <c r="H96" s="140">
         <v>4</v>
       </c>
       <c r="I96" t="s">
@@ -30708,10 +30683,10 @@
       <c r="F97" t="s">
         <v>313</v>
       </c>
-      <c r="G97" s="147">
-        <v>60</v>
-      </c>
-      <c r="H97" s="147">
+      <c r="G97" s="140">
+        <v>60</v>
+      </c>
+      <c r="H97" s="140">
         <v>4</v>
       </c>
       <c r="I97" t="s">
@@ -30752,10 +30727,10 @@
       <c r="F98" t="s">
         <v>550</v>
       </c>
-      <c r="G98" s="147">
-        <v>60</v>
-      </c>
-      <c r="H98" s="147">
+      <c r="G98" s="140">
+        <v>60</v>
+      </c>
+      <c r="H98" s="140">
         <v>4</v>
       </c>
       <c r="I98" t="s">
@@ -30796,10 +30771,10 @@
       <c r="F99" t="s">
         <v>416</v>
       </c>
-      <c r="G99" s="147">
-        <v>60</v>
-      </c>
-      <c r="H99" s="147">
+      <c r="G99" s="140">
+        <v>60</v>
+      </c>
+      <c r="H99" s="140">
         <v>4</v>
       </c>
       <c r="I99" t="s">
@@ -30840,10 +30815,10 @@
       <c r="F100" t="s">
         <v>299</v>
       </c>
-      <c r="G100" s="147">
-        <v>60</v>
-      </c>
-      <c r="H100" s="147">
+      <c r="G100" s="140">
+        <v>60</v>
+      </c>
+      <c r="H100" s="140">
         <v>4</v>
       </c>
       <c r="I100" t="s">
@@ -30884,10 +30859,10 @@
       <c r="F101" t="s">
         <v>554</v>
       </c>
-      <c r="G101" s="147">
-        <v>60</v>
-      </c>
-      <c r="H101" s="147">
+      <c r="G101" s="140">
+        <v>60</v>
+      </c>
+      <c r="H101" s="140">
         <v>4</v>
       </c>
       <c r="I101" t="s">
@@ -30928,10 +30903,10 @@
       <c r="F102" t="s">
         <v>428</v>
       </c>
-      <c r="G102" s="147">
-        <v>60</v>
-      </c>
-      <c r="H102" s="147">
+      <c r="G102" s="140">
+        <v>60</v>
+      </c>
+      <c r="H102" s="140">
         <v>4</v>
       </c>
       <c r="I102" t="s">
@@ -30972,10 +30947,10 @@
       <c r="F103" t="s">
         <v>383</v>
       </c>
-      <c r="G103" s="147">
-        <v>60</v>
-      </c>
-      <c r="H103" s="147">
+      <c r="G103" s="140">
+        <v>60</v>
+      </c>
+      <c r="H103" s="140">
         <v>4</v>
       </c>
       <c r="I103" t="s">
@@ -31016,10 +30991,10 @@
       <c r="F104" t="s">
         <v>85</v>
       </c>
-      <c r="G104" s="147">
+      <c r="G104" s="140">
         <v>30</v>
       </c>
-      <c r="H104" s="147">
+      <c r="H104" s="140">
         <v>2</v>
       </c>
       <c r="I104" t="s">
@@ -31056,10 +31031,10 @@
       <c r="F105" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="147">
+      <c r="G105" s="140">
         <v>30</v>
       </c>
-      <c r="H105" s="147">
+      <c r="H105" s="140">
         <v>2</v>
       </c>
       <c r="I105" t="s">
@@ -31096,10 +31071,10 @@
       <c r="F106" t="s">
         <v>559</v>
       </c>
-      <c r="G106" s="147">
-        <v>60</v>
-      </c>
-      <c r="H106" s="147">
+      <c r="G106" s="140">
+        <v>60</v>
+      </c>
+      <c r="H106" s="140">
         <v>4</v>
       </c>
       <c r="I106" t="s">
@@ -31140,10 +31115,10 @@
       <c r="F107" t="s">
         <v>560</v>
       </c>
-      <c r="G107" s="147">
-        <v>60</v>
-      </c>
-      <c r="H107" s="147">
+      <c r="G107" s="140">
+        <v>60</v>
+      </c>
+      <c r="H107" s="140">
         <v>4</v>
       </c>
       <c r="I107" t="s">
@@ -31184,10 +31159,10 @@
       <c r="F108" t="s">
         <v>392</v>
       </c>
-      <c r="G108" s="147">
-        <v>60</v>
-      </c>
-      <c r="H108" s="147">
+      <c r="G108" s="140">
+        <v>60</v>
+      </c>
+      <c r="H108" s="140">
         <v>4</v>
       </c>
       <c r="I108" t="s">
@@ -31228,10 +31203,10 @@
       <c r="F109" t="s">
         <v>165</v>
       </c>
-      <c r="G109" s="147">
-        <v>60</v>
-      </c>
-      <c r="H109" s="147">
+      <c r="G109" s="140">
+        <v>60</v>
+      </c>
+      <c r="H109" s="140">
         <v>4</v>
       </c>
       <c r="I109" t="s">
@@ -31272,10 +31247,10 @@
       <c r="F110" t="s">
         <v>561</v>
       </c>
-      <c r="G110" s="147">
-        <v>60</v>
-      </c>
-      <c r="H110" s="147">
+      <c r="G110" s="140">
+        <v>60</v>
+      </c>
+      <c r="H110" s="140">
         <v>4</v>
       </c>
       <c r="I110" t="s">
@@ -31316,10 +31291,10 @@
       <c r="F111" t="s">
         <v>562</v>
       </c>
-      <c r="G111" s="147">
-        <v>60</v>
-      </c>
-      <c r="H111" s="147">
+      <c r="G111" s="140">
+        <v>60</v>
+      </c>
+      <c r="H111" s="140">
         <v>4</v>
       </c>
       <c r="I111" t="s">
@@ -31355,10 +31330,10 @@
       <c r="F112" t="s">
         <v>133</v>
       </c>
-      <c r="G112" s="147">
-        <v>60</v>
-      </c>
-      <c r="H112" s="147">
+      <c r="G112" s="140">
+        <v>60</v>
+      </c>
+      <c r="H112" s="140">
         <v>4</v>
       </c>
       <c r="I112" t="s">
@@ -31399,10 +31374,10 @@
       <c r="F113" t="s">
         <v>564</v>
       </c>
-      <c r="G113" s="147">
-        <v>60</v>
-      </c>
-      <c r="H113" s="147">
+      <c r="G113" s="140">
+        <v>60</v>
+      </c>
+      <c r="H113" s="140">
         <v>4</v>
       </c>
       <c r="I113" t="s">
@@ -31443,10 +31418,10 @@
       <c r="F114" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="147">
-        <v>60</v>
-      </c>
-      <c r="H114" s="147">
+      <c r="G114" s="140">
+        <v>60</v>
+      </c>
+      <c r="H114" s="140">
         <v>4</v>
       </c>
       <c r="I114" t="s">
@@ -31487,10 +31462,10 @@
       <c r="F115" t="s">
         <v>516</v>
       </c>
-      <c r="G115" s="147">
-        <v>60</v>
-      </c>
-      <c r="H115" s="147">
+      <c r="G115" s="140">
+        <v>60</v>
+      </c>
+      <c r="H115" s="140">
         <v>4</v>
       </c>
       <c r="I115" t="s">
@@ -31531,10 +31506,10 @@
       <c r="F116" t="s">
         <v>523</v>
       </c>
-      <c r="G116" s="147">
-        <v>60</v>
-      </c>
-      <c r="H116" s="147">
+      <c r="G116" s="140">
+        <v>60</v>
+      </c>
+      <c r="H116" s="140">
         <v>4</v>
       </c>
       <c r="I116" t="s">
@@ -31575,10 +31550,10 @@
       <c r="F117" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="147">
-        <v>60</v>
-      </c>
-      <c r="H117" s="147">
+      <c r="G117" s="140">
+        <v>60</v>
+      </c>
+      <c r="H117" s="140">
         <v>4</v>
       </c>
       <c r="I117" t="s">
@@ -31619,10 +31594,10 @@
       <c r="F118" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="147">
-        <v>60</v>
-      </c>
-      <c r="H118" s="147">
+      <c r="G118" s="140">
+        <v>60</v>
+      </c>
+      <c r="H118" s="140">
         <v>4</v>
       </c>
       <c r="I118" t="s">
@@ -31663,10 +31638,10 @@
       <c r="F119" t="s">
         <v>526</v>
       </c>
-      <c r="G119" s="147">
-        <v>60</v>
-      </c>
-      <c r="H119" s="147">
+      <c r="G119" s="140">
+        <v>60</v>
+      </c>
+      <c r="H119" s="140">
         <v>4</v>
       </c>
       <c r="I119" t="s">
@@ -31707,10 +31682,10 @@
       <c r="F120" t="s">
         <v>517</v>
       </c>
-      <c r="G120" s="147">
-        <v>60</v>
-      </c>
-      <c r="H120" s="147">
+      <c r="G120" s="140">
+        <v>60</v>
+      </c>
+      <c r="H120" s="140">
         <v>4</v>
       </c>
       <c r="I120" t="s">
@@ -31751,10 +31726,10 @@
       <c r="F121" t="s">
         <v>518</v>
       </c>
-      <c r="G121" s="147">
-        <v>60</v>
-      </c>
-      <c r="H121" s="147">
+      <c r="G121" s="140">
+        <v>60</v>
+      </c>
+      <c r="H121" s="140">
         <v>4</v>
       </c>
       <c r="I121" t="s">
@@ -31795,10 +31770,10 @@
       <c r="F122" t="s">
         <v>519</v>
       </c>
-      <c r="G122" s="147">
-        <v>60</v>
-      </c>
-      <c r="H122" s="147">
+      <c r="G122" s="140">
+        <v>60</v>
+      </c>
+      <c r="H122" s="140">
         <v>4</v>
       </c>
       <c r="I122" t="s">
@@ -31839,10 +31814,10 @@
       <c r="F123" t="s">
         <v>527</v>
       </c>
-      <c r="G123" s="147">
-        <v>60</v>
-      </c>
-      <c r="H123" s="147">
+      <c r="G123" s="140">
+        <v>60</v>
+      </c>
+      <c r="H123" s="140">
         <v>4</v>
       </c>
       <c r="I123" t="s">
@@ -31883,10 +31858,10 @@
       <c r="F124" t="s">
         <v>520</v>
       </c>
-      <c r="G124" s="147">
-        <v>60</v>
-      </c>
-      <c r="H124" s="147">
+      <c r="G124" s="140">
+        <v>60</v>
+      </c>
+      <c r="H124" s="140">
         <v>4</v>
       </c>
       <c r="I124" t="s">
@@ -31927,10 +31902,10 @@
       <c r="F125" t="s">
         <v>521</v>
       </c>
-      <c r="G125" s="147">
-        <v>60</v>
-      </c>
-      <c r="H125" s="147">
+      <c r="G125" s="140">
+        <v>60</v>
+      </c>
+      <c r="H125" s="140">
         <v>4</v>
       </c>
       <c r="I125" t="s">
@@ -31971,10 +31946,10 @@
       <c r="F126" t="s">
         <v>528</v>
       </c>
-      <c r="G126" s="147">
+      <c r="G126" s="140">
         <v>15</v>
       </c>
-      <c r="H126" s="147">
+      <c r="H126" s="140">
         <v>1</v>
       </c>
       <c r="I126" t="s">
@@ -32015,10 +31990,10 @@
       <c r="F127" t="s">
         <v>529</v>
       </c>
-      <c r="G127" s="147">
+      <c r="G127" s="140">
         <v>30</v>
       </c>
-      <c r="H127" s="147">
+      <c r="H127" s="140">
         <v>2</v>
       </c>
       <c r="I127" t="s">
@@ -32059,10 +32034,10 @@
       <c r="F128" t="s">
         <v>522</v>
       </c>
-      <c r="G128" s="147">
+      <c r="G128" s="140">
         <v>30</v>
       </c>
-      <c r="H128" s="147">
+      <c r="H128" s="140">
         <v>2</v>
       </c>
       <c r="I128" t="s">
@@ -32103,10 +32078,10 @@
       <c r="F129" t="s">
         <v>530</v>
       </c>
-      <c r="G129" s="147">
+      <c r="G129" s="140">
         <v>30</v>
       </c>
-      <c r="H129" s="147">
+      <c r="H129" s="140">
         <v>2</v>
       </c>
       <c r="I129" t="s">
@@ -32147,10 +32122,10 @@
       <c r="F130" t="s">
         <v>531</v>
       </c>
-      <c r="G130" s="147">
+      <c r="G130" s="140">
         <v>30</v>
       </c>
-      <c r="H130" s="147">
+      <c r="H130" s="140">
         <v>2</v>
       </c>
       <c r="I130" t="s">
@@ -32191,10 +32166,10 @@
       <c r="F131" t="s">
         <v>566</v>
       </c>
-      <c r="G131" s="147">
+      <c r="G131" s="140">
         <v>30</v>
       </c>
-      <c r="H131" s="147">
+      <c r="H131" s="140">
         <v>2</v>
       </c>
       <c r="I131" t="s">
@@ -32235,10 +32210,10 @@
       <c r="F132" t="s">
         <v>91</v>
       </c>
-      <c r="G132" s="147">
-        <v>60</v>
-      </c>
-      <c r="H132" s="147">
+      <c r="G132" s="140">
+        <v>60</v>
+      </c>
+      <c r="H132" s="140">
         <v>4</v>
       </c>
       <c r="I132" t="s">
@@ -32277,10 +32252,10 @@
       <c r="F133" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G133" s="147">
-        <v>60</v>
-      </c>
-      <c r="H133" s="147">
+      <c r="G133" s="140">
+        <v>60</v>
+      </c>
+      <c r="H133" s="140">
         <v>4</v>
       </c>
       <c r="I133" s="74" t="s">
@@ -32323,10 +32298,10 @@
       <c r="F134" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G134" s="147">
-        <v>60</v>
-      </c>
-      <c r="H134" s="147">
+      <c r="G134" s="140">
+        <v>60</v>
+      </c>
+      <c r="H134" s="140">
         <v>4</v>
       </c>
       <c r="I134" s="74" t="s">
@@ -32369,10 +32344,10 @@
       <c r="F135" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G135" s="147">
-        <v>60</v>
-      </c>
-      <c r="H135" s="147">
+      <c r="G135" s="140">
+        <v>60</v>
+      </c>
+      <c r="H135" s="140">
         <v>4</v>
       </c>
       <c r="I135" s="74" t="s">
@@ -32413,10 +32388,10 @@
       <c r="F136" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G136" s="147">
-        <v>60</v>
-      </c>
-      <c r="H136" s="147">
+      <c r="G136" s="140">
+        <v>60</v>
+      </c>
+      <c r="H136" s="140">
         <v>4</v>
       </c>
       <c r="I136" s="74" t="s">
@@ -32457,10 +32432,10 @@
       <c r="F137" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G137" s="147">
-        <v>60</v>
-      </c>
-      <c r="H137" s="147">
+      <c r="G137" s="140">
+        <v>60</v>
+      </c>
+      <c r="H137" s="140">
         <v>4</v>
       </c>
       <c r="I137" s="74" t="s">
@@ -32503,10 +32478,10 @@
       <c r="F138" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G138" s="147">
-        <v>60</v>
-      </c>
-      <c r="H138" s="147">
+      <c r="G138" s="140">
+        <v>60</v>
+      </c>
+      <c r="H138" s="140">
         <v>4</v>
       </c>
       <c r="I138" s="74" t="s">
@@ -32549,10 +32524,10 @@
       <c r="F139" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G139" s="147">
-        <v>60</v>
-      </c>
-      <c r="H139" s="147">
+      <c r="G139" s="140">
+        <v>60</v>
+      </c>
+      <c r="H139" s="140">
         <v>4</v>
       </c>
       <c r="I139" s="74" t="s">
@@ -32595,10 +32570,10 @@
       <c r="F140" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G140" s="147">
-        <v>60</v>
-      </c>
-      <c r="H140" s="147">
+      <c r="G140" s="140">
+        <v>60</v>
+      </c>
+      <c r="H140" s="140">
         <v>4</v>
       </c>
       <c r="I140" s="74" t="s">
@@ -32641,10 +32616,10 @@
       <c r="F141" s="74" t="s">
         <v>571</v>
       </c>
-      <c r="G141" s="147">
-        <v>60</v>
-      </c>
-      <c r="H141" s="147">
+      <c r="G141" s="140">
+        <v>60</v>
+      </c>
+      <c r="H141" s="140">
         <v>4</v>
       </c>
       <c r="I141" s="74" t="s">
@@ -32685,10 +32660,10 @@
       <c r="F142" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="G142" s="147">
-        <v>60</v>
-      </c>
-      <c r="H142" s="147">
+      <c r="G142" s="140">
+        <v>60</v>
+      </c>
+      <c r="H142" s="140">
         <v>4</v>
       </c>
       <c r="I142" s="74" t="s">
@@ -32731,10 +32706,10 @@
       <c r="F143" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="G143" s="147">
-        <v>60</v>
-      </c>
-      <c r="H143" s="147">
+      <c r="G143" s="140">
+        <v>60</v>
+      </c>
+      <c r="H143" s="140">
         <v>4</v>
       </c>
       <c r="I143" s="74" t="s">
@@ -32777,10 +32752,10 @@
       <c r="F144" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G144" s="147">
-        <v>60</v>
-      </c>
-      <c r="H144" s="147">
+      <c r="G144" s="140">
+        <v>60</v>
+      </c>
+      <c r="H144" s="140">
         <v>4</v>
       </c>
       <c r="I144" s="74" t="s">
@@ -32821,10 +32796,10 @@
       <c r="F145" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G145" s="147">
-        <v>60</v>
-      </c>
-      <c r="H145" s="147">
+      <c r="G145" s="140">
+        <v>60</v>
+      </c>
+      <c r="H145" s="140">
         <v>4</v>
       </c>
       <c r="I145" s="74" t="s">
@@ -32865,10 +32840,10 @@
       <c r="F146" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G146" s="147">
-        <v>60</v>
-      </c>
-      <c r="H146" s="147">
+      <c r="G146" s="140">
+        <v>60</v>
+      </c>
+      <c r="H146" s="140">
         <v>4</v>
       </c>
       <c r="I146" s="74" t="s">
@@ -32911,10 +32886,10 @@
       <c r="F147" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G147" s="147">
-        <v>60</v>
-      </c>
-      <c r="H147" s="147">
+      <c r="G147" s="140">
+        <v>60</v>
+      </c>
+      <c r="H147" s="140">
         <v>4</v>
       </c>
       <c r="I147" s="74" t="s">
@@ -32957,10 +32932,10 @@
       <c r="F148" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="G148" s="147">
+      <c r="G148" s="140">
         <v>30</v>
       </c>
-      <c r="H148" s="147">
+      <c r="H148" s="140">
         <v>2</v>
       </c>
       <c r="I148" s="74" t="s">
@@ -33003,10 +32978,10 @@
       <c r="F149" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="G149" s="147">
+      <c r="G149" s="140">
         <v>30</v>
       </c>
-      <c r="H149" s="147">
+      <c r="H149" s="140">
         <v>2</v>
       </c>
       <c r="I149" s="74" t="s">
@@ -33049,10 +33024,10 @@
       <c r="F150" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G150" s="147">
-        <v>60</v>
-      </c>
-      <c r="H150" s="147">
+      <c r="G150" s="140">
+        <v>60</v>
+      </c>
+      <c r="H150" s="140">
         <v>4</v>
       </c>
       <c r="I150" s="74" t="s">
@@ -33093,10 +33068,10 @@
       <c r="F151" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G151" s="147">
-        <v>60</v>
-      </c>
-      <c r="H151" s="147">
+      <c r="G151" s="140">
+        <v>60</v>
+      </c>
+      <c r="H151" s="140">
         <v>4</v>
       </c>
       <c r="I151" s="74" t="s">
@@ -33139,10 +33114,10 @@
       <c r="F152" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G152" s="147">
-        <v>60</v>
-      </c>
-      <c r="H152" s="147">
+      <c r="G152" s="140">
+        <v>60</v>
+      </c>
+      <c r="H152" s="140">
         <v>4</v>
       </c>
       <c r="I152" s="74" t="s">
@@ -33185,10 +33160,10 @@
       <c r="F153" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G153" s="147">
-        <v>60</v>
-      </c>
-      <c r="H153" s="147">
+      <c r="G153" s="140">
+        <v>60</v>
+      </c>
+      <c r="H153" s="140">
         <v>4</v>
       </c>
       <c r="I153" s="74" t="s">
@@ -33229,10 +33204,10 @@
       <c r="F154" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="147">
-        <v>60</v>
-      </c>
-      <c r="H154" s="147">
+      <c r="G154" s="140">
+        <v>60</v>
+      </c>
+      <c r="H154" s="140">
         <v>4</v>
       </c>
       <c r="I154" s="74" t="s">
@@ -33271,10 +33246,10 @@
       <c r="F155" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G155" s="147">
-        <v>60</v>
-      </c>
-      <c r="H155" s="147">
+      <c r="G155" s="140">
+        <v>60</v>
+      </c>
+      <c r="H155" s="140">
         <v>4</v>
       </c>
       <c r="I155" s="74" t="s">
@@ -33317,10 +33292,10 @@
       <c r="F156" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G156" s="147">
-        <v>60</v>
-      </c>
-      <c r="H156" s="147">
+      <c r="G156" s="140">
+        <v>60</v>
+      </c>
+      <c r="H156" s="140">
         <v>4</v>
       </c>
       <c r="I156" s="74" t="s">
@@ -33363,10 +33338,10 @@
       <c r="F157" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="147">
-        <v>60</v>
-      </c>
-      <c r="H157" s="147">
+      <c r="G157" s="140">
+        <v>60</v>
+      </c>
+      <c r="H157" s="140">
         <v>4</v>
       </c>
       <c r="I157" s="74" t="s">
@@ -33405,10 +33380,10 @@
       <c r="F158" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G158" s="147">
-        <v>60</v>
-      </c>
-      <c r="H158" s="147">
+      <c r="G158" s="140">
+        <v>60</v>
+      </c>
+      <c r="H158" s="140">
         <v>4</v>
       </c>
       <c r="I158" s="74" t="s">
@@ -33451,10 +33426,10 @@
       <c r="F159" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G159" s="147">
-        <v>60</v>
-      </c>
-      <c r="H159" s="147">
+      <c r="G159" s="140">
+        <v>60</v>
+      </c>
+      <c r="H159" s="140">
         <v>4</v>
       </c>
       <c r="I159" s="74" t="s">
@@ -33497,10 +33472,10 @@
       <c r="F160" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G160" s="147">
-        <v>60</v>
-      </c>
-      <c r="H160" s="147">
+      <c r="G160" s="140">
+        <v>60</v>
+      </c>
+      <c r="H160" s="140">
         <v>4</v>
       </c>
       <c r="I160" s="74" t="s">
@@ -33541,10 +33516,10 @@
       <c r="F161" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G161" s="147">
-        <v>60</v>
-      </c>
-      <c r="H161" s="147">
+      <c r="G161" s="140">
+        <v>60</v>
+      </c>
+      <c r="H161" s="140">
         <v>4</v>
       </c>
       <c r="I161" s="74" t="s">
@@ -33587,10 +33562,10 @@
       <c r="F162" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G162" s="147">
-        <v>60</v>
-      </c>
-      <c r="H162" s="147">
+      <c r="G162" s="140">
+        <v>60</v>
+      </c>
+      <c r="H162" s="140">
         <v>4</v>
       </c>
       <c r="I162" s="74" t="s">
@@ -33633,10 +33608,10 @@
       <c r="F163" s="74" t="s">
         <v>575</v>
       </c>
-      <c r="G163" s="147">
-        <v>60</v>
-      </c>
-      <c r="H163" s="147">
+      <c r="G163" s="140">
+        <v>60</v>
+      </c>
+      <c r="H163" s="140">
         <v>4</v>
       </c>
       <c r="I163" s="74" t="s">
@@ -33677,10 +33652,10 @@
       <c r="F164" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G164" s="147">
-        <v>60</v>
-      </c>
-      <c r="H164" s="147">
+      <c r="G164" s="140">
+        <v>60</v>
+      </c>
+      <c r="H164" s="140">
         <v>4</v>
       </c>
       <c r="I164" s="74" t="s">
@@ -33723,10 +33698,10 @@
       <c r="F165" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G165" s="147">
-        <v>60</v>
-      </c>
-      <c r="H165" s="147">
+      <c r="G165" s="140">
+        <v>60</v>
+      </c>
+      <c r="H165" s="140">
         <v>4</v>
       </c>
       <c r="I165" s="74" t="s">
@@ -33769,10 +33744,10 @@
       <c r="F166" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G166" s="147">
-        <v>60</v>
-      </c>
-      <c r="H166" s="147">
+      <c r="G166" s="140">
+        <v>60</v>
+      </c>
+      <c r="H166" s="140">
         <v>4</v>
       </c>
       <c r="I166" s="74" t="s">
@@ -33813,10 +33788,10 @@
       <c r="F167" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G167" s="147">
-        <v>60</v>
-      </c>
-      <c r="H167" s="147">
+      <c r="G167" s="140">
+        <v>60</v>
+      </c>
+      <c r="H167" s="140">
         <v>4</v>
       </c>
       <c r="I167" s="74" t="s">
@@ -33859,10 +33834,10 @@
       <c r="F168" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G168" s="147">
-        <v>60</v>
-      </c>
-      <c r="H168" s="147">
+      <c r="G168" s="140">
+        <v>60</v>
+      </c>
+      <c r="H168" s="140">
         <v>4</v>
       </c>
       <c r="I168" s="74" t="s">
@@ -33905,10 +33880,10 @@
       <c r="F169" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G169" s="147">
-        <v>60</v>
-      </c>
-      <c r="H169" s="147">
+      <c r="G169" s="140">
+        <v>60</v>
+      </c>
+      <c r="H169" s="140">
         <v>4</v>
       </c>
       <c r="I169" s="74" t="s">
@@ -33951,10 +33926,10 @@
       <c r="F170" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G170" s="147">
-        <v>60</v>
-      </c>
-      <c r="H170" s="147">
+      <c r="G170" s="140">
+        <v>60</v>
+      </c>
+      <c r="H170" s="140">
         <v>4</v>
       </c>
       <c r="I170" s="74" t="s">
@@ -33997,10 +33972,10 @@
       <c r="F171" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G171" s="147">
-        <v>60</v>
-      </c>
-      <c r="H171" s="147">
+      <c r="G171" s="140">
+        <v>60</v>
+      </c>
+      <c r="H171" s="140">
         <v>4</v>
       </c>
       <c r="I171" s="74" t="s">
@@ -34041,10 +34016,10 @@
       <c r="F172" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G172" s="147">
-        <v>60</v>
-      </c>
-      <c r="H172" s="147">
+      <c r="G172" s="140">
+        <v>60</v>
+      </c>
+      <c r="H172" s="140">
         <v>4</v>
       </c>
       <c r="I172" s="74" t="s">
@@ -34085,10 +34060,10 @@
       <c r="F173" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G173" s="147">
-        <v>60</v>
-      </c>
-      <c r="H173" s="147">
+      <c r="G173" s="140">
+        <v>60</v>
+      </c>
+      <c r="H173" s="140">
         <v>4</v>
       </c>
       <c r="I173" s="74" t="s">
@@ -34131,10 +34106,10 @@
       <c r="F174" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G174" s="147">
-        <v>60</v>
-      </c>
-      <c r="H174" s="147">
+      <c r="G174" s="140">
+        <v>60</v>
+      </c>
+      <c r="H174" s="140">
         <v>4</v>
       </c>
       <c r="I174" s="74" t="s">
@@ -34177,10 +34152,10 @@
       <c r="F175" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G175" s="147">
-        <v>60</v>
-      </c>
-      <c r="H175" s="147">
+      <c r="G175" s="140">
+        <v>60</v>
+      </c>
+      <c r="H175" s="140">
         <v>4</v>
       </c>
       <c r="I175" s="74" t="s">
@@ -34221,10 +34196,10 @@
       <c r="F176" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G176" s="147">
-        <v>60</v>
-      </c>
-      <c r="H176" s="147">
+      <c r="G176" s="140">
+        <v>60</v>
+      </c>
+      <c r="H176" s="140">
         <v>4</v>
       </c>
       <c r="I176" s="74" t="s">
@@ -34267,10 +34242,10 @@
       <c r="F177" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G177" s="147">
-        <v>60</v>
-      </c>
-      <c r="H177" s="147">
+      <c r="G177" s="140">
+        <v>60</v>
+      </c>
+      <c r="H177" s="140">
         <v>4</v>
       </c>
       <c r="I177" s="74" t="s">
@@ -34313,10 +34288,10 @@
       <c r="F178" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G178" s="147">
-        <v>60</v>
-      </c>
-      <c r="H178" s="147">
+      <c r="G178" s="140">
+        <v>60</v>
+      </c>
+      <c r="H178" s="140">
         <v>4</v>
       </c>
       <c r="I178" s="74" t="s">
@@ -34359,10 +34334,10 @@
       <c r="F179" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G179" s="147">
-        <v>60</v>
-      </c>
-      <c r="H179" s="147">
+      <c r="G179" s="140">
+        <v>60</v>
+      </c>
+      <c r="H179" s="140">
         <v>4</v>
       </c>
       <c r="I179" s="74" t="s">
@@ -34405,10 +34380,10 @@
       <c r="F180" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G180" s="147">
-        <v>60</v>
-      </c>
-      <c r="H180" s="147">
+      <c r="G180" s="140">
+        <v>60</v>
+      </c>
+      <c r="H180" s="140">
         <v>4</v>
       </c>
       <c r="I180" s="74" t="s">
@@ -34449,10 +34424,10 @@
       <c r="F181" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G181" s="147">
-        <v>60</v>
-      </c>
-      <c r="H181" s="147">
+      <c r="G181" s="140">
+        <v>60</v>
+      </c>
+      <c r="H181" s="140">
         <v>4</v>
       </c>
       <c r="I181" s="74" t="s">
@@ -34493,10 +34468,10 @@
       <c r="F182" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G182" s="147">
-        <v>60</v>
-      </c>
-      <c r="H182" s="147">
+      <c r="G182" s="140">
+        <v>60</v>
+      </c>
+      <c r="H182" s="140">
         <v>4</v>
       </c>
       <c r="I182" s="74" t="s">
@@ -34539,10 +34514,10 @@
       <c r="F183" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G183" s="147">
-        <v>60</v>
-      </c>
-      <c r="H183" s="147">
+      <c r="G183" s="140">
+        <v>60</v>
+      </c>
+      <c r="H183" s="140">
         <v>4</v>
       </c>
       <c r="I183" s="74" t="s">
@@ -34585,10 +34560,10 @@
       <c r="F184" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G184" s="147">
-        <v>60</v>
-      </c>
-      <c r="H184" s="147">
+      <c r="G184" s="140">
+        <v>60</v>
+      </c>
+      <c r="H184" s="140">
         <v>4</v>
       </c>
       <c r="I184" s="74" t="s">
@@ -34629,10 +34604,10 @@
       <c r="F185" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G185" s="147">
-        <v>60</v>
-      </c>
-      <c r="H185" s="147">
+      <c r="G185" s="140">
+        <v>60</v>
+      </c>
+      <c r="H185" s="140">
         <v>4</v>
       </c>
       <c r="I185" s="74" t="s">
@@ -34675,10 +34650,10 @@
       <c r="F186" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G186" s="147">
-        <v>60</v>
-      </c>
-      <c r="H186" s="147">
+      <c r="G186" s="140">
+        <v>60</v>
+      </c>
+      <c r="H186" s="140">
         <v>4</v>
       </c>
       <c r="I186" s="74" t="s">
@@ -34721,10 +34696,10 @@
       <c r="F187" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G187" s="147">
-        <v>60</v>
-      </c>
-      <c r="H187" s="147">
+      <c r="G187" s="140">
+        <v>60</v>
+      </c>
+      <c r="H187" s="140">
         <v>4</v>
       </c>
       <c r="I187" s="74" t="s">
@@ -34765,10 +34740,10 @@
       <c r="F188" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="G188" s="147">
-        <v>60</v>
-      </c>
-      <c r="H188" s="147">
+      <c r="G188" s="140">
+        <v>60</v>
+      </c>
+      <c r="H188" s="140">
         <v>4</v>
       </c>
       <c r="I188" s="74" t="s">
@@ -34811,10 +34786,10 @@
       <c r="F189" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="G189" s="147">
-        <v>60</v>
-      </c>
-      <c r="H189" s="147">
+      <c r="G189" s="140">
+        <v>60</v>
+      </c>
+      <c r="H189" s="140">
         <v>4</v>
       </c>
       <c r="I189" s="74" t="s">
@@ -34857,10 +34832,10 @@
       <c r="F190" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G190" s="147">
-        <v>60</v>
-      </c>
-      <c r="H190" s="147">
+      <c r="G190" s="140">
+        <v>60</v>
+      </c>
+      <c r="H190" s="140">
         <v>4</v>
       </c>
       <c r="I190" s="74" t="s">
@@ -34901,10 +34876,10 @@
       <c r="F191" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G191" s="147">
-        <v>60</v>
-      </c>
-      <c r="H191" s="147">
+      <c r="G191" s="140">
+        <v>60</v>
+      </c>
+      <c r="H191" s="140">
         <v>4</v>
       </c>
       <c r="I191" s="74" t="s">
@@ -34947,10 +34922,10 @@
       <c r="F192" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G192" s="147">
-        <v>60</v>
-      </c>
-      <c r="H192" s="147">
+      <c r="G192" s="140">
+        <v>60</v>
+      </c>
+      <c r="H192" s="140">
         <v>4</v>
       </c>
       <c r="I192" s="74" t="s">
@@ -34993,10 +34968,10 @@
       <c r="F193" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G193" s="147">
-        <v>60</v>
-      </c>
-      <c r="H193" s="147">
+      <c r="G193" s="140">
+        <v>60</v>
+      </c>
+      <c r="H193" s="140">
         <v>4</v>
       </c>
       <c r="I193" s="74" t="s">
@@ -35039,10 +35014,10 @@
       <c r="F194" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G194" s="147">
-        <v>60</v>
-      </c>
-      <c r="H194" s="147">
+      <c r="G194" s="140">
+        <v>60</v>
+      </c>
+      <c r="H194" s="140">
         <v>4</v>
       </c>
       <c r="I194" s="74" t="s">
@@ -35085,10 +35060,10 @@
       <c r="F195" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G195" s="147">
-        <v>60</v>
-      </c>
-      <c r="H195" s="147">
+      <c r="G195" s="140">
+        <v>60</v>
+      </c>
+      <c r="H195" s="140">
         <v>4</v>
       </c>
       <c r="I195" s="74" t="s">
@@ -35129,10 +35104,10 @@
       <c r="F196" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G196" s="147">
-        <v>60</v>
-      </c>
-      <c r="H196" s="147">
+      <c r="G196" s="140">
+        <v>60</v>
+      </c>
+      <c r="H196" s="140">
         <v>4</v>
       </c>
       <c r="I196" s="74" t="s">
@@ -35173,10 +35148,10 @@
       <c r="F197" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G197" s="147">
-        <v>60</v>
-      </c>
-      <c r="H197" s="147">
+      <c r="G197" s="140">
+        <v>60</v>
+      </c>
+      <c r="H197" s="140">
         <v>4</v>
       </c>
       <c r="I197" s="74" t="s">
@@ -35219,10 +35194,10 @@
       <c r="F198" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G198" s="147">
-        <v>60</v>
-      </c>
-      <c r="H198" s="147">
+      <c r="G198" s="140">
+        <v>60</v>
+      </c>
+      <c r="H198" s="140">
         <v>4</v>
       </c>
       <c r="I198" s="74" t="s">
@@ -35265,10 +35240,10 @@
       <c r="F199" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G199" s="147">
-        <v>60</v>
-      </c>
-      <c r="H199" s="147">
+      <c r="G199" s="140">
+        <v>60</v>
+      </c>
+      <c r="H199" s="140">
         <v>4</v>
       </c>
       <c r="I199" s="74" t="s">
@@ -35311,10 +35286,10 @@
       <c r="F200" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G200" s="147">
-        <v>60</v>
-      </c>
-      <c r="H200" s="147">
+      <c r="G200" s="140">
+        <v>60</v>
+      </c>
+      <c r="H200" s="140">
         <v>4</v>
       </c>
       <c r="I200" s="74" t="s">
@@ -35357,10 +35332,10 @@
       <c r="F201" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G201" s="147">
-        <v>60</v>
-      </c>
-      <c r="H201" s="147">
+      <c r="G201" s="140">
+        <v>60</v>
+      </c>
+      <c r="H201" s="140">
         <v>4</v>
       </c>
       <c r="I201" s="74" t="s">
@@ -35401,10 +35376,10 @@
       <c r="F202" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G202" s="147">
-        <v>60</v>
-      </c>
-      <c r="H202" s="147">
+      <c r="G202" s="140">
+        <v>60</v>
+      </c>
+      <c r="H202" s="140">
         <v>4</v>
       </c>
       <c r="I202" s="74" t="s">
@@ -35447,10 +35422,10 @@
       <c r="F203" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G203" s="147">
-        <v>60</v>
-      </c>
-      <c r="H203" s="147">
+      <c r="G203" s="140">
+        <v>60</v>
+      </c>
+      <c r="H203" s="140">
         <v>4</v>
       </c>
       <c r="I203" s="74" t="s">
@@ -35493,10 +35468,10 @@
       <c r="F204" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G204" s="147">
-        <v>60</v>
-      </c>
-      <c r="H204" s="147">
+      <c r="G204" s="140">
+        <v>60</v>
+      </c>
+      <c r="H204" s="140">
         <v>4</v>
       </c>
       <c r="I204" s="74" t="s">
@@ -35537,10 +35512,10 @@
       <c r="F205" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G205" s="147">
-        <v>60</v>
-      </c>
-      <c r="H205" s="147">
+      <c r="G205" s="140">
+        <v>60</v>
+      </c>
+      <c r="H205" s="140">
         <v>4</v>
       </c>
       <c r="I205" s="74" t="s">
@@ -35581,10 +35556,10 @@
       <c r="F206" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G206" s="147">
-        <v>60</v>
-      </c>
-      <c r="H206" s="147">
+      <c r="G206" s="140">
+        <v>60</v>
+      </c>
+      <c r="H206" s="140">
         <v>4</v>
       </c>
       <c r="I206" s="74" t="s">
@@ -35627,10 +35602,10 @@
       <c r="F207" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G207" s="147">
-        <v>60</v>
-      </c>
-      <c r="H207" s="147">
+      <c r="G207" s="140">
+        <v>60</v>
+      </c>
+      <c r="H207" s="140">
         <v>4</v>
       </c>
       <c r="I207" s="74" t="s">
@@ -35673,10 +35648,10 @@
       <c r="F208" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G208" s="147">
-        <v>60</v>
-      </c>
-      <c r="H208" s="147">
+      <c r="G208" s="140">
+        <v>60</v>
+      </c>
+      <c r="H208" s="140">
         <v>4</v>
       </c>
       <c r="I208" s="74" t="s">
@@ -35717,10 +35692,10 @@
       <c r="F209" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G209" s="147">
-        <v>60</v>
-      </c>
-      <c r="H209" s="147">
+      <c r="G209" s="140">
+        <v>60</v>
+      </c>
+      <c r="H209" s="140">
         <v>4</v>
       </c>
       <c r="I209" s="74" t="s">
@@ -35763,10 +35738,10 @@
       <c r="F210" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G210" s="147">
-        <v>60</v>
-      </c>
-      <c r="H210" s="147">
+      <c r="G210" s="140">
+        <v>60</v>
+      </c>
+      <c r="H210" s="140">
         <v>4</v>
       </c>
       <c r="I210" s="74" t="s">
@@ -35809,10 +35784,10 @@
       <c r="F211" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G211" s="147">
-        <v>60</v>
-      </c>
-      <c r="H211" s="147">
+      <c r="G211" s="140">
+        <v>60</v>
+      </c>
+      <c r="H211" s="140">
         <v>4</v>
       </c>
       <c r="I211" s="74" t="s">
@@ -35853,10 +35828,10 @@
       <c r="F212" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G212" s="147">
-        <v>60</v>
-      </c>
-      <c r="H212" s="147">
+      <c r="G212" s="140">
+        <v>60</v>
+      </c>
+      <c r="H212" s="140">
         <v>4</v>
       </c>
       <c r="I212" s="74" t="s">
@@ -35899,10 +35874,10 @@
       <c r="F213" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G213" s="147">
-        <v>60</v>
-      </c>
-      <c r="H213" s="147">
+      <c r="G213" s="140">
+        <v>60</v>
+      </c>
+      <c r="H213" s="140">
         <v>4</v>
       </c>
       <c r="I213" s="74" t="s">
@@ -35945,10 +35920,10 @@
       <c r="F214" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G214" s="147">
-        <v>60</v>
-      </c>
-      <c r="H214" s="147">
+      <c r="G214" s="140">
+        <v>60</v>
+      </c>
+      <c r="H214" s="140">
         <v>4</v>
       </c>
       <c r="I214" s="74" t="s">
@@ -35989,10 +35964,10 @@
       <c r="F215" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G215" s="147">
-        <v>60</v>
-      </c>
-      <c r="H215" s="147">
+      <c r="G215" s="140">
+        <v>60</v>
+      </c>
+      <c r="H215" s="140">
         <v>4</v>
       </c>
       <c r="I215" s="74" t="s">
@@ -36033,10 +36008,10 @@
       <c r="F216" s="74" t="s">
         <v>579</v>
       </c>
-      <c r="G216" s="147">
+      <c r="G216" s="140">
         <v>30</v>
       </c>
-      <c r="H216" s="147">
+      <c r="H216" s="140">
         <v>2</v>
       </c>
       <c r="I216" s="74" t="s">
@@ -36077,10 +36052,10 @@
       <c r="F217" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G217" s="147">
-        <v>60</v>
-      </c>
-      <c r="H217" s="147">
+      <c r="G217" s="140">
+        <v>60</v>
+      </c>
+      <c r="H217" s="140">
         <v>4</v>
       </c>
       <c r="I217" s="74" t="s">
@@ -36121,10 +36096,10 @@
       <c r="F218" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G218" s="147">
-        <v>60</v>
-      </c>
-      <c r="H218" s="147">
+      <c r="G218" s="140">
+        <v>60</v>
+      </c>
+      <c r="H218" s="140">
         <v>4</v>
       </c>
       <c r="I218" s="74" t="s">
@@ -36165,10 +36140,10 @@
       <c r="F219" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G219" s="147">
-        <v>60</v>
-      </c>
-      <c r="H219" s="147">
+      <c r="G219" s="140">
+        <v>60</v>
+      </c>
+      <c r="H219" s="140">
         <v>4</v>
       </c>
       <c r="I219" s="74" t="s">
@@ -36209,10 +36184,10 @@
       <c r="F220" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G220" s="147">
-        <v>60</v>
-      </c>
-      <c r="H220" s="147">
+      <c r="G220" s="140">
+        <v>60</v>
+      </c>
+      <c r="H220" s="140">
         <v>4</v>
       </c>
       <c r="I220" s="74" t="s">
@@ -36255,10 +36230,10 @@
       <c r="F221" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G221" s="147">
+      <c r="G221" s="140">
         <v>30</v>
       </c>
-      <c r="H221" s="147">
+      <c r="H221" s="140">
         <v>2</v>
       </c>
       <c r="I221" s="74" t="s">
@@ -36295,10 +36270,10 @@
       <c r="F222" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G222" s="147">
+      <c r="G222" s="140">
         <v>30</v>
       </c>
-      <c r="H222" s="147">
+      <c r="H222" s="140">
         <v>2</v>
       </c>
       <c r="I222" s="74" t="s">
@@ -36337,10 +36312,10 @@
       <c r="F223" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G223" s="147">
+      <c r="G223" s="140">
         <v>30</v>
       </c>
-      <c r="H223" s="147">
+      <c r="H223" s="140">
         <v>2</v>
       </c>
       <c r="I223" s="74" t="s">
@@ -36377,10 +36352,10 @@
       <c r="F224" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G224" s="147">
+      <c r="G224" s="140">
         <v>30</v>
       </c>
-      <c r="H224" s="147">
+      <c r="H224" s="140">
         <v>2</v>
       </c>
       <c r="I224" s="74" t="s">
@@ -36419,10 +36394,10 @@
       <c r="F225" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G225" s="147">
-        <v>60</v>
-      </c>
-      <c r="H225" s="147">
+      <c r="G225" s="140">
+        <v>60</v>
+      </c>
+      <c r="H225" s="140">
         <v>4</v>
       </c>
       <c r="I225" s="74" t="s">
@@ -36463,10 +36438,10 @@
       <c r="F226" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G226" s="147">
-        <v>60</v>
-      </c>
-      <c r="H226" s="147">
+      <c r="G226" s="140">
+        <v>60</v>
+      </c>
+      <c r="H226" s="140">
         <v>4</v>
       </c>
       <c r="I226" s="74" t="s">
@@ -36509,10 +36484,10 @@
       <c r="F227" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G227" s="147">
-        <v>60</v>
-      </c>
-      <c r="H227" s="147">
+      <c r="G227" s="140">
+        <v>60</v>
+      </c>
+      <c r="H227" s="140">
         <v>4</v>
       </c>
       <c r="I227" s="74" t="s">
@@ -36553,10 +36528,10 @@
       <c r="F228" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G228" s="147">
-        <v>60</v>
-      </c>
-      <c r="H228" s="147">
+      <c r="G228" s="140">
+        <v>60</v>
+      </c>
+      <c r="H228" s="140">
         <v>4</v>
       </c>
       <c r="I228" s="74" t="s">
@@ -36599,10 +36574,10 @@
       <c r="F229" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="G229" s="147">
-        <v>60</v>
-      </c>
-      <c r="H229" s="147">
+      <c r="G229" s="140">
+        <v>60</v>
+      </c>
+      <c r="H229" s="140">
         <v>4</v>
       </c>
       <c r="I229" s="74" t="s">
@@ -36643,10 +36618,10 @@
       <c r="F230" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="G230" s="147">
-        <v>60</v>
-      </c>
-      <c r="H230" s="147">
+      <c r="G230" s="140">
+        <v>60</v>
+      </c>
+      <c r="H230" s="140">
         <v>4</v>
       </c>
       <c r="I230" s="74" t="s">
@@ -36689,10 +36664,10 @@
       <c r="F231" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G231" s="147">
-        <v>60</v>
-      </c>
-      <c r="H231" s="147">
+      <c r="G231" s="140">
+        <v>60</v>
+      </c>
+      <c r="H231" s="140">
         <v>4</v>
       </c>
       <c r="I231" s="74" t="s">
@@ -36733,10 +36708,10 @@
       <c r="F232" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G232" s="147">
-        <v>60</v>
-      </c>
-      <c r="H232" s="147">
+      <c r="G232" s="140">
+        <v>60</v>
+      </c>
+      <c r="H232" s="140">
         <v>4</v>
       </c>
       <c r="I232" s="74" t="s">
@@ -36779,10 +36754,10 @@
       <c r="F233" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="G233" s="147">
-        <v>60</v>
-      </c>
-      <c r="H233" s="147">
+      <c r="G233" s="140">
+        <v>60</v>
+      </c>
+      <c r="H233" s="140">
         <v>4</v>
       </c>
       <c r="I233" s="74" t="s">
@@ -36823,10 +36798,10 @@
       <c r="F234" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="G234" s="147">
-        <v>60</v>
-      </c>
-      <c r="H234" s="147">
+      <c r="G234" s="140">
+        <v>60</v>
+      </c>
+      <c r="H234" s="140">
         <v>4</v>
       </c>
       <c r="I234" s="74" t="s">
@@ -36869,10 +36844,10 @@
       <c r="F235" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="G235" s="147">
-        <v>60</v>
-      </c>
-      <c r="H235" s="147">
+      <c r="G235" s="140">
+        <v>60</v>
+      </c>
+      <c r="H235" s="140">
         <v>4</v>
       </c>
       <c r="I235" s="74" t="s">
@@ -36913,10 +36888,10 @@
       <c r="F236" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="G236" s="147">
-        <v>60</v>
-      </c>
-      <c r="H236" s="147">
+      <c r="G236" s="140">
+        <v>60</v>
+      </c>
+      <c r="H236" s="140">
         <v>4</v>
       </c>
       <c r="I236" s="74" t="s">
@@ -36959,10 +36934,10 @@
       <c r="F237" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G237" s="147">
-        <v>60</v>
-      </c>
-      <c r="H237" s="147">
+      <c r="G237" s="140">
+        <v>60</v>
+      </c>
+      <c r="H237" s="140">
         <v>4</v>
       </c>
       <c r="I237" s="74" t="s">
@@ -37003,10 +36978,10 @@
       <c r="F238" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G238" s="147">
-        <v>60</v>
-      </c>
-      <c r="H238" s="147">
+      <c r="G238" s="140">
+        <v>60</v>
+      </c>
+      <c r="H238" s="140">
         <v>4</v>
       </c>
       <c r="I238" s="74" t="s">
@@ -37049,10 +37024,10 @@
       <c r="F239" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G239" s="147">
-        <v>60</v>
-      </c>
-      <c r="H239" s="147">
+      <c r="G239" s="140">
+        <v>60</v>
+      </c>
+      <c r="H239" s="140">
         <v>4</v>
       </c>
       <c r="I239" s="74" t="s">
@@ -37093,10 +37068,10 @@
       <c r="F240" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G240" s="147">
-        <v>60</v>
-      </c>
-      <c r="H240" s="147">
+      <c r="G240" s="140">
+        <v>60</v>
+      </c>
+      <c r="H240" s="140">
         <v>4</v>
       </c>
       <c r="I240" s="74" t="s">
@@ -37139,10 +37114,10 @@
       <c r="F241" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="G241" s="147">
-        <v>60</v>
-      </c>
-      <c r="H241" s="147">
+      <c r="G241" s="140">
+        <v>60</v>
+      </c>
+      <c r="H241" s="140">
         <v>4</v>
       </c>
       <c r="I241" s="74" t="s">
@@ -37183,10 +37158,10 @@
       <c r="F242" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="G242" s="147">
-        <v>60</v>
-      </c>
-      <c r="H242" s="147">
+      <c r="G242" s="140">
+        <v>60</v>
+      </c>
+      <c r="H242" s="140">
         <v>4</v>
       </c>
       <c r="I242" s="74" t="s">
@@ -37229,10 +37204,10 @@
       <c r="F243" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="G243" s="147">
-        <v>60</v>
-      </c>
-      <c r="H243" s="147">
+      <c r="G243" s="140">
+        <v>60</v>
+      </c>
+      <c r="H243" s="140">
         <v>4</v>
       </c>
       <c r="I243" s="74" t="s">
@@ -37273,10 +37248,10 @@
       <c r="F244" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="G244" s="147">
-        <v>60</v>
-      </c>
-      <c r="H244" s="147">
+      <c r="G244" s="140">
+        <v>60</v>
+      </c>
+      <c r="H244" s="140">
         <v>4</v>
       </c>
       <c r="I244" s="74" t="s">
@@ -37319,10 +37294,10 @@
       <c r="F245" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="G245" s="147">
-        <v>60</v>
-      </c>
-      <c r="H245" s="147">
+      <c r="G245" s="140">
+        <v>60</v>
+      </c>
+      <c r="H245" s="140">
         <v>4</v>
       </c>
       <c r="I245" s="74" t="s">
@@ -37363,10 +37338,10 @@
       <c r="F246" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="G246" s="147">
-        <v>60</v>
-      </c>
-      <c r="H246" s="147">
+      <c r="G246" s="140">
+        <v>60</v>
+      </c>
+      <c r="H246" s="140">
         <v>4</v>
       </c>
       <c r="I246" s="74" t="s">
@@ -37409,10 +37384,10 @@
       <c r="F247" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="G247" s="147">
-        <v>60</v>
-      </c>
-      <c r="H247" s="147">
+      <c r="G247" s="140">
+        <v>60</v>
+      </c>
+      <c r="H247" s="140">
         <v>4</v>
       </c>
       <c r="I247" s="74" t="s">
@@ -37453,10 +37428,10 @@
       <c r="F248" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="G248" s="147">
-        <v>60</v>
-      </c>
-      <c r="H248" s="147">
+      <c r="G248" s="140">
+        <v>60</v>
+      </c>
+      <c r="H248" s="140">
         <v>4</v>
       </c>
       <c r="I248" s="74" t="s">
@@ -37499,10 +37474,10 @@
       <c r="F249" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G249" s="147">
-        <v>60</v>
-      </c>
-      <c r="H249" s="147">
+      <c r="G249" s="140">
+        <v>60</v>
+      </c>
+      <c r="H249" s="140">
         <v>4</v>
       </c>
       <c r="I249" s="74" t="s">
@@ -37543,10 +37518,10 @@
       <c r="F250" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G250" s="147">
-        <v>60</v>
-      </c>
-      <c r="H250" s="147">
+      <c r="G250" s="140">
+        <v>60</v>
+      </c>
+      <c r="H250" s="140">
         <v>4</v>
       </c>
       <c r="I250" s="74" t="s">
@@ -37589,10 +37564,10 @@
       <c r="F251" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="G251" s="147">
-        <v>60</v>
-      </c>
-      <c r="H251" s="147">
+      <c r="G251" s="140">
+        <v>60</v>
+      </c>
+      <c r="H251" s="140">
         <v>4</v>
       </c>
       <c r="I251" s="74" t="s">
@@ -37633,10 +37608,10 @@
       <c r="F252" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="G252" s="147">
-        <v>60</v>
-      </c>
-      <c r="H252" s="147">
+      <c r="G252" s="140">
+        <v>60</v>
+      </c>
+      <c r="H252" s="140">
         <v>4</v>
       </c>
       <c r="I252" s="74" t="s">
@@ -37679,10 +37654,10 @@
       <c r="F253" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G253" s="147">
-        <v>60</v>
-      </c>
-      <c r="H253" s="147">
+      <c r="G253" s="140">
+        <v>60</v>
+      </c>
+      <c r="H253" s="140">
         <v>4</v>
       </c>
       <c r="I253" s="74" t="s">
@@ -37723,10 +37698,10 @@
       <c r="F254" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G254" s="147">
-        <v>60</v>
-      </c>
-      <c r="H254" s="147">
+      <c r="G254" s="140">
+        <v>60</v>
+      </c>
+      <c r="H254" s="140">
         <v>4</v>
       </c>
       <c r="I254" s="74" t="s">
@@ -37769,10 +37744,10 @@
       <c r="F255" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G255" s="147">
-        <v>60</v>
-      </c>
-      <c r="H255" s="147">
+      <c r="G255" s="140">
+        <v>60</v>
+      </c>
+      <c r="H255" s="140">
         <v>4</v>
       </c>
       <c r="I255" s="74" t="s">
@@ -37813,10 +37788,10 @@
       <c r="F256" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G256" s="147">
-        <v>60</v>
-      </c>
-      <c r="H256" s="147">
+      <c r="G256" s="140">
+        <v>60</v>
+      </c>
+      <c r="H256" s="140">
         <v>4</v>
       </c>
       <c r="I256" s="74" t="s">
@@ -37859,10 +37834,10 @@
       <c r="F257" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G257" s="147">
-        <v>60</v>
-      </c>
-      <c r="H257" s="147">
+      <c r="G257" s="140">
+        <v>60</v>
+      </c>
+      <c r="H257" s="140">
         <v>4</v>
       </c>
       <c r="I257" s="74" t="s">
@@ -37903,10 +37878,10 @@
       <c r="F258" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G258" s="147">
-        <v>60</v>
-      </c>
-      <c r="H258" s="147">
+      <c r="G258" s="140">
+        <v>60</v>
+      </c>
+      <c r="H258" s="140">
         <v>4</v>
       </c>
       <c r="I258" s="74" t="s">
@@ -37949,10 +37924,10 @@
       <c r="F259" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G259" s="147">
-        <v>60</v>
-      </c>
-      <c r="H259" s="147">
+      <c r="G259" s="140">
+        <v>60</v>
+      </c>
+      <c r="H259" s="140">
         <v>4</v>
       </c>
       <c r="I259" s="74" t="s">
@@ -37993,10 +37968,10 @@
       <c r="F260" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G260" s="147">
-        <v>60</v>
-      </c>
-      <c r="H260" s="147">
+      <c r="G260" s="140">
+        <v>60</v>
+      </c>
+      <c r="H260" s="140">
         <v>4</v>
       </c>
       <c r="I260" s="74" t="s">
@@ -38039,10 +38014,10 @@
       <c r="F261" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G261" s="147">
-        <v>60</v>
-      </c>
-      <c r="H261" s="147">
+      <c r="G261" s="140">
+        <v>60</v>
+      </c>
+      <c r="H261" s="140">
         <v>4</v>
       </c>
       <c r="I261" s="74" t="s">
@@ -38083,10 +38058,10 @@
       <c r="F262" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G262" s="147">
-        <v>60</v>
-      </c>
-      <c r="H262" s="147">
+      <c r="G262" s="140">
+        <v>60</v>
+      </c>
+      <c r="H262" s="140">
         <v>4</v>
       </c>
       <c r="I262" s="74" t="s">
@@ -38129,10 +38104,10 @@
       <c r="F263" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="G263" s="147">
-        <v>60</v>
-      </c>
-      <c r="H263" s="147">
+      <c r="G263" s="140">
+        <v>60</v>
+      </c>
+      <c r="H263" s="140">
         <v>4</v>
       </c>
       <c r="I263" s="74" t="s">
@@ -38173,10 +38148,10 @@
       <c r="F264" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="G264" s="147">
-        <v>60</v>
-      </c>
-      <c r="H264" s="147">
+      <c r="G264" s="140">
+        <v>60</v>
+      </c>
+      <c r="H264" s="140">
         <v>4</v>
       </c>
       <c r="I264" s="74" t="s">
@@ -38219,10 +38194,10 @@
       <c r="F265" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G265" s="147">
-        <v>60</v>
-      </c>
-      <c r="H265" s="147">
+      <c r="G265" s="140">
+        <v>60</v>
+      </c>
+      <c r="H265" s="140">
         <v>4</v>
       </c>
       <c r="I265" s="74" t="s">
@@ -38263,10 +38238,10 @@
       <c r="F266" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G266" s="147">
-        <v>60</v>
-      </c>
-      <c r="H266" s="147">
+      <c r="G266" s="140">
+        <v>60</v>
+      </c>
+      <c r="H266" s="140">
         <v>4</v>
       </c>
       <c r="I266" s="74" t="s">
@@ -38309,10 +38284,10 @@
       <c r="F267" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="G267" s="147">
-        <v>60</v>
-      </c>
-      <c r="H267" s="147">
+      <c r="G267" s="140">
+        <v>60</v>
+      </c>
+      <c r="H267" s="140">
         <v>4</v>
       </c>
       <c r="I267" s="74" t="s">
@@ -38353,10 +38328,10 @@
       <c r="F268" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="G268" s="147">
-        <v>60</v>
-      </c>
-      <c r="H268" s="147">
+      <c r="G268" s="140">
+        <v>60</v>
+      </c>
+      <c r="H268" s="140">
         <v>4</v>
       </c>
       <c r="I268" s="74" t="s">
@@ -38399,10 +38374,10 @@
       <c r="F269" s="74" t="s">
         <v>876</v>
       </c>
-      <c r="G269" s="147">
-        <v>60</v>
-      </c>
-      <c r="H269" s="147">
+      <c r="G269" s="140">
+        <v>60</v>
+      </c>
+      <c r="H269" s="140">
         <v>4</v>
       </c>
       <c r="I269" s="74" t="s">
@@ -38443,10 +38418,10 @@
       <c r="F270" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="G270" s="147">
-        <v>60</v>
-      </c>
-      <c r="H270" s="147">
+      <c r="G270" s="140">
+        <v>60</v>
+      </c>
+      <c r="H270" s="140">
         <v>4</v>
       </c>
       <c r="I270" s="74" t="s">
@@ -38489,10 +38464,10 @@
       <c r="F271" s="74" t="s">
         <v>875</v>
       </c>
-      <c r="G271" s="147">
-        <v>60</v>
-      </c>
-      <c r="H271" s="147">
+      <c r="G271" s="140">
+        <v>60</v>
+      </c>
+      <c r="H271" s="140">
         <v>4</v>
       </c>
       <c r="I271" s="74" t="s">
@@ -38535,10 +38510,10 @@
       <c r="F272" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="G272" s="147">
-        <v>60</v>
-      </c>
-      <c r="H272" s="147">
+      <c r="G272" s="140">
+        <v>60</v>
+      </c>
+      <c r="H272" s="140">
         <v>4</v>
       </c>
       <c r="I272" s="74" t="s">
@@ -38581,10 +38556,10 @@
       <c r="F273" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="G273" s="148">
-        <v>60</v>
-      </c>
-      <c r="H273" s="147">
+      <c r="G273" s="141">
+        <v>60</v>
+      </c>
+      <c r="H273" s="140">
         <v>4</v>
       </c>
       <c r="I273" s="107" t="s">
@@ -38627,10 +38602,10 @@
       <c r="F274" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="G274" s="148">
-        <v>60</v>
-      </c>
-      <c r="H274" s="147">
+      <c r="G274" s="141">
+        <v>60</v>
+      </c>
+      <c r="H274" s="140">
         <v>4</v>
       </c>
       <c r="I274" s="107" t="s">
@@ -38673,10 +38648,10 @@
       <c r="F275" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G275" s="148">
-        <v>60</v>
-      </c>
-      <c r="H275" s="147">
+      <c r="G275" s="141">
+        <v>60</v>
+      </c>
+      <c r="H275" s="140">
         <v>4</v>
       </c>
       <c r="I275" s="107" t="s">
@@ -38719,10 +38694,10 @@
       <c r="F276" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="G276" s="148">
-        <v>60</v>
-      </c>
-      <c r="H276" s="147">
+      <c r="G276" s="141">
+        <v>60</v>
+      </c>
+      <c r="H276" s="140">
         <v>4</v>
       </c>
       <c r="I276" s="107" t="s">
@@ -38765,10 +38740,10 @@
       <c r="F277" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="G277" s="148">
-        <v>60</v>
-      </c>
-      <c r="H277" s="147">
+      <c r="G277" s="141">
+        <v>60</v>
+      </c>
+      <c r="H277" s="140">
         <v>4</v>
       </c>
       <c r="I277" s="107" t="s">
@@ -38811,10 +38786,10 @@
       <c r="F278" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="G278" s="148">
-        <v>60</v>
-      </c>
-      <c r="H278" s="147">
+      <c r="G278" s="141">
+        <v>60</v>
+      </c>
+      <c r="H278" s="140">
         <v>4</v>
       </c>
       <c r="I278" s="107" t="s">
@@ -38857,10 +38832,10 @@
       <c r="F279" s="107" t="s">
         <v>602</v>
       </c>
-      <c r="G279" s="148">
-        <v>60</v>
-      </c>
-      <c r="H279" s="147">
+      <c r="G279" s="141">
+        <v>60</v>
+      </c>
+      <c r="H279" s="140">
         <v>4</v>
       </c>
       <c r="I279" s="107" t="s">
@@ -38903,10 +38878,10 @@
       <c r="F280" s="107" t="s">
         <v>604</v>
       </c>
-      <c r="G280" s="148">
-        <v>60</v>
-      </c>
-      <c r="H280" s="147">
+      <c r="G280" s="141">
+        <v>60</v>
+      </c>
+      <c r="H280" s="140">
         <v>4</v>
       </c>
       <c r="I280" s="107" t="s">
@@ -38949,10 +38924,10 @@
       <c r="F281" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="G281" s="148">
-        <v>60</v>
-      </c>
-      <c r="H281" s="147">
+      <c r="G281" s="141">
+        <v>60</v>
+      </c>
+      <c r="H281" s="140">
         <v>4</v>
       </c>
       <c r="I281" s="107" t="s">
@@ -38995,10 +38970,10 @@
       <c r="F282" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="G282" s="148">
-        <v>60</v>
-      </c>
-      <c r="H282" s="147">
+      <c r="G282" s="141">
+        <v>60</v>
+      </c>
+      <c r="H282" s="140">
         <v>4</v>
       </c>
       <c r="I282" s="107" t="s">
@@ -39041,10 +39016,10 @@
       <c r="F283" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="G283" s="148">
-        <v>60</v>
-      </c>
-      <c r="H283" s="147">
+      <c r="G283" s="141">
+        <v>60</v>
+      </c>
+      <c r="H283" s="140">
         <v>4</v>
       </c>
       <c r="I283" s="107" t="s">
@@ -39087,10 +39062,10 @@
       <c r="F284" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="G284" s="148">
-        <v>60</v>
-      </c>
-      <c r="H284" s="147">
+      <c r="G284" s="141">
+        <v>60</v>
+      </c>
+      <c r="H284" s="140">
         <v>4</v>
       </c>
       <c r="I284" s="107" t="s">
@@ -39133,10 +39108,10 @@
       <c r="F285" s="107" t="s">
         <v>609</v>
       </c>
-      <c r="G285" s="148">
-        <v>60</v>
-      </c>
-      <c r="H285" s="147">
+      <c r="G285" s="141">
+        <v>60</v>
+      </c>
+      <c r="H285" s="140">
         <v>4</v>
       </c>
       <c r="I285" s="107" t="s">
@@ -39179,10 +39154,10 @@
       <c r="F286" s="107" t="s">
         <v>610</v>
       </c>
-      <c r="G286" s="148">
-        <v>60</v>
-      </c>
-      <c r="H286" s="147">
+      <c r="G286" s="141">
+        <v>60</v>
+      </c>
+      <c r="H286" s="140">
         <v>4</v>
       </c>
       <c r="I286" s="107" t="s">
@@ -39225,10 +39200,10 @@
       <c r="F287" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="G287" s="148">
-        <v>60</v>
-      </c>
-      <c r="H287" s="147">
+      <c r="G287" s="141">
+        <v>60</v>
+      </c>
+      <c r="H287" s="140">
         <v>4</v>
       </c>
       <c r="I287" s="107" t="s">
@@ -39271,10 +39246,10 @@
       <c r="F288" s="107" t="s">
         <v>612</v>
       </c>
-      <c r="G288" s="148">
-        <v>60</v>
-      </c>
-      <c r="H288" s="147">
+      <c r="G288" s="141">
+        <v>60</v>
+      </c>
+      <c r="H288" s="140">
         <v>4</v>
       </c>
       <c r="I288" s="107" t="s">
@@ -39317,10 +39292,10 @@
       <c r="F289" s="107" t="s">
         <v>614</v>
       </c>
-      <c r="G289" s="148">
-        <v>60</v>
-      </c>
-      <c r="H289" s="147">
+      <c r="G289" s="141">
+        <v>60</v>
+      </c>
+      <c r="H289" s="140">
         <v>4</v>
       </c>
       <c r="I289" s="107" t="s">
@@ -39363,10 +39338,10 @@
       <c r="F290" s="107" t="s">
         <v>495</v>
       </c>
-      <c r="G290" s="148">
-        <v>60</v>
-      </c>
-      <c r="H290" s="147">
+      <c r="G290" s="141">
+        <v>60</v>
+      </c>
+      <c r="H290" s="140">
         <v>4</v>
       </c>
       <c r="I290" s="107" t="s">
@@ -39409,10 +39384,10 @@
       <c r="F291" s="107" t="s">
         <v>616</v>
       </c>
-      <c r="G291" s="148">
-        <v>60</v>
-      </c>
-      <c r="H291" s="147">
+      <c r="G291" s="141">
+        <v>60</v>
+      </c>
+      <c r="H291" s="140">
         <v>4</v>
       </c>
       <c r="I291" s="107" t="s">
@@ -39455,10 +39430,10 @@
       <c r="F292" s="107" t="s">
         <v>617</v>
       </c>
-      <c r="G292" s="148">
-        <v>60</v>
-      </c>
-      <c r="H292" s="147">
+      <c r="G292" s="141">
+        <v>60</v>
+      </c>
+      <c r="H292" s="140">
         <v>4</v>
       </c>
       <c r="I292" s="107" t="s">
@@ -39501,10 +39476,10 @@
       <c r="F293" s="107" t="s">
         <v>618</v>
       </c>
-      <c r="G293" s="148">
-        <v>60</v>
-      </c>
-      <c r="H293" s="147">
+      <c r="G293" s="141">
+        <v>60</v>
+      </c>
+      <c r="H293" s="140">
         <v>4</v>
       </c>
       <c r="I293" s="107" t="s">
@@ -39547,10 +39522,10 @@
       <c r="F294" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="G294" s="148">
-        <v>60</v>
-      </c>
-      <c r="H294" s="147">
+      <c r="G294" s="141">
+        <v>60</v>
+      </c>
+      <c r="H294" s="140">
         <v>4</v>
       </c>
       <c r="I294" s="107" t="s">
@@ -39593,10 +39568,10 @@
       <c r="F295" s="107" t="s">
         <v>620</v>
       </c>
-      <c r="G295" s="148">
+      <c r="G295" s="141">
         <v>30</v>
       </c>
-      <c r="H295" s="147">
+      <c r="H295" s="140">
         <v>2</v>
       </c>
       <c r="I295" s="107" t="s">
@@ -39639,10 +39614,10 @@
       <c r="F296" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="G296" s="148">
-        <v>60</v>
-      </c>
-      <c r="H296" s="147">
+      <c r="G296" s="141">
+        <v>60</v>
+      </c>
+      <c r="H296" s="140">
         <v>4</v>
       </c>
       <c r="I296" s="107" t="s">
@@ -39685,10 +39660,10 @@
       <c r="F297" s="107" t="s">
         <v>622</v>
       </c>
-      <c r="G297" s="148">
-        <v>60</v>
-      </c>
-      <c r="H297" s="147">
+      <c r="G297" s="141">
+        <v>60</v>
+      </c>
+      <c r="H297" s="140">
         <v>4</v>
       </c>
       <c r="I297" s="107" t="s">
@@ -39731,10 +39706,10 @@
       <c r="F298" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="G298" s="148">
+      <c r="G298" s="141">
         <v>30</v>
       </c>
-      <c r="H298" s="147">
+      <c r="H298" s="140">
         <v>2</v>
       </c>
       <c r="I298" s="107" t="s">
@@ -39773,10 +39748,10 @@
       <c r="F299" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="G299" s="148">
+      <c r="G299" s="141">
         <v>30</v>
       </c>
-      <c r="H299" s="147">
+      <c r="H299" s="140">
         <v>2</v>
       </c>
       <c r="I299" s="107" t="s">
@@ -39813,10 +39788,10 @@
       <c r="F300" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G300" s="148">
-        <v>60</v>
-      </c>
-      <c r="H300" s="147">
+      <c r="G300" s="141">
+        <v>60</v>
+      </c>
+      <c r="H300" s="140">
         <v>4</v>
       </c>
       <c r="I300" s="59" t="s">
@@ -39859,10 +39834,10 @@
       <c r="F301" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G301" s="148">
+      <c r="G301" s="141">
         <v>30</v>
       </c>
-      <c r="H301" s="147">
+      <c r="H301" s="140">
         <v>2</v>
       </c>
       <c r="I301" s="59" t="s">
@@ -39897,10 +39872,10 @@
       <c r="F302" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G302" s="148">
+      <c r="G302" s="141">
         <v>30</v>
       </c>
-      <c r="H302" s="147">
+      <c r="H302" s="140">
         <v>2</v>
       </c>
       <c r="I302" s="59" t="s">
@@ -39935,10 +39910,10 @@
       <c r="F303" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G303" s="148">
-        <v>60</v>
-      </c>
-      <c r="H303" s="147">
+      <c r="G303" s="141">
+        <v>60</v>
+      </c>
+      <c r="H303" s="140">
         <v>4</v>
       </c>
       <c r="I303" s="59" t="s">
@@ -39979,10 +39954,10 @@
       <c r="F304" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G304" s="148">
-        <v>60</v>
-      </c>
-      <c r="H304" s="147">
+      <c r="G304" s="141">
+        <v>60</v>
+      </c>
+      <c r="H304" s="140">
         <v>4</v>
       </c>
       <c r="I304" s="59" t="s">
@@ -40025,10 +40000,10 @@
       <c r="F305" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G305" s="148">
-        <v>60</v>
-      </c>
-      <c r="H305" s="147">
+      <c r="G305" s="141">
+        <v>60</v>
+      </c>
+      <c r="H305" s="140">
         <v>4</v>
       </c>
       <c r="I305" s="59" t="s">
@@ -40071,10 +40046,10 @@
       <c r="F306" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="G306" s="148">
-        <v>60</v>
-      </c>
-      <c r="H306" s="147">
+      <c r="G306" s="141">
+        <v>60</v>
+      </c>
+      <c r="H306" s="140">
         <v>4</v>
       </c>
       <c r="I306" s="59" t="s">
@@ -40117,10 +40092,10 @@
       <c r="F307" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="G307" s="148">
-        <v>60</v>
-      </c>
-      <c r="H307" s="147">
+      <c r="G307" s="141">
+        <v>60</v>
+      </c>
+      <c r="H307" s="140">
         <v>4</v>
       </c>
       <c r="I307" s="59" t="s">
@@ -40163,10 +40138,10 @@
       <c r="F308" s="59" t="s">
         <v>628</v>
       </c>
-      <c r="G308" s="148">
+      <c r="G308" s="141">
         <v>30</v>
       </c>
-      <c r="H308" s="147">
+      <c r="H308" s="140">
         <v>2</v>
       </c>
       <c r="I308" s="59" t="s">
@@ -40209,10 +40184,10 @@
       <c r="F309" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="G309" s="148">
-        <v>60</v>
-      </c>
-      <c r="H309" s="147">
+      <c r="G309" s="141">
+        <v>60</v>
+      </c>
+      <c r="H309" s="140">
         <v>4</v>
       </c>
       <c r="I309" s="59" t="s">
@@ -40255,10 +40230,10 @@
       <c r="F310" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G310" s="148">
-        <v>60</v>
-      </c>
-      <c r="H310" s="147">
+      <c r="G310" s="141">
+        <v>60</v>
+      </c>
+      <c r="H310" s="140">
         <v>4</v>
       </c>
       <c r="I310" s="59" t="s">
@@ -40301,10 +40276,10 @@
       <c r="F311" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="G311" s="148">
-        <v>60</v>
-      </c>
-      <c r="H311" s="147">
+      <c r="G311" s="141">
+        <v>60</v>
+      </c>
+      <c r="H311" s="140">
         <v>4</v>
       </c>
       <c r="I311" s="59" t="s">
@@ -40347,10 +40322,10 @@
       <c r="F312" s="59" t="s">
         <v>631</v>
       </c>
-      <c r="G312" s="148">
-        <v>60</v>
-      </c>
-      <c r="H312" s="147">
+      <c r="G312" s="141">
+        <v>60</v>
+      </c>
+      <c r="H312" s="140">
         <v>4</v>
       </c>
       <c r="I312" s="59" t="s">
@@ -40393,10 +40368,10 @@
       <c r="F313" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="G313" s="148">
-        <v>60</v>
-      </c>
-      <c r="H313" s="147">
+      <c r="G313" s="141">
+        <v>60</v>
+      </c>
+      <c r="H313" s="140">
         <v>4</v>
       </c>
       <c r="I313" s="59" t="s">
@@ -40439,10 +40414,10 @@
       <c r="F314" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G314" s="148">
-        <v>60</v>
-      </c>
-      <c r="H314" s="147">
+      <c r="G314" s="141">
+        <v>60</v>
+      </c>
+      <c r="H314" s="140">
         <v>4</v>
       </c>
       <c r="I314" s="59" t="s">
@@ -40485,10 +40460,10 @@
       <c r="F315" s="59" t="s">
         <v>632</v>
       </c>
-      <c r="G315" s="148">
-        <v>60</v>
-      </c>
-      <c r="H315" s="147">
+      <c r="G315" s="141">
+        <v>60</v>
+      </c>
+      <c r="H315" s="140">
         <v>4</v>
       </c>
       <c r="I315" s="59" t="s">
@@ -40531,10 +40506,10 @@
       <c r="F316" s="59" t="s">
         <v>633</v>
       </c>
-      <c r="G316" s="148">
-        <v>60</v>
-      </c>
-      <c r="H316" s="147">
+      <c r="G316" s="141">
+        <v>60</v>
+      </c>
+      <c r="H316" s="140">
         <v>4</v>
       </c>
       <c r="I316" s="59" t="s">
@@ -40577,10 +40552,10 @@
       <c r="F317" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="G317" s="148">
-        <v>60</v>
-      </c>
-      <c r="H317" s="147">
+      <c r="G317" s="141">
+        <v>60</v>
+      </c>
+      <c r="H317" s="140">
         <v>4</v>
       </c>
       <c r="I317" s="59" t="s">
@@ -40623,10 +40598,10 @@
       <c r="F318" s="59" t="s">
         <v>634</v>
       </c>
-      <c r="G318" s="148">
-        <v>60</v>
-      </c>
-      <c r="H318" s="147">
+      <c r="G318" s="141">
+        <v>60</v>
+      </c>
+      <c r="H318" s="140">
         <v>4</v>
       </c>
       <c r="I318" s="59" t="s">
@@ -40669,10 +40644,10 @@
       <c r="F319" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G319" s="148">
-        <v>60</v>
-      </c>
-      <c r="H319" s="147">
+      <c r="G319" s="141">
+        <v>60</v>
+      </c>
+      <c r="H319" s="140">
         <v>4</v>
       </c>
       <c r="I319" s="59" t="s">
@@ -40715,10 +40690,10 @@
       <c r="F320" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="G320" s="148">
-        <v>60</v>
-      </c>
-      <c r="H320" s="147">
+      <c r="G320" s="141">
+        <v>60</v>
+      </c>
+      <c r="H320" s="140">
         <v>4</v>
       </c>
       <c r="I320" s="59" t="s">
@@ -40761,10 +40736,10 @@
       <c r="F321" s="59" t="s">
         <v>637</v>
       </c>
-      <c r="G321" s="148">
-        <v>60</v>
-      </c>
-      <c r="H321" s="147">
+      <c r="G321" s="141">
+        <v>60</v>
+      </c>
+      <c r="H321" s="140">
         <v>4</v>
       </c>
       <c r="I321" s="59" t="s">
@@ -40807,10 +40782,10 @@
       <c r="F322" s="59" t="s">
         <v>639</v>
       </c>
-      <c r="G322" s="148">
-        <v>60</v>
-      </c>
-      <c r="H322" s="147">
+      <c r="G322" s="141">
+        <v>60</v>
+      </c>
+      <c r="H322" s="140">
         <v>4</v>
       </c>
       <c r="I322" s="59" t="s">
@@ -40853,10 +40828,10 @@
       <c r="F323" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G323" s="148">
-        <v>60</v>
-      </c>
-      <c r="H323" s="147">
+      <c r="G323" s="141">
+        <v>60</v>
+      </c>
+      <c r="H323" s="140">
         <v>4</v>
       </c>
       <c r="I323" s="59" t="s">
@@ -40899,10 +40874,10 @@
       <c r="F324" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="G324" s="148">
-        <v>60</v>
-      </c>
-      <c r="H324" s="147">
+      <c r="G324" s="141">
+        <v>60</v>
+      </c>
+      <c r="H324" s="140">
         <v>4</v>
       </c>
       <c r="I324" s="59" t="s">
@@ -40945,10 +40920,10 @@
       <c r="F325" s="59" t="s">
         <v>642</v>
       </c>
-      <c r="G325" s="148">
-        <v>60</v>
-      </c>
-      <c r="H325" s="147">
+      <c r="G325" s="141">
+        <v>60</v>
+      </c>
+      <c r="H325" s="140">
         <v>4</v>
       </c>
       <c r="I325" s="59" t="s">
@@ -40991,10 +40966,10 @@
       <c r="F326" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="G326" s="148">
-        <v>60</v>
-      </c>
-      <c r="H326" s="147">
+      <c r="G326" s="141">
+        <v>60</v>
+      </c>
+      <c r="H326" s="140">
         <v>4</v>
       </c>
       <c r="I326" s="59" t="s">
@@ -41037,10 +41012,10 @@
       <c r="F327" s="59" t="s">
         <v>645</v>
       </c>
-      <c r="G327" s="148">
-        <v>60</v>
-      </c>
-      <c r="H327" s="147">
+      <c r="G327" s="141">
+        <v>60</v>
+      </c>
+      <c r="H327" s="140">
         <v>4</v>
       </c>
       <c r="I327" s="59" t="s">
@@ -41083,10 +41058,10 @@
       <c r="F328" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="G328" s="148">
-        <v>60</v>
-      </c>
-      <c r="H328" s="147">
+      <c r="G328" s="141">
+        <v>60</v>
+      </c>
+      <c r="H328" s="140">
         <v>4</v>
       </c>
       <c r="I328" s="59" t="s">
@@ -41129,10 +41104,10 @@
       <c r="F329" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G329" s="148">
-        <v>60</v>
-      </c>
-      <c r="H329" s="147">
+      <c r="G329" s="141">
+        <v>60</v>
+      </c>
+      <c r="H329" s="140">
         <v>4</v>
       </c>
       <c r="I329" s="59" t="s">
@@ -41175,10 +41150,10 @@
       <c r="F330" s="120" t="s">
         <v>610</v>
       </c>
-      <c r="G330" s="148">
-        <v>60</v>
-      </c>
-      <c r="H330" s="147">
+      <c r="G330" s="141">
+        <v>60</v>
+      </c>
+      <c r="H330" s="140">
         <v>4</v>
       </c>
       <c r="I330" s="120" t="s">
@@ -41221,10 +41196,10 @@
       <c r="F331" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G331" s="148">
-        <v>60</v>
-      </c>
-      <c r="H331" s="147">
+      <c r="G331" s="141">
+        <v>60</v>
+      </c>
+      <c r="H331" s="140">
         <v>4</v>
       </c>
       <c r="I331" s="120" t="s">
@@ -41267,10 +41242,10 @@
       <c r="F332" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G332" s="148">
-        <v>60</v>
-      </c>
-      <c r="H332" s="147">
+      <c r="G332" s="141">
+        <v>60</v>
+      </c>
+      <c r="H332" s="140">
         <v>4</v>
       </c>
       <c r="I332" s="120" t="s">
@@ -41313,10 +41288,10 @@
       <c r="F333" s="120" t="s">
         <v>654</v>
       </c>
-      <c r="G333" s="148">
-        <v>60</v>
-      </c>
-      <c r="H333" s="147">
+      <c r="G333" s="141">
+        <v>60</v>
+      </c>
+      <c r="H333" s="140">
         <v>4</v>
       </c>
       <c r="I333" s="120" t="s">
@@ -41361,10 +41336,10 @@
       <c r="F334" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G334" s="148">
-        <v>60</v>
-      </c>
-      <c r="H334" s="147">
+      <c r="G334" s="141">
+        <v>60</v>
+      </c>
+      <c r="H334" s="140">
         <v>4</v>
       </c>
       <c r="I334" s="59" t="s">
@@ -41407,10 +41382,10 @@
       <c r="F335" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G335" s="148">
+      <c r="G335" s="141">
         <v>30</v>
       </c>
-      <c r="H335" s="147">
+      <c r="H335" s="140">
         <v>2</v>
       </c>
       <c r="I335" s="74" t="s">
@@ -41449,10 +41424,10 @@
       <c r="F336" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G336" s="148">
+      <c r="G336" s="141">
         <v>30</v>
       </c>
-      <c r="H336" s="147">
+      <c r="H336" s="140">
         <v>2</v>
       </c>
       <c r="I336" s="74" t="s">
@@ -41493,10 +41468,10 @@
       <c r="F337" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G337" s="148">
-        <v>60</v>
-      </c>
-      <c r="H337" s="147">
+      <c r="G337" s="141">
+        <v>60</v>
+      </c>
+      <c r="H337" s="140">
         <v>4</v>
       </c>
       <c r="I337" s="74" t="s">
@@ -41541,10 +41516,10 @@
       <c r="F338" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="G338" s="148">
-        <v>60</v>
-      </c>
-      <c r="H338" s="147">
+      <c r="G338" s="141">
+        <v>60</v>
+      </c>
+      <c r="H338" s="140">
         <v>4</v>
       </c>
       <c r="I338" s="74" t="s">
@@ -41589,10 +41564,10 @@
       <c r="F339" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G339" s="148">
-        <v>60</v>
-      </c>
-      <c r="H339" s="147">
+      <c r="G339" s="141">
+        <v>60</v>
+      </c>
+      <c r="H339" s="140">
         <v>4</v>
       </c>
       <c r="I339" s="74" t="s">
@@ -41637,10 +41612,10 @@
       <c r="F340" s="59" t="s">
         <v>659</v>
       </c>
-      <c r="G340" s="148">
+      <c r="G340" s="141">
         <v>30</v>
       </c>
-      <c r="H340" s="147">
+      <c r="H340" s="140">
         <v>2</v>
       </c>
       <c r="I340" s="74" t="s">
@@ -41685,10 +41660,10 @@
       <c r="F341" s="59" t="s">
         <v>660</v>
       </c>
-      <c r="G341" s="148">
+      <c r="G341" s="141">
         <v>15</v>
       </c>
-      <c r="H341" s="147">
+      <c r="H341" s="140">
         <v>1</v>
       </c>
       <c r="I341" s="59" t="s">
@@ -41733,10 +41708,10 @@
       <c r="F342" s="59" t="s">
         <v>618</v>
       </c>
-      <c r="G342" s="148">
-        <v>60</v>
-      </c>
-      <c r="H342" s="147">
+      <c r="G342" s="141">
+        <v>60</v>
+      </c>
+      <c r="H342" s="140">
         <v>4</v>
       </c>
       <c r="I342" s="74" t="s">
@@ -41781,10 +41756,10 @@
       <c r="F343" s="59" t="s">
         <v>663</v>
       </c>
-      <c r="G343" s="148">
-        <v>60</v>
-      </c>
-      <c r="H343" s="147">
+      <c r="G343" s="141">
+        <v>60</v>
+      </c>
+      <c r="H343" s="140">
         <v>4</v>
       </c>
       <c r="I343" s="74" t="s">
@@ -41829,10 +41804,10 @@
       <c r="F344" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="G344" s="148">
-        <v>60</v>
-      </c>
-      <c r="H344" s="147">
+      <c r="G344" s="141">
+        <v>60</v>
+      </c>
+      <c r="H344" s="140">
         <v>4</v>
       </c>
       <c r="I344" s="74" t="s">
@@ -41877,10 +41852,10 @@
       <c r="F345" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G345" s="148">
-        <v>60</v>
-      </c>
-      <c r="H345" s="147">
+      <c r="G345" s="141">
+        <v>60</v>
+      </c>
+      <c r="H345" s="140">
         <v>4</v>
       </c>
       <c r="I345" s="74" t="s">
@@ -41925,10 +41900,10 @@
       <c r="F346" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G346" s="148">
-        <v>60</v>
-      </c>
-      <c r="H346" s="147">
+      <c r="G346" s="141">
+        <v>60</v>
+      </c>
+      <c r="H346" s="140">
         <v>4</v>
       </c>
       <c r="I346" s="74" t="s">
@@ -41973,10 +41948,10 @@
       <c r="F347" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="G347" s="148">
-        <v>60</v>
-      </c>
-      <c r="H347" s="147">
+      <c r="G347" s="141">
+        <v>60</v>
+      </c>
+      <c r="H347" s="140">
         <v>4</v>
       </c>
       <c r="I347" s="74" t="s">
@@ -42021,10 +41996,10 @@
       <c r="F348" s="59" t="s">
         <v>873</v>
       </c>
-      <c r="G348" s="148">
-        <v>60</v>
-      </c>
-      <c r="H348" s="147">
+      <c r="G348" s="141">
+        <v>60</v>
+      </c>
+      <c r="H348" s="140">
         <v>4</v>
       </c>
       <c r="I348" s="74" t="s">
@@ -42069,10 +42044,10 @@
       <c r="F349" s="59" t="s">
         <v>670</v>
       </c>
-      <c r="G349" s="148">
-        <v>60</v>
-      </c>
-      <c r="H349" s="147">
+      <c r="G349" s="141">
+        <v>60</v>
+      </c>
+      <c r="H349" s="140">
         <v>4</v>
       </c>
       <c r="I349" s="74" t="s">
@@ -42117,10 +42092,10 @@
       <c r="F350" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="G350" s="148">
-        <v>60</v>
-      </c>
-      <c r="H350" s="147">
+      <c r="G350" s="141">
+        <v>60</v>
+      </c>
+      <c r="H350" s="140">
         <v>4</v>
       </c>
       <c r="I350" s="74" t="s">
@@ -42165,10 +42140,10 @@
       <c r="F351" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="G351" s="148">
-        <v>60</v>
-      </c>
-      <c r="H351" s="147">
+      <c r="G351" s="141">
+        <v>60</v>
+      </c>
+      <c r="H351" s="140">
         <v>4</v>
       </c>
       <c r="I351" s="74" t="s">
@@ -42213,10 +42188,10 @@
       <c r="F352" s="59" t="s">
         <v>674</v>
       </c>
-      <c r="G352" s="148">
-        <v>60</v>
-      </c>
-      <c r="H352" s="147">
+      <c r="G352" s="141">
+        <v>60</v>
+      </c>
+      <c r="H352" s="140">
         <v>4</v>
       </c>
       <c r="I352" s="74" t="s">
@@ -42261,10 +42236,10 @@
       <c r="F353" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="G353" s="148">
-        <v>60</v>
-      </c>
-      <c r="H353" s="147">
+      <c r="G353" s="141">
+        <v>60</v>
+      </c>
+      <c r="H353" s="140">
         <v>4</v>
       </c>
       <c r="I353" s="74" t="s">
@@ -42309,10 +42284,10 @@
       <c r="F354" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="G354" s="148">
-        <v>60</v>
-      </c>
-      <c r="H354" s="147">
+      <c r="G354" s="141">
+        <v>60</v>
+      </c>
+      <c r="H354" s="140">
         <v>4</v>
       </c>
       <c r="I354" s="74" t="s">
@@ -42357,10 +42332,10 @@
       <c r="F355" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="G355" s="148">
-        <v>60</v>
-      </c>
-      <c r="H355" s="147">
+      <c r="G355" s="141">
+        <v>60</v>
+      </c>
+      <c r="H355" s="140">
         <v>4</v>
       </c>
       <c r="I355" s="74" t="s">
@@ -42403,10 +42378,10 @@
       <c r="F356" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G356" s="147">
-        <v>60</v>
-      </c>
-      <c r="H356" s="147">
+      <c r="G356" s="140">
+        <v>60</v>
+      </c>
+      <c r="H356" s="140">
         <v>4</v>
       </c>
       <c r="I356" s="59" t="s">
@@ -42527,10 +42502,10 @@
       <c r="F359" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G359" s="148">
-        <v>60</v>
-      </c>
-      <c r="H359" s="147">
+      <c r="G359" s="141">
+        <v>60</v>
+      </c>
+      <c r="H359" s="140">
         <v>4</v>
       </c>
       <c r="I359" s="59" t="s">
@@ -42575,10 +42550,10 @@
       <c r="F360" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G360" s="148">
-        <v>60</v>
-      </c>
-      <c r="H360" s="147">
+      <c r="G360" s="141">
+        <v>60</v>
+      </c>
+      <c r="H360" s="140">
         <v>4</v>
       </c>
       <c r="I360" s="59" t="s">
@@ -42797,10 +42772,10 @@
       <c r="F365" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G365" s="148">
-        <v>60</v>
-      </c>
-      <c r="H365" s="147">
+      <c r="G365" s="141">
+        <v>60</v>
+      </c>
+      <c r="H365" s="140">
         <v>4</v>
       </c>
       <c r="I365" s="59" t="s">
@@ -43687,10 +43662,10 @@
       <c r="F386" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G386" s="148">
-        <v>60</v>
-      </c>
-      <c r="H386" s="147">
+      <c r="G386" s="141">
+        <v>60</v>
+      </c>
+      <c r="H386" s="140">
         <v>4</v>
       </c>
       <c r="I386" s="59" t="s">
@@ -43733,10 +43708,10 @@
       <c r="F387" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G387" s="148">
-        <v>60</v>
-      </c>
-      <c r="H387" s="147">
+      <c r="G387" s="141">
+        <v>60</v>
+      </c>
+      <c r="H387" s="140">
         <v>4</v>
       </c>
       <c r="I387" s="59" t="s">
@@ -43781,10 +43756,10 @@
       <c r="F388" s="59" t="s">
         <v>717</v>
       </c>
-      <c r="G388" s="148">
-        <v>60</v>
-      </c>
-      <c r="H388" s="147">
+      <c r="G388" s="141">
+        <v>60</v>
+      </c>
+      <c r="H388" s="140">
         <v>4</v>
       </c>
       <c r="I388" s="59" t="s">
@@ -43829,10 +43804,10 @@
       <c r="F389" s="59" t="s">
         <v>719</v>
       </c>
-      <c r="G389" s="148">
-        <v>60</v>
-      </c>
-      <c r="H389" s="147">
+      <c r="G389" s="141">
+        <v>60</v>
+      </c>
+      <c r="H389" s="140">
         <v>4</v>
       </c>
       <c r="I389" s="59" t="s">
@@ -43877,10 +43852,10 @@
       <c r="F390" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="G390" s="148">
-        <v>60</v>
-      </c>
-      <c r="H390" s="147">
+      <c r="G390" s="141">
+        <v>60</v>
+      </c>
+      <c r="H390" s="140">
         <v>4</v>
       </c>
       <c r="I390" s="59" t="s">
@@ -43925,10 +43900,10 @@
       <c r="F391" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="G391" s="148">
-        <v>60</v>
-      </c>
-      <c r="H391" s="147">
+      <c r="G391" s="141">
+        <v>60</v>
+      </c>
+      <c r="H391" s="140">
         <v>4</v>
       </c>
       <c r="I391" s="59" t="s">
@@ -43973,10 +43948,10 @@
       <c r="F392" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G392" s="148">
-        <v>60</v>
-      </c>
-      <c r="H392" s="147">
+      <c r="G392" s="141">
+        <v>60</v>
+      </c>
+      <c r="H392" s="140">
         <v>4</v>
       </c>
       <c r="I392" s="59" t="s">
@@ -44021,10 +43996,10 @@
       <c r="F393" s="59" t="s">
         <v>610</v>
       </c>
-      <c r="G393" s="148">
-        <v>60</v>
-      </c>
-      <c r="H393" s="147">
+      <c r="G393" s="141">
+        <v>60</v>
+      </c>
+      <c r="H393" s="140">
         <v>4</v>
       </c>
       <c r="I393" s="59" t="s">
@@ -44069,10 +44044,10 @@
       <c r="F394" s="59" t="s">
         <v>726</v>
       </c>
-      <c r="G394" s="148">
-        <v>60</v>
-      </c>
-      <c r="H394" s="147">
+      <c r="G394" s="141">
+        <v>60</v>
+      </c>
+      <c r="H394" s="140">
         <v>4</v>
       </c>
       <c r="I394" s="59" t="s">
@@ -44117,10 +44092,10 @@
       <c r="F395" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G395" s="148">
-        <v>60</v>
-      </c>
-      <c r="H395" s="147">
+      <c r="G395" s="141">
+        <v>60</v>
+      </c>
+      <c r="H395" s="140">
         <v>4</v>
       </c>
       <c r="I395" s="59" t="s">
@@ -44163,10 +44138,10 @@
       <c r="F396" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G396" s="148">
-        <v>60</v>
-      </c>
-      <c r="H396" s="147">
+      <c r="G396" s="141">
+        <v>60</v>
+      </c>
+      <c r="H396" s="140">
         <v>4</v>
       </c>
       <c r="I396" s="59" t="s">
@@ -44211,10 +44186,10 @@
       <c r="F397" s="59" t="s">
         <v>614</v>
       </c>
-      <c r="G397" s="148">
-        <v>60</v>
-      </c>
-      <c r="H397" s="147">
+      <c r="G397" s="141">
+        <v>60</v>
+      </c>
+      <c r="H397" s="140">
         <v>4</v>
       </c>
       <c r="I397" s="59" t="s">
@@ -44259,10 +44234,10 @@
       <c r="F398" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="G398" s="148">
-        <v>60</v>
-      </c>
-      <c r="H398" s="147">
+      <c r="G398" s="141">
+        <v>60</v>
+      </c>
+      <c r="H398" s="140">
         <v>4</v>
       </c>
       <c r="I398" s="59" t="s">
@@ -44307,10 +44282,10 @@
       <c r="F399" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="G399" s="148">
-        <v>60</v>
-      </c>
-      <c r="H399" s="147">
+      <c r="G399" s="141">
+        <v>60</v>
+      </c>
+      <c r="H399" s="140">
         <v>4</v>
       </c>
       <c r="I399" s="59" t="s">
@@ -44355,10 +44330,10 @@
       <c r="F400" s="59" t="s">
         <v>697</v>
       </c>
-      <c r="G400" s="148">
-        <v>60</v>
-      </c>
-      <c r="H400" s="147">
+      <c r="G400" s="141">
+        <v>60</v>
+      </c>
+      <c r="H400" s="140">
         <v>4</v>
       </c>
       <c r="I400" s="59" t="s">
@@ -44403,10 +44378,10 @@
       <c r="F401" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="G401" s="148">
-        <v>60</v>
-      </c>
-      <c r="H401" s="147">
+      <c r="G401" s="141">
+        <v>60</v>
+      </c>
+      <c r="H401" s="140">
         <v>4</v>
       </c>
       <c r="I401" s="59" t="s">
@@ -44451,10 +44426,10 @@
       <c r="F402" s="59" t="s">
         <v>733</v>
       </c>
-      <c r="G402" s="148">
+      <c r="G402" s="141">
         <v>30</v>
       </c>
-      <c r="H402" s="147">
+      <c r="H402" s="140">
         <v>2</v>
       </c>
       <c r="I402" s="59" t="s">
@@ -44499,10 +44474,10 @@
       <c r="F403" s="59" t="s">
         <v>735</v>
       </c>
-      <c r="G403" s="148">
-        <v>60</v>
-      </c>
-      <c r="H403" s="147">
+      <c r="G403" s="141">
+        <v>60</v>
+      </c>
+      <c r="H403" s="140">
         <v>4</v>
       </c>
       <c r="I403" s="59" t="s">
@@ -44545,10 +44520,10 @@
       <c r="F404" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G404" s="148">
+      <c r="G404" s="141">
         <v>30</v>
       </c>
-      <c r="H404" s="147">
+      <c r="H404" s="140">
         <v>2</v>
       </c>
       <c r="I404" s="59" t="s">
@@ -44585,10 +44560,10 @@
       <c r="F405" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G405" s="148">
+      <c r="G405" s="141">
         <v>30</v>
       </c>
-      <c r="H405" s="147">
+      <c r="H405" s="140">
         <v>2</v>
       </c>
       <c r="I405" s="59" t="s">
@@ -44627,10 +44602,10 @@
       <c r="F406" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G406" s="148">
-        <v>60</v>
-      </c>
-      <c r="H406" s="147">
+      <c r="G406" s="141">
+        <v>60</v>
+      </c>
+      <c r="H406" s="140">
         <v>4</v>
       </c>
       <c r="I406" s="59" t="s">
@@ -44673,10 +44648,10 @@
       <c r="F407" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G407" s="147">
-        <v>60</v>
-      </c>
-      <c r="H407" s="147">
+      <c r="G407" s="140">
+        <v>60</v>
+      </c>
+      <c r="H407" s="140">
         <v>4</v>
       </c>
       <c r="I407" s="74" t="s">
@@ -44797,10 +44772,10 @@
       <c r="F410" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G410" s="148">
-        <v>60</v>
-      </c>
-      <c r="H410" s="147">
+      <c r="G410" s="141">
+        <v>60</v>
+      </c>
+      <c r="H410" s="140">
         <v>4</v>
       </c>
       <c r="I410" s="74" t="s">
@@ -45739,10 +45714,10 @@
       <c r="F431" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G431" s="147">
-        <v>60</v>
-      </c>
-      <c r="H431" s="147">
+      <c r="G431" s="140">
+        <v>60</v>
+      </c>
+      <c r="H431" s="140">
         <v>4</v>
       </c>
       <c r="I431" s="59" t="s">
@@ -45925,10 +45900,10 @@
       <c r="F436" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G436" s="147">
-        <v>60</v>
-      </c>
-      <c r="H436" s="147">
+      <c r="G436" s="140">
+        <v>60</v>
+      </c>
+      <c r="H436" s="140">
         <v>4</v>
       </c>
       <c r="I436" s="59" t="s">
@@ -45967,10 +45942,10 @@
       <c r="F437" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G437" s="148">
-        <v>60</v>
-      </c>
-      <c r="H437" s="147">
+      <c r="G437" s="141">
+        <v>60</v>
+      </c>
+      <c r="H437" s="140">
         <v>4</v>
       </c>
       <c r="I437" s="59" t="s">
@@ -46089,10 +46064,10 @@
       <c r="F440" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G440" s="148">
-        <v>60</v>
-      </c>
-      <c r="H440" s="147">
+      <c r="G440" s="141">
+        <v>60</v>
+      </c>
+      <c r="H440" s="140">
         <v>4</v>
       </c>
       <c r="I440" s="59" t="s">
@@ -46623,10 +46598,10 @@
       <c r="F454" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="G454" s="148">
-        <v>60</v>
-      </c>
-      <c r="H454" s="147">
+      <c r="G454" s="141">
+        <v>60</v>
+      </c>
+      <c r="H454" s="140">
         <v>4</v>
       </c>
       <c r="I454" s="74" t="s">
@@ -47593,10 +47568,10 @@
       <c r="F476" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G476" s="147">
-        <v>60</v>
-      </c>
-      <c r="H476" s="147">
+      <c r="G476" s="140">
+        <v>60</v>
+      </c>
+      <c r="H476" s="140">
         <v>4</v>
       </c>
       <c r="I476" s="74" t="s">
@@ -47641,10 +47616,10 @@
       <c r="F477" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G477" s="147">
-        <v>60</v>
-      </c>
-      <c r="H477" s="147">
+      <c r="G477" s="140">
+        <v>60</v>
+      </c>
+      <c r="H477" s="140">
         <v>4</v>
       </c>
       <c r="I477" s="74" t="s">
@@ -47849,10 +47824,10 @@
       <c r="F482" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="G482" s="147">
-        <v>60</v>
-      </c>
-      <c r="H482" s="147">
+      <c r="G482" s="140">
+        <v>60</v>
+      </c>
+      <c r="H482" s="140">
         <v>4</v>
       </c>
       <c r="I482" s="74" t="s">
@@ -47923,1020 +47898,1020 @@
       <c r="R483" s="74"/>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A484" s="139">
+      <c r="A484" s="123">
         <v>2025</v>
       </c>
-      <c r="B484" s="140">
+      <c r="B484">
         <v>1</v>
       </c>
-      <c r="C484" s="141">
+      <c r="C484" s="126">
         <v>45727</v>
       </c>
-      <c r="D484" s="142">
+      <c r="D484" s="122">
         <v>1</v>
       </c>
-      <c r="E484" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F484" s="143" t="s">
+      <c r="E484" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F484" s="74" t="s">
         <v>886</v>
       </c>
-      <c r="G484" s="149">
-        <v>60</v>
-      </c>
-      <c r="H484" s="149"/>
-      <c r="I484" s="143" t="s">
+      <c r="G484" s="5">
+        <v>60</v>
+      </c>
+      <c r="H484" s="5"/>
+      <c r="I484" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="J484" s="143" t="s">
+      <c r="J484" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="K484" s="143"/>
-      <c r="L484" s="143" t="s">
+      <c r="K484" s="74"/>
+      <c r="L484" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="M484" s="143"/>
-      <c r="N484" s="144"/>
-      <c r="O484" s="143" t="s">
+      <c r="M484" s="74"/>
+      <c r="N484" s="123"/>
+      <c r="O484" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P484" s="145" t="s">
+      <c r="P484" s="75" t="s">
         <v>888</v>
       </c>
-      <c r="Q484" s="146" t="s">
+      <c r="Q484" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R484" s="143"/>
+      <c r="R484" s="74"/>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A485" s="139">
+      <c r="A485" s="123">
         <v>2025</v>
       </c>
-      <c r="B485" s="140">
+      <c r="B485">
         <v>1</v>
       </c>
-      <c r="C485" s="141">
+      <c r="C485" s="126">
         <v>45727</v>
       </c>
-      <c r="D485" s="142">
+      <c r="D485" s="122">
         <v>2</v>
       </c>
-      <c r="E485" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F485" s="143" t="s">
+      <c r="E485" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F485" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="G485" s="149">
-        <v>60</v>
-      </c>
-      <c r="H485" s="149"/>
-      <c r="I485" s="143" t="s">
+      <c r="G485" s="5">
+        <v>60</v>
+      </c>
+      <c r="H485" s="5"/>
+      <c r="I485" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="J485" s="143" t="s">
+      <c r="J485" s="74" t="s">
         <v>363</v>
       </c>
-      <c r="K485" s="143"/>
-      <c r="L485" s="143" t="s">
+      <c r="K485" s="74"/>
+      <c r="L485" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="M485" s="143"/>
-      <c r="N485" s="144"/>
-      <c r="O485" s="143" t="s">
+      <c r="M485" s="74"/>
+      <c r="N485" s="123"/>
+      <c r="O485" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P485" s="143"/>
-      <c r="Q485" s="146" t="s">
+      <c r="P485" s="74"/>
+      <c r="Q485" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R485" s="143"/>
+      <c r="R485" s="74"/>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A486" s="139">
+      <c r="A486" s="123">
         <v>2025</v>
       </c>
-      <c r="B486" s="140">
+      <c r="B486">
         <v>1</v>
       </c>
-      <c r="C486" s="141"/>
-      <c r="D486" s="142">
+      <c r="C486" s="126"/>
+      <c r="D486" s="122">
         <v>3</v>
       </c>
-      <c r="E486" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F486" s="143" t="s">
+      <c r="E486" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F486" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="G486" s="149">
-        <v>60</v>
-      </c>
-      <c r="H486" s="149"/>
-      <c r="I486" s="143" t="s">
+      <c r="G486" s="5">
+        <v>60</v>
+      </c>
+      <c r="H486" s="5"/>
+      <c r="I486" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="J486" s="143"/>
-      <c r="K486" s="143"/>
-      <c r="L486" s="143" t="s">
+      <c r="J486" s="74"/>
+      <c r="K486" s="74"/>
+      <c r="L486" s="74" t="s">
         <v>657</v>
       </c>
-      <c r="M486" s="143"/>
-      <c r="N486" s="144"/>
-      <c r="O486" s="143"/>
-      <c r="P486" s="143"/>
-      <c r="Q486" s="143"/>
-      <c r="R486" s="143"/>
+      <c r="M486" s="74"/>
+      <c r="N486" s="123"/>
+      <c r="O486" s="74"/>
+      <c r="P486" s="74"/>
+      <c r="Q486" s="74"/>
+      <c r="R486" s="74"/>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A487" s="139">
+      <c r="A487" s="123">
         <v>2025</v>
       </c>
-      <c r="B487" s="140">
+      <c r="B487">
         <v>1</v>
       </c>
-      <c r="C487" s="141">
+      <c r="C487" s="126">
         <v>45729</v>
       </c>
-      <c r="D487" s="142">
+      <c r="D487" s="122">
         <v>4</v>
       </c>
-      <c r="E487" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F487" s="143" t="s">
+      <c r="E487" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F487" s="74" t="s">
         <v>719</v>
       </c>
-      <c r="G487" s="149">
-        <v>60</v>
-      </c>
-      <c r="H487" s="149"/>
-      <c r="I487" s="143" t="s">
+      <c r="G487" s="5">
+        <v>60</v>
+      </c>
+      <c r="H487" s="5"/>
+      <c r="I487" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="J487" s="143" t="s">
+      <c r="J487" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="K487" s="143"/>
-      <c r="L487" s="143" t="s">
+      <c r="K487" s="74"/>
+      <c r="L487" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="M487" s="143"/>
-      <c r="N487" s="144"/>
-      <c r="O487" s="143" t="s">
+      <c r="M487" s="74"/>
+      <c r="N487" s="123"/>
+      <c r="O487" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P487" s="143"/>
-      <c r="Q487" s="146" t="s">
+      <c r="P487" s="74"/>
+      <c r="Q487" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R487" s="143"/>
+      <c r="R487" s="74"/>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A488" s="139">
+      <c r="A488" s="123">
         <v>2025</v>
       </c>
-      <c r="B488" s="140">
+      <c r="B488">
         <v>1</v>
       </c>
-      <c r="C488" s="141">
+      <c r="C488" s="126">
         <v>45728</v>
       </c>
-      <c r="D488" s="142">
+      <c r="D488" s="122">
         <v>5</v>
       </c>
-      <c r="E488" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F488" s="143" t="s">
+      <c r="E488" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F488" s="74" t="s">
         <v>610</v>
       </c>
-      <c r="G488" s="149">
-        <v>60</v>
-      </c>
-      <c r="H488" s="149"/>
-      <c r="I488" s="143" t="s">
+      <c r="G488" s="5">
+        <v>60</v>
+      </c>
+      <c r="H488" s="5"/>
+      <c r="I488" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="J488" s="143" t="s">
+      <c r="J488" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="K488" s="143"/>
-      <c r="L488" s="143" t="s">
+      <c r="K488" s="74"/>
+      <c r="L488" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M488" s="143"/>
-      <c r="N488" s="144"/>
-      <c r="O488" s="143" t="s">
+      <c r="M488" s="74"/>
+      <c r="N488" s="123"/>
+      <c r="O488" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P488" s="143"/>
-      <c r="Q488" s="146" t="s">
+      <c r="P488" s="74"/>
+      <c r="Q488" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R488" s="143"/>
+      <c r="R488" s="74"/>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A489" s="139">
+      <c r="A489" s="123">
         <v>2025</v>
       </c>
-      <c r="B489" s="140">
+      <c r="B489">
         <v>1</v>
       </c>
-      <c r="C489" s="141">
+      <c r="C489" s="126">
         <v>45728</v>
       </c>
-      <c r="D489" s="142">
+      <c r="D489" s="122">
         <v>6</v>
       </c>
-      <c r="E489" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F489" s="143" t="s">
+      <c r="E489" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F489" s="74" t="s">
         <v>889</v>
       </c>
-      <c r="G489" s="149">
-        <v>60</v>
-      </c>
-      <c r="H489" s="149"/>
-      <c r="I489" s="143" t="s">
+      <c r="G489" s="5">
+        <v>60</v>
+      </c>
+      <c r="H489" s="5"/>
+      <c r="I489" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="J489" s="143" t="s">
+      <c r="J489" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="K489" s="143"/>
-      <c r="L489" s="143" t="s">
+      <c r="K489" s="74"/>
+      <c r="L489" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M489" s="143"/>
-      <c r="N489" s="144"/>
-      <c r="O489" s="143" t="s">
+      <c r="M489" s="74"/>
+      <c r="N489" s="123"/>
+      <c r="O489" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P489" s="143"/>
-      <c r="Q489" s="143"/>
-      <c r="R489" s="143"/>
+      <c r="P489" s="74"/>
+      <c r="Q489" s="74"/>
+      <c r="R489" s="74"/>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A490" s="139">
+      <c r="A490" s="123">
         <v>2025</v>
       </c>
-      <c r="B490" s="140">
+      <c r="B490">
         <v>1</v>
       </c>
-      <c r="C490" s="141" t="s">
+      <c r="C490" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="D490" s="142">
+      <c r="D490" s="122">
         <v>7</v>
       </c>
-      <c r="E490" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F490" s="143" t="s">
+      <c r="E490" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F490" s="74" t="s">
         <v>890</v>
       </c>
-      <c r="G490" s="149">
+      <c r="G490" s="5">
         <v>15</v>
       </c>
-      <c r="H490" s="149"/>
-      <c r="I490" s="143" t="s">
+      <c r="H490" s="5"/>
+      <c r="I490" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="J490" s="143" t="s">
+      <c r="J490" s="74" t="s">
         <v>891</v>
       </c>
-      <c r="K490" s="143"/>
-      <c r="L490" s="143" t="s">
+      <c r="K490" s="74"/>
+      <c r="L490" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="M490" s="143"/>
-      <c r="N490" s="144"/>
-      <c r="O490" s="143" t="s">
+      <c r="M490" s="74"/>
+      <c r="N490" s="123"/>
+      <c r="O490" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P490" s="143"/>
-      <c r="Q490" s="143"/>
-      <c r="R490" s="143"/>
+      <c r="P490" s="74"/>
+      <c r="Q490" s="74"/>
+      <c r="R490" s="74"/>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A491" s="139">
+      <c r="A491" s="123">
         <v>2025</v>
       </c>
-      <c r="B491" s="140">
+      <c r="B491">
         <v>1</v>
       </c>
-      <c r="C491" s="141">
+      <c r="C491" s="126">
         <v>45726</v>
       </c>
-      <c r="D491" s="142">
+      <c r="D491" s="122">
         <v>8</v>
       </c>
-      <c r="E491" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F491" s="143" t="s">
+      <c r="E491" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F491" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="G491" s="149">
-        <v>60</v>
-      </c>
-      <c r="H491" s="149"/>
-      <c r="I491" s="143" t="s">
+      <c r="G491" s="5">
+        <v>60</v>
+      </c>
+      <c r="H491" s="5"/>
+      <c r="I491" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="J491" s="143" t="s">
+      <c r="J491" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="K491" s="143"/>
-      <c r="L491" s="143" t="s">
+      <c r="K491" s="74"/>
+      <c r="L491" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M491" s="143"/>
-      <c r="N491" s="144"/>
-      <c r="O491" s="143" t="s">
+      <c r="M491" s="74"/>
+      <c r="N491" s="123"/>
+      <c r="O491" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P491" s="143"/>
-      <c r="Q491" s="143"/>
-      <c r="R491" s="143"/>
+      <c r="P491" s="74"/>
+      <c r="Q491" s="74"/>
+      <c r="R491" s="74"/>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A492" s="139">
+      <c r="A492" s="123">
         <v>2025</v>
       </c>
-      <c r="B492" s="140">
+      <c r="B492">
         <v>1</v>
       </c>
-      <c r="C492" s="141">
+      <c r="C492" s="126">
         <v>45726</v>
       </c>
-      <c r="D492" s="142">
+      <c r="D492" s="122">
         <v>9</v>
       </c>
-      <c r="E492" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F492" s="143" t="s">
+      <c r="E492" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F492" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="G492" s="149">
-        <v>60</v>
-      </c>
-      <c r="H492" s="149"/>
-      <c r="I492" s="143" t="s">
+      <c r="G492" s="5">
+        <v>60</v>
+      </c>
+      <c r="H492" s="5"/>
+      <c r="I492" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="J492" s="143" t="s">
+      <c r="J492" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="K492" s="143"/>
-      <c r="L492" s="143" t="s">
+      <c r="K492" s="74"/>
+      <c r="L492" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M492" s="143"/>
-      <c r="N492" s="144"/>
-      <c r="O492" s="143" t="s">
+      <c r="M492" s="74"/>
+      <c r="N492" s="123"/>
+      <c r="O492" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P492" s="143"/>
-      <c r="Q492" s="146" t="s">
+      <c r="P492" s="74"/>
+      <c r="Q492" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R492" s="143"/>
+      <c r="R492" s="74"/>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A493" s="139">
+      <c r="A493" s="123">
         <v>2025</v>
       </c>
-      <c r="B493" s="140">
+      <c r="B493">
         <v>1</v>
       </c>
-      <c r="C493" s="141">
+      <c r="C493" s="126">
         <v>45728</v>
       </c>
-      <c r="D493" s="142">
+      <c r="D493" s="122">
         <v>10</v>
       </c>
-      <c r="E493" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F493" s="143" t="s">
+      <c r="E493" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F493" s="74" t="s">
         <v>673</v>
       </c>
-      <c r="G493" s="149">
-        <v>60</v>
-      </c>
-      <c r="H493" s="149"/>
-      <c r="I493" s="143" t="s">
+      <c r="G493" s="5">
+        <v>60</v>
+      </c>
+      <c r="H493" s="5"/>
+      <c r="I493" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="J493" s="143" t="s">
+      <c r="J493" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="K493" s="143"/>
-      <c r="L493" s="143" t="s">
+      <c r="K493" s="74"/>
+      <c r="L493" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M493" s="143"/>
-      <c r="N493" s="144"/>
-      <c r="O493" s="143" t="s">
+      <c r="M493" s="74"/>
+      <c r="N493" s="123"/>
+      <c r="O493" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P493" s="143"/>
-      <c r="Q493" s="143"/>
-      <c r="R493" s="143"/>
+      <c r="P493" s="74"/>
+      <c r="Q493" s="74"/>
+      <c r="R493" s="74"/>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A494" s="139">
+      <c r="A494" s="123">
         <v>2025</v>
       </c>
-      <c r="B494" s="140">
+      <c r="B494">
         <v>1</v>
       </c>
-      <c r="C494" s="141">
+      <c r="C494" s="126">
         <v>45728</v>
       </c>
-      <c r="D494" s="142">
+      <c r="D494" s="122">
         <v>11</v>
       </c>
-      <c r="E494" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F494" s="143" t="s">
+      <c r="E494" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F494" s="74" t="s">
         <v>775</v>
       </c>
-      <c r="G494" s="149">
-        <v>60</v>
-      </c>
-      <c r="H494" s="149"/>
-      <c r="I494" s="143" t="s">
+      <c r="G494" s="5">
+        <v>60</v>
+      </c>
+      <c r="H494" s="5"/>
+      <c r="I494" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="J494" s="143" t="s">
+      <c r="J494" s="74" t="s">
         <v>892</v>
       </c>
-      <c r="K494" s="143"/>
-      <c r="L494" s="143" t="s">
+      <c r="K494" s="74"/>
+      <c r="L494" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M494" s="143"/>
-      <c r="N494" s="144"/>
-      <c r="O494" s="143" t="s">
+      <c r="M494" s="74"/>
+      <c r="N494" s="123"/>
+      <c r="O494" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P494" s="143"/>
-      <c r="Q494" s="146" t="s">
+      <c r="P494" s="74"/>
+      <c r="Q494" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R494" s="143"/>
+      <c r="R494" s="74"/>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A495" s="139">
+      <c r="A495" s="123">
         <v>2025</v>
       </c>
-      <c r="B495" s="140">
+      <c r="B495">
         <v>1</v>
       </c>
-      <c r="C495" s="141">
+      <c r="C495" s="126">
         <v>45733</v>
       </c>
-      <c r="D495" s="142">
+      <c r="D495" s="122">
         <v>12</v>
       </c>
-      <c r="E495" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F495" s="143" t="s">
+      <c r="E495" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F495" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="G495" s="149">
-        <v>60</v>
-      </c>
-      <c r="H495" s="149"/>
-      <c r="I495" s="143" t="s">
+      <c r="G495" s="5">
+        <v>60</v>
+      </c>
+      <c r="H495" s="5"/>
+      <c r="I495" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="J495" s="143" t="s">
+      <c r="J495" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="K495" s="143"/>
-      <c r="L495" s="143" t="s">
+      <c r="K495" s="74"/>
+      <c r="L495" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M495" s="143"/>
-      <c r="N495" s="144"/>
-      <c r="O495" s="143" t="s">
+      <c r="M495" s="74"/>
+      <c r="N495" s="123"/>
+      <c r="O495" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P495" s="143"/>
-      <c r="Q495" s="146" t="s">
+      <c r="P495" s="74"/>
+      <c r="Q495" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R495" s="143"/>
+      <c r="R495" s="74"/>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A496" s="139">
+      <c r="A496" s="123">
         <v>2025</v>
       </c>
-      <c r="B496" s="140">
+      <c r="B496">
         <v>1</v>
       </c>
-      <c r="C496" s="141">
+      <c r="C496" s="126">
         <v>45729</v>
       </c>
-      <c r="D496" s="142">
+      <c r="D496" s="122">
         <v>13</v>
       </c>
-      <c r="E496" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F496" s="143" t="s">
+      <c r="E496" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F496" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G496" s="149">
-        <v>60</v>
-      </c>
-      <c r="H496" s="149"/>
-      <c r="I496" s="143" t="s">
+      <c r="G496" s="5">
+        <v>60</v>
+      </c>
+      <c r="H496" s="5"/>
+      <c r="I496" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="J496" s="143" t="s">
+      <c r="J496" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="K496" s="143"/>
-      <c r="L496" s="143" t="s">
+      <c r="K496" s="74"/>
+      <c r="L496" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M496" s="143"/>
-      <c r="N496" s="144"/>
-      <c r="O496" s="143" t="s">
+      <c r="M496" s="74"/>
+      <c r="N496" s="123"/>
+      <c r="O496" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P496" s="143"/>
-      <c r="Q496" s="143"/>
-      <c r="R496" s="143"/>
+      <c r="P496" s="74"/>
+      <c r="Q496" s="74"/>
+      <c r="R496" s="74"/>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A497" s="139">
+      <c r="A497" s="123">
         <v>2025</v>
       </c>
-      <c r="B497" s="140">
+      <c r="B497">
         <v>1</v>
       </c>
-      <c r="C497" s="141">
+      <c r="C497" s="126">
         <v>45734</v>
       </c>
-      <c r="D497" s="142">
+      <c r="D497" s="122">
         <v>14</v>
       </c>
-      <c r="E497" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F497" s="143" t="s">
+      <c r="E497" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F497" s="74" t="s">
         <v>893</v>
       </c>
-      <c r="G497" s="149">
-        <v>60</v>
-      </c>
-      <c r="H497" s="149"/>
-      <c r="I497" s="143" t="s">
+      <c r="G497" s="5">
+        <v>60</v>
+      </c>
+      <c r="H497" s="5"/>
+      <c r="I497" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="J497" s="143" t="s">
+      <c r="J497" s="74" t="s">
         <v>894</v>
       </c>
-      <c r="K497" s="143"/>
-      <c r="L497" s="143" t="s">
+      <c r="K497" s="74"/>
+      <c r="L497" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="M497" s="143"/>
-      <c r="N497" s="144"/>
-      <c r="O497" s="143" t="s">
+      <c r="M497" s="74"/>
+      <c r="N497" s="123"/>
+      <c r="O497" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P497" s="143"/>
-      <c r="Q497" s="146" t="s">
+      <c r="P497" s="74"/>
+      <c r="Q497" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R497" s="143"/>
+      <c r="R497" s="74"/>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A498" s="139">
+      <c r="A498" s="123">
         <v>2025</v>
       </c>
-      <c r="B498" s="140">
+      <c r="B498">
         <v>1</v>
       </c>
-      <c r="C498" s="141">
+      <c r="C498" s="126">
         <v>45726</v>
       </c>
-      <c r="D498" s="142">
+      <c r="D498" s="122">
         <v>15</v>
       </c>
-      <c r="E498" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F498" s="143" t="s">
+      <c r="E498" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F498" s="74" t="s">
         <v>760</v>
       </c>
-      <c r="G498" s="149">
-        <v>60</v>
-      </c>
-      <c r="H498" s="149"/>
-      <c r="I498" s="143" t="s">
+      <c r="G498" s="5">
+        <v>60</v>
+      </c>
+      <c r="H498" s="5"/>
+      <c r="I498" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="J498" s="143" t="s">
+      <c r="J498" s="74" t="s">
         <v>895</v>
       </c>
-      <c r="K498" s="143"/>
-      <c r="L498" s="143" t="s">
+      <c r="K498" s="74"/>
+      <c r="L498" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="M498" s="143"/>
-      <c r="N498" s="144"/>
-      <c r="O498" s="143" t="s">
+      <c r="M498" s="74"/>
+      <c r="N498" s="123"/>
+      <c r="O498" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P498" s="143"/>
-      <c r="Q498" s="143"/>
-      <c r="R498" s="143"/>
+      <c r="P498" s="74"/>
+      <c r="Q498" s="74"/>
+      <c r="R498" s="74"/>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A499" s="139">
+      <c r="A499" s="123">
         <v>2025</v>
       </c>
-      <c r="B499" s="140">
+      <c r="B499">
         <v>1</v>
       </c>
-      <c r="C499" s="141">
+      <c r="C499" s="126">
         <v>45734</v>
       </c>
-      <c r="D499" s="142">
+      <c r="D499" s="122">
         <v>16</v>
       </c>
-      <c r="E499" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F499" s="143" t="s">
+      <c r="E499" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F499" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="G499" s="149">
-        <v>60</v>
-      </c>
-      <c r="H499" s="149"/>
-      <c r="I499" s="143" t="s">
+      <c r="G499" s="5">
+        <v>60</v>
+      </c>
+      <c r="H499" s="5"/>
+      <c r="I499" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J499" s="143" t="s">
+      <c r="J499" s="74" t="s">
         <v>492</v>
       </c>
-      <c r="K499" s="143"/>
-      <c r="L499" s="143" t="s">
+      <c r="K499" s="74"/>
+      <c r="L499" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="M499" s="143"/>
-      <c r="N499" s="144"/>
-      <c r="O499" s="143" t="s">
+      <c r="M499" s="74"/>
+      <c r="N499" s="123"/>
+      <c r="O499" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P499" s="143"/>
-      <c r="Q499" s="146" t="s">
+      <c r="P499" s="74"/>
+      <c r="Q499" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R499" s="143"/>
+      <c r="R499" s="74"/>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A500" s="139">
+      <c r="A500" s="123">
         <v>2025</v>
       </c>
-      <c r="B500" s="140">
+      <c r="B500">
         <v>1</v>
       </c>
-      <c r="C500" s="141">
+      <c r="C500" s="126">
         <v>45727</v>
       </c>
-      <c r="D500" s="142">
+      <c r="D500" s="122">
         <v>17</v>
       </c>
-      <c r="E500" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F500" s="143" t="s">
+      <c r="E500" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F500" s="74" t="s">
         <v>896</v>
       </c>
-      <c r="G500" s="149">
-        <v>60</v>
-      </c>
-      <c r="H500" s="149"/>
-      <c r="I500" s="143" t="s">
+      <c r="G500" s="5">
+        <v>60</v>
+      </c>
+      <c r="H500" s="5"/>
+      <c r="I500" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="J500" s="143" t="s">
+      <c r="J500" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="K500" s="143"/>
-      <c r="L500" s="143" t="s">
+      <c r="K500" s="74"/>
+      <c r="L500" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="M500" s="143"/>
-      <c r="N500" s="144"/>
-      <c r="O500" s="143" t="s">
+      <c r="M500" s="74"/>
+      <c r="N500" s="123"/>
+      <c r="O500" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P500" s="143"/>
-      <c r="Q500" s="146" t="s">
+      <c r="P500" s="74"/>
+      <c r="Q500" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R500" s="143"/>
+      <c r="R500" s="74"/>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A501" s="139">
+      <c r="A501" s="123">
         <v>2025</v>
       </c>
-      <c r="B501" s="140">
+      <c r="B501">
         <v>1</v>
       </c>
-      <c r="C501" s="141">
+      <c r="C501" s="126">
         <v>45727</v>
       </c>
-      <c r="D501" s="142">
+      <c r="D501" s="122">
         <v>18</v>
       </c>
-      <c r="E501" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F501" s="143" t="s">
+      <c r="E501" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F501" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="G501" s="149">
-        <v>60</v>
-      </c>
-      <c r="H501" s="149"/>
-      <c r="I501" s="143" t="s">
+      <c r="G501" s="5">
+        <v>60</v>
+      </c>
+      <c r="H501" s="5"/>
+      <c r="I501" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="J501" s="143" t="s">
+      <c r="J501" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="K501" s="143"/>
-      <c r="L501" s="143" t="s">
+      <c r="K501" s="74"/>
+      <c r="L501" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="M501" s="143"/>
-      <c r="N501" s="144"/>
-      <c r="O501" s="143" t="s">
+      <c r="M501" s="74"/>
+      <c r="N501" s="123"/>
+      <c r="O501" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P501" s="143"/>
-      <c r="Q501" s="146" t="s">
+      <c r="P501" s="74"/>
+      <c r="Q501" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R501" s="143"/>
+      <c r="R501" s="74"/>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A502" s="139">
+      <c r="A502" s="123">
         <v>2025</v>
       </c>
-      <c r="B502" s="140">
+      <c r="B502">
         <v>1</v>
       </c>
-      <c r="C502" s="141"/>
-      <c r="D502" s="142">
+      <c r="C502" s="126"/>
+      <c r="D502" s="122">
         <v>19</v>
       </c>
-      <c r="E502" s="143" t="s">
+      <c r="E502" s="74" t="s">
         <v>515</v>
       </c>
-      <c r="F502" s="143" t="s">
+      <c r="F502" s="74" t="s">
         <v>897</v>
       </c>
-      <c r="G502" s="149">
+      <c r="G502" s="5">
         <v>15</v>
       </c>
-      <c r="H502" s="149"/>
-      <c r="I502" s="143" t="s">
+      <c r="H502" s="5"/>
+      <c r="I502" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J502" s="143" t="s">
+      <c r="J502" s="74" t="s">
         <v>898</v>
       </c>
-      <c r="K502" s="143"/>
-      <c r="L502" s="143" t="s">
+      <c r="K502" s="74"/>
+      <c r="L502" s="74" t="s">
         <v>899</v>
       </c>
-      <c r="M502" s="143"/>
-      <c r="N502" s="144"/>
-      <c r="O502" s="143" t="s">
+      <c r="M502" s="74"/>
+      <c r="N502" s="123"/>
+      <c r="O502" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P502" s="143"/>
-      <c r="Q502" s="143"/>
-      <c r="R502" s="143"/>
+      <c r="P502" s="74"/>
+      <c r="Q502" s="74"/>
+      <c r="R502" s="74"/>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A503" s="139">
+      <c r="A503" s="123">
         <v>2025</v>
       </c>
-      <c r="B503" s="140">
+      <c r="B503">
         <v>1</v>
       </c>
-      <c r="C503" s="141"/>
-      <c r="D503" s="142">
+      <c r="C503" s="126"/>
+      <c r="D503" s="122">
         <v>20</v>
       </c>
-      <c r="E503" s="143" t="s">
+      <c r="E503" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="F503" s="143" t="s">
+      <c r="F503" s="74" t="s">
         <v>900</v>
       </c>
-      <c r="G503" s="149">
+      <c r="G503" s="5">
         <v>30</v>
       </c>
-      <c r="H503" s="149"/>
-      <c r="I503" s="143" t="s">
+      <c r="H503" s="5"/>
+      <c r="I503" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J503" s="143" t="s">
+      <c r="J503" s="74" t="s">
         <v>363</v>
       </c>
-      <c r="K503" s="143"/>
-      <c r="L503" s="143" t="s">
+      <c r="K503" s="74"/>
+      <c r="L503" s="74" t="s">
         <v>901</v>
       </c>
-      <c r="M503" s="143"/>
-      <c r="N503" s="144"/>
-      <c r="O503" s="143" t="s">
+      <c r="M503" s="74"/>
+      <c r="N503" s="123"/>
+      <c r="O503" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P503" s="143"/>
-      <c r="Q503" s="143"/>
-      <c r="R503" s="143"/>
+      <c r="P503" s="74"/>
+      <c r="Q503" s="74"/>
+      <c r="R503" s="74"/>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A504" s="139">
+      <c r="A504" s="123">
         <v>2025</v>
       </c>
-      <c r="B504" s="140">
+      <c r="B504">
         <v>1</v>
       </c>
-      <c r="C504" s="141">
+      <c r="C504" s="126">
         <v>45726</v>
       </c>
-      <c r="D504" s="142">
+      <c r="D504" s="122">
         <v>21</v>
       </c>
-      <c r="E504" s="143" t="s">
+      <c r="E504" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="F504" s="143" t="s">
+      <c r="F504" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G504" s="149">
-        <v>60</v>
-      </c>
-      <c r="H504" s="149"/>
-      <c r="I504" s="143" t="s">
+      <c r="G504" s="5">
+        <v>60</v>
+      </c>
+      <c r="H504" s="5"/>
+      <c r="I504" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J504" s="143" t="s">
+      <c r="J504" s="74" t="s">
         <v>902</v>
       </c>
-      <c r="K504" s="143"/>
-      <c r="L504" s="143" t="s">
+      <c r="K504" s="74"/>
+      <c r="L504" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="M504" s="143"/>
-      <c r="N504" s="144"/>
-      <c r="O504" s="143" t="s">
+      <c r="M504" s="74"/>
+      <c r="N504" s="123"/>
+      <c r="O504" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P504" s="143"/>
-      <c r="Q504" s="146" t="s">
+      <c r="P504" s="74"/>
+      <c r="Q504" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="R504" s="143"/>
+      <c r="R504" s="74"/>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A505" s="139">
+      <c r="A505" s="123">
         <v>2025</v>
       </c>
-      <c r="B505" s="140">
+      <c r="B505">
         <v>1</v>
       </c>
-      <c r="C505" s="141"/>
-      <c r="D505" s="142">
+      <c r="C505" s="126"/>
+      <c r="D505" s="122">
         <v>22</v>
       </c>
-      <c r="E505" s="143" t="s">
+      <c r="E505" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="F505" s="143" t="s">
+      <c r="F505" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G505" s="149">
-        <v>60</v>
-      </c>
-      <c r="H505" s="149"/>
-      <c r="I505" s="143" t="s">
+      <c r="G505" s="5">
+        <v>60</v>
+      </c>
+      <c r="H505" s="5"/>
+      <c r="I505" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J505" s="143" t="s">
+      <c r="J505" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="K505" s="143"/>
-      <c r="L505" s="143"/>
-      <c r="M505" s="143"/>
-      <c r="N505" s="144"/>
-      <c r="O505" s="143" t="s">
+      <c r="K505" s="74"/>
+      <c r="L505" s="74"/>
+      <c r="M505" s="74"/>
+      <c r="N505" s="123"/>
+      <c r="O505" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P505" s="143"/>
-      <c r="Q505" s="143"/>
-      <c r="R505" s="143"/>
+      <c r="P505" s="74"/>
+      <c r="Q505" s="74"/>
+      <c r="R505" s="74"/>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A506" s="139">
+      <c r="A506" s="123">
         <v>2025</v>
       </c>
-      <c r="B506" s="140">
+      <c r="B506">
         <v>1</v>
       </c>
-      <c r="C506" s="141"/>
-      <c r="D506" s="142">
+      <c r="C506" s="126"/>
+      <c r="D506" s="122">
         <v>23</v>
       </c>
-      <c r="E506" s="143" t="s">
+      <c r="E506" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="F506" s="143" t="s">
+      <c r="F506" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G506" s="149">
-        <v>60</v>
-      </c>
-      <c r="H506" s="149"/>
-      <c r="I506" s="143" t="s">
+      <c r="G506" s="5">
+        <v>60</v>
+      </c>
+      <c r="H506" s="5"/>
+      <c r="I506" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J506" s="143" t="s">
+      <c r="J506" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="K506" s="143"/>
-      <c r="L506" s="143"/>
-      <c r="M506" s="143"/>
-      <c r="N506" s="144"/>
-      <c r="O506" s="143" t="s">
+      <c r="K506" s="74"/>
+      <c r="L506" s="74"/>
+      <c r="M506" s="74"/>
+      <c r="N506" s="123"/>
+      <c r="O506" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P506" s="143"/>
-      <c r="Q506" s="143"/>
-      <c r="R506" s="143"/>
+      <c r="P506" s="74"/>
+      <c r="Q506" s="74"/>
+      <c r="R506" s="74"/>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A507" s="139">
+      <c r="A507" s="123">
         <v>2025</v>
       </c>
-      <c r="B507" s="140">
+      <c r="B507">
         <v>1</v>
       </c>
-      <c r="C507" s="141">
+      <c r="C507" s="126">
         <v>45729</v>
       </c>
-      <c r="D507" s="142">
+      <c r="D507" s="122">
         <v>24</v>
       </c>
-      <c r="E507" s="143" t="s">
+      <c r="E507" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="F507" s="143" t="s">
+      <c r="F507" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G507" s="149">
-        <v>60</v>
-      </c>
-      <c r="H507" s="149"/>
-      <c r="I507" s="143" t="s">
+      <c r="G507" s="5">
+        <v>60</v>
+      </c>
+      <c r="H507" s="5"/>
+      <c r="I507" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J507" s="143" t="s">
+      <c r="J507" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="K507" s="143"/>
-      <c r="L507" s="143" t="s">
+      <c r="K507" s="74"/>
+      <c r="L507" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="M507" s="143"/>
-      <c r="N507" s="144"/>
-      <c r="O507" s="143" t="s">
+      <c r="M507" s="74"/>
+      <c r="N507" s="123"/>
+      <c r="O507" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P507" s="143"/>
-      <c r="Q507" s="143"/>
-      <c r="R507" s="143"/>
+      <c r="P507" s="74"/>
+      <c r="Q507" s="74"/>
+      <c r="R507" s="74"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A507">

--- a/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159E66E-226B-4436-9F8E-57A21A9DF4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB084E9A-131F-4079-B532-475B52BBCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'2024.2 por disciplina'!$B$2:$P$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025.1 horários'!$B$17:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025.1 horários JV'!$B$17:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'25.1'!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'Outro lugar'!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8444" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8482" uniqueCount="941">
   <si>
     <t>Nome da Atividade</t>
   </si>
@@ -2842,13 +2843,52 @@
   </si>
   <si>
     <t>(10h) TECC: Seminários Avançados de Pós-Graduação I - Fabricio B.</t>
+  </si>
+  <si>
+    <t>ICEx 2014</t>
+  </si>
+  <si>
+    <t>ICEx 2015</t>
+  </si>
+  <si>
+    <t>ICEx 2009</t>
+  </si>
+  <si>
+    <t>CAD3 309</t>
+  </si>
+  <si>
+    <t>ICEx 1015</t>
+  </si>
+  <si>
+    <t>ICEx 1019</t>
+  </si>
+  <si>
+    <t>ICEx 2013</t>
+  </si>
+  <si>
+    <t>ICEx 1022</t>
+  </si>
+  <si>
+    <t>ICEx 1016</t>
+  </si>
+  <si>
+    <t>CAD3 406</t>
+  </si>
+  <si>
+    <t>CAD3 407</t>
+  </si>
+  <si>
+    <t>CAD3 211</t>
+  </si>
+  <si>
+    <t>ICEx 2077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2964,12 +3004,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFE8E6E3"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3523,7 +3557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3891,15 +3925,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11037,7 +11062,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11113,14 +11138,14 @@
         <v>108</v>
       </c>
       <c r="C4" s="37"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="142" t="s">
         <v>913</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="142" t="s">
         <v>913</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="142" t="s">
         <v>927</v>
       </c>
       <c r="H4" s="1"/>
@@ -11234,16 +11259,16 @@
       <c r="B11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="143" t="s">
         <v>911</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="143" t="s">
         <v>917</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="143" t="s">
         <v>911</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="143" t="s">
         <v>917</v>
       </c>
       <c r="G11" s="45"/>
@@ -11319,101 +11344,101 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="147" t="s">
+      <c r="B17" s="140"/>
+      <c r="C17" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="148" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="145" t="s">
         <v>920</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="145" t="s">
         <v>921</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="148" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="145" t="s">
         <v>922</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="145" t="s">
         <v>657</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="148" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="145" t="s">
         <v>923</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="148" t="s">
+      <c r="B22" s="140"/>
+      <c r="C22" s="145" t="s">
         <v>924</v>
       </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -20030,101 +20055,101 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="147" t="s">
+      <c r="B17" s="140"/>
+      <c r="C17" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="148" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="145" t="s">
         <v>920</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="145" t="s">
         <v>921</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="148" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="145" t="s">
         <v>922</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="145" t="s">
         <v>657</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="148" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="145" t="s">
         <v>923</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="148" t="s">
+      <c r="B22" s="140"/>
+      <c r="C22" s="145" t="s">
         <v>924</v>
       </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -21164,30 +21189,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFD6A5D-4252-4C92-9D84-040616A2AE3A}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="111.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="33.21875" customWidth="1"/>
+    <col min="11" max="11" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -21247,890 +21272,1117 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="123">
         <v>2025</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
-        <v>45727</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>886</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="C2" s="126">
+        <v>45729</v>
+      </c>
+      <c r="D2" s="122">
+        <v>24</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="5">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="74"/>
+      <c r="N2" s="123" t="s">
+        <v>934</v>
+      </c>
+      <c r="O2" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q2" s="136" t="s">
-        <v>209</v>
-      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="123">
         <v>2025</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="32">
-        <v>45727</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>363</v>
-      </c>
-      <c r="L3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="122">
+        <v>22</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q3" s="137" t="s">
-        <v>209</v>
-      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="123">
         <v>2025</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q4" s="138"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="122">
+        <v>23</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="5">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="74" t="s">
+        <v>887</v>
+      </c>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="123">
         <v>2025</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="32">
-        <v>45729</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>719</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="C5" s="126">
+        <v>45726</v>
+      </c>
+      <c r="D5" s="122">
+        <v>21</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>902</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="123" t="s">
+        <v>934</v>
+      </c>
+      <c r="O5" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q5" s="137" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="136" t="s">
         <v>209</v>
       </c>
+      <c r="R5" s="74"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="123">
         <v>2025</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="32">
-        <v>45728</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>610</v>
-      </c>
-      <c r="G6">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="C6" s="126">
+        <v>45726</v>
+      </c>
+      <c r="D6" s="122">
+        <v>15</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>760</v>
+      </c>
+      <c r="G6" s="5">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>895</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="74"/>
+      <c r="N6" s="123" t="s">
+        <v>929</v>
+      </c>
+      <c r="O6" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q6" s="137" t="s">
-        <v>209</v>
-      </c>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="123">
         <v>2025</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="32">
-        <v>45728</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>889</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="C7" s="126">
+        <v>45734</v>
+      </c>
+      <c r="D7" s="122">
+        <v>16</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>762</v>
+      </c>
+      <c r="G7" s="5">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="74"/>
+      <c r="N7" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="O7" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q7" s="138"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="123">
         <v>2025</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>890</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" t="s">
-        <v>891</v>
-      </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="C8" s="126">
+        <v>45727</v>
+      </c>
+      <c r="D8" s="122">
+        <v>17</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>896</v>
+      </c>
+      <c r="G8" s="5">
+        <v>60</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="74"/>
+      <c r="N8" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="O8" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q8" s="138"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R8" s="74"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="123">
         <v>2025</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="32">
-        <v>45726</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" t="s">
-        <v>321</v>
-      </c>
-      <c r="L9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O9" t="s">
-        <v>887</v>
-      </c>
-      <c r="Q9" s="138"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="122">
+        <v>3</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="5">
+        <v>60</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74" t="s">
+        <v>657</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="123">
         <v>2025</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="32">
-        <v>45726</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" t="s">
-        <v>616</v>
-      </c>
-      <c r="G10">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="C10" s="126">
+        <v>45729</v>
+      </c>
+      <c r="D10" s="122">
+        <v>4</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>719</v>
+      </c>
+      <c r="G10" s="5">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="123" t="s">
+        <v>930</v>
+      </c>
+      <c r="O10" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q10" s="137" t="s">
+      <c r="P10" s="74"/>
+      <c r="Q10" s="136" t="s">
         <v>209</v>
       </c>
+      <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="123">
         <v>2025</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="126">
         <v>45728</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>673</v>
-      </c>
-      <c r="G11">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="D11" s="122">
+        <v>5</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>610</v>
+      </c>
+      <c r="G11" s="5">
+        <v>60</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="123" t="s">
+        <v>931</v>
+      </c>
+      <c r="O11" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q11" s="138"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R11" s="74"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="123">
         <v>2025</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="126">
         <v>45728</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" t="s">
-        <v>775</v>
-      </c>
-      <c r="G12">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" t="s">
-        <v>892</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="D12" s="122">
+        <v>6</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>889</v>
+      </c>
+      <c r="G12" s="5">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="123" t="s">
+        <v>932</v>
+      </c>
+      <c r="O12" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q12" s="137" t="s">
-        <v>209</v>
-      </c>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="123">
         <v>2025</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="32">
-        <v>45733</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>600</v>
-      </c>
-      <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="C13" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="122">
+        <v>7</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>890</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>891</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q13" s="137" t="s">
-        <v>209</v>
-      </c>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="123">
         <v>2025</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="32">
-        <v>45729</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G14">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" t="s">
-        <v>496</v>
-      </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="C14" s="126">
+        <v>45727</v>
+      </c>
+      <c r="D14" s="122">
+        <v>18</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>709</v>
+      </c>
+      <c r="G14" s="5">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M14" s="74"/>
+      <c r="N14" s="123" t="s">
+        <v>939</v>
+      </c>
+      <c r="O14" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q14" s="138"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R14" s="74"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="123">
         <v>2025</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="32">
-        <v>45734</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" t="s">
-        <v>893</v>
-      </c>
-      <c r="G15">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" t="s">
-        <v>894</v>
-      </c>
-      <c r="L15" t="s">
-        <v>607</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="C15" s="126">
+        <v>45726</v>
+      </c>
+      <c r="D15" s="122">
+        <v>8</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="5">
+        <v>60</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="123" t="s">
+        <v>931</v>
+      </c>
+      <c r="O15" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q15" s="137" t="s">
-        <v>209</v>
-      </c>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="123">
         <v>2025</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="126">
         <v>45726</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" t="s">
-        <v>760</v>
-      </c>
-      <c r="G16">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" t="s">
-        <v>895</v>
-      </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="D16" s="122">
+        <v>9</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>616</v>
+      </c>
+      <c r="G16" s="5">
+        <v>60</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="123" t="s">
+        <v>933</v>
+      </c>
+      <c r="O16" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q16" s="138"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="P16" s="74"/>
+      <c r="Q16" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="74"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="123">
         <v>2025</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="32">
-        <v>45734</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" t="s">
-        <v>762</v>
-      </c>
-      <c r="G17">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" t="s">
-        <v>492</v>
-      </c>
-      <c r="L17" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="C17" s="126">
+        <v>45727</v>
+      </c>
+      <c r="D17" s="122">
+        <v>1</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>886</v>
+      </c>
+      <c r="G17" s="5">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="123" t="s">
+        <v>928</v>
+      </c>
+      <c r="O17" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q17" s="137" t="s">
+      <c r="P17" s="75" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q17" s="136" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="R17" s="74"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="123">
         <v>2025</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="32">
-        <v>45727</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>896</v>
-      </c>
-      <c r="G18">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" t="s">
-        <v>256</v>
-      </c>
-      <c r="L18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="C18" s="126">
+        <v>45734</v>
+      </c>
+      <c r="D18" s="122">
+        <v>14</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>893</v>
+      </c>
+      <c r="G18" s="5">
+        <v>60</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>894</v>
+      </c>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="123" t="s">
+        <v>933</v>
+      </c>
+      <c r="O18" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q18" s="137" t="s">
+      <c r="P18" s="74"/>
+      <c r="Q18" s="136" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="R18" s="74"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="123">
         <v>2025</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="32">
-        <v>45727</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>709</v>
-      </c>
-      <c r="G19">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" t="s">
-        <v>359</v>
-      </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="C19" s="126">
+        <v>45728</v>
+      </c>
+      <c r="D19" s="122">
+        <v>10</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>673</v>
+      </c>
+      <c r="G19" s="5">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="J19" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="74"/>
+      <c r="N19" s="123" t="s">
+        <v>934</v>
+      </c>
+      <c r="O19" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q19" s="137" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="123">
         <v>2025</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>515</v>
-      </c>
-      <c r="F20" t="s">
-        <v>897</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" t="s">
-        <v>898</v>
-      </c>
-      <c r="L20" t="s">
-        <v>899</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="C20" s="126">
+        <v>45728</v>
+      </c>
+      <c r="D20" s="122">
+        <v>11</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>775</v>
+      </c>
+      <c r="G20" s="5">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>892</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="74"/>
+      <c r="N20" s="123" t="s">
+        <v>935</v>
+      </c>
+      <c r="O20" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q20" s="138"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="P20" s="74"/>
+      <c r="Q20" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R20" s="74"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="123">
         <v>2025</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" t="s">
-        <v>900</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="122">
+        <v>19</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>515</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>897</v>
+      </c>
+      <c r="G21" s="5">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J21" t="s">
-        <v>363</v>
-      </c>
-      <c r="L21" t="s">
-        <v>901</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="J21" s="74" t="s">
+        <v>898</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74" t="s">
+        <v>899</v>
+      </c>
+      <c r="M21" s="74"/>
+      <c r="N21" s="123" t="s">
+        <v>940</v>
+      </c>
+      <c r="O21" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q21" s="138"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="123">
         <v>2025</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="32">
-        <v>45726</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22">
-        <v>60</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="C22" s="126"/>
+      <c r="D22" s="122">
+        <v>20</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>900</v>
+      </c>
+      <c r="G22" s="5">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="J22" t="s">
-        <v>902</v>
-      </c>
-      <c r="L22" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="J22" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74" t="s">
+        <v>901</v>
+      </c>
+      <c r="M22" s="74"/>
+      <c r="N22" s="123" t="s">
+        <v>940</v>
+      </c>
+      <c r="O22" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q22" s="137" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="123">
         <v>2025</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23">
-        <v>60</v>
-      </c>
-      <c r="I23" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" t="s">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="C23" s="126">
+        <v>45727</v>
+      </c>
+      <c r="D23" s="122">
+        <v>2</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="5">
+        <v>60</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="74"/>
+      <c r="N23" s="123" t="s">
+        <v>929</v>
+      </c>
+      <c r="O23" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q23" s="138"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="P23" s="74"/>
+      <c r="Q23" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" s="74"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="123">
         <v>2025</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" t="s">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="C24" s="126">
+        <v>45733</v>
+      </c>
+      <c r="D24" s="122">
+        <v>12</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>600</v>
+      </c>
+      <c r="G24" s="5">
+        <v>60</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="74"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q24" s="138"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="P24" s="74"/>
+      <c r="Q24" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="R24" s="74"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="123">
         <v>2025</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="126">
         <v>45729</v>
       </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="D25" s="122">
+        <v>13</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="G25" s="5">
+        <v>60</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="74"/>
+      <c r="N25" s="123" t="s">
+        <v>936</v>
+      </c>
+      <c r="O25" s="74" t="s">
         <v>887</v>
       </c>
-      <c r="Q25" s="138"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{0BFD6A5D-4252-4C92-9D84-040616A2AE3A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R25">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-10-Programacao-Linear.pdf" xr:uid="{3A5B8550-928D-4046-AFC0-FCDCEAD755A4}"/>
-    <hyperlink ref="Q3" r:id="rId2" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Teoria-dos-Jogos-em-Computacao.pdf" xr:uid="{375283A6-F05B-4F51-AA7D-C0C98264E58A}"/>
-    <hyperlink ref="Q5" r:id="rId3" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Computacao-Quantica.pdf" xr:uid="{DC73D538-E531-4EC9-8CEA-CFB07661FB85}"/>
-    <hyperlink ref="Q6" r:id="rId4" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/03/2025-1-Confiabilidade-em-Sistemas-de-Redes-Distribuidos.pdf" xr:uid="{E0AE0208-7F70-4851-B568-234F6827C4B8}"/>
-    <hyperlink ref="Q10" r:id="rId5" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Programacao-Competitiva.pdf" xr:uid="{AB15091A-FE3F-4E2B-8414-795F5DDFD8D9}"/>
-    <hyperlink ref="Q12" r:id="rId6" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Redes-Sem-Fio.pdf" xr:uid="{CAC2E0FB-0B21-40CE-A1D7-1D8FB55D1623}"/>
-    <hyperlink ref="Q13" r:id="rId7" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Verificacao-Automatica-para-Sistemas-Ciberfisicos.pdf" xr:uid="{0E5D12CA-8E30-4A0A-87F2-A3B587D09572}"/>
-    <hyperlink ref="Q15" r:id="rId8" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Protecao-da-privacidade-em-aprendizado-de-maquina.pdf" xr:uid="{A8B3870F-D7B9-4508-8729-C53FE4FACA43}"/>
-    <hyperlink ref="Q17" r:id="rId9" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-Descritivo.pdf" xr:uid="{42AFDBFA-CBA9-490C-A30D-5748752DDC9C}"/>
-    <hyperlink ref="Q18" r:id="rId10" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-por-Reforco.pdf" xr:uid="{0BF14651-8A7D-4E13-B5E6-A152F5EE4DBE}"/>
-    <hyperlink ref="Q19" r:id="rId11" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Fundamentos-Estatisticos-de-Ciencia-dos-Dados-B.pdf" xr:uid="{71060906-C439-46AD-B23E-B579503955ED}"/>
-    <hyperlink ref="Q22" r:id="rId12" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Projeto-e-Analise-de-Algoritmos.pdf" xr:uid="{8F45DEA4-FFD0-4CBA-B0FC-B756DF9CDBBC}"/>
+    <hyperlink ref="Q17" r:id="rId1" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-10-Programacao-Linear.pdf" xr:uid="{968285DC-AADB-4247-82FA-0CBD2B0235F5}"/>
+    <hyperlink ref="Q23" r:id="rId2" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Teoria-dos-Jogos-em-Computacao.pdf" xr:uid="{04D221DB-8C11-4A48-992F-C74DC6B8BFA0}"/>
+    <hyperlink ref="Q10" r:id="rId3" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Computacao-Quantica.pdf" xr:uid="{97718EC0-27CB-449D-9C61-06B709D671FA}"/>
+    <hyperlink ref="Q11" r:id="rId4" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/03/2025-1-Confiabilidade-em-Sistemas-de-Redes-Distribuidos.pdf" xr:uid="{C26AA834-1E71-4B0A-96D1-D3EEA596C5A3}"/>
+    <hyperlink ref="Q16" r:id="rId5" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Programacao-Competitiva.pdf" xr:uid="{BF0E9B25-FDBB-43DE-814A-D1E7D9900AF1}"/>
+    <hyperlink ref="Q20" r:id="rId6" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Redes-Sem-Fio.pdf" xr:uid="{D0FEA48F-A41D-417B-8BA0-3183694861B0}"/>
+    <hyperlink ref="Q24" r:id="rId7" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Verificacao-Automatica-para-Sistemas-Ciberfisicos.pdf" xr:uid="{05A78061-9BD9-4031-9308-82F0AE7B2B26}"/>
+    <hyperlink ref="Q18" r:id="rId8" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Protecao-da-privacidade-em-aprendizado-de-maquina.pdf" xr:uid="{3EAE4EDE-FD03-4CF4-8713-4E01E4618728}"/>
+    <hyperlink ref="Q7" r:id="rId9" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-Descritivo.pdf" xr:uid="{53682207-89A0-4796-8D7B-04C690506D55}"/>
+    <hyperlink ref="Q8" r:id="rId10" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-por-Reforco.pdf" xr:uid="{1D48A365-4C99-4EF6-B7C3-62577A56A2C9}"/>
+    <hyperlink ref="Q14" r:id="rId11" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Fundamentos-Estatisticos-de-Ciencia-dos-Dados-B.pdf" xr:uid="{E6D5D319-FF8C-4303-A566-81D5770E38E3}"/>
+    <hyperlink ref="Q5" r:id="rId12" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Projeto-e-Analise-de-Algoritmos.pdf" xr:uid="{BF27EEA4-FFA7-4FB7-A8C4-6C9D48669992}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -26851,8 +27103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8845D368-D378-470C-9700-35D404534B1B}">
   <dimension ref="A1:R507"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508"/>
+    <sheetView topLeftCell="G472" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K508" sqref="H508:K508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26954,10 +27206,10 @@
       <c r="F2" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="140">
-        <v>60</v>
-      </c>
-      <c r="H2" s="140">
+      <c r="G2" s="137">
+        <v>60</v>
+      </c>
+      <c r="H2" s="137">
         <v>4</v>
       </c>
       <c r="I2" t="s">
@@ -26991,10 +27243,10 @@
       <c r="F3" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="140">
-        <v>60</v>
-      </c>
-      <c r="H3" s="140">
+      <c r="G3" s="137">
+        <v>60</v>
+      </c>
+      <c r="H3" s="137">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -27028,10 +27280,10 @@
       <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="140">
-        <v>60</v>
-      </c>
-      <c r="H4" s="140">
+      <c r="G4" s="137">
+        <v>60</v>
+      </c>
+      <c r="H4" s="137">
         <v>4</v>
       </c>
       <c r="I4" t="s">
@@ -27065,10 +27317,10 @@
       <c r="F5" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="140">
-        <v>60</v>
-      </c>
-      <c r="H5" s="140">
+      <c r="G5" s="137">
+        <v>60</v>
+      </c>
+      <c r="H5" s="137">
         <v>4</v>
       </c>
       <c r="I5" t="s">
@@ -27102,10 +27354,10 @@
       <c r="F6" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="140">
-        <v>60</v>
-      </c>
-      <c r="H6" s="140">
+      <c r="G6" s="137">
+        <v>60</v>
+      </c>
+      <c r="H6" s="137">
         <v>4</v>
       </c>
       <c r="I6" t="s">
@@ -27139,10 +27391,10 @@
       <c r="F7" t="s">
         <v>319</v>
       </c>
-      <c r="G7" s="140">
-        <v>60</v>
-      </c>
-      <c r="H7" s="140">
+      <c r="G7" s="137">
+        <v>60</v>
+      </c>
+      <c r="H7" s="137">
         <v>4</v>
       </c>
       <c r="I7" t="s">
@@ -27176,10 +27428,10 @@
       <c r="F8" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="140">
-        <v>60</v>
-      </c>
-      <c r="H8" s="140">
+      <c r="G8" s="137">
+        <v>60</v>
+      </c>
+      <c r="H8" s="137">
         <v>4</v>
       </c>
       <c r="I8" t="s">
@@ -27213,10 +27465,10 @@
       <c r="F9" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="140">
-        <v>60</v>
-      </c>
-      <c r="H9" s="140">
+      <c r="G9" s="137">
+        <v>60</v>
+      </c>
+      <c r="H9" s="137">
         <v>4</v>
       </c>
       <c r="I9" t="s">
@@ -27250,10 +27502,10 @@
       <c r="F10" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="140">
-        <v>60</v>
-      </c>
-      <c r="H10" s="140">
+      <c r="G10" s="137">
+        <v>60</v>
+      </c>
+      <c r="H10" s="137">
         <v>4</v>
       </c>
       <c r="I10" t="s">
@@ -27287,10 +27539,10 @@
       <c r="F11" t="s">
         <v>327</v>
       </c>
-      <c r="G11" s="140">
-        <v>60</v>
-      </c>
-      <c r="H11" s="140">
+      <c r="G11" s="137">
+        <v>60</v>
+      </c>
+      <c r="H11" s="137">
         <v>4</v>
       </c>
       <c r="I11" t="s">
@@ -27324,10 +27576,10 @@
       <c r="F12" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="140">
-        <v>60</v>
-      </c>
-      <c r="H12" s="140">
+      <c r="G12" s="137">
+        <v>60</v>
+      </c>
+      <c r="H12" s="137">
         <v>4</v>
       </c>
       <c r="I12" t="s">
@@ -27361,10 +27613,10 @@
       <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="140">
+      <c r="G13" s="137">
         <v>30</v>
       </c>
-      <c r="H13" s="140">
+      <c r="H13" s="137">
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -27395,10 +27647,10 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="137">
         <v>30</v>
       </c>
-      <c r="H14" s="140">
+      <c r="H14" s="137">
         <v>2</v>
       </c>
       <c r="I14" t="s">
@@ -27429,10 +27681,10 @@
       <c r="F15" t="s">
         <v>332</v>
       </c>
-      <c r="G15" s="140">
-        <v>60</v>
-      </c>
-      <c r="H15" s="140">
+      <c r="G15" s="137">
+        <v>60</v>
+      </c>
+      <c r="H15" s="137">
         <v>4</v>
       </c>
       <c r="I15" t="s">
@@ -27466,10 +27718,10 @@
       <c r="F16" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="140">
-        <v>60</v>
-      </c>
-      <c r="H16" s="140">
+      <c r="G16" s="137">
+        <v>60</v>
+      </c>
+      <c r="H16" s="137">
         <v>4</v>
       </c>
       <c r="I16" t="s">
@@ -27503,10 +27755,10 @@
       <c r="F17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="140">
-        <v>60</v>
-      </c>
-      <c r="H17" s="140">
+      <c r="G17" s="137">
+        <v>60</v>
+      </c>
+      <c r="H17" s="137">
         <v>4</v>
       </c>
       <c r="I17" t="s">
@@ -27540,10 +27792,10 @@
       <c r="F18" t="s">
         <v>275</v>
       </c>
-      <c r="G18" s="140">
-        <v>60</v>
-      </c>
-      <c r="H18" s="140">
+      <c r="G18" s="137">
+        <v>60</v>
+      </c>
+      <c r="H18" s="137">
         <v>4</v>
       </c>
       <c r="I18" t="s">
@@ -27577,10 +27829,10 @@
       <c r="F19" t="s">
         <v>336</v>
       </c>
-      <c r="G19" s="140">
-        <v>60</v>
-      </c>
-      <c r="H19" s="140">
+      <c r="G19" s="137">
+        <v>60</v>
+      </c>
+      <c r="H19" s="137">
         <v>4</v>
       </c>
       <c r="I19" t="s">
@@ -27614,10 +27866,10 @@
       <c r="F20" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="140">
-        <v>60</v>
-      </c>
-      <c r="H20" s="140">
+      <c r="G20" s="137">
+        <v>60</v>
+      </c>
+      <c r="H20" s="137">
         <v>4</v>
       </c>
       <c r="I20" t="s">
@@ -27651,10 +27903,10 @@
       <c r="F21" t="s">
         <v>338</v>
       </c>
-      <c r="G21" s="140">
-        <v>60</v>
-      </c>
-      <c r="H21" s="140">
+      <c r="G21" s="137">
+        <v>60</v>
+      </c>
+      <c r="H21" s="137">
         <v>4</v>
       </c>
       <c r="I21" t="s">
@@ -27688,10 +27940,10 @@
       <c r="F22" t="s">
         <v>340</v>
       </c>
-      <c r="G22" s="140">
-        <v>60</v>
-      </c>
-      <c r="H22" s="140">
+      <c r="G22" s="137">
+        <v>60</v>
+      </c>
+      <c r="H22" s="137">
         <v>4</v>
       </c>
       <c r="I22" t="s">
@@ -27725,10 +27977,10 @@
       <c r="F23" t="s">
         <v>341</v>
       </c>
-      <c r="G23" s="140">
-        <v>60</v>
-      </c>
-      <c r="H23" s="140">
+      <c r="G23" s="137">
+        <v>60</v>
+      </c>
+      <c r="H23" s="137">
         <v>4</v>
       </c>
       <c r="I23" t="s">
@@ -27762,10 +28014,10 @@
       <c r="F24" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="140">
-        <v>60</v>
-      </c>
-      <c r="H24" s="140">
+      <c r="G24" s="137">
+        <v>60</v>
+      </c>
+      <c r="H24" s="137">
         <v>4</v>
       </c>
       <c r="I24" t="s">
@@ -27799,10 +28051,10 @@
       <c r="F25" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="140">
-        <v>60</v>
-      </c>
-      <c r="H25" s="140">
+      <c r="G25" s="137">
+        <v>60</v>
+      </c>
+      <c r="H25" s="137">
         <v>4</v>
       </c>
       <c r="I25" t="s">
@@ -27836,10 +28088,10 @@
       <c r="F26" t="s">
         <v>345</v>
       </c>
-      <c r="G26" s="140">
-        <v>60</v>
-      </c>
-      <c r="H26" s="140">
+      <c r="G26" s="137">
+        <v>60</v>
+      </c>
+      <c r="H26" s="137">
         <v>4</v>
       </c>
       <c r="I26" t="s">
@@ -27873,10 +28125,10 @@
       <c r="F27" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="140">
-        <v>60</v>
-      </c>
-      <c r="H27" s="140">
+      <c r="G27" s="137">
+        <v>60</v>
+      </c>
+      <c r="H27" s="137">
         <v>4</v>
       </c>
       <c r="I27" t="s">
@@ -27910,10 +28162,10 @@
       <c r="F28" t="s">
         <v>349</v>
       </c>
-      <c r="G28" s="140">
-        <v>60</v>
-      </c>
-      <c r="H28" s="140">
+      <c r="G28" s="137">
+        <v>60</v>
+      </c>
+      <c r="H28" s="137">
         <v>4</v>
       </c>
       <c r="I28" t="s">
@@ -27947,10 +28199,10 @@
       <c r="F29" t="s">
         <v>350</v>
       </c>
-      <c r="G29" s="140">
-        <v>60</v>
-      </c>
-      <c r="H29" s="140">
+      <c r="G29" s="137">
+        <v>60</v>
+      </c>
+      <c r="H29" s="137">
         <v>4</v>
       </c>
       <c r="I29" t="s">
@@ -27984,10 +28236,10 @@
       <c r="F30" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="140">
-        <v>60</v>
-      </c>
-      <c r="H30" s="140">
+      <c r="G30" s="137">
+        <v>60</v>
+      </c>
+      <c r="H30" s="137">
         <v>4</v>
       </c>
       <c r="I30" t="s">
@@ -28021,10 +28273,10 @@
       <c r="F31" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="140">
-        <v>60</v>
-      </c>
-      <c r="H31" s="140">
+      <c r="G31" s="137">
+        <v>60</v>
+      </c>
+      <c r="H31" s="137">
         <v>4</v>
       </c>
       <c r="I31" t="s">
@@ -28058,10 +28310,10 @@
       <c r="F32" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="140">
-        <v>60</v>
-      </c>
-      <c r="H32" s="140">
+      <c r="G32" s="137">
+        <v>60</v>
+      </c>
+      <c r="H32" s="137">
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -28095,10 +28347,10 @@
       <c r="F33" t="s">
         <v>210</v>
       </c>
-      <c r="G33" s="140">
-        <v>60</v>
-      </c>
-      <c r="H33" s="140">
+      <c r="G33" s="137">
+        <v>60</v>
+      </c>
+      <c r="H33" s="137">
         <v>4</v>
       </c>
       <c r="I33" t="s">
@@ -28132,10 +28384,10 @@
       <c r="F34" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="140">
-        <v>60</v>
-      </c>
-      <c r="H34" s="140">
+      <c r="G34" s="137">
+        <v>60</v>
+      </c>
+      <c r="H34" s="137">
         <v>4</v>
       </c>
       <c r="I34" t="s">
@@ -28169,10 +28421,10 @@
       <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="G35" s="140">
-        <v>60</v>
-      </c>
-      <c r="H35" s="140">
+      <c r="G35" s="137">
+        <v>60</v>
+      </c>
+      <c r="H35" s="137">
         <v>4</v>
       </c>
       <c r="I35" t="s">
@@ -28206,10 +28458,10 @@
       <c r="F36" t="s">
         <v>367</v>
       </c>
-      <c r="G36" s="140">
+      <c r="G36" s="137">
         <v>30</v>
       </c>
-      <c r="H36" s="140">
+      <c r="H36" s="137">
         <v>2</v>
       </c>
       <c r="I36" t="s">
@@ -28245,10 +28497,10 @@
       <c r="F37" t="s">
         <v>305</v>
       </c>
-      <c r="G37" s="140">
-        <v>60</v>
-      </c>
-      <c r="H37" s="140">
+      <c r="G37" s="137">
+        <v>60</v>
+      </c>
+      <c r="H37" s="137">
         <v>4</v>
       </c>
       <c r="I37" t="s">
@@ -28286,10 +28538,10 @@
       <c r="F38" t="s">
         <v>383</v>
       </c>
-      <c r="G38" s="140">
-        <v>60</v>
-      </c>
-      <c r="H38" s="140">
+      <c r="G38" s="137">
+        <v>60</v>
+      </c>
+      <c r="H38" s="137">
         <v>4</v>
       </c>
       <c r="I38" t="s">
@@ -28327,10 +28579,10 @@
       <c r="F39" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="140">
-        <v>60</v>
-      </c>
-      <c r="H39" s="140">
+      <c r="G39" s="137">
+        <v>60</v>
+      </c>
+      <c r="H39" s="137">
         <v>4</v>
       </c>
       <c r="I39" t="s">
@@ -28368,10 +28620,10 @@
       <c r="F40" t="s">
         <v>386</v>
       </c>
-      <c r="G40" s="140">
-        <v>60</v>
-      </c>
-      <c r="H40" s="140">
+      <c r="G40" s="137">
+        <v>60</v>
+      </c>
+      <c r="H40" s="137">
         <v>4</v>
       </c>
       <c r="I40" t="s">
@@ -28409,10 +28661,10 @@
       <c r="F41" t="s">
         <v>388</v>
       </c>
-      <c r="G41" s="140">
-        <v>60</v>
-      </c>
-      <c r="H41" s="140">
+      <c r="G41" s="137">
+        <v>60</v>
+      </c>
+      <c r="H41" s="137">
         <v>4</v>
       </c>
       <c r="I41" t="s">
@@ -28450,10 +28702,10 @@
       <c r="F42" t="s">
         <v>391</v>
       </c>
-      <c r="G42" s="140">
-        <v>60</v>
-      </c>
-      <c r="H42" s="140">
+      <c r="G42" s="137">
+        <v>60</v>
+      </c>
+      <c r="H42" s="137">
         <v>4</v>
       </c>
       <c r="I42" t="s">
@@ -28491,10 +28743,10 @@
       <c r="F43" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="140">
-        <v>60</v>
-      </c>
-      <c r="H43" s="140">
+      <c r="G43" s="137">
+        <v>60</v>
+      </c>
+      <c r="H43" s="137">
         <v>4</v>
       </c>
       <c r="I43" t="s">
@@ -28532,10 +28784,10 @@
       <c r="F44" t="s">
         <v>394</v>
       </c>
-      <c r="G44" s="140">
-        <v>60</v>
-      </c>
-      <c r="H44" s="140">
+      <c r="G44" s="137">
+        <v>60</v>
+      </c>
+      <c r="H44" s="137">
         <v>4</v>
       </c>
       <c r="I44" t="s">
@@ -28573,10 +28825,10 @@
       <c r="F45" t="s">
         <v>288</v>
       </c>
-      <c r="G45" s="140">
-        <v>60</v>
-      </c>
-      <c r="H45" s="140">
+      <c r="G45" s="137">
+        <v>60</v>
+      </c>
+      <c r="H45" s="137">
         <v>4</v>
       </c>
       <c r="I45" t="s">
@@ -28614,10 +28866,10 @@
       <c r="F46" t="s">
         <v>398</v>
       </c>
-      <c r="G46" s="140">
-        <v>60</v>
-      </c>
-      <c r="H46" s="140">
+      <c r="G46" s="137">
+        <v>60</v>
+      </c>
+      <c r="H46" s="137">
         <v>4</v>
       </c>
       <c r="I46" t="s">
@@ -28655,10 +28907,10 @@
       <c r="F47" t="s">
         <v>400</v>
       </c>
-      <c r="G47" s="140">
-        <v>60</v>
-      </c>
-      <c r="H47" s="140">
+      <c r="G47" s="137">
+        <v>60</v>
+      </c>
+      <c r="H47" s="137">
         <v>4</v>
       </c>
       <c r="I47" t="s">
@@ -28696,10 +28948,10 @@
       <c r="F48" t="s">
         <v>402</v>
       </c>
-      <c r="G48" s="140">
-        <v>60</v>
-      </c>
-      <c r="H48" s="140">
+      <c r="G48" s="137">
+        <v>60</v>
+      </c>
+      <c r="H48" s="137">
         <v>4</v>
       </c>
       <c r="I48" t="s">
@@ -28737,10 +28989,10 @@
       <c r="F49" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="140">
-        <v>60</v>
-      </c>
-      <c r="H49" s="140">
+      <c r="G49" s="137">
+        <v>60</v>
+      </c>
+      <c r="H49" s="137">
         <v>4</v>
       </c>
       <c r="I49" t="s">
@@ -28778,10 +29030,10 @@
       <c r="F50" t="s">
         <v>407</v>
       </c>
-      <c r="G50" s="140">
+      <c r="G50" s="137">
         <v>30</v>
       </c>
-      <c r="H50" s="140">
+      <c r="H50" s="137">
         <v>2</v>
       </c>
       <c r="I50" t="s">
@@ -28819,10 +29071,10 @@
       <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="140">
-        <v>60</v>
-      </c>
-      <c r="H51" s="140">
+      <c r="G51" s="137">
+        <v>60</v>
+      </c>
+      <c r="H51" s="137">
         <v>4</v>
       </c>
       <c r="I51" t="s">
@@ -28860,10 +29112,10 @@
       <c r="F52" t="s">
         <v>411</v>
       </c>
-      <c r="G52" s="140">
-        <v>60</v>
-      </c>
-      <c r="H52" s="140">
+      <c r="G52" s="137">
+        <v>60</v>
+      </c>
+      <c r="H52" s="137">
         <v>4</v>
       </c>
       <c r="I52" t="s">
@@ -28901,10 +29153,10 @@
       <c r="F53" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="140">
-        <v>60</v>
-      </c>
-      <c r="H53" s="140">
+      <c r="G53" s="137">
+        <v>60</v>
+      </c>
+      <c r="H53" s="137">
         <v>4</v>
       </c>
       <c r="I53" t="s">
@@ -28942,10 +29194,10 @@
       <c r="F54" t="s">
         <v>414</v>
       </c>
-      <c r="G54" s="140">
-        <v>60</v>
-      </c>
-      <c r="H54" s="140">
+      <c r="G54" s="137">
+        <v>60</v>
+      </c>
+      <c r="H54" s="137">
         <v>4</v>
       </c>
       <c r="I54" t="s">
@@ -28983,10 +29235,10 @@
       <c r="F55" t="s">
         <v>247</v>
       </c>
-      <c r="G55" s="140">
-        <v>60</v>
-      </c>
-      <c r="H55" s="140">
+      <c r="G55" s="137">
+        <v>60</v>
+      </c>
+      <c r="H55" s="137">
         <v>4</v>
       </c>
       <c r="I55" t="s">
@@ -29024,10 +29276,10 @@
       <c r="F56" t="s">
         <v>415</v>
       </c>
-      <c r="G56" s="140">
-        <v>60</v>
-      </c>
-      <c r="H56" s="140">
+      <c r="G56" s="137">
+        <v>60</v>
+      </c>
+      <c r="H56" s="137">
         <v>4</v>
       </c>
       <c r="I56" t="s">
@@ -29065,10 +29317,10 @@
       <c r="F57" t="s">
         <v>416</v>
       </c>
-      <c r="G57" s="140">
-        <v>60</v>
-      </c>
-      <c r="H57" s="140">
+      <c r="G57" s="137">
+        <v>60</v>
+      </c>
+      <c r="H57" s="137">
         <v>4</v>
       </c>
       <c r="I57" t="s">
@@ -29106,10 +29358,10 @@
       <c r="F58" t="s">
         <v>417</v>
       </c>
-      <c r="G58" s="140">
-        <v>60</v>
-      </c>
-      <c r="H58" s="140">
+      <c r="G58" s="137">
+        <v>60</v>
+      </c>
+      <c r="H58" s="137">
         <v>4</v>
       </c>
       <c r="I58" t="s">
@@ -29147,10 +29399,10 @@
       <c r="F59" t="s">
         <v>418</v>
       </c>
-      <c r="G59" s="140">
-        <v>60</v>
-      </c>
-      <c r="H59" s="140">
+      <c r="G59" s="137">
+        <v>60</v>
+      </c>
+      <c r="H59" s="137">
         <v>4</v>
       </c>
       <c r="I59" t="s">
@@ -29186,10 +29438,10 @@
       <c r="F60" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="140">
+      <c r="G60" s="137">
         <v>30</v>
       </c>
-      <c r="H60" s="140">
+      <c r="H60" s="137">
         <v>2</v>
       </c>
       <c r="I60" t="s">
@@ -29220,10 +29472,10 @@
       <c r="F61" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="140">
+      <c r="G61" s="137">
         <v>30</v>
       </c>
-      <c r="H61" s="140">
+      <c r="H61" s="137">
         <v>2</v>
       </c>
       <c r="I61" t="s">
@@ -29256,10 +29508,10 @@
       <c r="F62" t="s">
         <v>422</v>
       </c>
-      <c r="G62" s="140">
-        <v>60</v>
-      </c>
-      <c r="H62" s="140">
+      <c r="G62" s="137">
+        <v>60</v>
+      </c>
+      <c r="H62" s="137">
         <v>4</v>
       </c>
       <c r="I62" t="s">
@@ -29297,10 +29549,10 @@
       <c r="F63" t="s">
         <v>846</v>
       </c>
-      <c r="G63" s="140">
-        <v>60</v>
-      </c>
-      <c r="H63" s="140">
+      <c r="G63" s="137">
+        <v>60</v>
+      </c>
+      <c r="H63" s="137">
         <v>4</v>
       </c>
       <c r="I63" t="s">
@@ -29338,10 +29590,10 @@
       <c r="F64" t="s">
         <v>428</v>
       </c>
-      <c r="G64" s="140">
-        <v>60</v>
-      </c>
-      <c r="H64" s="140">
+      <c r="G64" s="137">
+        <v>60</v>
+      </c>
+      <c r="H64" s="137">
         <v>4</v>
       </c>
       <c r="I64" t="s">
@@ -29379,10 +29631,10 @@
       <c r="F65" t="s">
         <v>429</v>
       </c>
-      <c r="G65" s="140">
+      <c r="G65" s="137">
         <v>30</v>
       </c>
-      <c r="H65" s="140">
+      <c r="H65" s="137">
         <v>2</v>
       </c>
       <c r="I65" t="s">
@@ -29420,10 +29672,10 @@
       <c r="F66" t="s">
         <v>309</v>
       </c>
-      <c r="G66" s="140">
-        <v>60</v>
-      </c>
-      <c r="H66" s="140">
+      <c r="G66" s="137">
+        <v>60</v>
+      </c>
+      <c r="H66" s="137">
         <v>4</v>
       </c>
       <c r="I66" t="s">
@@ -29461,10 +29713,10 @@
       <c r="F67" t="s">
         <v>80</v>
       </c>
-      <c r="G67" s="140">
-        <v>60</v>
-      </c>
-      <c r="H67" s="140">
+      <c r="G67" s="137">
+        <v>60</v>
+      </c>
+      <c r="H67" s="137">
         <v>4</v>
       </c>
       <c r="I67" t="s">
@@ -29502,10 +29754,10 @@
       <c r="F68" t="s">
         <v>462</v>
       </c>
-      <c r="G68" s="140">
-        <v>60</v>
-      </c>
-      <c r="H68" s="140">
+      <c r="G68" s="137">
+        <v>60</v>
+      </c>
+      <c r="H68" s="137">
         <v>4</v>
       </c>
       <c r="I68" t="s">
@@ -29543,10 +29795,10 @@
       <c r="F69" t="s">
         <v>316</v>
       </c>
-      <c r="G69" s="140">
-        <v>60</v>
-      </c>
-      <c r="H69" s="140">
+      <c r="G69" s="137">
+        <v>60</v>
+      </c>
+      <c r="H69" s="137">
         <v>4</v>
       </c>
       <c r="I69" t="s">
@@ -29584,10 +29836,10 @@
       <c r="F70" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="140">
-        <v>60</v>
-      </c>
-      <c r="H70" s="140">
+      <c r="G70" s="137">
+        <v>60</v>
+      </c>
+      <c r="H70" s="137">
         <v>4</v>
       </c>
       <c r="I70" t="s">
@@ -29625,10 +29877,10 @@
       <c r="F71" t="s">
         <v>320</v>
       </c>
-      <c r="G71" s="140">
-        <v>60</v>
-      </c>
-      <c r="H71" s="140">
+      <c r="G71" s="137">
+        <v>60</v>
+      </c>
+      <c r="H71" s="137">
         <v>4</v>
       </c>
       <c r="I71" t="s">
@@ -29666,10 +29918,10 @@
       <c r="F72" t="s">
         <v>436</v>
       </c>
-      <c r="G72" s="140">
-        <v>60</v>
-      </c>
-      <c r="H72" s="140">
+      <c r="G72" s="137">
+        <v>60</v>
+      </c>
+      <c r="H72" s="137">
         <v>4</v>
       </c>
       <c r="I72" t="s">
@@ -29707,10 +29959,10 @@
       <c r="F73" t="s">
         <v>325</v>
       </c>
-      <c r="G73" s="140">
-        <v>60</v>
-      </c>
-      <c r="H73" s="140">
+      <c r="G73" s="137">
+        <v>60</v>
+      </c>
+      <c r="H73" s="137">
         <v>4</v>
       </c>
       <c r="I73" t="s">
@@ -29748,10 +30000,10 @@
       <c r="F74" t="s">
         <v>330</v>
       </c>
-      <c r="G74" s="140">
-        <v>60</v>
-      </c>
-      <c r="H74" s="140">
+      <c r="G74" s="137">
+        <v>60</v>
+      </c>
+      <c r="H74" s="137">
         <v>4</v>
       </c>
       <c r="I74" t="s">
@@ -29787,10 +30039,10 @@
       <c r="F75" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="140">
+      <c r="G75" s="137">
         <v>30</v>
       </c>
-      <c r="H75" s="140">
+      <c r="H75" s="137">
         <v>2</v>
       </c>
       <c r="I75" t="s">
@@ -29821,10 +30073,10 @@
       <c r="F76" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="140">
+      <c r="G76" s="137">
         <v>30</v>
       </c>
-      <c r="H76" s="140">
+      <c r="H76" s="137">
         <v>2</v>
       </c>
       <c r="I76" t="s">
@@ -29857,10 +30109,10 @@
       <c r="F77" t="s">
         <v>335</v>
       </c>
-      <c r="G77" s="140">
-        <v>60</v>
-      </c>
-      <c r="H77" s="140">
+      <c r="G77" s="137">
+        <v>60</v>
+      </c>
+      <c r="H77" s="137">
         <v>4</v>
       </c>
       <c r="I77" t="s">
@@ -29898,10 +30150,10 @@
       <c r="F78" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="140">
-        <v>60</v>
-      </c>
-      <c r="H78" s="140">
+      <c r="G78" s="137">
+        <v>60</v>
+      </c>
+      <c r="H78" s="137">
         <v>4</v>
       </c>
       <c r="I78" t="s">
@@ -29939,10 +30191,10 @@
       <c r="F79" t="s">
         <v>454</v>
       </c>
-      <c r="G79" s="140">
-        <v>60</v>
-      </c>
-      <c r="H79" s="140">
+      <c r="G79" s="137">
+        <v>60</v>
+      </c>
+      <c r="H79" s="137">
         <v>4</v>
       </c>
       <c r="I79" t="s">
@@ -29980,10 +30232,10 @@
       <c r="F80" t="s">
         <v>338</v>
       </c>
-      <c r="G80" s="140">
-        <v>60</v>
-      </c>
-      <c r="H80" s="140">
+      <c r="G80" s="137">
+        <v>60</v>
+      </c>
+      <c r="H80" s="137">
         <v>4</v>
       </c>
       <c r="I80" t="s">
@@ -30021,10 +30273,10 @@
       <c r="F81" t="s">
         <v>455</v>
       </c>
-      <c r="G81" s="140">
-        <v>60</v>
-      </c>
-      <c r="H81" s="140">
+      <c r="G81" s="137">
+        <v>60</v>
+      </c>
+      <c r="H81" s="137">
         <v>4</v>
       </c>
       <c r="I81" t="s">
@@ -30062,10 +30314,10 @@
       <c r="F82" t="s">
         <v>456</v>
       </c>
-      <c r="G82" s="140">
-        <v>60</v>
-      </c>
-      <c r="H82" s="140">
+      <c r="G82" s="137">
+        <v>60</v>
+      </c>
+      <c r="H82" s="137">
         <v>4</v>
       </c>
       <c r="I82" t="s">
@@ -30103,10 +30355,10 @@
       <c r="F83" t="s">
         <v>457</v>
       </c>
-      <c r="G83" s="140">
-        <v>60</v>
-      </c>
-      <c r="H83" s="140">
+      <c r="G83" s="137">
+        <v>60</v>
+      </c>
+      <c r="H83" s="137">
         <v>4</v>
       </c>
       <c r="I83" t="s">
@@ -30144,10 +30396,10 @@
       <c r="F84" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="140">
-        <v>60</v>
-      </c>
-      <c r="H84" s="140">
+      <c r="G84" s="137">
+        <v>60</v>
+      </c>
+      <c r="H84" s="137">
         <v>4</v>
       </c>
       <c r="I84" t="s">
@@ -30185,10 +30437,10 @@
       <c r="F85" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="140">
-        <v>60</v>
-      </c>
-      <c r="H85" s="140">
+      <c r="G85" s="137">
+        <v>60</v>
+      </c>
+      <c r="H85" s="137">
         <v>4</v>
       </c>
       <c r="I85" t="s">
@@ -30226,10 +30478,10 @@
       <c r="F86" t="s">
         <v>357</v>
       </c>
-      <c r="G86" s="140">
-        <v>60</v>
-      </c>
-      <c r="H86" s="140">
+      <c r="G86" s="137">
+        <v>60</v>
+      </c>
+      <c r="H86" s="137">
         <v>4</v>
       </c>
       <c r="I86" t="s">
@@ -30267,10 +30519,10 @@
       <c r="F87" t="s">
         <v>210</v>
       </c>
-      <c r="G87" s="140">
-        <v>60</v>
-      </c>
-      <c r="H87" s="140">
+      <c r="G87" s="137">
+        <v>60</v>
+      </c>
+      <c r="H87" s="137">
         <v>4</v>
       </c>
       <c r="I87" t="s">
@@ -30308,10 +30560,10 @@
       <c r="F88" t="s">
         <v>443</v>
       </c>
-      <c r="G88" s="140">
-        <v>60</v>
-      </c>
-      <c r="H88" s="140">
+      <c r="G88" s="137">
+        <v>60</v>
+      </c>
+      <c r="H88" s="137">
         <v>4</v>
       </c>
       <c r="I88" t="s">
@@ -30349,10 +30601,10 @@
       <c r="F89" t="s">
         <v>459</v>
       </c>
-      <c r="G89" s="140">
-        <v>60</v>
-      </c>
-      <c r="H89" s="140">
+      <c r="G89" s="137">
+        <v>60</v>
+      </c>
+      <c r="H89" s="137">
         <v>4</v>
       </c>
       <c r="I89" t="s">
@@ -30390,10 +30642,10 @@
       <c r="F90" t="s">
         <v>445</v>
       </c>
-      <c r="G90" s="140">
-        <v>60</v>
-      </c>
-      <c r="H90" s="140">
+      <c r="G90" s="137">
+        <v>60</v>
+      </c>
+      <c r="H90" s="137">
         <v>4</v>
       </c>
       <c r="I90" t="s">
@@ -30431,10 +30683,10 @@
       <c r="F91" t="s">
         <v>460</v>
       </c>
-      <c r="G91" s="140">
+      <c r="G91" s="137">
         <v>30</v>
       </c>
-      <c r="H91" s="140">
+      <c r="H91" s="137">
         <v>2</v>
       </c>
       <c r="I91" t="s">
@@ -30472,10 +30724,10 @@
       <c r="F92" t="s">
         <v>461</v>
       </c>
-      <c r="G92" s="140">
+      <c r="G92" s="137">
         <v>30</v>
       </c>
-      <c r="H92" s="140">
+      <c r="H92" s="137">
         <v>2</v>
       </c>
       <c r="I92" t="s">
@@ -30513,10 +30765,10 @@
       <c r="F93" t="s">
         <v>449</v>
       </c>
-      <c r="G93" s="140">
+      <c r="G93" s="137">
         <v>30</v>
       </c>
-      <c r="H93" s="140">
+      <c r="H93" s="137">
         <v>2</v>
       </c>
       <c r="I93" t="s">
@@ -30554,10 +30806,10 @@
       <c r="F94" t="s">
         <v>452</v>
       </c>
-      <c r="G94" s="140">
+      <c r="G94" s="137">
         <v>30</v>
       </c>
-      <c r="H94" s="140">
+      <c r="H94" s="137">
         <v>2</v>
       </c>
       <c r="I94" t="s">
@@ -30595,10 +30847,10 @@
       <c r="F95" t="s">
         <v>305</v>
       </c>
-      <c r="G95" s="140">
-        <v>60</v>
-      </c>
-      <c r="H95" s="140">
+      <c r="G95" s="137">
+        <v>60</v>
+      </c>
+      <c r="H95" s="137">
         <v>4</v>
       </c>
       <c r="I95" t="s">
@@ -30639,10 +30891,10 @@
       <c r="F96" t="s">
         <v>80</v>
       </c>
-      <c r="G96" s="140">
-        <v>60</v>
-      </c>
-      <c r="H96" s="140">
+      <c r="G96" s="137">
+        <v>60</v>
+      </c>
+      <c r="H96" s="137">
         <v>4</v>
       </c>
       <c r="I96" t="s">
@@ -30683,10 +30935,10 @@
       <c r="F97" t="s">
         <v>313</v>
       </c>
-      <c r="G97" s="140">
-        <v>60</v>
-      </c>
-      <c r="H97" s="140">
+      <c r="G97" s="137">
+        <v>60</v>
+      </c>
+      <c r="H97" s="137">
         <v>4</v>
       </c>
       <c r="I97" t="s">
@@ -30727,10 +30979,10 @@
       <c r="F98" t="s">
         <v>550</v>
       </c>
-      <c r="G98" s="140">
-        <v>60</v>
-      </c>
-      <c r="H98" s="140">
+      <c r="G98" s="137">
+        <v>60</v>
+      </c>
+      <c r="H98" s="137">
         <v>4</v>
       </c>
       <c r="I98" t="s">
@@ -30771,10 +31023,10 @@
       <c r="F99" t="s">
         <v>416</v>
       </c>
-      <c r="G99" s="140">
-        <v>60</v>
-      </c>
-      <c r="H99" s="140">
+      <c r="G99" s="137">
+        <v>60</v>
+      </c>
+      <c r="H99" s="137">
         <v>4</v>
       </c>
       <c r="I99" t="s">
@@ -30815,10 +31067,10 @@
       <c r="F100" t="s">
         <v>299</v>
       </c>
-      <c r="G100" s="140">
-        <v>60</v>
-      </c>
-      <c r="H100" s="140">
+      <c r="G100" s="137">
+        <v>60</v>
+      </c>
+      <c r="H100" s="137">
         <v>4</v>
       </c>
       <c r="I100" t="s">
@@ -30859,10 +31111,10 @@
       <c r="F101" t="s">
         <v>554</v>
       </c>
-      <c r="G101" s="140">
-        <v>60</v>
-      </c>
-      <c r="H101" s="140">
+      <c r="G101" s="137">
+        <v>60</v>
+      </c>
+      <c r="H101" s="137">
         <v>4</v>
       </c>
       <c r="I101" t="s">
@@ -30903,10 +31155,10 @@
       <c r="F102" t="s">
         <v>428</v>
       </c>
-      <c r="G102" s="140">
-        <v>60</v>
-      </c>
-      <c r="H102" s="140">
+      <c r="G102" s="137">
+        <v>60</v>
+      </c>
+      <c r="H102" s="137">
         <v>4</v>
       </c>
       <c r="I102" t="s">
@@ -30947,10 +31199,10 @@
       <c r="F103" t="s">
         <v>383</v>
       </c>
-      <c r="G103" s="140">
-        <v>60</v>
-      </c>
-      <c r="H103" s="140">
+      <c r="G103" s="137">
+        <v>60</v>
+      </c>
+      <c r="H103" s="137">
         <v>4</v>
       </c>
       <c r="I103" t="s">
@@ -30991,10 +31243,10 @@
       <c r="F104" t="s">
         <v>85</v>
       </c>
-      <c r="G104" s="140">
+      <c r="G104" s="137">
         <v>30</v>
       </c>
-      <c r="H104" s="140">
+      <c r="H104" s="137">
         <v>2</v>
       </c>
       <c r="I104" t="s">
@@ -31031,10 +31283,10 @@
       <c r="F105" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="140">
+      <c r="G105" s="137">
         <v>30</v>
       </c>
-      <c r="H105" s="140">
+      <c r="H105" s="137">
         <v>2</v>
       </c>
       <c r="I105" t="s">
@@ -31071,10 +31323,10 @@
       <c r="F106" t="s">
         <v>559</v>
       </c>
-      <c r="G106" s="140">
-        <v>60</v>
-      </c>
-      <c r="H106" s="140">
+      <c r="G106" s="137">
+        <v>60</v>
+      </c>
+      <c r="H106" s="137">
         <v>4</v>
       </c>
       <c r="I106" t="s">
@@ -31115,10 +31367,10 @@
       <c r="F107" t="s">
         <v>560</v>
       </c>
-      <c r="G107" s="140">
-        <v>60</v>
-      </c>
-      <c r="H107" s="140">
+      <c r="G107" s="137">
+        <v>60</v>
+      </c>
+      <c r="H107" s="137">
         <v>4</v>
       </c>
       <c r="I107" t="s">
@@ -31159,10 +31411,10 @@
       <c r="F108" t="s">
         <v>392</v>
       </c>
-      <c r="G108" s="140">
-        <v>60</v>
-      </c>
-      <c r="H108" s="140">
+      <c r="G108" s="137">
+        <v>60</v>
+      </c>
+      <c r="H108" s="137">
         <v>4</v>
       </c>
       <c r="I108" t="s">
@@ -31203,10 +31455,10 @@
       <c r="F109" t="s">
         <v>165</v>
       </c>
-      <c r="G109" s="140">
-        <v>60</v>
-      </c>
-      <c r="H109" s="140">
+      <c r="G109" s="137">
+        <v>60</v>
+      </c>
+      <c r="H109" s="137">
         <v>4</v>
       </c>
       <c r="I109" t="s">
@@ -31247,10 +31499,10 @@
       <c r="F110" t="s">
         <v>561</v>
       </c>
-      <c r="G110" s="140">
-        <v>60</v>
-      </c>
-      <c r="H110" s="140">
+      <c r="G110" s="137">
+        <v>60</v>
+      </c>
+      <c r="H110" s="137">
         <v>4</v>
       </c>
       <c r="I110" t="s">
@@ -31291,10 +31543,10 @@
       <c r="F111" t="s">
         <v>562</v>
       </c>
-      <c r="G111" s="140">
-        <v>60</v>
-      </c>
-      <c r="H111" s="140">
+      <c r="G111" s="137">
+        <v>60</v>
+      </c>
+      <c r="H111" s="137">
         <v>4</v>
       </c>
       <c r="I111" t="s">
@@ -31330,10 +31582,10 @@
       <c r="F112" t="s">
         <v>133</v>
       </c>
-      <c r="G112" s="140">
-        <v>60</v>
-      </c>
-      <c r="H112" s="140">
+      <c r="G112" s="137">
+        <v>60</v>
+      </c>
+      <c r="H112" s="137">
         <v>4</v>
       </c>
       <c r="I112" t="s">
@@ -31374,10 +31626,10 @@
       <c r="F113" t="s">
         <v>564</v>
       </c>
-      <c r="G113" s="140">
-        <v>60</v>
-      </c>
-      <c r="H113" s="140">
+      <c r="G113" s="137">
+        <v>60</v>
+      </c>
+      <c r="H113" s="137">
         <v>4</v>
       </c>
       <c r="I113" t="s">
@@ -31418,10 +31670,10 @@
       <c r="F114" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="140">
-        <v>60</v>
-      </c>
-      <c r="H114" s="140">
+      <c r="G114" s="137">
+        <v>60</v>
+      </c>
+      <c r="H114" s="137">
         <v>4</v>
       </c>
       <c r="I114" t="s">
@@ -31462,10 +31714,10 @@
       <c r="F115" t="s">
         <v>516</v>
       </c>
-      <c r="G115" s="140">
-        <v>60</v>
-      </c>
-      <c r="H115" s="140">
+      <c r="G115" s="137">
+        <v>60</v>
+      </c>
+      <c r="H115" s="137">
         <v>4</v>
       </c>
       <c r="I115" t="s">
@@ -31506,10 +31758,10 @@
       <c r="F116" t="s">
         <v>523</v>
       </c>
-      <c r="G116" s="140">
-        <v>60</v>
-      </c>
-      <c r="H116" s="140">
+      <c r="G116" s="137">
+        <v>60</v>
+      </c>
+      <c r="H116" s="137">
         <v>4</v>
       </c>
       <c r="I116" t="s">
@@ -31550,10 +31802,10 @@
       <c r="F117" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="140">
-        <v>60</v>
-      </c>
-      <c r="H117" s="140">
+      <c r="G117" s="137">
+        <v>60</v>
+      </c>
+      <c r="H117" s="137">
         <v>4</v>
       </c>
       <c r="I117" t="s">
@@ -31594,10 +31846,10 @@
       <c r="F118" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="140">
-        <v>60</v>
-      </c>
-      <c r="H118" s="140">
+      <c r="G118" s="137">
+        <v>60</v>
+      </c>
+      <c r="H118" s="137">
         <v>4</v>
       </c>
       <c r="I118" t="s">
@@ -31638,10 +31890,10 @@
       <c r="F119" t="s">
         <v>526</v>
       </c>
-      <c r="G119" s="140">
-        <v>60</v>
-      </c>
-      <c r="H119" s="140">
+      <c r="G119" s="137">
+        <v>60</v>
+      </c>
+      <c r="H119" s="137">
         <v>4</v>
       </c>
       <c r="I119" t="s">
@@ -31682,10 +31934,10 @@
       <c r="F120" t="s">
         <v>517</v>
       </c>
-      <c r="G120" s="140">
-        <v>60</v>
-      </c>
-      <c r="H120" s="140">
+      <c r="G120" s="137">
+        <v>60</v>
+      </c>
+      <c r="H120" s="137">
         <v>4</v>
       </c>
       <c r="I120" t="s">
@@ -31726,10 +31978,10 @@
       <c r="F121" t="s">
         <v>518</v>
       </c>
-      <c r="G121" s="140">
-        <v>60</v>
-      </c>
-      <c r="H121" s="140">
+      <c r="G121" s="137">
+        <v>60</v>
+      </c>
+      <c r="H121" s="137">
         <v>4</v>
       </c>
       <c r="I121" t="s">
@@ -31770,10 +32022,10 @@
       <c r="F122" t="s">
         <v>519</v>
       </c>
-      <c r="G122" s="140">
-        <v>60</v>
-      </c>
-      <c r="H122" s="140">
+      <c r="G122" s="137">
+        <v>60</v>
+      </c>
+      <c r="H122" s="137">
         <v>4</v>
       </c>
       <c r="I122" t="s">
@@ -31814,10 +32066,10 @@
       <c r="F123" t="s">
         <v>527</v>
       </c>
-      <c r="G123" s="140">
-        <v>60</v>
-      </c>
-      <c r="H123" s="140">
+      <c r="G123" s="137">
+        <v>60</v>
+      </c>
+      <c r="H123" s="137">
         <v>4</v>
       </c>
       <c r="I123" t="s">
@@ -31858,10 +32110,10 @@
       <c r="F124" t="s">
         <v>520</v>
       </c>
-      <c r="G124" s="140">
-        <v>60</v>
-      </c>
-      <c r="H124" s="140">
+      <c r="G124" s="137">
+        <v>60</v>
+      </c>
+      <c r="H124" s="137">
         <v>4</v>
       </c>
       <c r="I124" t="s">
@@ -31902,10 +32154,10 @@
       <c r="F125" t="s">
         <v>521</v>
       </c>
-      <c r="G125" s="140">
-        <v>60</v>
-      </c>
-      <c r="H125" s="140">
+      <c r="G125" s="137">
+        <v>60</v>
+      </c>
+      <c r="H125" s="137">
         <v>4</v>
       </c>
       <c r="I125" t="s">
@@ -31946,10 +32198,10 @@
       <c r="F126" t="s">
         <v>528</v>
       </c>
-      <c r="G126" s="140">
+      <c r="G126" s="137">
         <v>15</v>
       </c>
-      <c r="H126" s="140">
+      <c r="H126" s="137">
         <v>1</v>
       </c>
       <c r="I126" t="s">
@@ -31990,10 +32242,10 @@
       <c r="F127" t="s">
         <v>529</v>
       </c>
-      <c r="G127" s="140">
+      <c r="G127" s="137">
         <v>30</v>
       </c>
-      <c r="H127" s="140">
+      <c r="H127" s="137">
         <v>2</v>
       </c>
       <c r="I127" t="s">
@@ -32034,10 +32286,10 @@
       <c r="F128" t="s">
         <v>522</v>
       </c>
-      <c r="G128" s="140">
+      <c r="G128" s="137">
         <v>30</v>
       </c>
-      <c r="H128" s="140">
+      <c r="H128" s="137">
         <v>2</v>
       </c>
       <c r="I128" t="s">
@@ -32078,10 +32330,10 @@
       <c r="F129" t="s">
         <v>530</v>
       </c>
-      <c r="G129" s="140">
+      <c r="G129" s="137">
         <v>30</v>
       </c>
-      <c r="H129" s="140">
+      <c r="H129" s="137">
         <v>2</v>
       </c>
       <c r="I129" t="s">
@@ -32122,10 +32374,10 @@
       <c r="F130" t="s">
         <v>531</v>
       </c>
-      <c r="G130" s="140">
+      <c r="G130" s="137">
         <v>30</v>
       </c>
-      <c r="H130" s="140">
+      <c r="H130" s="137">
         <v>2</v>
       </c>
       <c r="I130" t="s">
@@ -32166,10 +32418,10 @@
       <c r="F131" t="s">
         <v>566</v>
       </c>
-      <c r="G131" s="140">
+      <c r="G131" s="137">
         <v>30</v>
       </c>
-      <c r="H131" s="140">
+      <c r="H131" s="137">
         <v>2</v>
       </c>
       <c r="I131" t="s">
@@ -32210,10 +32462,10 @@
       <c r="F132" t="s">
         <v>91</v>
       </c>
-      <c r="G132" s="140">
-        <v>60</v>
-      </c>
-      <c r="H132" s="140">
+      <c r="G132" s="137">
+        <v>60</v>
+      </c>
+      <c r="H132" s="137">
         <v>4</v>
       </c>
       <c r="I132" t="s">
@@ -32252,10 +32504,10 @@
       <c r="F133" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G133" s="140">
-        <v>60</v>
-      </c>
-      <c r="H133" s="140">
+      <c r="G133" s="137">
+        <v>60</v>
+      </c>
+      <c r="H133" s="137">
         <v>4</v>
       </c>
       <c r="I133" s="74" t="s">
@@ -32298,10 +32550,10 @@
       <c r="F134" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G134" s="140">
-        <v>60</v>
-      </c>
-      <c r="H134" s="140">
+      <c r="G134" s="137">
+        <v>60</v>
+      </c>
+      <c r="H134" s="137">
         <v>4</v>
       </c>
       <c r="I134" s="74" t="s">
@@ -32344,10 +32596,10 @@
       <c r="F135" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G135" s="140">
-        <v>60</v>
-      </c>
-      <c r="H135" s="140">
+      <c r="G135" s="137">
+        <v>60</v>
+      </c>
+      <c r="H135" s="137">
         <v>4</v>
       </c>
       <c r="I135" s="74" t="s">
@@ -32388,10 +32640,10 @@
       <c r="F136" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G136" s="140">
-        <v>60</v>
-      </c>
-      <c r="H136" s="140">
+      <c r="G136" s="137">
+        <v>60</v>
+      </c>
+      <c r="H136" s="137">
         <v>4</v>
       </c>
       <c r="I136" s="74" t="s">
@@ -32432,10 +32684,10 @@
       <c r="F137" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G137" s="140">
-        <v>60</v>
-      </c>
-      <c r="H137" s="140">
+      <c r="G137" s="137">
+        <v>60</v>
+      </c>
+      <c r="H137" s="137">
         <v>4</v>
       </c>
       <c r="I137" s="74" t="s">
@@ -32478,10 +32730,10 @@
       <c r="F138" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G138" s="140">
-        <v>60</v>
-      </c>
-      <c r="H138" s="140">
+      <c r="G138" s="137">
+        <v>60</v>
+      </c>
+      <c r="H138" s="137">
         <v>4</v>
       </c>
       <c r="I138" s="74" t="s">
@@ -32524,10 +32776,10 @@
       <c r="F139" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G139" s="140">
-        <v>60</v>
-      </c>
-      <c r="H139" s="140">
+      <c r="G139" s="137">
+        <v>60</v>
+      </c>
+      <c r="H139" s="137">
         <v>4</v>
       </c>
       <c r="I139" s="74" t="s">
@@ -32570,10 +32822,10 @@
       <c r="F140" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G140" s="140">
-        <v>60</v>
-      </c>
-      <c r="H140" s="140">
+      <c r="G140" s="137">
+        <v>60</v>
+      </c>
+      <c r="H140" s="137">
         <v>4</v>
       </c>
       <c r="I140" s="74" t="s">
@@ -32616,10 +32868,10 @@
       <c r="F141" s="74" t="s">
         <v>571</v>
       </c>
-      <c r="G141" s="140">
-        <v>60</v>
-      </c>
-      <c r="H141" s="140">
+      <c r="G141" s="137">
+        <v>60</v>
+      </c>
+      <c r="H141" s="137">
         <v>4</v>
       </c>
       <c r="I141" s="74" t="s">
@@ -32660,10 +32912,10 @@
       <c r="F142" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="G142" s="140">
-        <v>60</v>
-      </c>
-      <c r="H142" s="140">
+      <c r="G142" s="137">
+        <v>60</v>
+      </c>
+      <c r="H142" s="137">
         <v>4</v>
       </c>
       <c r="I142" s="74" t="s">
@@ -32706,10 +32958,10 @@
       <c r="F143" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="G143" s="140">
-        <v>60</v>
-      </c>
-      <c r="H143" s="140">
+      <c r="G143" s="137">
+        <v>60</v>
+      </c>
+      <c r="H143" s="137">
         <v>4</v>
       </c>
       <c r="I143" s="74" t="s">
@@ -32752,10 +33004,10 @@
       <c r="F144" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G144" s="140">
-        <v>60</v>
-      </c>
-      <c r="H144" s="140">
+      <c r="G144" s="137">
+        <v>60</v>
+      </c>
+      <c r="H144" s="137">
         <v>4</v>
       </c>
       <c r="I144" s="74" t="s">
@@ -32796,10 +33048,10 @@
       <c r="F145" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G145" s="140">
-        <v>60</v>
-      </c>
-      <c r="H145" s="140">
+      <c r="G145" s="137">
+        <v>60</v>
+      </c>
+      <c r="H145" s="137">
         <v>4</v>
       </c>
       <c r="I145" s="74" t="s">
@@ -32840,10 +33092,10 @@
       <c r="F146" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G146" s="140">
-        <v>60</v>
-      </c>
-      <c r="H146" s="140">
+      <c r="G146" s="137">
+        <v>60</v>
+      </c>
+      <c r="H146" s="137">
         <v>4</v>
       </c>
       <c r="I146" s="74" t="s">
@@ -32886,10 +33138,10 @@
       <c r="F147" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="G147" s="140">
-        <v>60</v>
-      </c>
-      <c r="H147" s="140">
+      <c r="G147" s="137">
+        <v>60</v>
+      </c>
+      <c r="H147" s="137">
         <v>4</v>
       </c>
       <c r="I147" s="74" t="s">
@@ -32932,10 +33184,10 @@
       <c r="F148" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="G148" s="140">
+      <c r="G148" s="137">
         <v>30</v>
       </c>
-      <c r="H148" s="140">
+      <c r="H148" s="137">
         <v>2</v>
       </c>
       <c r="I148" s="74" t="s">
@@ -32978,10 +33230,10 @@
       <c r="F149" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="G149" s="140">
+      <c r="G149" s="137">
         <v>30</v>
       </c>
-      <c r="H149" s="140">
+      <c r="H149" s="137">
         <v>2</v>
       </c>
       <c r="I149" s="74" t="s">
@@ -33024,10 +33276,10 @@
       <c r="F150" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G150" s="140">
-        <v>60</v>
-      </c>
-      <c r="H150" s="140">
+      <c r="G150" s="137">
+        <v>60</v>
+      </c>
+      <c r="H150" s="137">
         <v>4</v>
       </c>
       <c r="I150" s="74" t="s">
@@ -33068,10 +33320,10 @@
       <c r="F151" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G151" s="140">
-        <v>60</v>
-      </c>
-      <c r="H151" s="140">
+      <c r="G151" s="137">
+        <v>60</v>
+      </c>
+      <c r="H151" s="137">
         <v>4</v>
       </c>
       <c r="I151" s="74" t="s">
@@ -33114,10 +33366,10 @@
       <c r="F152" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G152" s="140">
-        <v>60</v>
-      </c>
-      <c r="H152" s="140">
+      <c r="G152" s="137">
+        <v>60</v>
+      </c>
+      <c r="H152" s="137">
         <v>4</v>
       </c>
       <c r="I152" s="74" t="s">
@@ -33160,10 +33412,10 @@
       <c r="F153" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G153" s="140">
-        <v>60</v>
-      </c>
-      <c r="H153" s="140">
+      <c r="G153" s="137">
+        <v>60</v>
+      </c>
+      <c r="H153" s="137">
         <v>4</v>
       </c>
       <c r="I153" s="74" t="s">
@@ -33204,10 +33456,10 @@
       <c r="F154" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="140">
-        <v>60</v>
-      </c>
-      <c r="H154" s="140">
+      <c r="G154" s="137">
+        <v>60</v>
+      </c>
+      <c r="H154" s="137">
         <v>4</v>
       </c>
       <c r="I154" s="74" t="s">
@@ -33246,10 +33498,10 @@
       <c r="F155" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G155" s="140">
-        <v>60</v>
-      </c>
-      <c r="H155" s="140">
+      <c r="G155" s="137">
+        <v>60</v>
+      </c>
+      <c r="H155" s="137">
         <v>4</v>
       </c>
       <c r="I155" s="74" t="s">
@@ -33292,10 +33544,10 @@
       <c r="F156" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G156" s="140">
-        <v>60</v>
-      </c>
-      <c r="H156" s="140">
+      <c r="G156" s="137">
+        <v>60</v>
+      </c>
+      <c r="H156" s="137">
         <v>4</v>
       </c>
       <c r="I156" s="74" t="s">
@@ -33338,10 +33590,10 @@
       <c r="F157" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="140">
-        <v>60</v>
-      </c>
-      <c r="H157" s="140">
+      <c r="G157" s="137">
+        <v>60</v>
+      </c>
+      <c r="H157" s="137">
         <v>4</v>
       </c>
       <c r="I157" s="74" t="s">
@@ -33380,10 +33632,10 @@
       <c r="F158" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G158" s="140">
-        <v>60</v>
-      </c>
-      <c r="H158" s="140">
+      <c r="G158" s="137">
+        <v>60</v>
+      </c>
+      <c r="H158" s="137">
         <v>4</v>
       </c>
       <c r="I158" s="74" t="s">
@@ -33426,10 +33678,10 @@
       <c r="F159" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G159" s="140">
-        <v>60</v>
-      </c>
-      <c r="H159" s="140">
+      <c r="G159" s="137">
+        <v>60</v>
+      </c>
+      <c r="H159" s="137">
         <v>4</v>
       </c>
       <c r="I159" s="74" t="s">
@@ -33472,10 +33724,10 @@
       <c r="F160" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="G160" s="140">
-        <v>60</v>
-      </c>
-      <c r="H160" s="140">
+      <c r="G160" s="137">
+        <v>60</v>
+      </c>
+      <c r="H160" s="137">
         <v>4</v>
       </c>
       <c r="I160" s="74" t="s">
@@ -33516,10 +33768,10 @@
       <c r="F161" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G161" s="140">
-        <v>60</v>
-      </c>
-      <c r="H161" s="140">
+      <c r="G161" s="137">
+        <v>60</v>
+      </c>
+      <c r="H161" s="137">
         <v>4</v>
       </c>
       <c r="I161" s="74" t="s">
@@ -33562,10 +33814,10 @@
       <c r="F162" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G162" s="140">
-        <v>60</v>
-      </c>
-      <c r="H162" s="140">
+      <c r="G162" s="137">
+        <v>60</v>
+      </c>
+      <c r="H162" s="137">
         <v>4</v>
       </c>
       <c r="I162" s="74" t="s">
@@ -33608,10 +33860,10 @@
       <c r="F163" s="74" t="s">
         <v>575</v>
       </c>
-      <c r="G163" s="140">
-        <v>60</v>
-      </c>
-      <c r="H163" s="140">
+      <c r="G163" s="137">
+        <v>60</v>
+      </c>
+      <c r="H163" s="137">
         <v>4</v>
       </c>
       <c r="I163" s="74" t="s">
@@ -33652,10 +33904,10 @@
       <c r="F164" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G164" s="140">
-        <v>60</v>
-      </c>
-      <c r="H164" s="140">
+      <c r="G164" s="137">
+        <v>60</v>
+      </c>
+      <c r="H164" s="137">
         <v>4</v>
       </c>
       <c r="I164" s="74" t="s">
@@ -33698,10 +33950,10 @@
       <c r="F165" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G165" s="140">
-        <v>60</v>
-      </c>
-      <c r="H165" s="140">
+      <c r="G165" s="137">
+        <v>60</v>
+      </c>
+      <c r="H165" s="137">
         <v>4</v>
       </c>
       <c r="I165" s="74" t="s">
@@ -33744,10 +33996,10 @@
       <c r="F166" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G166" s="140">
-        <v>60</v>
-      </c>
-      <c r="H166" s="140">
+      <c r="G166" s="137">
+        <v>60</v>
+      </c>
+      <c r="H166" s="137">
         <v>4</v>
       </c>
       <c r="I166" s="74" t="s">
@@ -33788,10 +34040,10 @@
       <c r="F167" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G167" s="140">
-        <v>60</v>
-      </c>
-      <c r="H167" s="140">
+      <c r="G167" s="137">
+        <v>60</v>
+      </c>
+      <c r="H167" s="137">
         <v>4</v>
       </c>
       <c r="I167" s="74" t="s">
@@ -33834,10 +34086,10 @@
       <c r="F168" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G168" s="140">
-        <v>60</v>
-      </c>
-      <c r="H168" s="140">
+      <c r="G168" s="137">
+        <v>60</v>
+      </c>
+      <c r="H168" s="137">
         <v>4</v>
       </c>
       <c r="I168" s="74" t="s">
@@ -33880,10 +34132,10 @@
       <c r="F169" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G169" s="140">
-        <v>60</v>
-      </c>
-      <c r="H169" s="140">
+      <c r="G169" s="137">
+        <v>60</v>
+      </c>
+      <c r="H169" s="137">
         <v>4</v>
       </c>
       <c r="I169" s="74" t="s">
@@ -33926,10 +34178,10 @@
       <c r="F170" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G170" s="140">
-        <v>60</v>
-      </c>
-      <c r="H170" s="140">
+      <c r="G170" s="137">
+        <v>60</v>
+      </c>
+      <c r="H170" s="137">
         <v>4</v>
       </c>
       <c r="I170" s="74" t="s">
@@ -33972,10 +34224,10 @@
       <c r="F171" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="G171" s="140">
-        <v>60</v>
-      </c>
-      <c r="H171" s="140">
+      <c r="G171" s="137">
+        <v>60</v>
+      </c>
+      <c r="H171" s="137">
         <v>4</v>
       </c>
       <c r="I171" s="74" t="s">
@@ -34016,10 +34268,10 @@
       <c r="F172" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="G172" s="140">
-        <v>60</v>
-      </c>
-      <c r="H172" s="140">
+      <c r="G172" s="137">
+        <v>60</v>
+      </c>
+      <c r="H172" s="137">
         <v>4</v>
       </c>
       <c r="I172" s="74" t="s">
@@ -34060,10 +34312,10 @@
       <c r="F173" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G173" s="140">
-        <v>60</v>
-      </c>
-      <c r="H173" s="140">
+      <c r="G173" s="137">
+        <v>60</v>
+      </c>
+      <c r="H173" s="137">
         <v>4</v>
       </c>
       <c r="I173" s="74" t="s">
@@ -34106,10 +34358,10 @@
       <c r="F174" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G174" s="140">
-        <v>60</v>
-      </c>
-      <c r="H174" s="140">
+      <c r="G174" s="137">
+        <v>60</v>
+      </c>
+      <c r="H174" s="137">
         <v>4</v>
       </c>
       <c r="I174" s="74" t="s">
@@ -34152,10 +34404,10 @@
       <c r="F175" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="G175" s="140">
-        <v>60</v>
-      </c>
-      <c r="H175" s="140">
+      <c r="G175" s="137">
+        <v>60</v>
+      </c>
+      <c r="H175" s="137">
         <v>4</v>
       </c>
       <c r="I175" s="74" t="s">
@@ -34196,10 +34448,10 @@
       <c r="F176" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G176" s="140">
-        <v>60</v>
-      </c>
-      <c r="H176" s="140">
+      <c r="G176" s="137">
+        <v>60</v>
+      </c>
+      <c r="H176" s="137">
         <v>4</v>
       </c>
       <c r="I176" s="74" t="s">
@@ -34242,10 +34494,10 @@
       <c r="F177" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G177" s="140">
-        <v>60</v>
-      </c>
-      <c r="H177" s="140">
+      <c r="G177" s="137">
+        <v>60</v>
+      </c>
+      <c r="H177" s="137">
         <v>4</v>
       </c>
       <c r="I177" s="74" t="s">
@@ -34288,10 +34540,10 @@
       <c r="F178" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G178" s="140">
-        <v>60</v>
-      </c>
-      <c r="H178" s="140">
+      <c r="G178" s="137">
+        <v>60</v>
+      </c>
+      <c r="H178" s="137">
         <v>4</v>
       </c>
       <c r="I178" s="74" t="s">
@@ -34334,10 +34586,10 @@
       <c r="F179" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G179" s="140">
-        <v>60</v>
-      </c>
-      <c r="H179" s="140">
+      <c r="G179" s="137">
+        <v>60</v>
+      </c>
+      <c r="H179" s="137">
         <v>4</v>
       </c>
       <c r="I179" s="74" t="s">
@@ -34380,10 +34632,10 @@
       <c r="F180" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G180" s="140">
-        <v>60</v>
-      </c>
-      <c r="H180" s="140">
+      <c r="G180" s="137">
+        <v>60</v>
+      </c>
+      <c r="H180" s="137">
         <v>4</v>
       </c>
       <c r="I180" s="74" t="s">
@@ -34424,10 +34676,10 @@
       <c r="F181" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="G181" s="140">
-        <v>60</v>
-      </c>
-      <c r="H181" s="140">
+      <c r="G181" s="137">
+        <v>60</v>
+      </c>
+      <c r="H181" s="137">
         <v>4</v>
       </c>
       <c r="I181" s="74" t="s">
@@ -34468,10 +34720,10 @@
       <c r="F182" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G182" s="140">
-        <v>60</v>
-      </c>
-      <c r="H182" s="140">
+      <c r="G182" s="137">
+        <v>60</v>
+      </c>
+      <c r="H182" s="137">
         <v>4</v>
       </c>
       <c r="I182" s="74" t="s">
@@ -34514,10 +34766,10 @@
       <c r="F183" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G183" s="140">
-        <v>60</v>
-      </c>
-      <c r="H183" s="140">
+      <c r="G183" s="137">
+        <v>60</v>
+      </c>
+      <c r="H183" s="137">
         <v>4</v>
       </c>
       <c r="I183" s="74" t="s">
@@ -34560,10 +34812,10 @@
       <c r="F184" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G184" s="140">
-        <v>60</v>
-      </c>
-      <c r="H184" s="140">
+      <c r="G184" s="137">
+        <v>60</v>
+      </c>
+      <c r="H184" s="137">
         <v>4</v>
       </c>
       <c r="I184" s="74" t="s">
@@ -34604,10 +34856,10 @@
       <c r="F185" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G185" s="140">
-        <v>60</v>
-      </c>
-      <c r="H185" s="140">
+      <c r="G185" s="137">
+        <v>60</v>
+      </c>
+      <c r="H185" s="137">
         <v>4</v>
       </c>
       <c r="I185" s="74" t="s">
@@ -34650,10 +34902,10 @@
       <c r="F186" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G186" s="140">
-        <v>60</v>
-      </c>
-      <c r="H186" s="140">
+      <c r="G186" s="137">
+        <v>60</v>
+      </c>
+      <c r="H186" s="137">
         <v>4</v>
       </c>
       <c r="I186" s="74" t="s">
@@ -34696,10 +34948,10 @@
       <c r="F187" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G187" s="140">
-        <v>60</v>
-      </c>
-      <c r="H187" s="140">
+      <c r="G187" s="137">
+        <v>60</v>
+      </c>
+      <c r="H187" s="137">
         <v>4</v>
       </c>
       <c r="I187" s="74" t="s">
@@ -34740,10 +34992,10 @@
       <c r="F188" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="G188" s="140">
-        <v>60</v>
-      </c>
-      <c r="H188" s="140">
+      <c r="G188" s="137">
+        <v>60</v>
+      </c>
+      <c r="H188" s="137">
         <v>4</v>
       </c>
       <c r="I188" s="74" t="s">
@@ -34786,10 +35038,10 @@
       <c r="F189" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="G189" s="140">
-        <v>60</v>
-      </c>
-      <c r="H189" s="140">
+      <c r="G189" s="137">
+        <v>60</v>
+      </c>
+      <c r="H189" s="137">
         <v>4</v>
       </c>
       <c r="I189" s="74" t="s">
@@ -34832,10 +35084,10 @@
       <c r="F190" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G190" s="140">
-        <v>60</v>
-      </c>
-      <c r="H190" s="140">
+      <c r="G190" s="137">
+        <v>60</v>
+      </c>
+      <c r="H190" s="137">
         <v>4</v>
       </c>
       <c r="I190" s="74" t="s">
@@ -34876,10 +35128,10 @@
       <c r="F191" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G191" s="140">
-        <v>60</v>
-      </c>
-      <c r="H191" s="140">
+      <c r="G191" s="137">
+        <v>60</v>
+      </c>
+      <c r="H191" s="137">
         <v>4</v>
       </c>
       <c r="I191" s="74" t="s">
@@ -34922,10 +35174,10 @@
       <c r="F192" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G192" s="140">
-        <v>60</v>
-      </c>
-      <c r="H192" s="140">
+      <c r="G192" s="137">
+        <v>60</v>
+      </c>
+      <c r="H192" s="137">
         <v>4</v>
       </c>
       <c r="I192" s="74" t="s">
@@ -34968,10 +35220,10 @@
       <c r="F193" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G193" s="140">
-        <v>60</v>
-      </c>
-      <c r="H193" s="140">
+      <c r="G193" s="137">
+        <v>60</v>
+      </c>
+      <c r="H193" s="137">
         <v>4</v>
       </c>
       <c r="I193" s="74" t="s">
@@ -35014,10 +35266,10 @@
       <c r="F194" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G194" s="140">
-        <v>60</v>
-      </c>
-      <c r="H194" s="140">
+      <c r="G194" s="137">
+        <v>60</v>
+      </c>
+      <c r="H194" s="137">
         <v>4</v>
       </c>
       <c r="I194" s="74" t="s">
@@ -35060,10 +35312,10 @@
       <c r="F195" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G195" s="140">
-        <v>60</v>
-      </c>
-      <c r="H195" s="140">
+      <c r="G195" s="137">
+        <v>60</v>
+      </c>
+      <c r="H195" s="137">
         <v>4</v>
       </c>
       <c r="I195" s="74" t="s">
@@ -35104,10 +35356,10 @@
       <c r="F196" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G196" s="140">
-        <v>60</v>
-      </c>
-      <c r="H196" s="140">
+      <c r="G196" s="137">
+        <v>60</v>
+      </c>
+      <c r="H196" s="137">
         <v>4</v>
       </c>
       <c r="I196" s="74" t="s">
@@ -35148,10 +35400,10 @@
       <c r="F197" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G197" s="140">
-        <v>60</v>
-      </c>
-      <c r="H197" s="140">
+      <c r="G197" s="137">
+        <v>60</v>
+      </c>
+      <c r="H197" s="137">
         <v>4</v>
       </c>
       <c r="I197" s="74" t="s">
@@ -35194,10 +35446,10 @@
       <c r="F198" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G198" s="140">
-        <v>60</v>
-      </c>
-      <c r="H198" s="140">
+      <c r="G198" s="137">
+        <v>60</v>
+      </c>
+      <c r="H198" s="137">
         <v>4</v>
       </c>
       <c r="I198" s="74" t="s">
@@ -35240,10 +35492,10 @@
       <c r="F199" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G199" s="140">
-        <v>60</v>
-      </c>
-      <c r="H199" s="140">
+      <c r="G199" s="137">
+        <v>60</v>
+      </c>
+      <c r="H199" s="137">
         <v>4</v>
       </c>
       <c r="I199" s="74" t="s">
@@ -35286,10 +35538,10 @@
       <c r="F200" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="G200" s="140">
-        <v>60</v>
-      </c>
-      <c r="H200" s="140">
+      <c r="G200" s="137">
+        <v>60</v>
+      </c>
+      <c r="H200" s="137">
         <v>4</v>
       </c>
       <c r="I200" s="74" t="s">
@@ -35332,10 +35584,10 @@
       <c r="F201" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="G201" s="140">
-        <v>60</v>
-      </c>
-      <c r="H201" s="140">
+      <c r="G201" s="137">
+        <v>60</v>
+      </c>
+      <c r="H201" s="137">
         <v>4</v>
       </c>
       <c r="I201" s="74" t="s">
@@ -35376,10 +35628,10 @@
       <c r="F202" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G202" s="140">
-        <v>60</v>
-      </c>
-      <c r="H202" s="140">
+      <c r="G202" s="137">
+        <v>60</v>
+      </c>
+      <c r="H202" s="137">
         <v>4</v>
       </c>
       <c r="I202" s="74" t="s">
@@ -35422,10 +35674,10 @@
       <c r="F203" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="G203" s="140">
-        <v>60</v>
-      </c>
-      <c r="H203" s="140">
+      <c r="G203" s="137">
+        <v>60</v>
+      </c>
+      <c r="H203" s="137">
         <v>4</v>
       </c>
       <c r="I203" s="74" t="s">
@@ -35468,10 +35720,10 @@
       <c r="F204" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G204" s="140">
-        <v>60</v>
-      </c>
-      <c r="H204" s="140">
+      <c r="G204" s="137">
+        <v>60</v>
+      </c>
+      <c r="H204" s="137">
         <v>4</v>
       </c>
       <c r="I204" s="74" t="s">
@@ -35512,10 +35764,10 @@
       <c r="F205" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="G205" s="140">
-        <v>60</v>
-      </c>
-      <c r="H205" s="140">
+      <c r="G205" s="137">
+        <v>60</v>
+      </c>
+      <c r="H205" s="137">
         <v>4</v>
       </c>
       <c r="I205" s="74" t="s">
@@ -35556,10 +35808,10 @@
       <c r="F206" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G206" s="140">
-        <v>60</v>
-      </c>
-      <c r="H206" s="140">
+      <c r="G206" s="137">
+        <v>60</v>
+      </c>
+      <c r="H206" s="137">
         <v>4</v>
       </c>
       <c r="I206" s="74" t="s">
@@ -35602,10 +35854,10 @@
       <c r="F207" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G207" s="140">
-        <v>60</v>
-      </c>
-      <c r="H207" s="140">
+      <c r="G207" s="137">
+        <v>60</v>
+      </c>
+      <c r="H207" s="137">
         <v>4</v>
       </c>
       <c r="I207" s="74" t="s">
@@ -35648,10 +35900,10 @@
       <c r="F208" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G208" s="140">
-        <v>60</v>
-      </c>
-      <c r="H208" s="140">
+      <c r="G208" s="137">
+        <v>60</v>
+      </c>
+      <c r="H208" s="137">
         <v>4</v>
       </c>
       <c r="I208" s="74" t="s">
@@ -35692,10 +35944,10 @@
       <c r="F209" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G209" s="140">
-        <v>60</v>
-      </c>
-      <c r="H209" s="140">
+      <c r="G209" s="137">
+        <v>60</v>
+      </c>
+      <c r="H209" s="137">
         <v>4</v>
       </c>
       <c r="I209" s="74" t="s">
@@ -35738,10 +35990,10 @@
       <c r="F210" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G210" s="140">
-        <v>60</v>
-      </c>
-      <c r="H210" s="140">
+      <c r="G210" s="137">
+        <v>60</v>
+      </c>
+      <c r="H210" s="137">
         <v>4</v>
       </c>
       <c r="I210" s="74" t="s">
@@ -35784,10 +36036,10 @@
       <c r="F211" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G211" s="140">
-        <v>60</v>
-      </c>
-      <c r="H211" s="140">
+      <c r="G211" s="137">
+        <v>60</v>
+      </c>
+      <c r="H211" s="137">
         <v>4</v>
       </c>
       <c r="I211" s="74" t="s">
@@ -35828,10 +36080,10 @@
       <c r="F212" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G212" s="140">
-        <v>60</v>
-      </c>
-      <c r="H212" s="140">
+      <c r="G212" s="137">
+        <v>60</v>
+      </c>
+      <c r="H212" s="137">
         <v>4</v>
       </c>
       <c r="I212" s="74" t="s">
@@ -35874,10 +36126,10 @@
       <c r="F213" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="G213" s="140">
-        <v>60</v>
-      </c>
-      <c r="H213" s="140">
+      <c r="G213" s="137">
+        <v>60</v>
+      </c>
+      <c r="H213" s="137">
         <v>4</v>
       </c>
       <c r="I213" s="74" t="s">
@@ -35920,10 +36172,10 @@
       <c r="F214" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G214" s="140">
-        <v>60</v>
-      </c>
-      <c r="H214" s="140">
+      <c r="G214" s="137">
+        <v>60</v>
+      </c>
+      <c r="H214" s="137">
         <v>4</v>
       </c>
       <c r="I214" s="74" t="s">
@@ -35964,10 +36216,10 @@
       <c r="F215" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G215" s="140">
-        <v>60</v>
-      </c>
-      <c r="H215" s="140">
+      <c r="G215" s="137">
+        <v>60</v>
+      </c>
+      <c r="H215" s="137">
         <v>4</v>
       </c>
       <c r="I215" s="74" t="s">
@@ -36008,10 +36260,10 @@
       <c r="F216" s="74" t="s">
         <v>579</v>
       </c>
-      <c r="G216" s="140">
+      <c r="G216" s="137">
         <v>30</v>
       </c>
-      <c r="H216" s="140">
+      <c r="H216" s="137">
         <v>2</v>
       </c>
       <c r="I216" s="74" t="s">
@@ -36052,10 +36304,10 @@
       <c r="F217" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G217" s="140">
-        <v>60</v>
-      </c>
-      <c r="H217" s="140">
+      <c r="G217" s="137">
+        <v>60</v>
+      </c>
+      <c r="H217" s="137">
         <v>4</v>
       </c>
       <c r="I217" s="74" t="s">
@@ -36096,10 +36348,10 @@
       <c r="F218" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G218" s="140">
-        <v>60</v>
-      </c>
-      <c r="H218" s="140">
+      <c r="G218" s="137">
+        <v>60</v>
+      </c>
+      <c r="H218" s="137">
         <v>4</v>
       </c>
       <c r="I218" s="74" t="s">
@@ -36140,10 +36392,10 @@
       <c r="F219" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G219" s="140">
-        <v>60</v>
-      </c>
-      <c r="H219" s="140">
+      <c r="G219" s="137">
+        <v>60</v>
+      </c>
+      <c r="H219" s="137">
         <v>4</v>
       </c>
       <c r="I219" s="74" t="s">
@@ -36184,10 +36436,10 @@
       <c r="F220" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G220" s="140">
-        <v>60</v>
-      </c>
-      <c r="H220" s="140">
+      <c r="G220" s="137">
+        <v>60</v>
+      </c>
+      <c r="H220" s="137">
         <v>4</v>
       </c>
       <c r="I220" s="74" t="s">
@@ -36230,10 +36482,10 @@
       <c r="F221" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G221" s="140">
+      <c r="G221" s="137">
         <v>30</v>
       </c>
-      <c r="H221" s="140">
+      <c r="H221" s="137">
         <v>2</v>
       </c>
       <c r="I221" s="74" t="s">
@@ -36270,10 +36522,10 @@
       <c r="F222" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G222" s="140">
+      <c r="G222" s="137">
         <v>30</v>
       </c>
-      <c r="H222" s="140">
+      <c r="H222" s="137">
         <v>2</v>
       </c>
       <c r="I222" s="74" t="s">
@@ -36312,10 +36564,10 @@
       <c r="F223" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G223" s="140">
+      <c r="G223" s="137">
         <v>30</v>
       </c>
-      <c r="H223" s="140">
+      <c r="H223" s="137">
         <v>2</v>
       </c>
       <c r="I223" s="74" t="s">
@@ -36352,10 +36604,10 @@
       <c r="F224" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G224" s="140">
+      <c r="G224" s="137">
         <v>30</v>
       </c>
-      <c r="H224" s="140">
+      <c r="H224" s="137">
         <v>2</v>
       </c>
       <c r="I224" s="74" t="s">
@@ -36394,10 +36646,10 @@
       <c r="F225" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G225" s="140">
-        <v>60</v>
-      </c>
-      <c r="H225" s="140">
+      <c r="G225" s="137">
+        <v>60</v>
+      </c>
+      <c r="H225" s="137">
         <v>4</v>
       </c>
       <c r="I225" s="74" t="s">
@@ -36438,10 +36690,10 @@
       <c r="F226" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G226" s="140">
-        <v>60</v>
-      </c>
-      <c r="H226" s="140">
+      <c r="G226" s="137">
+        <v>60</v>
+      </c>
+      <c r="H226" s="137">
         <v>4</v>
       </c>
       <c r="I226" s="74" t="s">
@@ -36484,10 +36736,10 @@
       <c r="F227" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G227" s="140">
-        <v>60</v>
-      </c>
-      <c r="H227" s="140">
+      <c r="G227" s="137">
+        <v>60</v>
+      </c>
+      <c r="H227" s="137">
         <v>4</v>
       </c>
       <c r="I227" s="74" t="s">
@@ -36528,10 +36780,10 @@
       <c r="F228" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G228" s="140">
-        <v>60</v>
-      </c>
-      <c r="H228" s="140">
+      <c r="G228" s="137">
+        <v>60</v>
+      </c>
+      <c r="H228" s="137">
         <v>4</v>
       </c>
       <c r="I228" s="74" t="s">
@@ -36574,10 +36826,10 @@
       <c r="F229" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="G229" s="140">
-        <v>60</v>
-      </c>
-      <c r="H229" s="140">
+      <c r="G229" s="137">
+        <v>60</v>
+      </c>
+      <c r="H229" s="137">
         <v>4</v>
       </c>
       <c r="I229" s="74" t="s">
@@ -36618,10 +36870,10 @@
       <c r="F230" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="G230" s="140">
-        <v>60</v>
-      </c>
-      <c r="H230" s="140">
+      <c r="G230" s="137">
+        <v>60</v>
+      </c>
+      <c r="H230" s="137">
         <v>4</v>
       </c>
       <c r="I230" s="74" t="s">
@@ -36664,10 +36916,10 @@
       <c r="F231" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G231" s="140">
-        <v>60</v>
-      </c>
-      <c r="H231" s="140">
+      <c r="G231" s="137">
+        <v>60</v>
+      </c>
+      <c r="H231" s="137">
         <v>4</v>
       </c>
       <c r="I231" s="74" t="s">
@@ -36708,10 +36960,10 @@
       <c r="F232" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G232" s="140">
-        <v>60</v>
-      </c>
-      <c r="H232" s="140">
+      <c r="G232" s="137">
+        <v>60</v>
+      </c>
+      <c r="H232" s="137">
         <v>4</v>
       </c>
       <c r="I232" s="74" t="s">
@@ -36754,10 +37006,10 @@
       <c r="F233" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="G233" s="140">
-        <v>60</v>
-      </c>
-      <c r="H233" s="140">
+      <c r="G233" s="137">
+        <v>60</v>
+      </c>
+      <c r="H233" s="137">
         <v>4</v>
       </c>
       <c r="I233" s="74" t="s">
@@ -36798,10 +37050,10 @@
       <c r="F234" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="G234" s="140">
-        <v>60</v>
-      </c>
-      <c r="H234" s="140">
+      <c r="G234" s="137">
+        <v>60</v>
+      </c>
+      <c r="H234" s="137">
         <v>4</v>
       </c>
       <c r="I234" s="74" t="s">
@@ -36844,10 +37096,10 @@
       <c r="F235" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="G235" s="140">
-        <v>60</v>
-      </c>
-      <c r="H235" s="140">
+      <c r="G235" s="137">
+        <v>60</v>
+      </c>
+      <c r="H235" s="137">
         <v>4</v>
       </c>
       <c r="I235" s="74" t="s">
@@ -36888,10 +37140,10 @@
       <c r="F236" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="G236" s="140">
-        <v>60</v>
-      </c>
-      <c r="H236" s="140">
+      <c r="G236" s="137">
+        <v>60</v>
+      </c>
+      <c r="H236" s="137">
         <v>4</v>
       </c>
       <c r="I236" s="74" t="s">
@@ -36934,10 +37186,10 @@
       <c r="F237" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G237" s="140">
-        <v>60</v>
-      </c>
-      <c r="H237" s="140">
+      <c r="G237" s="137">
+        <v>60</v>
+      </c>
+      <c r="H237" s="137">
         <v>4</v>
       </c>
       <c r="I237" s="74" t="s">
@@ -36978,10 +37230,10 @@
       <c r="F238" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G238" s="140">
-        <v>60</v>
-      </c>
-      <c r="H238" s="140">
+      <c r="G238" s="137">
+        <v>60</v>
+      </c>
+      <c r="H238" s="137">
         <v>4</v>
       </c>
       <c r="I238" s="74" t="s">
@@ -37024,10 +37276,10 @@
       <c r="F239" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G239" s="140">
-        <v>60</v>
-      </c>
-      <c r="H239" s="140">
+      <c r="G239" s="137">
+        <v>60</v>
+      </c>
+      <c r="H239" s="137">
         <v>4</v>
       </c>
       <c r="I239" s="74" t="s">
@@ -37068,10 +37320,10 @@
       <c r="F240" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G240" s="140">
-        <v>60</v>
-      </c>
-      <c r="H240" s="140">
+      <c r="G240" s="137">
+        <v>60</v>
+      </c>
+      <c r="H240" s="137">
         <v>4</v>
       </c>
       <c r="I240" s="74" t="s">
@@ -37114,10 +37366,10 @@
       <c r="F241" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="G241" s="140">
-        <v>60</v>
-      </c>
-      <c r="H241" s="140">
+      <c r="G241" s="137">
+        <v>60</v>
+      </c>
+      <c r="H241" s="137">
         <v>4</v>
       </c>
       <c r="I241" s="74" t="s">
@@ -37158,10 +37410,10 @@
       <c r="F242" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="G242" s="140">
-        <v>60</v>
-      </c>
-      <c r="H242" s="140">
+      <c r="G242" s="137">
+        <v>60</v>
+      </c>
+      <c r="H242" s="137">
         <v>4</v>
       </c>
       <c r="I242" s="74" t="s">
@@ -37204,10 +37456,10 @@
       <c r="F243" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="G243" s="140">
-        <v>60</v>
-      </c>
-      <c r="H243" s="140">
+      <c r="G243" s="137">
+        <v>60</v>
+      </c>
+      <c r="H243" s="137">
         <v>4</v>
       </c>
       <c r="I243" s="74" t="s">
@@ -37248,10 +37500,10 @@
       <c r="F244" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="G244" s="140">
-        <v>60</v>
-      </c>
-      <c r="H244" s="140">
+      <c r="G244" s="137">
+        <v>60</v>
+      </c>
+      <c r="H244" s="137">
         <v>4</v>
       </c>
       <c r="I244" s="74" t="s">
@@ -37294,10 +37546,10 @@
       <c r="F245" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="G245" s="140">
-        <v>60</v>
-      </c>
-      <c r="H245" s="140">
+      <c r="G245" s="137">
+        <v>60</v>
+      </c>
+      <c r="H245" s="137">
         <v>4</v>
       </c>
       <c r="I245" s="74" t="s">
@@ -37338,10 +37590,10 @@
       <c r="F246" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="G246" s="140">
-        <v>60</v>
-      </c>
-      <c r="H246" s="140">
+      <c r="G246" s="137">
+        <v>60</v>
+      </c>
+      <c r="H246" s="137">
         <v>4</v>
       </c>
       <c r="I246" s="74" t="s">
@@ -37384,10 +37636,10 @@
       <c r="F247" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="G247" s="140">
-        <v>60</v>
-      </c>
-      <c r="H247" s="140">
+      <c r="G247" s="137">
+        <v>60</v>
+      </c>
+      <c r="H247" s="137">
         <v>4</v>
       </c>
       <c r="I247" s="74" t="s">
@@ -37428,10 +37680,10 @@
       <c r="F248" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="G248" s="140">
-        <v>60</v>
-      </c>
-      <c r="H248" s="140">
+      <c r="G248" s="137">
+        <v>60</v>
+      </c>
+      <c r="H248" s="137">
         <v>4</v>
       </c>
       <c r="I248" s="74" t="s">
@@ -37474,10 +37726,10 @@
       <c r="F249" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G249" s="140">
-        <v>60</v>
-      </c>
-      <c r="H249" s="140">
+      <c r="G249" s="137">
+        <v>60</v>
+      </c>
+      <c r="H249" s="137">
         <v>4</v>
       </c>
       <c r="I249" s="74" t="s">
@@ -37518,10 +37770,10 @@
       <c r="F250" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G250" s="140">
-        <v>60</v>
-      </c>
-      <c r="H250" s="140">
+      <c r="G250" s="137">
+        <v>60</v>
+      </c>
+      <c r="H250" s="137">
         <v>4</v>
       </c>
       <c r="I250" s="74" t="s">
@@ -37564,10 +37816,10 @@
       <c r="F251" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="G251" s="140">
-        <v>60</v>
-      </c>
-      <c r="H251" s="140">
+      <c r="G251" s="137">
+        <v>60</v>
+      </c>
+      <c r="H251" s="137">
         <v>4</v>
       </c>
       <c r="I251" s="74" t="s">
@@ -37608,10 +37860,10 @@
       <c r="F252" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="G252" s="140">
-        <v>60</v>
-      </c>
-      <c r="H252" s="140">
+      <c r="G252" s="137">
+        <v>60</v>
+      </c>
+      <c r="H252" s="137">
         <v>4</v>
       </c>
       <c r="I252" s="74" t="s">
@@ -37654,10 +37906,10 @@
       <c r="F253" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G253" s="140">
-        <v>60</v>
-      </c>
-      <c r="H253" s="140">
+      <c r="G253" s="137">
+        <v>60</v>
+      </c>
+      <c r="H253" s="137">
         <v>4</v>
       </c>
       <c r="I253" s="74" t="s">
@@ -37698,10 +37950,10 @@
       <c r="F254" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G254" s="140">
-        <v>60</v>
-      </c>
-      <c r="H254" s="140">
+      <c r="G254" s="137">
+        <v>60</v>
+      </c>
+      <c r="H254" s="137">
         <v>4</v>
       </c>
       <c r="I254" s="74" t="s">
@@ -37744,10 +37996,10 @@
       <c r="F255" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G255" s="140">
-        <v>60</v>
-      </c>
-      <c r="H255" s="140">
+      <c r="G255" s="137">
+        <v>60</v>
+      </c>
+      <c r="H255" s="137">
         <v>4</v>
       </c>
       <c r="I255" s="74" t="s">
@@ -37788,10 +38040,10 @@
       <c r="F256" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G256" s="140">
-        <v>60</v>
-      </c>
-      <c r="H256" s="140">
+      <c r="G256" s="137">
+        <v>60</v>
+      </c>
+      <c r="H256" s="137">
         <v>4</v>
       </c>
       <c r="I256" s="74" t="s">
@@ -37834,10 +38086,10 @@
       <c r="F257" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G257" s="140">
-        <v>60</v>
-      </c>
-      <c r="H257" s="140">
+      <c r="G257" s="137">
+        <v>60</v>
+      </c>
+      <c r="H257" s="137">
         <v>4</v>
       </c>
       <c r="I257" s="74" t="s">
@@ -37878,10 +38130,10 @@
       <c r="F258" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G258" s="140">
-        <v>60</v>
-      </c>
-      <c r="H258" s="140">
+      <c r="G258" s="137">
+        <v>60</v>
+      </c>
+      <c r="H258" s="137">
         <v>4</v>
       </c>
       <c r="I258" s="74" t="s">
@@ -37924,10 +38176,10 @@
       <c r="F259" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G259" s="140">
-        <v>60</v>
-      </c>
-      <c r="H259" s="140">
+      <c r="G259" s="137">
+        <v>60</v>
+      </c>
+      <c r="H259" s="137">
         <v>4</v>
       </c>
       <c r="I259" s="74" t="s">
@@ -37968,10 +38220,10 @@
       <c r="F260" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G260" s="140">
-        <v>60</v>
-      </c>
-      <c r="H260" s="140">
+      <c r="G260" s="137">
+        <v>60</v>
+      </c>
+      <c r="H260" s="137">
         <v>4</v>
       </c>
       <c r="I260" s="74" t="s">
@@ -38014,10 +38266,10 @@
       <c r="F261" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G261" s="140">
-        <v>60</v>
-      </c>
-      <c r="H261" s="140">
+      <c r="G261" s="137">
+        <v>60</v>
+      </c>
+      <c r="H261" s="137">
         <v>4</v>
       </c>
       <c r="I261" s="74" t="s">
@@ -38058,10 +38310,10 @@
       <c r="F262" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G262" s="140">
-        <v>60</v>
-      </c>
-      <c r="H262" s="140">
+      <c r="G262" s="137">
+        <v>60</v>
+      </c>
+      <c r="H262" s="137">
         <v>4</v>
       </c>
       <c r="I262" s="74" t="s">
@@ -38104,10 +38356,10 @@
       <c r="F263" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="G263" s="140">
-        <v>60</v>
-      </c>
-      <c r="H263" s="140">
+      <c r="G263" s="137">
+        <v>60</v>
+      </c>
+      <c r="H263" s="137">
         <v>4</v>
       </c>
       <c r="I263" s="74" t="s">
@@ -38148,10 +38400,10 @@
       <c r="F264" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="G264" s="140">
-        <v>60</v>
-      </c>
-      <c r="H264" s="140">
+      <c r="G264" s="137">
+        <v>60</v>
+      </c>
+      <c r="H264" s="137">
         <v>4</v>
       </c>
       <c r="I264" s="74" t="s">
@@ -38194,10 +38446,10 @@
       <c r="F265" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G265" s="140">
-        <v>60</v>
-      </c>
-      <c r="H265" s="140">
+      <c r="G265" s="137">
+        <v>60</v>
+      </c>
+      <c r="H265" s="137">
         <v>4</v>
       </c>
       <c r="I265" s="74" t="s">
@@ -38238,10 +38490,10 @@
       <c r="F266" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G266" s="140">
-        <v>60</v>
-      </c>
-      <c r="H266" s="140">
+      <c r="G266" s="137">
+        <v>60</v>
+      </c>
+      <c r="H266" s="137">
         <v>4</v>
       </c>
       <c r="I266" s="74" t="s">
@@ -38284,10 +38536,10 @@
       <c r="F267" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="G267" s="140">
-        <v>60</v>
-      </c>
-      <c r="H267" s="140">
+      <c r="G267" s="137">
+        <v>60</v>
+      </c>
+      <c r="H267" s="137">
         <v>4</v>
       </c>
       <c r="I267" s="74" t="s">
@@ -38328,10 +38580,10 @@
       <c r="F268" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="G268" s="140">
-        <v>60</v>
-      </c>
-      <c r="H268" s="140">
+      <c r="G268" s="137">
+        <v>60</v>
+      </c>
+      <c r="H268" s="137">
         <v>4</v>
       </c>
       <c r="I268" s="74" t="s">
@@ -38374,10 +38626,10 @@
       <c r="F269" s="74" t="s">
         <v>876</v>
       </c>
-      <c r="G269" s="140">
-        <v>60</v>
-      </c>
-      <c r="H269" s="140">
+      <c r="G269" s="137">
+        <v>60</v>
+      </c>
+      <c r="H269" s="137">
         <v>4</v>
       </c>
       <c r="I269" s="74" t="s">
@@ -38418,10 +38670,10 @@
       <c r="F270" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="G270" s="140">
-        <v>60</v>
-      </c>
-      <c r="H270" s="140">
+      <c r="G270" s="137">
+        <v>60</v>
+      </c>
+      <c r="H270" s="137">
         <v>4</v>
       </c>
       <c r="I270" s="74" t="s">
@@ -38464,10 +38716,10 @@
       <c r="F271" s="74" t="s">
         <v>875</v>
       </c>
-      <c r="G271" s="140">
-        <v>60</v>
-      </c>
-      <c r="H271" s="140">
+      <c r="G271" s="137">
+        <v>60</v>
+      </c>
+      <c r="H271" s="137">
         <v>4</v>
       </c>
       <c r="I271" s="74" t="s">
@@ -38510,10 +38762,10 @@
       <c r="F272" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="G272" s="140">
-        <v>60</v>
-      </c>
-      <c r="H272" s="140">
+      <c r="G272" s="137">
+        <v>60</v>
+      </c>
+      <c r="H272" s="137">
         <v>4</v>
       </c>
       <c r="I272" s="74" t="s">
@@ -38556,10 +38808,10 @@
       <c r="F273" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="G273" s="141">
-        <v>60</v>
-      </c>
-      <c r="H273" s="140">
+      <c r="G273" s="138">
+        <v>60</v>
+      </c>
+      <c r="H273" s="137">
         <v>4</v>
       </c>
       <c r="I273" s="107" t="s">
@@ -38602,10 +38854,10 @@
       <c r="F274" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="G274" s="141">
-        <v>60</v>
-      </c>
-      <c r="H274" s="140">
+      <c r="G274" s="138">
+        <v>60</v>
+      </c>
+      <c r="H274" s="137">
         <v>4</v>
       </c>
       <c r="I274" s="107" t="s">
@@ -38648,10 +38900,10 @@
       <c r="F275" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G275" s="141">
-        <v>60</v>
-      </c>
-      <c r="H275" s="140">
+      <c r="G275" s="138">
+        <v>60</v>
+      </c>
+      <c r="H275" s="137">
         <v>4</v>
       </c>
       <c r="I275" s="107" t="s">
@@ -38694,10 +38946,10 @@
       <c r="F276" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="G276" s="141">
-        <v>60</v>
-      </c>
-      <c r="H276" s="140">
+      <c r="G276" s="138">
+        <v>60</v>
+      </c>
+      <c r="H276" s="137">
         <v>4</v>
       </c>
       <c r="I276" s="107" t="s">
@@ -38740,10 +38992,10 @@
       <c r="F277" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="G277" s="141">
-        <v>60</v>
-      </c>
-      <c r="H277" s="140">
+      <c r="G277" s="138">
+        <v>60</v>
+      </c>
+      <c r="H277" s="137">
         <v>4</v>
       </c>
       <c r="I277" s="107" t="s">
@@ -38786,10 +39038,10 @@
       <c r="F278" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="G278" s="141">
-        <v>60</v>
-      </c>
-      <c r="H278" s="140">
+      <c r="G278" s="138">
+        <v>60</v>
+      </c>
+      <c r="H278" s="137">
         <v>4</v>
       </c>
       <c r="I278" s="107" t="s">
@@ -38832,10 +39084,10 @@
       <c r="F279" s="107" t="s">
         <v>602</v>
       </c>
-      <c r="G279" s="141">
-        <v>60</v>
-      </c>
-      <c r="H279" s="140">
+      <c r="G279" s="138">
+        <v>60</v>
+      </c>
+      <c r="H279" s="137">
         <v>4</v>
       </c>
       <c r="I279" s="107" t="s">
@@ -38878,10 +39130,10 @@
       <c r="F280" s="107" t="s">
         <v>604</v>
       </c>
-      <c r="G280" s="141">
-        <v>60</v>
-      </c>
-      <c r="H280" s="140">
+      <c r="G280" s="138">
+        <v>60</v>
+      </c>
+      <c r="H280" s="137">
         <v>4</v>
       </c>
       <c r="I280" s="107" t="s">
@@ -38924,10 +39176,10 @@
       <c r="F281" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="G281" s="141">
-        <v>60</v>
-      </c>
-      <c r="H281" s="140">
+      <c r="G281" s="138">
+        <v>60</v>
+      </c>
+      <c r="H281" s="137">
         <v>4</v>
       </c>
       <c r="I281" s="107" t="s">
@@ -38970,10 +39222,10 @@
       <c r="F282" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="G282" s="141">
-        <v>60</v>
-      </c>
-      <c r="H282" s="140">
+      <c r="G282" s="138">
+        <v>60</v>
+      </c>
+      <c r="H282" s="137">
         <v>4</v>
       </c>
       <c r="I282" s="107" t="s">
@@ -39016,10 +39268,10 @@
       <c r="F283" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="G283" s="141">
-        <v>60</v>
-      </c>
-      <c r="H283" s="140">
+      <c r="G283" s="138">
+        <v>60</v>
+      </c>
+      <c r="H283" s="137">
         <v>4</v>
       </c>
       <c r="I283" s="107" t="s">
@@ -39062,10 +39314,10 @@
       <c r="F284" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="G284" s="141">
-        <v>60</v>
-      </c>
-      <c r="H284" s="140">
+      <c r="G284" s="138">
+        <v>60</v>
+      </c>
+      <c r="H284" s="137">
         <v>4</v>
       </c>
       <c r="I284" s="107" t="s">
@@ -39108,10 +39360,10 @@
       <c r="F285" s="107" t="s">
         <v>609</v>
       </c>
-      <c r="G285" s="141">
-        <v>60</v>
-      </c>
-      <c r="H285" s="140">
+      <c r="G285" s="138">
+        <v>60</v>
+      </c>
+      <c r="H285" s="137">
         <v>4</v>
       </c>
       <c r="I285" s="107" t="s">
@@ -39154,10 +39406,10 @@
       <c r="F286" s="107" t="s">
         <v>610</v>
       </c>
-      <c r="G286" s="141">
-        <v>60</v>
-      </c>
-      <c r="H286" s="140">
+      <c r="G286" s="138">
+        <v>60</v>
+      </c>
+      <c r="H286" s="137">
         <v>4</v>
       </c>
       <c r="I286" s="107" t="s">
@@ -39200,10 +39452,10 @@
       <c r="F287" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="G287" s="141">
-        <v>60</v>
-      </c>
-      <c r="H287" s="140">
+      <c r="G287" s="138">
+        <v>60</v>
+      </c>
+      <c r="H287" s="137">
         <v>4</v>
       </c>
       <c r="I287" s="107" t="s">
@@ -39246,10 +39498,10 @@
       <c r="F288" s="107" t="s">
         <v>612</v>
       </c>
-      <c r="G288" s="141">
-        <v>60</v>
-      </c>
-      <c r="H288" s="140">
+      <c r="G288" s="138">
+        <v>60</v>
+      </c>
+      <c r="H288" s="137">
         <v>4</v>
       </c>
       <c r="I288" s="107" t="s">
@@ -39292,10 +39544,10 @@
       <c r="F289" s="107" t="s">
         <v>614</v>
       </c>
-      <c r="G289" s="141">
-        <v>60</v>
-      </c>
-      <c r="H289" s="140">
+      <c r="G289" s="138">
+        <v>60</v>
+      </c>
+      <c r="H289" s="137">
         <v>4</v>
       </c>
       <c r="I289" s="107" t="s">
@@ -39338,10 +39590,10 @@
       <c r="F290" s="107" t="s">
         <v>495</v>
       </c>
-      <c r="G290" s="141">
-        <v>60</v>
-      </c>
-      <c r="H290" s="140">
+      <c r="G290" s="138">
+        <v>60</v>
+      </c>
+      <c r="H290" s="137">
         <v>4</v>
       </c>
       <c r="I290" s="107" t="s">
@@ -39384,10 +39636,10 @@
       <c r="F291" s="107" t="s">
         <v>616</v>
       </c>
-      <c r="G291" s="141">
-        <v>60</v>
-      </c>
-      <c r="H291" s="140">
+      <c r="G291" s="138">
+        <v>60</v>
+      </c>
+      <c r="H291" s="137">
         <v>4</v>
       </c>
       <c r="I291" s="107" t="s">
@@ -39430,10 +39682,10 @@
       <c r="F292" s="107" t="s">
         <v>617</v>
       </c>
-      <c r="G292" s="141">
-        <v>60</v>
-      </c>
-      <c r="H292" s="140">
+      <c r="G292" s="138">
+        <v>60</v>
+      </c>
+      <c r="H292" s="137">
         <v>4</v>
       </c>
       <c r="I292" s="107" t="s">
@@ -39476,10 +39728,10 @@
       <c r="F293" s="107" t="s">
         <v>618</v>
       </c>
-      <c r="G293" s="141">
-        <v>60</v>
-      </c>
-      <c r="H293" s="140">
+      <c r="G293" s="138">
+        <v>60</v>
+      </c>
+      <c r="H293" s="137">
         <v>4</v>
       </c>
       <c r="I293" s="107" t="s">
@@ -39522,10 +39774,10 @@
       <c r="F294" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="G294" s="141">
-        <v>60</v>
-      </c>
-      <c r="H294" s="140">
+      <c r="G294" s="138">
+        <v>60</v>
+      </c>
+      <c r="H294" s="137">
         <v>4</v>
       </c>
       <c r="I294" s="107" t="s">
@@ -39568,10 +39820,10 @@
       <c r="F295" s="107" t="s">
         <v>620</v>
       </c>
-      <c r="G295" s="141">
+      <c r="G295" s="138">
         <v>30</v>
       </c>
-      <c r="H295" s="140">
+      <c r="H295" s="137">
         <v>2</v>
       </c>
       <c r="I295" s="107" t="s">
@@ -39614,10 +39866,10 @@
       <c r="F296" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="G296" s="141">
-        <v>60</v>
-      </c>
-      <c r="H296" s="140">
+      <c r="G296" s="138">
+        <v>60</v>
+      </c>
+      <c r="H296" s="137">
         <v>4</v>
       </c>
       <c r="I296" s="107" t="s">
@@ -39660,10 +39912,10 @@
       <c r="F297" s="107" t="s">
         <v>622</v>
       </c>
-      <c r="G297" s="141">
-        <v>60</v>
-      </c>
-      <c r="H297" s="140">
+      <c r="G297" s="138">
+        <v>60</v>
+      </c>
+      <c r="H297" s="137">
         <v>4</v>
       </c>
       <c r="I297" s="107" t="s">
@@ -39706,10 +39958,10 @@
       <c r="F298" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="G298" s="141">
+      <c r="G298" s="138">
         <v>30</v>
       </c>
-      <c r="H298" s="140">
+      <c r="H298" s="137">
         <v>2</v>
       </c>
       <c r="I298" s="107" t="s">
@@ -39748,10 +40000,10 @@
       <c r="F299" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="G299" s="141">
+      <c r="G299" s="138">
         <v>30</v>
       </c>
-      <c r="H299" s="140">
+      <c r="H299" s="137">
         <v>2</v>
       </c>
       <c r="I299" s="107" t="s">
@@ -39788,10 +40040,10 @@
       <c r="F300" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G300" s="141">
-        <v>60</v>
-      </c>
-      <c r="H300" s="140">
+      <c r="G300" s="138">
+        <v>60</v>
+      </c>
+      <c r="H300" s="137">
         <v>4</v>
       </c>
       <c r="I300" s="59" t="s">
@@ -39834,10 +40086,10 @@
       <c r="F301" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G301" s="141">
+      <c r="G301" s="138">
         <v>30</v>
       </c>
-      <c r="H301" s="140">
+      <c r="H301" s="137">
         <v>2</v>
       </c>
       <c r="I301" s="59" t="s">
@@ -39872,10 +40124,10 @@
       <c r="F302" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G302" s="141">
+      <c r="G302" s="138">
         <v>30</v>
       </c>
-      <c r="H302" s="140">
+      <c r="H302" s="137">
         <v>2</v>
       </c>
       <c r="I302" s="59" t="s">
@@ -39910,10 +40162,10 @@
       <c r="F303" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G303" s="141">
-        <v>60</v>
-      </c>
-      <c r="H303" s="140">
+      <c r="G303" s="138">
+        <v>60</v>
+      </c>
+      <c r="H303" s="137">
         <v>4</v>
       </c>
       <c r="I303" s="59" t="s">
@@ -39954,10 +40206,10 @@
       <c r="F304" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G304" s="141">
-        <v>60</v>
-      </c>
-      <c r="H304" s="140">
+      <c r="G304" s="138">
+        <v>60</v>
+      </c>
+      <c r="H304" s="137">
         <v>4</v>
       </c>
       <c r="I304" s="59" t="s">
@@ -40000,10 +40252,10 @@
       <c r="F305" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G305" s="141">
-        <v>60</v>
-      </c>
-      <c r="H305" s="140">
+      <c r="G305" s="138">
+        <v>60</v>
+      </c>
+      <c r="H305" s="137">
         <v>4</v>
       </c>
       <c r="I305" s="59" t="s">
@@ -40046,10 +40298,10 @@
       <c r="F306" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="G306" s="141">
-        <v>60</v>
-      </c>
-      <c r="H306" s="140">
+      <c r="G306" s="138">
+        <v>60</v>
+      </c>
+      <c r="H306" s="137">
         <v>4</v>
       </c>
       <c r="I306" s="59" t="s">
@@ -40092,10 +40344,10 @@
       <c r="F307" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="G307" s="141">
-        <v>60</v>
-      </c>
-      <c r="H307" s="140">
+      <c r="G307" s="138">
+        <v>60</v>
+      </c>
+      <c r="H307" s="137">
         <v>4</v>
       </c>
       <c r="I307" s="59" t="s">
@@ -40138,10 +40390,10 @@
       <c r="F308" s="59" t="s">
         <v>628</v>
       </c>
-      <c r="G308" s="141">
+      <c r="G308" s="138">
         <v>30</v>
       </c>
-      <c r="H308" s="140">
+      <c r="H308" s="137">
         <v>2</v>
       </c>
       <c r="I308" s="59" t="s">
@@ -40184,10 +40436,10 @@
       <c r="F309" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="G309" s="141">
-        <v>60</v>
-      </c>
-      <c r="H309" s="140">
+      <c r="G309" s="138">
+        <v>60</v>
+      </c>
+      <c r="H309" s="137">
         <v>4</v>
       </c>
       <c r="I309" s="59" t="s">
@@ -40230,10 +40482,10 @@
       <c r="F310" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G310" s="141">
-        <v>60</v>
-      </c>
-      <c r="H310" s="140">
+      <c r="G310" s="138">
+        <v>60</v>
+      </c>
+      <c r="H310" s="137">
         <v>4</v>
       </c>
       <c r="I310" s="59" t="s">
@@ -40276,10 +40528,10 @@
       <c r="F311" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="G311" s="141">
-        <v>60</v>
-      </c>
-      <c r="H311" s="140">
+      <c r="G311" s="138">
+        <v>60</v>
+      </c>
+      <c r="H311" s="137">
         <v>4</v>
       </c>
       <c r="I311" s="59" t="s">
@@ -40322,10 +40574,10 @@
       <c r="F312" s="59" t="s">
         <v>631</v>
       </c>
-      <c r="G312" s="141">
-        <v>60</v>
-      </c>
-      <c r="H312" s="140">
+      <c r="G312" s="138">
+        <v>60</v>
+      </c>
+      <c r="H312" s="137">
         <v>4</v>
       </c>
       <c r="I312" s="59" t="s">
@@ -40368,10 +40620,10 @@
       <c r="F313" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="G313" s="141">
-        <v>60</v>
-      </c>
-      <c r="H313" s="140">
+      <c r="G313" s="138">
+        <v>60</v>
+      </c>
+      <c r="H313" s="137">
         <v>4</v>
       </c>
       <c r="I313" s="59" t="s">
@@ -40414,10 +40666,10 @@
       <c r="F314" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G314" s="141">
-        <v>60</v>
-      </c>
-      <c r="H314" s="140">
+      <c r="G314" s="138">
+        <v>60</v>
+      </c>
+      <c r="H314" s="137">
         <v>4</v>
       </c>
       <c r="I314" s="59" t="s">
@@ -40460,10 +40712,10 @@
       <c r="F315" s="59" t="s">
         <v>632</v>
       </c>
-      <c r="G315" s="141">
-        <v>60</v>
-      </c>
-      <c r="H315" s="140">
+      <c r="G315" s="138">
+        <v>60</v>
+      </c>
+      <c r="H315" s="137">
         <v>4</v>
       </c>
       <c r="I315" s="59" t="s">
@@ -40506,10 +40758,10 @@
       <c r="F316" s="59" t="s">
         <v>633</v>
       </c>
-      <c r="G316" s="141">
-        <v>60</v>
-      </c>
-      <c r="H316" s="140">
+      <c r="G316" s="138">
+        <v>60</v>
+      </c>
+      <c r="H316" s="137">
         <v>4</v>
       </c>
       <c r="I316" s="59" t="s">
@@ -40552,10 +40804,10 @@
       <c r="F317" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="G317" s="141">
-        <v>60</v>
-      </c>
-      <c r="H317" s="140">
+      <c r="G317" s="138">
+        <v>60</v>
+      </c>
+      <c r="H317" s="137">
         <v>4</v>
       </c>
       <c r="I317" s="59" t="s">
@@ -40598,10 +40850,10 @@
       <c r="F318" s="59" t="s">
         <v>634</v>
       </c>
-      <c r="G318" s="141">
-        <v>60</v>
-      </c>
-      <c r="H318" s="140">
+      <c r="G318" s="138">
+        <v>60</v>
+      </c>
+      <c r="H318" s="137">
         <v>4</v>
       </c>
       <c r="I318" s="59" t="s">
@@ -40644,10 +40896,10 @@
       <c r="F319" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G319" s="141">
-        <v>60</v>
-      </c>
-      <c r="H319" s="140">
+      <c r="G319" s="138">
+        <v>60</v>
+      </c>
+      <c r="H319" s="137">
         <v>4</v>
       </c>
       <c r="I319" s="59" t="s">
@@ -40690,10 +40942,10 @@
       <c r="F320" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="G320" s="141">
-        <v>60</v>
-      </c>
-      <c r="H320" s="140">
+      <c r="G320" s="138">
+        <v>60</v>
+      </c>
+      <c r="H320" s="137">
         <v>4</v>
       </c>
       <c r="I320" s="59" t="s">
@@ -40736,10 +40988,10 @@
       <c r="F321" s="59" t="s">
         <v>637</v>
       </c>
-      <c r="G321" s="141">
-        <v>60</v>
-      </c>
-      <c r="H321" s="140">
+      <c r="G321" s="138">
+        <v>60</v>
+      </c>
+      <c r="H321" s="137">
         <v>4</v>
       </c>
       <c r="I321" s="59" t="s">
@@ -40782,10 +41034,10 @@
       <c r="F322" s="59" t="s">
         <v>639</v>
       </c>
-      <c r="G322" s="141">
-        <v>60</v>
-      </c>
-      <c r="H322" s="140">
+      <c r="G322" s="138">
+        <v>60</v>
+      </c>
+      <c r="H322" s="137">
         <v>4</v>
       </c>
       <c r="I322" s="59" t="s">
@@ -40828,10 +41080,10 @@
       <c r="F323" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G323" s="141">
-        <v>60</v>
-      </c>
-      <c r="H323" s="140">
+      <c r="G323" s="138">
+        <v>60</v>
+      </c>
+      <c r="H323" s="137">
         <v>4</v>
       </c>
       <c r="I323" s="59" t="s">
@@ -40874,10 +41126,10 @@
       <c r="F324" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="G324" s="141">
-        <v>60</v>
-      </c>
-      <c r="H324" s="140">
+      <c r="G324" s="138">
+        <v>60</v>
+      </c>
+      <c r="H324" s="137">
         <v>4</v>
       </c>
       <c r="I324" s="59" t="s">
@@ -40920,10 +41172,10 @@
       <c r="F325" s="59" t="s">
         <v>642</v>
       </c>
-      <c r="G325" s="141">
-        <v>60</v>
-      </c>
-      <c r="H325" s="140">
+      <c r="G325" s="138">
+        <v>60</v>
+      </c>
+      <c r="H325" s="137">
         <v>4</v>
       </c>
       <c r="I325" s="59" t="s">
@@ -40966,10 +41218,10 @@
       <c r="F326" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="G326" s="141">
-        <v>60</v>
-      </c>
-      <c r="H326" s="140">
+      <c r="G326" s="138">
+        <v>60</v>
+      </c>
+      <c r="H326" s="137">
         <v>4</v>
       </c>
       <c r="I326" s="59" t="s">
@@ -41012,10 +41264,10 @@
       <c r="F327" s="59" t="s">
         <v>645</v>
       </c>
-      <c r="G327" s="141">
-        <v>60</v>
-      </c>
-      <c r="H327" s="140">
+      <c r="G327" s="138">
+        <v>60</v>
+      </c>
+      <c r="H327" s="137">
         <v>4</v>
       </c>
       <c r="I327" s="59" t="s">
@@ -41058,10 +41310,10 @@
       <c r="F328" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="G328" s="141">
-        <v>60</v>
-      </c>
-      <c r="H328" s="140">
+      <c r="G328" s="138">
+        <v>60</v>
+      </c>
+      <c r="H328" s="137">
         <v>4</v>
       </c>
       <c r="I328" s="59" t="s">
@@ -41104,10 +41356,10 @@
       <c r="F329" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G329" s="141">
-        <v>60</v>
-      </c>
-      <c r="H329" s="140">
+      <c r="G329" s="138">
+        <v>60</v>
+      </c>
+      <c r="H329" s="137">
         <v>4</v>
       </c>
       <c r="I329" s="59" t="s">
@@ -41150,10 +41402,10 @@
       <c r="F330" s="120" t="s">
         <v>610</v>
       </c>
-      <c r="G330" s="141">
-        <v>60</v>
-      </c>
-      <c r="H330" s="140">
+      <c r="G330" s="138">
+        <v>60</v>
+      </c>
+      <c r="H330" s="137">
         <v>4</v>
       </c>
       <c r="I330" s="120" t="s">
@@ -41196,10 +41448,10 @@
       <c r="F331" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G331" s="141">
-        <v>60</v>
-      </c>
-      <c r="H331" s="140">
+      <c r="G331" s="138">
+        <v>60</v>
+      </c>
+      <c r="H331" s="137">
         <v>4</v>
       </c>
       <c r="I331" s="120" t="s">
@@ -41242,10 +41494,10 @@
       <c r="F332" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G332" s="141">
-        <v>60</v>
-      </c>
-      <c r="H332" s="140">
+      <c r="G332" s="138">
+        <v>60</v>
+      </c>
+      <c r="H332" s="137">
         <v>4</v>
       </c>
       <c r="I332" s="120" t="s">
@@ -41288,10 +41540,10 @@
       <c r="F333" s="120" t="s">
         <v>654</v>
       </c>
-      <c r="G333" s="141">
-        <v>60</v>
-      </c>
-      <c r="H333" s="140">
+      <c r="G333" s="138">
+        <v>60</v>
+      </c>
+      <c r="H333" s="137">
         <v>4</v>
       </c>
       <c r="I333" s="120" t="s">
@@ -41336,10 +41588,10 @@
       <c r="F334" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G334" s="141">
-        <v>60</v>
-      </c>
-      <c r="H334" s="140">
+      <c r="G334" s="138">
+        <v>60</v>
+      </c>
+      <c r="H334" s="137">
         <v>4</v>
       </c>
       <c r="I334" s="59" t="s">
@@ -41382,10 +41634,10 @@
       <c r="F335" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G335" s="141">
+      <c r="G335" s="138">
         <v>30</v>
       </c>
-      <c r="H335" s="140">
+      <c r="H335" s="137">
         <v>2</v>
       </c>
       <c r="I335" s="74" t="s">
@@ -41424,10 +41676,10 @@
       <c r="F336" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G336" s="141">
+      <c r="G336" s="138">
         <v>30</v>
       </c>
-      <c r="H336" s="140">
+      <c r="H336" s="137">
         <v>2</v>
       </c>
       <c r="I336" s="74" t="s">
@@ -41468,10 +41720,10 @@
       <c r="F337" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G337" s="141">
-        <v>60</v>
-      </c>
-      <c r="H337" s="140">
+      <c r="G337" s="138">
+        <v>60</v>
+      </c>
+      <c r="H337" s="137">
         <v>4</v>
       </c>
       <c r="I337" s="74" t="s">
@@ -41516,10 +41768,10 @@
       <c r="F338" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="G338" s="141">
-        <v>60</v>
-      </c>
-      <c r="H338" s="140">
+      <c r="G338" s="138">
+        <v>60</v>
+      </c>
+      <c r="H338" s="137">
         <v>4</v>
       </c>
       <c r="I338" s="74" t="s">
@@ -41564,10 +41816,10 @@
       <c r="F339" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G339" s="141">
-        <v>60</v>
-      </c>
-      <c r="H339" s="140">
+      <c r="G339" s="138">
+        <v>60</v>
+      </c>
+      <c r="H339" s="137">
         <v>4</v>
       </c>
       <c r="I339" s="74" t="s">
@@ -41612,10 +41864,10 @@
       <c r="F340" s="59" t="s">
         <v>659</v>
       </c>
-      <c r="G340" s="141">
+      <c r="G340" s="138">
         <v>30</v>
       </c>
-      <c r="H340" s="140">
+      <c r="H340" s="137">
         <v>2</v>
       </c>
       <c r="I340" s="74" t="s">
@@ -41660,10 +41912,10 @@
       <c r="F341" s="59" t="s">
         <v>660</v>
       </c>
-      <c r="G341" s="141">
+      <c r="G341" s="138">
         <v>15</v>
       </c>
-      <c r="H341" s="140">
+      <c r="H341" s="137">
         <v>1</v>
       </c>
       <c r="I341" s="59" t="s">
@@ -41708,10 +41960,10 @@
       <c r="F342" s="59" t="s">
         <v>618</v>
       </c>
-      <c r="G342" s="141">
-        <v>60</v>
-      </c>
-      <c r="H342" s="140">
+      <c r="G342" s="138">
+        <v>60</v>
+      </c>
+      <c r="H342" s="137">
         <v>4</v>
       </c>
       <c r="I342" s="74" t="s">
@@ -41756,10 +42008,10 @@
       <c r="F343" s="59" t="s">
         <v>663</v>
       </c>
-      <c r="G343" s="141">
-        <v>60</v>
-      </c>
-      <c r="H343" s="140">
+      <c r="G343" s="138">
+        <v>60</v>
+      </c>
+      <c r="H343" s="137">
         <v>4</v>
       </c>
       <c r="I343" s="74" t="s">
@@ -41804,10 +42056,10 @@
       <c r="F344" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="G344" s="141">
-        <v>60</v>
-      </c>
-      <c r="H344" s="140">
+      <c r="G344" s="138">
+        <v>60</v>
+      </c>
+      <c r="H344" s="137">
         <v>4</v>
       </c>
       <c r="I344" s="74" t="s">
@@ -41852,10 +42104,10 @@
       <c r="F345" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G345" s="141">
-        <v>60</v>
-      </c>
-      <c r="H345" s="140">
+      <c r="G345" s="138">
+        <v>60</v>
+      </c>
+      <c r="H345" s="137">
         <v>4</v>
       </c>
       <c r="I345" s="74" t="s">
@@ -41900,10 +42152,10 @@
       <c r="F346" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G346" s="141">
-        <v>60</v>
-      </c>
-      <c r="H346" s="140">
+      <c r="G346" s="138">
+        <v>60</v>
+      </c>
+      <c r="H346" s="137">
         <v>4</v>
       </c>
       <c r="I346" s="74" t="s">
@@ -41948,10 +42200,10 @@
       <c r="F347" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="G347" s="141">
-        <v>60</v>
-      </c>
-      <c r="H347" s="140">
+      <c r="G347" s="138">
+        <v>60</v>
+      </c>
+      <c r="H347" s="137">
         <v>4</v>
       </c>
       <c r="I347" s="74" t="s">
@@ -41996,10 +42248,10 @@
       <c r="F348" s="59" t="s">
         <v>873</v>
       </c>
-      <c r="G348" s="141">
-        <v>60</v>
-      </c>
-      <c r="H348" s="140">
+      <c r="G348" s="138">
+        <v>60</v>
+      </c>
+      <c r="H348" s="137">
         <v>4</v>
       </c>
       <c r="I348" s="74" t="s">
@@ -42044,10 +42296,10 @@
       <c r="F349" s="59" t="s">
         <v>670</v>
       </c>
-      <c r="G349" s="141">
-        <v>60</v>
-      </c>
-      <c r="H349" s="140">
+      <c r="G349" s="138">
+        <v>60</v>
+      </c>
+      <c r="H349" s="137">
         <v>4</v>
       </c>
       <c r="I349" s="74" t="s">
@@ -42092,10 +42344,10 @@
       <c r="F350" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="G350" s="141">
-        <v>60</v>
-      </c>
-      <c r="H350" s="140">
+      <c r="G350" s="138">
+        <v>60</v>
+      </c>
+      <c r="H350" s="137">
         <v>4</v>
       </c>
       <c r="I350" s="74" t="s">
@@ -42140,10 +42392,10 @@
       <c r="F351" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="G351" s="141">
-        <v>60</v>
-      </c>
-      <c r="H351" s="140">
+      <c r="G351" s="138">
+        <v>60</v>
+      </c>
+      <c r="H351" s="137">
         <v>4</v>
       </c>
       <c r="I351" s="74" t="s">
@@ -42188,10 +42440,10 @@
       <c r="F352" s="59" t="s">
         <v>674</v>
       </c>
-      <c r="G352" s="141">
-        <v>60</v>
-      </c>
-      <c r="H352" s="140">
+      <c r="G352" s="138">
+        <v>60</v>
+      </c>
+      <c r="H352" s="137">
         <v>4</v>
       </c>
       <c r="I352" s="74" t="s">
@@ -42236,10 +42488,10 @@
       <c r="F353" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="G353" s="141">
-        <v>60</v>
-      </c>
-      <c r="H353" s="140">
+      <c r="G353" s="138">
+        <v>60</v>
+      </c>
+      <c r="H353" s="137">
         <v>4</v>
       </c>
       <c r="I353" s="74" t="s">
@@ -42284,10 +42536,10 @@
       <c r="F354" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="G354" s="141">
-        <v>60</v>
-      </c>
-      <c r="H354" s="140">
+      <c r="G354" s="138">
+        <v>60</v>
+      </c>
+      <c r="H354" s="137">
         <v>4</v>
       </c>
       <c r="I354" s="74" t="s">
@@ -42332,10 +42584,10 @@
       <c r="F355" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="G355" s="141">
-        <v>60</v>
-      </c>
-      <c r="H355" s="140">
+      <c r="G355" s="138">
+        <v>60</v>
+      </c>
+      <c r="H355" s="137">
         <v>4</v>
       </c>
       <c r="I355" s="74" t="s">
@@ -42378,10 +42630,10 @@
       <c r="F356" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G356" s="140">
-        <v>60</v>
-      </c>
-      <c r="H356" s="140">
+      <c r="G356" s="137">
+        <v>60</v>
+      </c>
+      <c r="H356" s="137">
         <v>4</v>
       </c>
       <c r="I356" s="59" t="s">
@@ -42502,10 +42754,10 @@
       <c r="F359" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G359" s="141">
-        <v>60</v>
-      </c>
-      <c r="H359" s="140">
+      <c r="G359" s="138">
+        <v>60</v>
+      </c>
+      <c r="H359" s="137">
         <v>4</v>
       </c>
       <c r="I359" s="59" t="s">
@@ -42550,10 +42802,10 @@
       <c r="F360" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G360" s="141">
-        <v>60</v>
-      </c>
-      <c r="H360" s="140">
+      <c r="G360" s="138">
+        <v>60</v>
+      </c>
+      <c r="H360" s="137">
         <v>4</v>
       </c>
       <c r="I360" s="59" t="s">
@@ -42772,10 +43024,10 @@
       <c r="F365" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G365" s="141">
-        <v>60</v>
-      </c>
-      <c r="H365" s="140">
+      <c r="G365" s="138">
+        <v>60</v>
+      </c>
+      <c r="H365" s="137">
         <v>4</v>
       </c>
       <c r="I365" s="59" t="s">
@@ -43662,10 +43914,10 @@
       <c r="F386" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G386" s="141">
-        <v>60</v>
-      </c>
-      <c r="H386" s="140">
+      <c r="G386" s="138">
+        <v>60</v>
+      </c>
+      <c r="H386" s="137">
         <v>4</v>
       </c>
       <c r="I386" s="59" t="s">
@@ -43708,10 +43960,10 @@
       <c r="F387" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G387" s="141">
-        <v>60</v>
-      </c>
-      <c r="H387" s="140">
+      <c r="G387" s="138">
+        <v>60</v>
+      </c>
+      <c r="H387" s="137">
         <v>4</v>
       </c>
       <c r="I387" s="59" t="s">
@@ -43756,10 +44008,10 @@
       <c r="F388" s="59" t="s">
         <v>717</v>
       </c>
-      <c r="G388" s="141">
-        <v>60</v>
-      </c>
-      <c r="H388" s="140">
+      <c r="G388" s="138">
+        <v>60</v>
+      </c>
+      <c r="H388" s="137">
         <v>4</v>
       </c>
       <c r="I388" s="59" t="s">
@@ -43804,10 +44056,10 @@
       <c r="F389" s="59" t="s">
         <v>719</v>
       </c>
-      <c r="G389" s="141">
-        <v>60</v>
-      </c>
-      <c r="H389" s="140">
+      <c r="G389" s="138">
+        <v>60</v>
+      </c>
+      <c r="H389" s="137">
         <v>4</v>
       </c>
       <c r="I389" s="59" t="s">
@@ -43852,10 +44104,10 @@
       <c r="F390" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="G390" s="141">
-        <v>60</v>
-      </c>
-      <c r="H390" s="140">
+      <c r="G390" s="138">
+        <v>60</v>
+      </c>
+      <c r="H390" s="137">
         <v>4</v>
       </c>
       <c r="I390" s="59" t="s">
@@ -43900,10 +44152,10 @@
       <c r="F391" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="G391" s="141">
-        <v>60</v>
-      </c>
-      <c r="H391" s="140">
+      <c r="G391" s="138">
+        <v>60</v>
+      </c>
+      <c r="H391" s="137">
         <v>4</v>
       </c>
       <c r="I391" s="59" t="s">
@@ -43948,10 +44200,10 @@
       <c r="F392" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G392" s="141">
-        <v>60</v>
-      </c>
-      <c r="H392" s="140">
+      <c r="G392" s="138">
+        <v>60</v>
+      </c>
+      <c r="H392" s="137">
         <v>4</v>
       </c>
       <c r="I392" s="59" t="s">
@@ -43996,10 +44248,10 @@
       <c r="F393" s="59" t="s">
         <v>610</v>
       </c>
-      <c r="G393" s="141">
-        <v>60</v>
-      </c>
-      <c r="H393" s="140">
+      <c r="G393" s="138">
+        <v>60</v>
+      </c>
+      <c r="H393" s="137">
         <v>4</v>
       </c>
       <c r="I393" s="59" t="s">
@@ -44044,10 +44296,10 @@
       <c r="F394" s="59" t="s">
         <v>726</v>
       </c>
-      <c r="G394" s="141">
-        <v>60</v>
-      </c>
-      <c r="H394" s="140">
+      <c r="G394" s="138">
+        <v>60</v>
+      </c>
+      <c r="H394" s="137">
         <v>4</v>
       </c>
       <c r="I394" s="59" t="s">
@@ -44092,10 +44344,10 @@
       <c r="F395" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G395" s="141">
-        <v>60</v>
-      </c>
-      <c r="H395" s="140">
+      <c r="G395" s="138">
+        <v>60</v>
+      </c>
+      <c r="H395" s="137">
         <v>4</v>
       </c>
       <c r="I395" s="59" t="s">
@@ -44138,10 +44390,10 @@
       <c r="F396" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G396" s="141">
-        <v>60</v>
-      </c>
-      <c r="H396" s="140">
+      <c r="G396" s="138">
+        <v>60</v>
+      </c>
+      <c r="H396" s="137">
         <v>4</v>
       </c>
       <c r="I396" s="59" t="s">
@@ -44186,10 +44438,10 @@
       <c r="F397" s="59" t="s">
         <v>614</v>
       </c>
-      <c r="G397" s="141">
-        <v>60</v>
-      </c>
-      <c r="H397" s="140">
+      <c r="G397" s="138">
+        <v>60</v>
+      </c>
+      <c r="H397" s="137">
         <v>4</v>
       </c>
       <c r="I397" s="59" t="s">
@@ -44234,10 +44486,10 @@
       <c r="F398" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="G398" s="141">
-        <v>60</v>
-      </c>
-      <c r="H398" s="140">
+      <c r="G398" s="138">
+        <v>60</v>
+      </c>
+      <c r="H398" s="137">
         <v>4</v>
       </c>
       <c r="I398" s="59" t="s">
@@ -44282,10 +44534,10 @@
       <c r="F399" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="G399" s="141">
-        <v>60</v>
-      </c>
-      <c r="H399" s="140">
+      <c r="G399" s="138">
+        <v>60</v>
+      </c>
+      <c r="H399" s="137">
         <v>4</v>
       </c>
       <c r="I399" s="59" t="s">
@@ -44330,10 +44582,10 @@
       <c r="F400" s="59" t="s">
         <v>697</v>
       </c>
-      <c r="G400" s="141">
-        <v>60</v>
-      </c>
-      <c r="H400" s="140">
+      <c r="G400" s="138">
+        <v>60</v>
+      </c>
+      <c r="H400" s="137">
         <v>4</v>
       </c>
       <c r="I400" s="59" t="s">
@@ -44378,10 +44630,10 @@
       <c r="F401" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="G401" s="141">
-        <v>60</v>
-      </c>
-      <c r="H401" s="140">
+      <c r="G401" s="138">
+        <v>60</v>
+      </c>
+      <c r="H401" s="137">
         <v>4</v>
       </c>
       <c r="I401" s="59" t="s">
@@ -44426,10 +44678,10 @@
       <c r="F402" s="59" t="s">
         <v>733</v>
       </c>
-      <c r="G402" s="141">
+      <c r="G402" s="138">
         <v>30</v>
       </c>
-      <c r="H402" s="140">
+      <c r="H402" s="137">
         <v>2</v>
       </c>
       <c r="I402" s="59" t="s">
@@ -44474,10 +44726,10 @@
       <c r="F403" s="59" t="s">
         <v>735</v>
       </c>
-      <c r="G403" s="141">
-        <v>60</v>
-      </c>
-      <c r="H403" s="140">
+      <c r="G403" s="138">
+        <v>60</v>
+      </c>
+      <c r="H403" s="137">
         <v>4</v>
       </c>
       <c r="I403" s="59" t="s">
@@ -44520,10 +44772,10 @@
       <c r="F404" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G404" s="141">
+      <c r="G404" s="138">
         <v>30</v>
       </c>
-      <c r="H404" s="140">
+      <c r="H404" s="137">
         <v>2</v>
       </c>
       <c r="I404" s="59" t="s">
@@ -44560,10 +44812,10 @@
       <c r="F405" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G405" s="141">
+      <c r="G405" s="138">
         <v>30</v>
       </c>
-      <c r="H405" s="140">
+      <c r="H405" s="137">
         <v>2</v>
       </c>
       <c r="I405" s="59" t="s">
@@ -44602,10 +44854,10 @@
       <c r="F406" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G406" s="141">
-        <v>60</v>
-      </c>
-      <c r="H406" s="140">
+      <c r="G406" s="138">
+        <v>60</v>
+      </c>
+      <c r="H406" s="137">
         <v>4</v>
       </c>
       <c r="I406" s="59" t="s">
@@ -44648,10 +44900,10 @@
       <c r="F407" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G407" s="140">
-        <v>60</v>
-      </c>
-      <c r="H407" s="140">
+      <c r="G407" s="137">
+        <v>60</v>
+      </c>
+      <c r="H407" s="137">
         <v>4</v>
       </c>
       <c r="I407" s="74" t="s">
@@ -44772,10 +45024,10 @@
       <c r="F410" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G410" s="141">
-        <v>60</v>
-      </c>
-      <c r="H410" s="140">
+      <c r="G410" s="138">
+        <v>60</v>
+      </c>
+      <c r="H410" s="137">
         <v>4</v>
       </c>
       <c r="I410" s="74" t="s">
@@ -45714,10 +45966,10 @@
       <c r="F431" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G431" s="140">
-        <v>60</v>
-      </c>
-      <c r="H431" s="140">
+      <c r="G431" s="137">
+        <v>60</v>
+      </c>
+      <c r="H431" s="137">
         <v>4</v>
       </c>
       <c r="I431" s="59" t="s">
@@ -45900,10 +46152,10 @@
       <c r="F436" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G436" s="140">
-        <v>60</v>
-      </c>
-      <c r="H436" s="140">
+      <c r="G436" s="137">
+        <v>60</v>
+      </c>
+      <c r="H436" s="137">
         <v>4</v>
       </c>
       <c r="I436" s="59" t="s">
@@ -45942,10 +46194,10 @@
       <c r="F437" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G437" s="141">
-        <v>60</v>
-      </c>
-      <c r="H437" s="140">
+      <c r="G437" s="138">
+        <v>60</v>
+      </c>
+      <c r="H437" s="137">
         <v>4</v>
       </c>
       <c r="I437" s="59" t="s">
@@ -46064,10 +46316,10 @@
       <c r="F440" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="G440" s="141">
-        <v>60</v>
-      </c>
-      <c r="H440" s="140">
+      <c r="G440" s="138">
+        <v>60</v>
+      </c>
+      <c r="H440" s="137">
         <v>4</v>
       </c>
       <c r="I440" s="59" t="s">
@@ -46598,10 +46850,10 @@
       <c r="F454" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="G454" s="141">
-        <v>60</v>
-      </c>
-      <c r="H454" s="140">
+      <c r="G454" s="138">
+        <v>60</v>
+      </c>
+      <c r="H454" s="137">
         <v>4</v>
       </c>
       <c r="I454" s="74" t="s">
@@ -47568,10 +47820,10 @@
       <c r="F476" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G476" s="140">
-        <v>60</v>
-      </c>
-      <c r="H476" s="140">
+      <c r="G476" s="137">
+        <v>60</v>
+      </c>
+      <c r="H476" s="137">
         <v>4</v>
       </c>
       <c r="I476" s="74" t="s">
@@ -47616,10 +47868,10 @@
       <c r="F477" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G477" s="140">
-        <v>60</v>
-      </c>
-      <c r="H477" s="140">
+      <c r="G477" s="137">
+        <v>60</v>
+      </c>
+      <c r="H477" s="137">
         <v>4</v>
       </c>
       <c r="I477" s="74" t="s">
@@ -47824,10 +48076,10 @@
       <c r="F482" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="G482" s="140">
-        <v>60</v>
-      </c>
-      <c r="H482" s="140">
+      <c r="G482" s="137">
+        <v>60</v>
+      </c>
+      <c r="H482" s="137">
         <v>4</v>
       </c>
       <c r="I482" s="74" t="s">
@@ -47898,7 +48150,7 @@
       <c r="R483" s="74"/>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A484" s="123">
+      <c r="A484">
         <v>2025</v>
       </c>
       <c r="B484">
@@ -47931,20 +48183,22 @@
         <v>169</v>
       </c>
       <c r="M484" s="74"/>
-      <c r="N484" s="123"/>
+      <c r="N484" s="123" t="s">
+        <v>928</v>
+      </c>
       <c r="O484" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P484" s="75" t="s">
         <v>888</v>
       </c>
-      <c r="Q484" s="139" t="s">
+      <c r="Q484" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R484" s="74"/>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A485" s="123">
+      <c r="A485">
         <v>2025</v>
       </c>
       <c r="B485">
@@ -47977,18 +48231,20 @@
         <v>169</v>
       </c>
       <c r="M485" s="74"/>
-      <c r="N485" s="123"/>
+      <c r="N485" s="123" t="s">
+        <v>929</v>
+      </c>
       <c r="O485" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P485" s="74"/>
-      <c r="Q485" s="139" t="s">
+      <c r="Q485" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R485" s="74"/>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A486" s="123">
+      <c r="A486">
         <v>2025</v>
       </c>
       <c r="B486">
@@ -48024,7 +48280,7 @@
       <c r="R486" s="74"/>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A487" s="123">
+      <c r="A487">
         <v>2025</v>
       </c>
       <c r="B487">
@@ -48057,18 +48313,20 @@
         <v>186</v>
       </c>
       <c r="M487" s="74"/>
-      <c r="N487" s="123"/>
+      <c r="N487" s="123" t="s">
+        <v>930</v>
+      </c>
       <c r="O487" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P487" s="74"/>
-      <c r="Q487" s="139" t="s">
+      <c r="Q487" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R487" s="74"/>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A488" s="123">
+      <c r="A488">
         <v>2025</v>
       </c>
       <c r="B488">
@@ -48101,18 +48359,20 @@
         <v>159</v>
       </c>
       <c r="M488" s="74"/>
-      <c r="N488" s="123"/>
+      <c r="N488" s="123" t="s">
+        <v>931</v>
+      </c>
       <c r="O488" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P488" s="74"/>
-      <c r="Q488" s="139" t="s">
+      <c r="Q488" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R488" s="74"/>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A489" s="123">
+      <c r="A489">
         <v>2025</v>
       </c>
       <c r="B489">
@@ -48145,7 +48405,9 @@
         <v>159</v>
       </c>
       <c r="M489" s="74"/>
-      <c r="N489" s="123"/>
+      <c r="N489" s="123" t="s">
+        <v>932</v>
+      </c>
       <c r="O489" s="74" t="s">
         <v>887</v>
       </c>
@@ -48154,7 +48416,7 @@
       <c r="R489" s="74"/>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A490" s="123">
+      <c r="A490">
         <v>2025</v>
       </c>
       <c r="B490">
@@ -48196,7 +48458,7 @@
       <c r="R490" s="74"/>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A491" s="123">
+      <c r="A491">
         <v>2025</v>
       </c>
       <c r="B491">
@@ -48229,7 +48491,9 @@
         <v>159</v>
       </c>
       <c r="M491" s="74"/>
-      <c r="N491" s="123"/>
+      <c r="N491" s="123" t="s">
+        <v>931</v>
+      </c>
       <c r="O491" s="74" t="s">
         <v>887</v>
       </c>
@@ -48238,7 +48502,7 @@
       <c r="R491" s="74"/>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A492" s="123">
+      <c r="A492">
         <v>2025</v>
       </c>
       <c r="B492">
@@ -48271,18 +48535,20 @@
         <v>159</v>
       </c>
       <c r="M492" s="74"/>
-      <c r="N492" s="123"/>
+      <c r="N492" s="123" t="s">
+        <v>933</v>
+      </c>
       <c r="O492" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P492" s="74"/>
-      <c r="Q492" s="139" t="s">
+      <c r="Q492" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R492" s="74"/>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A493" s="123">
+      <c r="A493">
         <v>2025</v>
       </c>
       <c r="B493">
@@ -48315,7 +48581,9 @@
         <v>137</v>
       </c>
       <c r="M493" s="74"/>
-      <c r="N493" s="123"/>
+      <c r="N493" s="123" t="s">
+        <v>934</v>
+      </c>
       <c r="O493" s="74" t="s">
         <v>887</v>
       </c>
@@ -48324,7 +48592,7 @@
       <c r="R493" s="74"/>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A494" s="123">
+      <c r="A494">
         <v>2025</v>
       </c>
       <c r="B494">
@@ -48357,18 +48625,20 @@
         <v>137</v>
       </c>
       <c r="M494" s="74"/>
-      <c r="N494" s="123"/>
+      <c r="N494" s="123" t="s">
+        <v>935</v>
+      </c>
       <c r="O494" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P494" s="74"/>
-      <c r="Q494" s="139" t="s">
+      <c r="Q494" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R494" s="74"/>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A495" s="123">
+      <c r="A495">
         <v>2025</v>
       </c>
       <c r="B495">
@@ -48406,13 +48676,13 @@
         <v>887</v>
       </c>
       <c r="P495" s="74"/>
-      <c r="Q495" s="139" t="s">
+      <c r="Q495" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R495" s="74"/>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A496" s="123">
+      <c r="A496">
         <v>2025</v>
       </c>
       <c r="B496">
@@ -48445,7 +48715,9 @@
         <v>137</v>
       </c>
       <c r="M496" s="74"/>
-      <c r="N496" s="123"/>
+      <c r="N496" s="123" t="s">
+        <v>936</v>
+      </c>
       <c r="O496" s="74" t="s">
         <v>887</v>
       </c>
@@ -48454,7 +48726,7 @@
       <c r="R496" s="74"/>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A497" s="123">
+      <c r="A497">
         <v>2025</v>
       </c>
       <c r="B497">
@@ -48487,18 +48759,20 @@
         <v>607</v>
       </c>
       <c r="M497" s="74"/>
-      <c r="N497" s="123"/>
+      <c r="N497" s="123" t="s">
+        <v>933</v>
+      </c>
       <c r="O497" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P497" s="74"/>
-      <c r="Q497" s="139" t="s">
+      <c r="Q497" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R497" s="74"/>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A498" s="123">
+      <c r="A498">
         <v>2025</v>
       </c>
       <c r="B498">
@@ -48531,7 +48805,9 @@
         <v>167</v>
       </c>
       <c r="M498" s="74"/>
-      <c r="N498" s="123"/>
+      <c r="N498" s="123" t="s">
+        <v>929</v>
+      </c>
       <c r="O498" s="74" t="s">
         <v>887</v>
       </c>
@@ -48540,7 +48816,7 @@
       <c r="R498" s="74"/>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A499" s="123">
+      <c r="A499">
         <v>2025</v>
       </c>
       <c r="B499">
@@ -48573,18 +48849,20 @@
         <v>121</v>
       </c>
       <c r="M499" s="74"/>
-      <c r="N499" s="123"/>
+      <c r="N499" s="123" t="s">
+        <v>937</v>
+      </c>
       <c r="O499" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P499" s="74"/>
-      <c r="Q499" s="139" t="s">
+      <c r="Q499" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R499" s="74"/>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A500" s="123">
+      <c r="A500">
         <v>2025</v>
       </c>
       <c r="B500">
@@ -48617,18 +48895,20 @@
         <v>121</v>
       </c>
       <c r="M500" s="74"/>
-      <c r="N500" s="123"/>
+      <c r="N500" s="123" t="s">
+        <v>938</v>
+      </c>
       <c r="O500" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P500" s="74"/>
-      <c r="Q500" s="139" t="s">
+      <c r="Q500" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R500" s="74"/>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A501" s="123">
+      <c r="A501">
         <v>2025</v>
       </c>
       <c r="B501">
@@ -48661,18 +48941,20 @@
         <v>186</v>
       </c>
       <c r="M501" s="74"/>
-      <c r="N501" s="123"/>
+      <c r="N501" s="123" t="s">
+        <v>939</v>
+      </c>
       <c r="O501" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P501" s="74"/>
-      <c r="Q501" s="139" t="s">
+      <c r="Q501" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R501" s="74"/>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A502" s="123">
+      <c r="A502">
         <v>2025</v>
       </c>
       <c r="B502">
@@ -48703,7 +48985,9 @@
         <v>899</v>
       </c>
       <c r="M502" s="74"/>
-      <c r="N502" s="123"/>
+      <c r="N502" s="123" t="s">
+        <v>940</v>
+      </c>
       <c r="O502" s="74" t="s">
         <v>887</v>
       </c>
@@ -48712,7 +48996,7 @@
       <c r="R502" s="74"/>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A503" s="123">
+      <c r="A503">
         <v>2025</v>
       </c>
       <c r="B503">
@@ -48743,7 +49027,9 @@
         <v>901</v>
       </c>
       <c r="M503" s="74"/>
-      <c r="N503" s="123"/>
+      <c r="N503" s="123" t="s">
+        <v>940</v>
+      </c>
       <c r="O503" s="74" t="s">
         <v>887</v>
       </c>
@@ -48752,7 +49038,7 @@
       <c r="R503" s="74"/>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A504" s="123">
+      <c r="A504">
         <v>2025</v>
       </c>
       <c r="B504">
@@ -48785,18 +49071,20 @@
         <v>130</v>
       </c>
       <c r="M504" s="74"/>
-      <c r="N504" s="123"/>
+      <c r="N504" s="123" t="s">
+        <v>934</v>
+      </c>
       <c r="O504" s="74" t="s">
         <v>887</v>
       </c>
       <c r="P504" s="74"/>
-      <c r="Q504" s="139" t="s">
+      <c r="Q504" s="136" t="s">
         <v>209</v>
       </c>
       <c r="R504" s="74"/>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A505" s="123">
+      <c r="A505">
         <v>2025</v>
       </c>
       <c r="B505">
@@ -48834,7 +49122,7 @@
       <c r="R505" s="74"/>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A506" s="123">
+      <c r="A506">
         <v>2025</v>
       </c>
       <c r="B506">
@@ -48872,7 +49160,7 @@
       <c r="R506" s="74"/>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A507" s="123">
+      <c r="A507">
         <v>2025</v>
       </c>
       <c r="B507">
@@ -48905,7 +49193,9 @@
         <v>125</v>
       </c>
       <c r="M507" s="74"/>
-      <c r="N507" s="123"/>
+      <c r="N507" s="123" t="s">
+        <v>934</v>
+      </c>
       <c r="O507" s="74" t="s">
         <v>887</v>
       </c>
@@ -48915,7 +49205,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A507">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -48926,7 +49216,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A483">
+  <conditionalFormatting sqref="A31:A507">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B507">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -48938,20 +49240,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B507">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C507">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49082,18 +49372,18 @@
     <hyperlink ref="Q437" r:id="rId117" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2024/02/2024-1-RoboticaMovel.pdf" xr:uid="{90855459-9E67-4D25-857B-5569B13D7D60}"/>
     <hyperlink ref="Q439" r:id="rId118" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2024/02/2024-1-Static_Program_Analysis.pdf" xr:uid="{55321AC1-E35B-4E89-AF2C-03ABBFA1AB2B}"/>
     <hyperlink ref="Q445" r:id="rId119" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2024/02/2024-1-Confiabilidade_em_Sistemas_de_Redes_Distribuídos-ementa.pdf" xr:uid="{1CD796BF-D734-4008-86C0-403A8B0FAFED}"/>
-    <hyperlink ref="Q484" r:id="rId120" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-10-Programacao-Linear.pdf" xr:uid="{2F124898-E370-4297-B3D2-2B29CD57F57C}"/>
-    <hyperlink ref="Q485" r:id="rId121" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Teoria-dos-Jogos-em-Computacao.pdf" xr:uid="{EAA00061-3038-4700-A749-DCC060250A1A}"/>
-    <hyperlink ref="Q487" r:id="rId122" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Computacao-Quantica.pdf" xr:uid="{CB8156AC-555E-429E-8BDA-C443A21F2A81}"/>
-    <hyperlink ref="Q488" r:id="rId123" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/03/2025-1-Confiabilidade-em-Sistemas-de-Redes-Distribuidos.pdf" xr:uid="{6A42ED51-B629-4C7A-94AA-0F30D3B572D9}"/>
-    <hyperlink ref="Q492" r:id="rId124" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Programacao-Competitiva.pdf" xr:uid="{2798B8BD-21C6-4CDA-BF59-FB1542336BEA}"/>
-    <hyperlink ref="Q494" r:id="rId125" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Redes-Sem-Fio.pdf" xr:uid="{96CAC388-F7D8-4310-BE8C-442F8AD57077}"/>
-    <hyperlink ref="Q495" r:id="rId126" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Verificacao-Automatica-para-Sistemas-Ciberfisicos.pdf" xr:uid="{0059A23F-8D13-4705-9C22-65134AB49F2F}"/>
-    <hyperlink ref="Q497" r:id="rId127" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Protecao-da-privacidade-em-aprendizado-de-maquina.pdf" xr:uid="{32BEC8C9-690D-472D-A878-E880504E4C2D}"/>
-    <hyperlink ref="Q499" r:id="rId128" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-Descritivo.pdf" xr:uid="{31FC3337-8DB9-4F95-B142-D82DF98B6F65}"/>
-    <hyperlink ref="Q500" r:id="rId129" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-por-Reforco.pdf" xr:uid="{7FF80262-B355-491E-A52F-79703469A72C}"/>
-    <hyperlink ref="Q501" r:id="rId130" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Fundamentos-Estatisticos-de-Ciencia-dos-Dados-B.pdf" xr:uid="{79A73A5B-F79D-4B17-BBF6-244E2629096E}"/>
-    <hyperlink ref="Q504" r:id="rId131" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Projeto-e-Analise-de-Algoritmos.pdf" xr:uid="{7A89F46C-A913-4C69-94BE-E86595C41B46}"/>
+    <hyperlink ref="Q484" r:id="rId120" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-10-Programacao-Linear.pdf" xr:uid="{8EDBEF09-02DF-4FAB-B99D-92FDE85D61D3}"/>
+    <hyperlink ref="Q485" r:id="rId121" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Teoria-dos-Jogos-em-Computacao.pdf" xr:uid="{66050BB7-1CE9-4F14-8231-F953DE3FFFFD}"/>
+    <hyperlink ref="Q487" r:id="rId122" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Computacao-Quantica.pdf" xr:uid="{6E536B2D-4E36-4DE1-9EC2-7EAFC6BC1621}"/>
+    <hyperlink ref="Q488" r:id="rId123" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/03/2025-1-Confiabilidade-em-Sistemas-de-Redes-Distribuidos.pdf" xr:uid="{0DEA24A6-63B7-49D1-9081-C09B5F7ACA80}"/>
+    <hyperlink ref="Q492" r:id="rId124" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Programacao-Competitiva.pdf" xr:uid="{BA6D23AD-CF61-44F5-9138-DF0B44F1A24A}"/>
+    <hyperlink ref="Q494" r:id="rId125" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Redes-Sem-Fio.pdf" xr:uid="{F27AC6FD-2DDA-445C-9E6B-FD6DD142758F}"/>
+    <hyperlink ref="Q495" r:id="rId126" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Verificacao-Automatica-para-Sistemas-Ciberfisicos.pdf" xr:uid="{E4425BCE-2D62-42E7-B622-079B09128679}"/>
+    <hyperlink ref="Q497" r:id="rId127" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Protecao-da-privacidade-em-aprendizado-de-maquina.pdf" xr:uid="{5774F3E2-B92D-4301-907D-57791863E068}"/>
+    <hyperlink ref="Q499" r:id="rId128" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-Descritivo.pdf" xr:uid="{63E6DB73-4BE1-4684-8B53-3BFFCCD874FB}"/>
+    <hyperlink ref="Q500" r:id="rId129" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Aprendizado-por-Reforco.pdf" xr:uid="{103A72AD-9E84-457C-8A06-108EB2B38E68}"/>
+    <hyperlink ref="Q501" r:id="rId130" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Fundamentos-Estatisticos-de-Ciencia-dos-Dados-B.pdf" xr:uid="{F55DC11D-FEDF-4719-8EA1-C5D2C54ACA5A}"/>
+    <hyperlink ref="Q504" r:id="rId131" display="https://ppgcc.dcc.ufmg.br/wp-content/uploads/2025/02/2025-1-Projeto-e-Analise-de-Algoritmos.pdf" xr:uid="{6B3BA3A7-0FB8-413D-BB18-6CC4D1E2DDAE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId132"/>

--- a/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB084E9A-131F-4079-B532-475B52BBCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE8D5D4-A0EB-43A4-8463-740D9B3AA8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" r:id="rId1"/>
@@ -11062,7 +11062,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -21189,8 +21189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFD6A5D-4252-4C92-9D84-040616A2AE3A}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21795,7 +21795,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="126">
-        <v>45727</v>
+        <v>45729</v>
       </c>
       <c r="D14" s="122">
         <v>18</v>

--- a/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas- UFMG PPGCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE8D5D4-A0EB-43A4-8463-740D9B3AA8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C056E1D-A0CF-4AF5-8815-0D6DAD10680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11066,7 +11066,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="B2:G15"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -21190,7 +21190,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22390,7 +22390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65CB4FB-28A8-4162-B86C-99FCA34F046B}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
